--- a/Food_SR_Organization.xlsx
+++ b/Food_SR_Organization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="0" windowWidth="28720" windowHeight="17960" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="40" yWindow="4440" windowWidth="28660" windowHeight="14760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Food Need" sheetId="3" r:id="rId1"/>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="292">
   <si>
     <t>ALL LOCAL</t>
   </si>
@@ -982,6 +982,78 @@
   </si>
   <si>
     <t>food need per person (tonnes)</t>
+  </si>
+  <si>
+    <t>head/hec</t>
+  </si>
+  <si>
+    <t>head/commodity</t>
+  </si>
+  <si>
+    <t># head in SWBC</t>
+  </si>
+  <si>
+    <t>tonnes of commodity in SWBC</t>
+  </si>
+  <si>
+    <t>SWBC Livestock Yield</t>
+  </si>
+  <si>
+    <t>SWBC Food Need</t>
+  </si>
+  <si>
+    <t>(tonnes)</t>
+  </si>
+  <si>
+    <t>SWBC Production</t>
+  </si>
+  <si>
+    <t>Diet &amp; Seasonality Constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (tonnes)</t>
+  </si>
+  <si>
+    <t>crops</t>
+  </si>
+  <si>
+    <t>livestock</t>
+  </si>
+  <si>
+    <t>Match Crops to Commodities</t>
+  </si>
+  <si>
+    <t>Need</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>SR %</t>
+  </si>
+  <si>
+    <t>cutoff = 90</t>
+  </si>
+  <si>
+    <t>Cherries</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Shallots and onions</t>
+  </si>
+  <si>
+    <t>Peaches</t>
+  </si>
+  <si>
+    <t>Green peas = Peas</t>
+  </si>
+  <si>
+    <t>Plums</t>
+  </si>
+  <si>
+    <t>Peas</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1093,6 +1165,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,7 +1367,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1249,8 +1387,168 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1273,20 +1571,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1308,8 +1597,46 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="179">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1319,6 +1646,86 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1328,6 +1735,86 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1659,13 +2146,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:XFD115"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="29" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
@@ -1674,40 +2161,40 @@
     <col min="10" max="10" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="32" customFormat="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:10" s="29" customFormat="1">
+      <c r="A1" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="29" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="29" t="s">
         <v>112</v>
       </c>
       <c r="B2" t="s">
@@ -1739,7 +2226,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="29" t="s">
         <v>115</v>
       </c>
       <c r="B3" t="s">
@@ -1771,7 +2258,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="29" t="s">
         <v>117</v>
       </c>
       <c r="B4" t="s">
@@ -1803,7 +2290,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
       <c r="B5" t="s">
@@ -1835,7 +2322,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="29" t="s">
         <v>120</v>
       </c>
       <c r="B6" t="s">
@@ -1867,7 +2354,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B7" t="s">
@@ -1899,7 +2386,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="29" t="s">
         <v>124</v>
       </c>
       <c r="B8" t="s">
@@ -1931,7 +2418,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
       <c r="B9" t="s">
@@ -1963,7 +2450,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="29" t="s">
         <v>127</v>
       </c>
       <c r="B10" t="s">
@@ -1995,7 +2482,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="29" t="s">
         <v>129</v>
       </c>
       <c r="B11" t="s">
@@ -2027,7 +2514,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="29" t="s">
         <v>131</v>
       </c>
       <c r="B12" t="s">
@@ -2059,7 +2546,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="29" t="s">
         <v>132</v>
       </c>
       <c r="B13" t="s">
@@ -2091,7 +2578,7 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B14" t="s">
@@ -2123,7 +2610,7 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="29" t="s">
         <v>137</v>
       </c>
       <c r="B15" t="s">
@@ -2155,7 +2642,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="29" t="s">
         <v>139</v>
       </c>
       <c r="B16" t="s">
@@ -2187,7 +2674,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="29" t="s">
         <v>140</v>
       </c>
       <c r="B17" t="s">
@@ -2219,7 +2706,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="29" t="s">
         <v>141</v>
       </c>
       <c r="B18" t="s">
@@ -2251,7 +2738,7 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="29" t="s">
         <v>142</v>
       </c>
       <c r="B19" t="s">
@@ -2283,7 +2770,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="29" t="s">
         <v>144</v>
       </c>
       <c r="B20" t="s">
@@ -2315,7 +2802,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="29" t="s">
         <v>145</v>
       </c>
       <c r="B21" t="s">
@@ -2347,7 +2834,7 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="29" t="s">
         <v>146</v>
       </c>
       <c r="B22" t="s">
@@ -2379,7 +2866,7 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="29" t="s">
         <v>147</v>
       </c>
       <c r="B23" t="s">
@@ -2411,7 +2898,7 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="29" t="s">
         <v>148</v>
       </c>
       <c r="B24" t="s">
@@ -2443,7 +2930,7 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="29" t="s">
         <v>149</v>
       </c>
       <c r="B25" t="s">
@@ -2475,7 +2962,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="29" t="s">
         <v>150</v>
       </c>
       <c r="B26" t="s">
@@ -2507,7 +2994,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="29" t="s">
         <v>152</v>
       </c>
       <c r="B27" t="s">
@@ -2539,7 +3026,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="29" t="s">
         <v>154</v>
       </c>
       <c r="B28" t="s">
@@ -2571,7 +3058,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="29" t="s">
         <v>155</v>
       </c>
       <c r="B29" t="s">
@@ -2603,7 +3090,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="29" t="s">
         <v>158</v>
       </c>
       <c r="B30" t="s">
@@ -2635,7 +3122,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B31" t="s">
@@ -2667,7 +3154,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="29" t="s">
         <v>162</v>
       </c>
       <c r="B32" t="s">
@@ -2699,7 +3186,7 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="29" t="s">
         <v>164</v>
       </c>
       <c r="B33" t="s">
@@ -2731,7 +3218,7 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="29" t="s">
         <v>165</v>
       </c>
       <c r="B34" t="s">
@@ -2763,7 +3250,7 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="29" t="s">
         <v>167</v>
       </c>
       <c r="B35" t="s">
@@ -2795,7 +3282,7 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="29" t="s">
         <v>169</v>
       </c>
       <c r="B36" t="s">
@@ -2827,7 +3314,7 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="29" t="s">
         <v>171</v>
       </c>
       <c r="B37" t="s">
@@ -2859,7 +3346,7 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="29" t="s">
         <v>173</v>
       </c>
       <c r="B38" t="s">
@@ -2891,7 +3378,7 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="29" t="s">
         <v>174</v>
       </c>
       <c r="B39" t="s">
@@ -2923,7 +3410,7 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="29" t="s">
         <v>176</v>
       </c>
       <c r="B40" t="s">
@@ -2955,7 +3442,7 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="29" t="s">
         <v>177</v>
       </c>
       <c r="B41" t="s">
@@ -2987,7 +3474,7 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="29" t="s">
         <v>178</v>
       </c>
       <c r="B42" t="s">
@@ -3019,7 +3506,7 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="29" t="s">
         <v>179</v>
       </c>
       <c r="B43" t="s">
@@ -3048,7 +3535,7 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="29" t="s">
         <v>181</v>
       </c>
       <c r="B44" t="s">
@@ -3080,7 +3567,7 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="29" t="s">
         <v>183</v>
       </c>
       <c r="B45" t="s">
@@ -3112,7 +3599,7 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="29" t="s">
         <v>184</v>
       </c>
       <c r="B46" t="s">
@@ -3144,7 +3631,7 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="29" t="s">
         <v>185</v>
       </c>
       <c r="B47" t="s">
@@ -3176,7 +3663,7 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="29" t="s">
         <v>186</v>
       </c>
       <c r="B48" t="s">
@@ -3208,7 +3695,7 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="29" t="s">
         <v>187</v>
       </c>
       <c r="B49" t="s">
@@ -3240,7 +3727,7 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="29" t="s">
         <v>188</v>
       </c>
       <c r="B50" t="s">
@@ -3272,7 +3759,7 @@
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="29" t="s">
         <v>190</v>
       </c>
       <c r="B51" t="s">
@@ -3304,7 +3791,7 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="29" t="s">
         <v>192</v>
       </c>
       <c r="B52" t="s">
@@ -3327,7 +3814,7 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="29" t="s">
         <v>193</v>
       </c>
       <c r="B53" t="s">
@@ -3350,7 +3837,7 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="29" t="s">
         <v>194</v>
       </c>
       <c r="B54" t="s">
@@ -3382,7 +3869,7 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="29" t="s">
         <v>195</v>
       </c>
       <c r="B55" t="s">
@@ -3414,7 +3901,7 @@
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="29" t="s">
         <v>196</v>
       </c>
       <c r="B56" t="s">
@@ -3446,7 +3933,7 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="29" t="s">
         <v>197</v>
       </c>
       <c r="B57" t="s">
@@ -3478,7 +3965,7 @@
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="29" t="s">
         <v>198</v>
       </c>
       <c r="B58" t="s">
@@ -3510,7 +3997,7 @@
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="29" t="s">
         <v>200</v>
       </c>
       <c r="B59" t="s">
@@ -3542,7 +4029,7 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="29" t="s">
         <v>201</v>
       </c>
       <c r="B60" t="s">
@@ -3574,7 +4061,7 @@
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="29" t="s">
         <v>202</v>
       </c>
       <c r="B61" t="s">
@@ -3606,7 +4093,7 @@
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="29" t="s">
         <v>204</v>
       </c>
       <c r="B62" t="s">
@@ -3638,7 +4125,7 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="29" t="s">
         <v>205</v>
       </c>
       <c r="B63" t="s">
@@ -3670,7 +4157,7 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="29" t="s">
         <v>206</v>
       </c>
       <c r="B64" t="s">
@@ -3702,7 +4189,7 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="29" t="s">
         <v>208</v>
       </c>
       <c r="B65" t="s">
@@ -3734,7 +4221,7 @@
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="29" t="s">
         <v>209</v>
       </c>
       <c r="B66" t="s">
@@ -3766,7 +4253,7 @@
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="29" t="s">
         <v>210</v>
       </c>
       <c r="B67" t="s">
@@ -3798,7 +4285,7 @@
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="29" t="s">
         <v>211</v>
       </c>
       <c r="B68" t="s">
@@ -3830,7 +4317,7 @@
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="29" t="s">
         <v>212</v>
       </c>
       <c r="B69" t="s">
@@ -3862,7 +4349,7 @@
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="29" t="s">
         <v>213</v>
       </c>
       <c r="B70" t="s">
@@ -3894,7 +4381,7 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="29" t="s">
         <v>214</v>
       </c>
       <c r="B71" t="s">
@@ -3926,7 +4413,7 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="29" t="s">
         <v>215</v>
       </c>
       <c r="B72" t="s">
@@ -3958,7 +4445,7 @@
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="29" t="s">
         <v>216</v>
       </c>
       <c r="B73" t="s">
@@ -3990,7 +4477,7 @@
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="29" t="s">
         <v>217</v>
       </c>
       <c r="B74" t="s">
@@ -4022,7 +4509,7 @@
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="29" t="s">
         <v>218</v>
       </c>
       <c r="B75" t="s">
@@ -4054,7 +4541,7 @@
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="29" t="s">
         <v>219</v>
       </c>
       <c r="B76" t="s">
@@ -4086,7 +4573,7 @@
       </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="29" t="s">
         <v>220</v>
       </c>
       <c r="B77" t="s">
@@ -4118,7 +4605,7 @@
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="32" t="s">
+      <c r="A78" s="29" t="s">
         <v>221</v>
       </c>
       <c r="B78" t="s">
@@ -4150,7 +4637,7 @@
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="29" t="s">
         <v>223</v>
       </c>
       <c r="B79" t="s">
@@ -4182,7 +4669,7 @@
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="32" t="s">
+      <c r="A80" s="29" t="s">
         <v>224</v>
       </c>
       <c r="B80" t="s">
@@ -4214,7 +4701,7 @@
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="32" t="s">
+      <c r="A81" s="29" t="s">
         <v>225</v>
       </c>
       <c r="B81" t="s">
@@ -4246,7 +4733,7 @@
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="32" t="s">
+      <c r="A82" s="29" t="s">
         <v>226</v>
       </c>
       <c r="B82" t="s">
@@ -4278,7 +4765,7 @@
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="32" t="s">
+      <c r="A83" s="29" t="s">
         <v>228</v>
       </c>
       <c r="B83" t="s">
@@ -4310,7 +4797,7 @@
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="32" t="s">
+      <c r="A84" s="29" t="s">
         <v>229</v>
       </c>
       <c r="B84" t="s">
@@ -4342,7 +4829,7 @@
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="29" t="s">
         <v>231</v>
       </c>
       <c r="B85" t="s">
@@ -4374,7 +4861,7 @@
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="32" t="s">
+      <c r="A86" s="29" t="s">
         <v>232</v>
       </c>
       <c r="B86" t="s">
@@ -4406,7 +4893,7 @@
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="32" t="s">
+      <c r="A87" s="29" t="s">
         <v>233</v>
       </c>
       <c r="B87" t="s">
@@ -4438,7 +4925,7 @@
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="32" t="s">
+      <c r="A88" s="29" t="s">
         <v>234</v>
       </c>
       <c r="B88" t="s">
@@ -4470,7 +4957,7 @@
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="32" t="s">
+      <c r="A89" s="29" t="s">
         <v>236</v>
       </c>
       <c r="B89" t="s">
@@ -4502,7 +4989,7 @@
       </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="32" t="s">
+      <c r="A90" s="29" t="s">
         <v>237</v>
       </c>
       <c r="B90" t="s">
@@ -4534,7 +5021,7 @@
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="32" t="s">
+      <c r="A91" s="29" t="s">
         <v>238</v>
       </c>
       <c r="B91" t="s">
@@ -4557,7 +5044,7 @@
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="32" t="s">
+      <c r="A92" s="29" t="s">
         <v>239</v>
       </c>
       <c r="B92" t="s">
@@ -4589,7 +5076,7 @@
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="32" t="s">
+      <c r="A93" s="29" t="s">
         <v>240</v>
       </c>
       <c r="B93" t="s">
@@ -4621,7 +5108,7 @@
       </c>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="32" t="s">
+      <c r="A94" s="29" t="s">
         <v>241</v>
       </c>
       <c r="B94" t="s">
@@ -4653,7 +5140,7 @@
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="32" t="s">
+      <c r="A95" s="29" t="s">
         <v>242</v>
       </c>
       <c r="B95" t="s">
@@ -4685,7 +5172,7 @@
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="32" t="s">
+      <c r="A96" s="29" t="s">
         <v>243</v>
       </c>
       <c r="B96" t="s">
@@ -4717,7 +5204,7 @@
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="32" t="s">
+      <c r="A97" s="29" t="s">
         <v>243</v>
       </c>
       <c r="B97" t="s">
@@ -4731,7 +5218,7 @@
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="32" t="s">
+      <c r="A98" s="29" t="s">
         <v>244</v>
       </c>
       <c r="B98" t="s">
@@ -4760,7 +5247,7 @@
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="32" t="s">
+      <c r="A99" s="29" t="s">
         <v>245</v>
       </c>
       <c r="B99" t="s">
@@ -4792,7 +5279,7 @@
       </c>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="32" t="s">
+      <c r="A100" s="29" t="s">
         <v>246</v>
       </c>
       <c r="B100" t="s">
@@ -4824,7 +5311,7 @@
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="32" t="s">
+      <c r="A101" s="29" t="s">
         <v>247</v>
       </c>
       <c r="B101" t="s">
@@ -4856,7 +5343,7 @@
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="32" t="s">
+      <c r="A102" s="29" t="s">
         <v>248</v>
       </c>
       <c r="B102" t="s">
@@ -4888,7 +5375,7 @@
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="32" t="s">
+      <c r="A103" s="29" t="s">
         <v>249</v>
       </c>
       <c r="B103" t="s">
@@ -4920,7 +5407,7 @@
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="32" t="s">
+      <c r="A104" s="29" t="s">
         <v>250</v>
       </c>
       <c r="B104" t="s">
@@ -4952,7 +5439,7 @@
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="29" t="s">
         <v>251</v>
       </c>
       <c r="B105" t="s">
@@ -4984,7 +5471,7 @@
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="32" t="s">
+      <c r="A106" s="29" t="s">
         <v>252</v>
       </c>
       <c r="B106" t="s">
@@ -5016,7 +5503,7 @@
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="32" t="s">
+      <c r="A107" s="29" t="s">
         <v>253</v>
       </c>
       <c r="B107" t="s">
@@ -5048,7 +5535,7 @@
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="32" t="s">
+      <c r="A108" s="29" t="s">
         <v>254</v>
       </c>
       <c r="B108" t="s">
@@ -5080,7 +5567,7 @@
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="32" t="s">
+      <c r="A109" s="29" t="s">
         <v>255</v>
       </c>
       <c r="B109" t="s">
@@ -5112,7 +5599,7 @@
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="32" t="s">
+      <c r="A110" s="29" t="s">
         <v>256</v>
       </c>
       <c r="B110" t="s">
@@ -5144,7 +5631,7 @@
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="32" t="s">
+      <c r="A111" s="29" t="s">
         <v>257</v>
       </c>
       <c r="B111" t="s">
@@ -5176,7 +5663,7 @@
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="32" t="s">
+      <c r="A112" s="29" t="s">
         <v>258</v>
       </c>
       <c r="B112" t="s">
@@ -5199,7 +5686,7 @@
       </c>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="32" t="s">
+      <c r="A113" s="29" t="s">
         <v>259</v>
       </c>
       <c r="B113" t="s">
@@ -5231,7 +5718,7 @@
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="32" t="s">
+      <c r="A114" s="29" t="s">
         <v>260</v>
       </c>
       <c r="B114" t="s">
@@ -5263,7 +5750,7 @@
       </c>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="32" t="s">
+      <c r="A115" s="29" t="s">
         <v>261</v>
       </c>
       <c r="B115" t="s">
@@ -5304,42 +5791,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="32"/>
+    <col min="1" max="1" width="10.83203125" style="29"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="8" max="8" width="2.83203125" customWidth="1"/>
     <col min="10" max="10" width="3.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="29"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" customWidth="1"/>
+    <col min="16" max="16" width="35.33203125" customWidth="1"/>
+    <col min="17" max="17" width="45.83203125" style="29" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="29" customWidth="1"/>
+    <col min="19" max="19" width="5.83203125" style="29" customWidth="1"/>
+    <col min="20" max="20" width="18.33203125" style="29" customWidth="1"/>
+    <col min="21" max="21" width="5.83203125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="32" customFormat="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:22" s="29" customFormat="1">
+      <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="29" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="32" t="s">
+      <c r="Q1" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="V1" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B2">
@@ -5354,14 +5862,21 @@
       <c r="E2">
         <v>892.99543378995395</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="32" t="s">
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="S2" s="49"/>
+      <c r="U2" s="49"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="29" t="s">
         <v>65</v>
       </c>
       <c r="B3">
@@ -5376,24 +5891,31 @@
       <c r="E3">
         <v>651.32941176470501</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="32" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="S3" s="49"/>
+      <c r="U3" s="49"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="29" t="s">
         <v>66</v>
       </c>
       <c r="B4">
@@ -5408,14 +5930,21 @@
       <c r="E4">
         <v>65.0833333333333</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="32" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="S4" s="49"/>
+      <c r="U4" s="49"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B5">
@@ -5430,9 +5959,25 @@
       <c r="E5">
         <v>875.89090909090896</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="32" t="s">
+      <c r="O5" s="60"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="R5" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="66"/>
+      <c r="T5" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="U5" s="66"/>
+      <c r="V5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="29" t="s">
         <v>67</v>
       </c>
       <c r="B6">
@@ -5447,9 +5992,25 @@
       <c r="E6">
         <v>2205.4574468085102</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="32" t="s">
+      <c r="O6" s="60"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="66"/>
+      <c r="T6" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="U6" s="66"/>
+      <c r="V6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="29" t="s">
         <v>68</v>
       </c>
       <c r="B7">
@@ -5464,9 +6025,27 @@
       <c r="E7">
         <v>755.91131812060496</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="32" t="s">
+      <c r="O7" s="60"/>
+      <c r="P7" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" s="66"/>
+      <c r="T7" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="U7" s="66"/>
+      <c r="V7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="29" t="s">
         <v>69</v>
       </c>
       <c r="B8">
@@ -5478,12 +6057,28 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="62">
         <v>2.65384907534246</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="32" t="s">
+      <c r="O8" s="60"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="S8" s="66"/>
+      <c r="T8" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="U8" s="66"/>
+      <c r="V8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="29" t="s">
         <v>70</v>
       </c>
       <c r="B9">
@@ -5498,9 +6093,25 @@
       <c r="E9">
         <v>19306.6766385589</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="32" t="s">
+      <c r="O9" s="60"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="S9" s="66"/>
+      <c r="T9" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="U9" s="66"/>
+      <c r="V9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B10">
@@ -5515,9 +6126,27 @@
       <c r="E10">
         <v>67.958693255813898</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="32" t="s">
+      <c r="O10" s="60"/>
+      <c r="P10" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="S10" s="66"/>
+      <c r="T10" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="U10" s="66"/>
+      <c r="V10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="29" t="s">
         <v>72</v>
       </c>
       <c r="B11">
@@ -5532,9 +6161,25 @@
       <c r="E11">
         <v>12705.9235555553</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="32" t="s">
+      <c r="O11" s="60"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="R11" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11" s="66"/>
+      <c r="T11" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="U11" s="66"/>
+      <c r="V11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="29" t="s">
         <v>73</v>
       </c>
       <c r="B12">
@@ -5549,9 +6194,27 @@
       <c r="E12">
         <v>221.37858600800499</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="32" t="s">
+      <c r="O12" s="60"/>
+      <c r="P12" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="S12" s="66"/>
+      <c r="T12" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="U12" s="66"/>
+      <c r="V12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="29" t="s">
         <v>74</v>
       </c>
       <c r="B13">
@@ -5566,9 +6229,12 @@
       <c r="E13">
         <v>18.732170813817302</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="32" t="s">
+      <c r="Q13" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="29" t="s">
         <v>75</v>
       </c>
       <c r="B14">
@@ -5580,12 +6246,15 @@
       <c r="D14">
         <v>32</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="13">
         <v>234.88788304347801</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="32" t="s">
+      <c r="Q14" s="59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="29" t="s">
         <v>76</v>
       </c>
       <c r="B15">
@@ -5600,9 +6269,12 @@
       <c r="E15">
         <v>1472.5403834963699</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="32" t="s">
+      <c r="Q15" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="29" t="s">
         <v>76</v>
       </c>
       <c r="B16">
@@ -5617,9 +6289,23 @@
       <c r="E16">
         <v>81.618866521739093</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="32" t="s">
+      <c r="Q16" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="S16" s="66"/>
+      <c r="T16" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="U16" s="66"/>
+      <c r="V16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="29" t="s">
         <v>77</v>
       </c>
       <c r="B17">
@@ -5634,9 +6320,23 @@
       <c r="E17">
         <v>3475.59762118649</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="32" t="s">
+      <c r="Q17" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="S17" s="66"/>
+      <c r="T17" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="U17" s="66"/>
+      <c r="V17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="29" t="s">
         <v>78</v>
       </c>
       <c r="B18">
@@ -5651,9 +6351,23 @@
       <c r="E18">
         <v>404.5597952</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="32" t="s">
+      <c r="Q18" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="R18" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="S18" s="66"/>
+      <c r="T18" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="U18" s="66"/>
+      <c r="V18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="29" t="s">
         <v>79</v>
       </c>
       <c r="B19">
@@ -5668,9 +6382,12 @@
       <c r="E19">
         <v>185.76237623762299</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="32" t="s">
+      <c r="Q19" s="58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="29" t="s">
         <v>80</v>
       </c>
       <c r="B20">
@@ -5685,9 +6402,25 @@
       <c r="E20">
         <v>5171</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="32" t="s">
+      <c r="O20" s="60"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="S20" s="66"/>
+      <c r="T20" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="U20" s="66"/>
+      <c r="V20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="29" t="s">
         <v>81</v>
       </c>
       <c r="B21">
@@ -5702,9 +6435,27 @@
       <c r="E21">
         <v>3377.0704225352101</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="32" t="s">
+      <c r="O21" s="60"/>
+      <c r="P21" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q21" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="R21" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="S21" s="66"/>
+      <c r="T21" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="U21" s="66"/>
+      <c r="V21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B22">
@@ -5719,9 +6470,25 @@
       <c r="E22">
         <v>1688.0866425992699</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="32" t="s">
+      <c r="O22" s="60"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="R22" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="S22" s="66"/>
+      <c r="T22" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="U22" s="66"/>
+      <c r="V22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B23">
@@ -5736,9 +6503,27 @@
       <c r="E23">
         <v>3697.5744680850999</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="32" t="s">
+      <c r="O23" s="60"/>
+      <c r="P23" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q23" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="R23" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="S23" s="66"/>
+      <c r="T23" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="U23" s="66"/>
+      <c r="V23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B24">
@@ -5753,9 +6538,25 @@
       <c r="E24">
         <v>4929.9014492753604</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="32" t="s">
+      <c r="O24" s="60"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="S24" s="66"/>
+      <c r="T24" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="U24" s="66"/>
+      <c r="V24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B25">
@@ -5770,9 +6571,24 @@
       <c r="E25">
         <v>622.95652173913004</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="32" t="s">
+      <c r="P25" s="51"/>
+      <c r="Q25" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="S25" s="66"/>
+      <c r="T25" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="U25" s="66"/>
+      <c r="V25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B26">
@@ -5787,9 +6603,27 @@
       <c r="E26">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="32" t="s">
+      <c r="O26" s="60"/>
+      <c r="P26" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q26" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="R26" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="S26" s="66"/>
+      <c r="T26" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="U26" s="66"/>
+      <c r="V26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B27">
@@ -5804,9 +6638,27 @@
       <c r="E27">
         <v>10036.285714285699</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="32" t="s">
+      <c r="O27" s="60"/>
+      <c r="P27" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q27" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="R27" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="S27" s="66"/>
+      <c r="T27" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="U27" s="66"/>
+      <c r="V27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B28">
@@ -5821,9 +6673,25 @@
       <c r="E28">
         <v>1793.5737704917999</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="32" t="s">
+      <c r="O28" s="60"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="R28" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="S28" s="66"/>
+      <c r="T28" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="U28" s="66"/>
+      <c r="V28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="29" t="s">
         <v>89</v>
       </c>
       <c r="B29">
@@ -5838,9 +6706,12 @@
       <c r="E29">
         <v>5761.7028112449798</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="32" t="s">
+      <c r="Q29" s="58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="29" t="s">
         <v>90</v>
       </c>
       <c r="B30">
@@ -5855,9 +6726,12 @@
       <c r="E30">
         <v>1626.3364485981299</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="32" t="s">
+      <c r="Q30" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="29" t="s">
         <v>91</v>
       </c>
       <c r="B31">
@@ -5872,9 +6746,12 @@
       <c r="E31">
         <v>11695.46875</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="32" t="s">
+      <c r="Q31" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="29" t="s">
         <v>92</v>
       </c>
       <c r="B32">
@@ -5889,9 +6766,12 @@
       <c r="E32">
         <v>520.20833333333303</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="32" t="s">
+      <c r="Q32" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="29" t="s">
         <v>93</v>
       </c>
       <c r="B33">
@@ -5906,9 +6786,12 @@
       <c r="E33">
         <v>906.19999999999902</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="32" t="s">
+      <c r="Q33" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="29" t="s">
         <v>94</v>
       </c>
       <c r="B34">
@@ -5923,9 +6806,27 @@
       <c r="E34">
         <v>5912.79233226837</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="32" t="s">
+      <c r="O34" s="60"/>
+      <c r="P34" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q34" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="R34" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="S34" s="66"/>
+      <c r="T34" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U34" s="66"/>
+      <c r="V34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="29" t="s">
         <v>95</v>
       </c>
       <c r="B35">
@@ -5937,12 +6838,30 @@
       <c r="D35">
         <v>135</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="61">
         <v>2568.4322033898302</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="32" t="s">
+      <c r="O35" s="60"/>
+      <c r="P35" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q35" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="R35" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S35" s="66"/>
+      <c r="T35" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="U35" s="66"/>
+      <c r="V35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="29" t="s">
         <v>96</v>
       </c>
       <c r="B36">
@@ -5957,9 +6876,12 @@
       <c r="E36">
         <v>2907.5887850467202</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="32" t="s">
+      <c r="Q36" s="58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="29" t="s">
         <v>97</v>
       </c>
       <c r="B37">
@@ -5974,9 +6896,27 @@
       <c r="E37">
         <v>733.86666666666599</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="32" t="s">
+      <c r="M37" s="69" t="s">
+        <v>285</v>
+      </c>
+      <c r="O37" s="60"/>
+      <c r="P37" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q37" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="S37" s="49"/>
+      <c r="T37" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="U37" s="66"/>
+      <c r="V37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="29" t="s">
         <v>98</v>
       </c>
       <c r="B38">
@@ -5991,9 +6931,22 @@
       <c r="E38">
         <v>4316805699832.7402</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="32" t="s">
+      <c r="O38" s="60"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="S38" s="49"/>
+      <c r="T38" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="U38" s="66"/>
+      <c r="V38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="29" t="s">
         <v>99</v>
       </c>
       <c r="B39">
@@ -6008,9 +6961,12 @@
       <c r="E39">
         <v>4.9041720478660702</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="32" t="s">
+      <c r="Q39" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="29" t="s">
         <v>100</v>
       </c>
       <c r="B40">
@@ -6022,12 +6978,15 @@
       <c r="D40">
         <v>8781620000</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="61">
         <v>5133342539307.2002</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="32" t="s">
+      <c r="Q40" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="29" t="s">
         <v>101</v>
       </c>
       <c r="B41">
@@ -6042,9 +7001,12 @@
       <c r="E41">
         <v>5043143942925.4697</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="32" t="s">
+      <c r="Q41" s="58" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="29" t="s">
         <v>102</v>
       </c>
       <c r="B42">
@@ -6059,8 +7021,1026 @@
       <c r="E42">
         <v>2231691215348.4902</v>
       </c>
+      <c r="O42" s="60"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="S42" s="49"/>
+      <c r="T42" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="U42" s="66"/>
+      <c r="V42" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="P43" s="51"/>
+      <c r="Q43" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="S43" s="68"/>
+      <c r="T43" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="U43" s="67"/>
+      <c r="V43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="M44" s="69" t="s">
+        <v>286</v>
+      </c>
+      <c r="O44" s="60"/>
+      <c r="P44" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q44" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="S44" s="49"/>
+      <c r="T44" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="U44" s="66"/>
+      <c r="V44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="O45" s="60"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="S45" s="49"/>
+      <c r="T45" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="U45" s="66"/>
+      <c r="V45" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="Q46" s="58" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="D47" t="s">
+        <v>281</v>
+      </c>
+      <c r="E47" t="s">
+        <v>282</v>
+      </c>
+      <c r="F47" t="s">
+        <v>283</v>
+      </c>
+      <c r="O47" s="60"/>
+      <c r="P47" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q47" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="R47" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="S47" s="66"/>
+      <c r="T47" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="U47" s="66"/>
+      <c r="V47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="D48" s="61">
+        <v>1788.73395000286</v>
+      </c>
+      <c r="E48" s="61">
+        <f>SUM(E35,E40)</f>
+        <v>5133342541875.6328</v>
+      </c>
+      <c r="F48" s="61">
+        <f>E48/D53</f>
+        <v>90010483.617180794</v>
+      </c>
+      <c r="G48" s="63">
+        <v>1</v>
+      </c>
+      <c r="N48" s="60"/>
+      <c r="O48" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="P48" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q48" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="R48" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="S48" s="66"/>
+      <c r="T48" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="U48" s="66"/>
+      <c r="V48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="4:22">
+      <c r="D49" s="61">
+        <v>11562.729582981399</v>
+      </c>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="Q49" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="4:22">
+      <c r="D50" s="61">
+        <v>15112.2889690376</v>
+      </c>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="Q50" s="58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="4:22">
+      <c r="D51" s="61">
+        <v>28566.743675601199</v>
+      </c>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="Q51" s="29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="4:22">
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="Q52" s="57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="4:22">
+      <c r="D53" s="61">
+        <f>SUM(D48:D51)</f>
+        <v>57030.496177623063</v>
+      </c>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="Q53" s="57" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="4:22">
+      <c r="Q54" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="4:22">
+      <c r="P55" s="51"/>
+      <c r="Q55" s="52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="4:22">
+      <c r="O56" s="60"/>
+      <c r="P56" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q56" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="R56" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="S56" s="66"/>
+      <c r="T56" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="U56" s="66"/>
+      <c r="V56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="4:22">
+      <c r="D57" s="62">
+        <v>49.687054166746101</v>
+      </c>
+      <c r="E57" s="62">
+        <v>2.65384907534246</v>
+      </c>
+      <c r="Q57" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="4:22">
+      <c r="D58" s="62">
+        <v>211.693502810045</v>
+      </c>
+      <c r="O58" s="60"/>
+      <c r="P58" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q58" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="R58" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="S58" s="66"/>
+      <c r="T58" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="U58" s="66"/>
+      <c r="V58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="4:22">
+      <c r="Q59" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="4:22">
+      <c r="D60" s="62">
+        <f xml:space="preserve"> SUM(D57+D58)</f>
+        <v>261.38055697679113</v>
+      </c>
+      <c r="F60" s="62">
+        <f>(E57/D60)*100</f>
+        <v>1.0153200016243382</v>
+      </c>
+      <c r="G60" s="65">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="4:22">
+      <c r="O61" s="60"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="R61" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="S61" s="66"/>
+      <c r="T61" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="U61" s="66"/>
+      <c r="V61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="4:22">
+      <c r="O62" s="60"/>
+      <c r="P62" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q62" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="R62" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="S62" s="66"/>
+      <c r="T62" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="U62" s="66"/>
+      <c r="V62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="4:22">
+      <c r="Q63" s="58" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="4:22">
+      <c r="D64" s="13">
+        <v>648.80251174177897</v>
+      </c>
+      <c r="E64" s="13">
+        <v>234.88788304347801</v>
+      </c>
+      <c r="O64" s="60"/>
+      <c r="P64" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q64" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="R64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="S64" s="66"/>
+      <c r="T64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="U64" s="66"/>
+      <c r="V64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="4:22">
+      <c r="D65" s="13">
+        <v>3651.3321797631802</v>
+      </c>
+      <c r="F65" s="13">
+        <f>(E64/D67) *100</f>
+        <v>5.4623378078715961</v>
+      </c>
+      <c r="G65" s="64">
+        <v>0.05</v>
+      </c>
+      <c r="M65" s="69" t="s">
+        <v>287</v>
+      </c>
+      <c r="O65" s="60"/>
+      <c r="P65" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q65" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="S65" s="49"/>
+      <c r="T65" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="U65" s="66"/>
+      <c r="V65" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="4:22">
+      <c r="Q66" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="4:22">
+      <c r="D67" s="13">
+        <f>SUM(D64:D65)</f>
+        <v>4300.1346915049589</v>
+      </c>
+      <c r="Q67" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="4:22">
+      <c r="Q68" s="58" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="4:22">
+      <c r="Q69" s="58" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="4:22">
+      <c r="O70" s="60"/>
+      <c r="P70" s="51"/>
+      <c r="Q70" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="S70" s="49"/>
+      <c r="T70" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="U70" s="66"/>
+      <c r="V70" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="71" spans="4:22">
+      <c r="M71" s="69" t="s">
+        <v>288</v>
+      </c>
+      <c r="O71" s="60"/>
+      <c r="P71" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q71" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="S71" s="49"/>
+      <c r="T71" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="U71" s="66"/>
+      <c r="V71" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="72" spans="4:22">
+      <c r="Q72" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="S72" s="49"/>
+      <c r="U72" s="67"/>
+    </row>
+    <row r="73" spans="4:22">
+      <c r="O73" s="60"/>
+      <c r="P73" s="51"/>
+      <c r="Q73" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="R73" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="S73" s="66"/>
+      <c r="T73" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="U73" s="66"/>
+      <c r="V73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="4:22">
+      <c r="O74" s="60"/>
+      <c r="P74" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q74" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="R74" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="S74" s="66"/>
+      <c r="T74" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="U74" s="66"/>
+      <c r="V74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="4:22">
+      <c r="N75" s="60"/>
+      <c r="O75" s="56"/>
+      <c r="P75" s="56"/>
+      <c r="Q75" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="S75" s="49"/>
+      <c r="T75" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="U75" s="66"/>
+      <c r="V75" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="76" spans="4:22">
+      <c r="M76" s="69" t="s">
+        <v>289</v>
+      </c>
+      <c r="N76" s="60"/>
+      <c r="O76" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="P76" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q76" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="S76" s="49"/>
+      <c r="T76" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="U76" s="66"/>
+      <c r="V76" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="4:22">
+      <c r="N77" s="60"/>
+      <c r="O77" s="56"/>
+      <c r="P77" s="56"/>
+      <c r="Q77" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="S77" s="49"/>
+      <c r="T77" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="U77" s="66"/>
+      <c r="V77" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="4:22">
+      <c r="N78" s="60"/>
+      <c r="O78" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="P78" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q78" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="R78" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="S78" s="66"/>
+      <c r="T78" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="U78" s="66"/>
+      <c r="V78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="4:22">
+      <c r="Q79" s="29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="4:22">
+      <c r="Q80" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="R80" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="S80" s="67"/>
+      <c r="T80" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="U80" s="67"/>
+      <c r="V80" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="13:22">
+      <c r="Q81" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="R81" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="S81" s="67"/>
+      <c r="T81" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="U81" s="67"/>
+      <c r="V81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="13:22">
+      <c r="M82" s="69" t="s">
+        <v>290</v>
+      </c>
+      <c r="N82" s="60"/>
+      <c r="O82" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="P82" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q82" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="S82" s="49"/>
+      <c r="T82" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="U82" s="66"/>
+      <c r="V82" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="83" spans="13:22">
+      <c r="Q83" s="58" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="13:22">
+      <c r="O84" s="60"/>
+      <c r="P84" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q84" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="R84" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="S84" s="66"/>
+      <c r="T84" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="U84" s="66"/>
+      <c r="V84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="13:22">
+      <c r="O85" s="60"/>
+      <c r="P85" s="56"/>
+      <c r="Q85" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="R85" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S85" s="66"/>
+      <c r="T85" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="U85" s="66"/>
+      <c r="V85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="13:22">
+      <c r="O86" s="60"/>
+      <c r="P86" s="56"/>
+      <c r="Q86" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="R86" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S86" s="66"/>
+      <c r="T86" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="U86" s="66"/>
+      <c r="V86" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="13:22">
+      <c r="O87" s="60"/>
+      <c r="P87" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q87" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="R87" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S87" s="66"/>
+      <c r="T87" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="U87" s="66"/>
+      <c r="V87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="13:22">
+      <c r="Q88" s="58" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="89" spans="13:22">
+      <c r="Q89" s="58" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="90" spans="13:22">
+      <c r="Q90" s="58" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="13:22">
+      <c r="Q91" s="57" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92" spans="13:22">
+      <c r="N92" s="60"/>
+      <c r="O92" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="P92" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q92" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="R92" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="S92" s="66"/>
+      <c r="T92" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="U92" s="66"/>
+      <c r="V92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="13:22">
+      <c r="O93" s="60"/>
+      <c r="P93" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q93" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="R93" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="S93" s="66"/>
+      <c r="T93" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="U93" s="66"/>
+      <c r="V93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="13:22">
+      <c r="O94" s="60"/>
+      <c r="P94" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q94" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="R94" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="S94" s="66"/>
+      <c r="T94" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="U94" s="66"/>
+      <c r="V94" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="13:22">
+      <c r="Q95" s="29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="13:22">
+      <c r="Q96" s="29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="97" spans="14:22">
+      <c r="Q97" s="29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="98" spans="14:22">
+      <c r="Q98" s="58" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="99" spans="14:22">
+      <c r="P99" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q99" s="58" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="14:22">
+      <c r="Q100" s="58" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="101" spans="14:22">
+      <c r="Q101" s="58" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="102" spans="14:22">
+      <c r="O102" s="60"/>
+      <c r="P102" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q102" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="R102" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="S102" s="66"/>
+      <c r="T102" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="U102" s="66"/>
+      <c r="V102" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="14:22">
+      <c r="O103" s="60"/>
+      <c r="P103" s="56"/>
+      <c r="Q103" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="R103" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="S103" s="66"/>
+      <c r="T103" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="U103" s="66"/>
+      <c r="V103" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" spans="14:22">
+      <c r="Q104" s="58" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="105" spans="14:22">
+      <c r="O105" s="60"/>
+      <c r="P105" s="56"/>
+      <c r="Q105" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="R105" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="S105" s="66"/>
+      <c r="T105" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="U105" s="66"/>
+      <c r="V105" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="14:22">
+      <c r="O106" s="60"/>
+      <c r="P106" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q106" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="R106" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="S106" s="66"/>
+      <c r="T106" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="U106" s="66"/>
+      <c r="V106" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="14:22">
+      <c r="O107" s="60"/>
+      <c r="P107" s="56"/>
+      <c r="Q107" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="R107" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="S107" s="66"/>
+      <c r="T107" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="U107" s="66"/>
+      <c r="V107" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="14:22">
+      <c r="O108" s="51"/>
+      <c r="P108" s="51"/>
+      <c r="Q108" s="52" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="109" spans="14:22">
+      <c r="O109" s="51"/>
+      <c r="P109" s="51"/>
+      <c r="Q109" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="R109" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="S109" s="66"/>
+      <c r="T109" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="U109" s="66"/>
+      <c r="V109" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="14:22">
+      <c r="N110" s="60"/>
+      <c r="O110" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="P110" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q110" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="R110" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="S110" s="66"/>
+      <c r="T110" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="U110" s="66"/>
+      <c r="V110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="14:22">
+      <c r="O111" s="51"/>
+      <c r="P111" s="51"/>
+      <c r="Q111" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="R111" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="S111" s="66"/>
+      <c r="T111" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="U111" s="66"/>
+      <c r="V111" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" spans="14:22">
+      <c r="Q112" s="57" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="113" spans="13:22">
+      <c r="Q113" s="58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="114" spans="13:22">
+      <c r="Q114" s="58" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="115" spans="13:22">
+      <c r="M115" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="P115" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q115" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="S115" s="49"/>
+      <c r="T115" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="U115" s="66"/>
+      <c r="V115" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="S1:S42">
+    <sortCondition ref="S1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -6075,8 +8055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6165,40 +8145,40 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="33" t="s">
+      <c r="S4" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="U4" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="V4" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="33" t="s">
+      <c r="X4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="33" t="s">
+      <c r="Y4" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="32"/>
+      <c r="Z4" s="29"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="9" t="s">
@@ -6223,37 +8203,37 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="31">
         <v>2.3885325302302598</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="31">
         <v>1.95636663916208</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="31">
         <v>2.1667292138810601</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5" s="31">
         <v>9.7984230147471207E-3</v>
       </c>
-      <c r="T5" s="34">
+      <c r="T5" s="31">
         <v>6.5214268062881597</v>
       </c>
-      <c r="U5" s="34">
+      <c r="U5" s="31">
         <v>4.3546975924070903</v>
       </c>
-      <c r="V5" s="34">
+      <c r="V5" s="31">
         <v>0.63223830850444096</v>
       </c>
-      <c r="W5" s="34">
+      <c r="W5" s="31">
         <v>0.44925430472444899</v>
       </c>
-      <c r="X5" s="34">
+      <c r="X5" s="31">
         <v>0.229637070951519</v>
       </c>
-      <c r="Y5" s="34">
+      <c r="Y5" s="31">
         <v>0.15334067677272201</v>
       </c>
     </row>
@@ -6288,37 +8268,37 @@
         <v>10</v>
       </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="31">
         <v>3.3121693121693099</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="31">
         <v>2.8252784362572299</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="31">
         <v>1.3185405207018801</v>
       </c>
-      <c r="S6" s="34">
+      <c r="S6" s="31">
         <v>6.1185185185185101E-3</v>
       </c>
-      <c r="T6" s="34">
+      <c r="T6" s="31">
         <v>7.4621067876469498</v>
       </c>
-      <c r="U6" s="34">
+      <c r="U6" s="31">
         <v>6.1435662669450597</v>
       </c>
-      <c r="V6" s="34">
+      <c r="V6" s="31">
         <v>0.55531488289861397</v>
       </c>
-      <c r="W6" s="34">
+      <c r="W6" s="31">
         <v>0.45987596023150301</v>
       </c>
-      <c r="X6" s="34">
+      <c r="X6" s="31">
         <v>0.16277190747992901</v>
       </c>
-      <c r="Y6" s="34">
+      <c r="Y6" s="31">
         <v>0.13401041132987199</v>
       </c>
     </row>
@@ -6355,37 +8335,37 @@
       <c r="N7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="31">
         <v>0</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="31">
         <v>0</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="31">
         <v>1.8514670757965901</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="31">
         <v>3.3291085952123799E-4</v>
       </c>
-      <c r="T7" s="34">
+      <c r="T7" s="31">
         <v>1.8517999866561099</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7" s="31">
         <v>3.3291085952123799E-4</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7" s="31">
         <v>0.99982022310080998</v>
       </c>
-      <c r="W7" s="34">
+      <c r="W7" s="31">
         <v>0</v>
       </c>
-      <c r="X7" s="34">
+      <c r="X7" s="31">
         <v>3003.80708949569</v>
       </c>
-      <c r="Y7" s="34">
+      <c r="Y7" s="31">
         <v>0.54001512431466703</v>
       </c>
     </row>
@@ -6414,37 +8394,37 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8" s="31">
         <v>0</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="31">
         <v>0</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="31">
         <v>0.64579404667610996</v>
       </c>
-      <c r="S8" s="34">
+      <c r="S8" s="31">
         <v>6.3370956705190596E-4</v>
       </c>
-      <c r="T8" s="34">
+      <c r="T8" s="31">
         <v>0.64642775624316196</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8" s="31">
         <v>6.3370956705190596E-4</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8" s="31">
         <v>0.99901967457162599</v>
       </c>
-      <c r="W8" s="34">
+      <c r="W8" s="31">
         <v>0</v>
       </c>
-      <c r="X8" s="34">
+      <c r="X8" s="31">
         <v>1578.00994649981</v>
       </c>
-      <c r="Y8" s="34">
+      <c r="Y8" s="31">
         <v>1.5469632767808199</v>
       </c>
     </row>
@@ -6473,37 +8453,37 @@
         <v>19</v>
       </c>
       <c r="N9" s="4"/>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="31">
         <v>0</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="31">
         <v>0</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="31">
         <v>0.85027782418891895</v>
       </c>
-      <c r="S9" s="34">
+      <c r="S9" s="31">
         <v>4.0918310453618101E-4</v>
       </c>
-      <c r="T9" s="34">
+      <c r="T9" s="31">
         <v>0.85068700729345503</v>
       </c>
-      <c r="U9" s="34">
+      <c r="U9" s="31">
         <v>4.0918310453618101E-4</v>
       </c>
-      <c r="V9" s="34">
+      <c r="V9" s="31">
         <v>0.99951899688013501</v>
       </c>
-      <c r="W9" s="34">
+      <c r="W9" s="31">
         <v>0</v>
       </c>
-      <c r="X9" s="34">
+      <c r="X9" s="31">
         <v>2443.89367232922</v>
       </c>
-      <c r="Y9" s="34">
+      <c r="Y9" s="31">
         <v>1.1755204810069899</v>
       </c>
     </row>
@@ -6528,37 +8508,37 @@
         <v>19</v>
       </c>
       <c r="N10" s="4"/>
-      <c r="O10" s="33" t="s">
+      <c r="O10" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="31">
         <v>1.7465631594079999E-2</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="31">
         <v>5.3264890324061197E-2</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="31">
         <v>0.25285069520812697</v>
       </c>
-      <c r="S10" s="34">
+      <c r="S10" s="31">
         <v>1.5760003508720599E-4</v>
       </c>
-      <c r="T10" s="34">
+      <c r="T10" s="31">
         <v>0.323738817161355</v>
       </c>
-      <c r="U10" s="34">
+      <c r="U10" s="31">
         <v>7.0888121953228397E-2</v>
       </c>
-      <c r="V10" s="34">
+      <c r="V10" s="31">
         <v>0.94556342738355104</v>
       </c>
-      <c r="W10" s="34">
+      <c r="W10" s="31">
         <v>0.75139372939242299</v>
       </c>
-      <c r="X10" s="34">
+      <c r="X10" s="31">
         <v>14.106735690639301</v>
       </c>
-      <c r="Y10" s="34">
+      <c r="Y10" s="31">
         <v>3.0889097846477398</v>
       </c>
     </row>
@@ -6583,37 +8563,37 @@
         <v>19</v>
       </c>
       <c r="N11" s="4"/>
-      <c r="O11" s="33" t="s">
+      <c r="O11" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11" s="31">
         <v>0</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="31">
         <v>0</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="31">
         <v>0.93654462976862396</v>
       </c>
-      <c r="S11" s="34">
+      <c r="S11" s="31">
         <v>1.6219780224000001E-3</v>
       </c>
-      <c r="T11" s="34">
+      <c r="T11" s="31">
         <v>0.93816660779102401</v>
       </c>
-      <c r="U11" s="34">
+      <c r="U11" s="31">
         <v>1.6219780224000001E-3</v>
       </c>
-      <c r="V11" s="34">
+      <c r="V11" s="31">
         <v>0.99827111942705005</v>
       </c>
-      <c r="W11" s="34">
+      <c r="W11" s="31">
         <v>0</v>
       </c>
-      <c r="X11" s="34">
+      <c r="X11" s="31">
         <v>616.53116515125396</v>
       </c>
-      <c r="Y11" s="34">
+      <c r="Y11" s="31">
         <v>1.0659087540480301</v>
       </c>
     </row>
@@ -6674,27 +8654,27 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="42" t="s">
         <v>42</v>
       </c>
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="21"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:26">
@@ -6712,26 +8692,26 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="21"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="23"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="17"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="24"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="17"/>
@@ -6747,14 +8727,14 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="24"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="17"/>
@@ -6765,14 +8745,14 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="24"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="23"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -6782,11 +8762,11 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="44"/>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="28" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="4"/>
@@ -6872,11 +8852,11 @@
         <v>3</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="23" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="4"/>
@@ -6898,11 +8878,11 @@
         <v>19</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="4"/>
@@ -6910,8 +8890,8 @@
         <v>14</v>
       </c>
       <c r="H26" s="4"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="26" t="s">
+      <c r="I26" s="24"/>
+      <c r="J26" s="23" t="s">
         <v>7</v>
       </c>
       <c r="K26" s="10" t="s">
@@ -6932,13 +8912,13 @@
       <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -6950,8 +8930,8 @@
       <c r="H27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="27"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
@@ -6964,11 +8944,11 @@
         <v>19</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="4"/>
@@ -6976,10 +8956,10 @@
         <v>23</v>
       </c>
       <c r="H28" s="4"/>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="27"/>
+      <c r="J28" s="24"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
@@ -6990,11 +8970,11 @@
         <v>19</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F29" s="4"/>
@@ -7012,7 +8992,7 @@
     <row r="30" spans="1:14">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="4"/>
@@ -7032,7 +9012,7 @@
     <row r="31" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D31" s="4"/>
@@ -7052,7 +9032,7 @@
     <row r="32" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="25" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="4"/>
@@ -7072,7 +9052,7 @@
     <row r="33" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="4"/>
@@ -7090,7 +9070,7 @@
     <row r="34" spans="1:14">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="17"/>
@@ -7106,16 +9086,16 @@
       <c r="N34" s="4"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="28" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -7126,7 +9106,7 @@
     <row r="36" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="17"/>
-      <c r="C36" s="30"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -7142,20 +9122,20 @@
     <row r="37" spans="1:14">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="23"/>
+      <c r="G37" s="21"/>
       <c r="H37" s="17"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="24"/>
+      <c r="L37" s="22"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="24"/>
+      <c r="N37" s="22"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="17"/>
@@ -7171,9 +9151,9 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="24"/>
+      <c r="L38" s="22"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="24"/>
+      <c r="N38" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7192,17 +9172,893 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:P129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A129"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="2.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="1.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="2.5" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" customWidth="1"/>
+    <col min="15" max="15" width="2.83203125" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="32"/>
+    <row r="3" spans="1:16">
+      <c r="A3" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
+      <c r="L4" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="N4" s="50"/>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="L5" s="47"/>
+      <c r="M5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="50"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="N6" s="50"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="L7" s="47"/>
+      <c r="M7" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="50"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="L8" s="47"/>
+      <c r="M8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="50"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="L9" s="47"/>
+      <c r="M9" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="50"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="L10" s="47"/>
+      <c r="M10" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="N10" s="50"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="L11" s="47"/>
+      <c r="M11" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="50"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="L12" s="47"/>
+      <c r="M12" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="50"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="C16" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="C27" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="C28" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="C33" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="C43" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="C44" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="C45" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="C46" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="C47" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="C50" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="C51" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="C52" s="29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="C53" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="C54" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="C55" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="C56" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="C57" s="29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="C58" s="29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="C59" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="C60" s="29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="C63" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="C64" s="29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="C65" s="29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="C66" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="C67" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="C68" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="C69" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="C71" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="C73" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="C74" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="C77" s="29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="C79" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="C80" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="C81" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="C82" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="C83" s="29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="C84" s="29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="C85" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="C86" s="29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>75</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="C89" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="C90" s="29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="C91" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="C93" s="29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" s="29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" s="29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="C96" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="C97" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" s="29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="C102" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="C103" s="29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="C104" s="29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="C105" s="29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>91</v>
+      </c>
+      <c r="C106" s="29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>97</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="C109" s="29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="C110" s="29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="C111" s="29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="C112" s="29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="C113" s="29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="C114" s="29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="C115" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>93</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>93</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="C118" s="29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>78</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>78</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>78</v>
+      </c>
+      <c r="C121" s="29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="C122" s="29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>95</v>
+      </c>
+      <c r="C123" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>95</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>95</v>
+      </c>
+      <c r="C125" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="C126" s="29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="C127" s="29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="C128" s="29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" s="29" t="s">
+        <v>261</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Food_SR_Organization.xlsx
+++ b/Food_SR_Organization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="4440" windowWidth="28660" windowHeight="14760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-40" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Food Need" sheetId="3" r:id="rId1"/>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="299">
   <si>
     <t>ALL LOCAL</t>
   </si>
@@ -1020,9 +1020,6 @@
     <t>livestock</t>
   </si>
   <si>
-    <t>Match Crops to Commodities</t>
-  </si>
-  <si>
     <t>Need</t>
   </si>
   <si>
@@ -1054,6 +1051,30 @@
   </si>
   <si>
     <t>Peas</t>
+  </si>
+  <si>
+    <t>Done! But no difference between</t>
+  </si>
+  <si>
+    <t>Likeley an error somewhere</t>
+  </si>
+  <si>
+    <t>Imports and No Imports</t>
+  </si>
+  <si>
+    <t>TO DO:</t>
+  </si>
+  <si>
+    <t>1. Check SWBC production results</t>
+  </si>
+  <si>
+    <t>2. Organize Diet and Seasonality Constraint</t>
+  </si>
+  <si>
+    <t>3. Calculate Food Need</t>
+  </si>
+  <si>
+    <t>4. Calculate Error</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1231,6 +1252,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,7 +1575,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1597,23 +1624,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -1635,6 +1650,17 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="179">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2146,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A115"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5793,8 +5819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView topLeftCell="K107" workbookViewId="0">
+      <selection activeCell="M114" sqref="M114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5837,10 +5863,10 @@
         <v>108</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T1" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V1" s="29">
         <v>0</v>
@@ -5867,13 +5893,13 @@
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
       <c r="K2" s="37"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="52" t="s">
+      <c r="O2" s="56"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="U2" s="49"/>
+      <c r="S2" s="45"/>
+      <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="29" t="s">
@@ -5906,13 +5932,13 @@
       <c r="K3" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="52" t="s">
+      <c r="O3" s="56"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="U3" s="49"/>
+      <c r="S3" s="45"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="29" t="s">
@@ -5935,13 +5961,13 @@
       <c r="I4" s="40"/>
       <c r="J4" s="40"/>
       <c r="K4" s="41"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="52" t="s">
+      <c r="O4" s="56"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="U4" s="49"/>
+      <c r="S4" s="45"/>
+      <c r="U4" s="45"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="29" t="s">
@@ -5959,19 +5985,19 @@
       <c r="E5">
         <v>875.89090909090896</v>
       </c>
-      <c r="O5" s="60"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="52" t="s">
+      <c r="O5" s="56"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48" t="s">
         <v>118</v>
       </c>
       <c r="R5" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="S5" s="66"/>
+      <c r="S5" s="62"/>
       <c r="T5" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="U5" s="66"/>
+      <c r="U5" s="62"/>
       <c r="V5" t="s">
         <v>68</v>
       </c>
@@ -5992,19 +6018,19 @@
       <c r="E6">
         <v>2205.4574468085102</v>
       </c>
-      <c r="O6" s="60"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52" t="s">
+      <c r="O6" s="56"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="48" t="s">
         <v>120</v>
       </c>
       <c r="R6" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="66"/>
+      <c r="S6" s="62"/>
       <c r="T6" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="66"/>
+      <c r="U6" s="62"/>
       <c r="V6" t="s">
         <v>68</v>
       </c>
@@ -6025,21 +6051,21 @@
       <c r="E7">
         <v>755.91131812060496</v>
       </c>
-      <c r="O7" s="60"/>
-      <c r="P7" s="52" t="s">
+      <c r="O7" s="56"/>
+      <c r="P7" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="52" t="s">
+      <c r="Q7" s="48" t="s">
         <v>122</v>
       </c>
       <c r="R7" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="S7" s="66"/>
+      <c r="S7" s="62"/>
       <c r="T7" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="66"/>
+      <c r="U7" s="62"/>
       <c r="V7" t="s">
         <v>68</v>
       </c>
@@ -6057,22 +6083,22 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="58">
         <v>2.65384907534246</v>
       </c>
-      <c r="O8" s="60"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="52" t="s">
+      <c r="O8" s="56"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="48" t="s">
         <v>124</v>
       </c>
       <c r="R8" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="S8" s="66"/>
+      <c r="S8" s="62"/>
       <c r="T8" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="U8" s="66"/>
+      <c r="U8" s="62"/>
       <c r="V8" t="s">
         <v>68</v>
       </c>
@@ -6093,19 +6119,19 @@
       <c r="E9">
         <v>19306.6766385589</v>
       </c>
-      <c r="O9" s="60"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54" t="s">
+      <c r="O9" s="56"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="50" t="s">
         <v>125</v>
       </c>
       <c r="R9" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="S9" s="66"/>
+      <c r="S9" s="62"/>
       <c r="T9" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="U9" s="66"/>
+      <c r="U9" s="62"/>
       <c r="V9" t="s">
         <v>69</v>
       </c>
@@ -6126,21 +6152,21 @@
       <c r="E10">
         <v>67.958693255813898</v>
       </c>
-      <c r="O10" s="60"/>
-      <c r="P10" s="54" t="s">
+      <c r="O10" s="56"/>
+      <c r="P10" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="Q10" s="54" t="s">
+      <c r="Q10" s="50" t="s">
         <v>127</v>
       </c>
       <c r="R10" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="S10" s="66"/>
+      <c r="S10" s="62"/>
       <c r="T10" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="U10" s="66"/>
+      <c r="U10" s="62"/>
       <c r="V10" t="s">
         <v>69</v>
       </c>
@@ -6161,19 +6187,19 @@
       <c r="E11">
         <v>12705.9235555553</v>
       </c>
-      <c r="O11" s="60"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="52" t="s">
+      <c r="O11" s="56"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="48" t="s">
         <v>129</v>
       </c>
       <c r="R11" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="S11" s="66"/>
+      <c r="S11" s="62"/>
       <c r="T11" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="U11" s="66"/>
+      <c r="U11" s="62"/>
       <c r="V11" t="s">
         <v>79</v>
       </c>
@@ -6194,21 +6220,21 @@
       <c r="E12">
         <v>221.37858600800499</v>
       </c>
-      <c r="O12" s="60"/>
-      <c r="P12" s="52" t="s">
+      <c r="O12" s="56"/>
+      <c r="P12" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="Q12" s="52" t="s">
+      <c r="Q12" s="48" t="s">
         <v>131</v>
       </c>
       <c r="R12" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="S12" s="66"/>
+      <c r="S12" s="62"/>
       <c r="T12" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="U12" s="66"/>
+      <c r="U12" s="62"/>
       <c r="V12" t="s">
         <v>79</v>
       </c>
@@ -6249,7 +6275,7 @@
       <c r="E14" s="13">
         <v>234.88788304347801</v>
       </c>
-      <c r="Q14" s="59" t="s">
+      <c r="Q14" s="55" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6289,17 +6315,17 @@
       <c r="E16">
         <v>81.618866521739093</v>
       </c>
-      <c r="Q16" s="59" t="s">
+      <c r="Q16" s="55" t="s">
         <v>139</v>
       </c>
       <c r="R16" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="S16" s="66"/>
+      <c r="S16" s="62"/>
       <c r="T16" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="U16" s="66"/>
+      <c r="U16" s="62"/>
       <c r="V16" t="s">
         <v>80</v>
       </c>
@@ -6320,17 +6346,17 @@
       <c r="E17">
         <v>3475.59762118649</v>
       </c>
-      <c r="Q17" s="59" t="s">
+      <c r="Q17" s="55" t="s">
         <v>140</v>
       </c>
       <c r="R17" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="S17" s="66"/>
+      <c r="S17" s="62"/>
       <c r="T17" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="U17" s="66"/>
+      <c r="U17" s="62"/>
       <c r="V17" t="s">
         <v>80</v>
       </c>
@@ -6351,17 +6377,17 @@
       <c r="E18">
         <v>404.5597952</v>
       </c>
-      <c r="Q18" s="59" t="s">
+      <c r="Q18" s="55" t="s">
         <v>141</v>
       </c>
       <c r="R18" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="S18" s="66"/>
+      <c r="S18" s="62"/>
       <c r="T18" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="U18" s="66"/>
+      <c r="U18" s="62"/>
       <c r="V18" t="s">
         <v>80</v>
       </c>
@@ -6382,7 +6408,13 @@
       <c r="E19">
         <v>185.76237623762299</v>
       </c>
-      <c r="Q19" s="58" t="s">
+      <c r="M19" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="54" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6402,19 +6434,19 @@
       <c r="E20">
         <v>5171</v>
       </c>
-      <c r="O20" s="60"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="52" t="s">
+      <c r="O20" s="56"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="48" t="s">
         <v>144</v>
       </c>
       <c r="R20" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="S20" s="66"/>
+      <c r="S20" s="62"/>
       <c r="T20" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="U20" s="66"/>
+      <c r="U20" s="62"/>
       <c r="V20" t="s">
         <v>81</v>
       </c>
@@ -6435,21 +6467,21 @@
       <c r="E21">
         <v>3377.0704225352101</v>
       </c>
-      <c r="O21" s="60"/>
-      <c r="P21" s="52" t="s">
+      <c r="O21" s="56"/>
+      <c r="P21" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="Q21" s="52" t="s">
+      <c r="Q21" s="48" t="s">
         <v>145</v>
       </c>
       <c r="R21" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="S21" s="66"/>
+      <c r="S21" s="62"/>
       <c r="T21" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="U21" s="66"/>
+      <c r="U21" s="62"/>
       <c r="V21" t="s">
         <v>81</v>
       </c>
@@ -6470,19 +6502,19 @@
       <c r="E22">
         <v>1688.0866425992699</v>
       </c>
-      <c r="O22" s="60"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="54" t="s">
+      <c r="O22" s="56"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="50" t="s">
         <v>146</v>
       </c>
       <c r="R22" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="S22" s="66"/>
+      <c r="S22" s="62"/>
       <c r="T22" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="U22" s="66"/>
+      <c r="U22" s="62"/>
       <c r="V22" t="s">
         <v>70</v>
       </c>
@@ -6503,21 +6535,21 @@
       <c r="E23">
         <v>3697.5744680850999</v>
       </c>
-      <c r="O23" s="60"/>
-      <c r="P23" s="54" t="s">
+      <c r="O23" s="56"/>
+      <c r="P23" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="Q23" s="54" t="s">
+      <c r="Q23" s="50" t="s">
         <v>147</v>
       </c>
       <c r="R23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="S23" s="66"/>
+      <c r="S23" s="62"/>
       <c r="T23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="U23" s="66"/>
+      <c r="U23" s="62"/>
       <c r="V23" t="s">
         <v>70</v>
       </c>
@@ -6538,19 +6570,19 @@
       <c r="E24">
         <v>4929.9014492753604</v>
       </c>
-      <c r="O24" s="60"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="54" t="s">
+      <c r="O24" s="56"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="50" t="s">
         <v>148</v>
       </c>
       <c r="R24" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="S24" s="66"/>
+      <c r="S24" s="62"/>
       <c r="T24" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="U24" s="66"/>
+      <c r="U24" s="62"/>
       <c r="V24" t="s">
         <v>70</v>
       </c>
@@ -6571,18 +6603,18 @@
       <c r="E25">
         <v>622.95652173913004</v>
       </c>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="52" t="s">
+      <c r="P25" s="47"/>
+      <c r="Q25" s="48" t="s">
         <v>149</v>
       </c>
       <c r="R25" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="S25" s="66"/>
+      <c r="S25" s="62"/>
       <c r="T25" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="U25" s="66"/>
+      <c r="U25" s="62"/>
       <c r="V25" t="s">
         <v>82</v>
       </c>
@@ -6603,21 +6635,21 @@
       <c r="E26">
         <v>80</v>
       </c>
-      <c r="O26" s="60"/>
-      <c r="P26" s="52" t="s">
+      <c r="O26" s="56"/>
+      <c r="P26" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="Q26" s="52" t="s">
+      <c r="Q26" s="48" t="s">
         <v>150</v>
       </c>
       <c r="R26" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="S26" s="66"/>
+      <c r="S26" s="62"/>
       <c r="T26" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="U26" s="66"/>
+      <c r="U26" s="62"/>
       <c r="V26" t="s">
         <v>82</v>
       </c>
@@ -6638,21 +6670,21 @@
       <c r="E27">
         <v>10036.285714285699</v>
       </c>
-      <c r="O27" s="60"/>
-      <c r="P27" s="55" t="s">
+      <c r="O27" s="56"/>
+      <c r="P27" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="Q27" s="55" t="s">
+      <c r="Q27" s="51" t="s">
         <v>152</v>
       </c>
       <c r="R27" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="S27" s="66"/>
+      <c r="S27" s="62"/>
       <c r="T27" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="U27" s="66"/>
+      <c r="U27" s="62"/>
       <c r="V27" t="s">
         <v>83</v>
       </c>
@@ -6673,19 +6705,19 @@
       <c r="E28">
         <v>1793.5737704917999</v>
       </c>
-      <c r="O28" s="60"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="55" t="s">
+      <c r="O28" s="56"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="51" t="s">
         <v>154</v>
       </c>
       <c r="R28" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="S28" s="66"/>
+      <c r="S28" s="62"/>
       <c r="T28" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="U28" s="66"/>
+      <c r="U28" s="62"/>
       <c r="V28" t="s">
         <v>83</v>
       </c>
@@ -6706,7 +6738,7 @@
       <c r="E29">
         <v>5761.7028112449798</v>
       </c>
-      <c r="Q29" s="58" t="s">
+      <c r="Q29" s="54" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6726,7 +6758,7 @@
       <c r="E30">
         <v>1626.3364485981299</v>
       </c>
-      <c r="Q30" s="58" t="s">
+      <c r="Q30" s="54" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6806,21 +6838,21 @@
       <c r="E34">
         <v>5912.79233226837</v>
       </c>
-      <c r="O34" s="60"/>
-      <c r="P34" s="55" t="s">
+      <c r="O34" s="56"/>
+      <c r="P34" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="Q34" s="55" t="s">
+      <c r="Q34" s="51" t="s">
         <v>165</v>
       </c>
       <c r="R34" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="S34" s="66"/>
+      <c r="S34" s="62"/>
       <c r="T34" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="U34" s="66"/>
+      <c r="U34" s="62"/>
       <c r="V34" t="s">
         <v>85</v>
       </c>
@@ -6838,24 +6870,24 @@
       <c r="D35">
         <v>135</v>
       </c>
-      <c r="E35" s="61">
+      <c r="E35" s="57">
         <v>2568.4322033898302</v>
       </c>
-      <c r="O35" s="60"/>
-      <c r="P35" s="52" t="s">
+      <c r="O35" s="56"/>
+      <c r="P35" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="Q35" s="52" t="s">
+      <c r="Q35" s="48" t="s">
         <v>167</v>
       </c>
       <c r="R35" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="S35" s="66"/>
+      <c r="S35" s="62"/>
       <c r="T35" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="U35" s="66"/>
+      <c r="U35" s="62"/>
       <c r="V35" t="s">
         <v>86</v>
       </c>
@@ -6876,7 +6908,7 @@
       <c r="E36">
         <v>2907.5887850467202</v>
       </c>
-      <c r="Q36" s="58" t="s">
+      <c r="Q36" s="54" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6896,23 +6928,23 @@
       <c r="E37">
         <v>733.86666666666599</v>
       </c>
-      <c r="M37" s="69" t="s">
-        <v>285</v>
-      </c>
-      <c r="O37" s="60"/>
-      <c r="P37" s="52" t="s">
+      <c r="M37" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="O37" s="56"/>
+      <c r="P37" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="Q37" s="52" t="s">
+      <c r="Q37" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="S37" s="49"/>
+      <c r="S37" s="45"/>
       <c r="T37" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="U37" s="66"/>
+        <v>284</v>
+      </c>
+      <c r="U37" s="62"/>
       <c r="V37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -6931,18 +6963,18 @@
       <c r="E38">
         <v>4316805699832.7402</v>
       </c>
-      <c r="O38" s="60"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="52" t="s">
+      <c r="O38" s="56"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="S38" s="49"/>
+      <c r="S38" s="45"/>
       <c r="T38" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="U38" s="66"/>
+        <v>284</v>
+      </c>
+      <c r="U38" s="62"/>
       <c r="V38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -6978,10 +7010,10 @@
       <c r="D40">
         <v>8781620000</v>
       </c>
-      <c r="E40" s="61">
+      <c r="E40" s="57">
         <v>5133342539307.2002</v>
       </c>
-      <c r="Q40" s="58" t="s">
+      <c r="Q40" s="54" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7001,7 +7033,7 @@
       <c r="E41">
         <v>5043143942925.4697</v>
       </c>
-      <c r="Q41" s="58" t="s">
+      <c r="Q41" s="54" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7021,191 +7053,197 @@
       <c r="E42">
         <v>2231691215348.4902</v>
       </c>
-      <c r="O42" s="60"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="52" t="s">
+      <c r="O42" s="56"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="S42" s="49"/>
+      <c r="S42" s="45"/>
       <c r="T42" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="U42" s="66"/>
+        <v>285</v>
+      </c>
+      <c r="U42" s="62"/>
       <c r="V42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="P43" s="51"/>
-      <c r="Q43" s="52" t="s">
+      <c r="P43" s="47"/>
+      <c r="Q43" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="S43" s="68"/>
+      <c r="S43" s="64"/>
       <c r="T43" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="U43" s="67"/>
+        <v>285</v>
+      </c>
+      <c r="U43" s="62"/>
       <c r="V43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:22">
-      <c r="M44" s="69" t="s">
-        <v>286</v>
-      </c>
-      <c r="O44" s="60"/>
-      <c r="P44" s="52" t="s">
+      <c r="M44" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="O44" s="56"/>
+      <c r="P44" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="Q44" s="52" t="s">
+      <c r="Q44" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S44" s="49"/>
+      <c r="S44" s="45"/>
       <c r="T44" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="U44" s="66"/>
+        <v>285</v>
+      </c>
+      <c r="U44" s="62"/>
       <c r="V44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:22">
-      <c r="O45" s="60"/>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="52" t="s">
+      <c r="O45" s="56"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="S45" s="49"/>
+      <c r="S45" s="45"/>
       <c r="T45" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="U45" s="66"/>
+        <v>285</v>
+      </c>
+      <c r="U45" s="62"/>
       <c r="V45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:22">
-      <c r="Q46" s="58" t="s">
+      <c r="Q46" s="54" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:22">
       <c r="D47" t="s">
+        <v>280</v>
+      </c>
+      <c r="E47" t="s">
         <v>281</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>282</v>
       </c>
-      <c r="F47" t="s">
-        <v>283</v>
-      </c>
-      <c r="O47" s="60"/>
-      <c r="P47" s="52" t="s">
+      <c r="O47" s="56"/>
+      <c r="P47" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="Q47" s="52" t="s">
+      <c r="Q47" s="48" t="s">
         <v>185</v>
       </c>
       <c r="R47" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="S47" s="66"/>
+      <c r="S47" s="62"/>
       <c r="T47" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="U47" s="66"/>
+      <c r="U47" s="62"/>
       <c r="V47" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:22">
-      <c r="D48" s="61">
+      <c r="D48" s="57">
         <v>1788.73395000286</v>
       </c>
-      <c r="E48" s="61">
+      <c r="E48" s="57">
         <f>SUM(E35,E40)</f>
         <v>5133342541875.6328</v>
       </c>
-      <c r="F48" s="61">
+      <c r="F48" s="57">
         <f>E48/D53</f>
         <v>90010483.617180794</v>
       </c>
-      <c r="G48" s="63">
+      <c r="G48" s="59">
         <v>1</v>
       </c>
-      <c r="N48" s="60"/>
-      <c r="O48" s="55" t="s">
+      <c r="N48" s="56"/>
+      <c r="O48" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="P48" s="55" t="s">
+      <c r="P48" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="Q48" s="55" t="s">
+      <c r="Q48" s="51" t="s">
         <v>186</v>
       </c>
       <c r="R48" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="S48" s="66"/>
+      <c r="S48" s="62"/>
       <c r="T48" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="U48" s="66"/>
+      <c r="U48" s="62"/>
       <c r="V48" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="49" spans="4:22">
-      <c r="D49" s="61">
+      <c r="D49" s="57">
         <v>11562.729582981399</v>
       </c>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
       <c r="Q49" s="29" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="50" spans="4:22">
-      <c r="D50" s="61">
+      <c r="D50" s="57">
         <v>15112.2889690376</v>
       </c>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="Q50" s="58" t="s">
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="M50" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="54" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="51" spans="4:22">
-      <c r="D51" s="61">
+      <c r="D51" s="57">
         <v>28566.743675601199</v>
       </c>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
       <c r="Q51" s="29" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="52" spans="4:22">
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="Q52" s="57" t="s">
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="Q52" s="53" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="53" spans="4:22">
-      <c r="D53" s="61">
+      <c r="D53" s="57">
         <f>SUM(D48:D51)</f>
         <v>57030.496177623063</v>
       </c>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="Q53" s="57" t="s">
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="Q53" s="53" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7215,36 +7253,36 @@
       </c>
     </row>
     <row r="55" spans="4:22">
-      <c r="P55" s="51"/>
-      <c r="Q55" s="52" t="s">
+      <c r="P55" s="47"/>
+      <c r="Q55" s="48" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="56" spans="4:22">
-      <c r="O56" s="60"/>
-      <c r="P56" s="52" t="s">
+      <c r="O56" s="56"/>
+      <c r="P56" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="Q56" s="52" t="s">
+      <c r="Q56" s="48" t="s">
         <v>196</v>
       </c>
       <c r="R56" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="S56" s="66"/>
+      <c r="S56" s="62"/>
       <c r="T56" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="U56" s="66"/>
+      <c r="U56" s="62"/>
       <c r="V56" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="57" spans="4:22">
-      <c r="D57" s="62">
+      <c r="D57" s="58">
         <v>49.687054166746101</v>
       </c>
-      <c r="E57" s="62">
+      <c r="E57" s="58">
         <v>2.65384907534246</v>
       </c>
       <c r="Q57" s="29" t="s">
@@ -7252,24 +7290,24 @@
       </c>
     </row>
     <row r="58" spans="4:22">
-      <c r="D58" s="62">
+      <c r="D58" s="58">
         <v>211.693502810045</v>
       </c>
-      <c r="O58" s="60"/>
-      <c r="P58" s="52" t="s">
+      <c r="O58" s="56"/>
+      <c r="P58" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="Q58" s="52" t="s">
+      <c r="Q58" s="48" t="s">
         <v>198</v>
       </c>
       <c r="R58" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="S58" s="66"/>
+      <c r="S58" s="62"/>
       <c r="T58" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="U58" s="66"/>
+      <c r="U58" s="62"/>
       <c r="V58" t="s">
         <v>89</v>
       </c>
@@ -7280,15 +7318,15 @@
       </c>
     </row>
     <row r="60" spans="4:22">
-      <c r="D60" s="62">
+      <c r="D60" s="58">
         <f xml:space="preserve"> SUM(D57+D58)</f>
         <v>261.38055697679113</v>
       </c>
-      <c r="F60" s="62">
+      <c r="F60" s="58">
         <f>(E57/D60)*100</f>
         <v>1.0153200016243382</v>
       </c>
-      <c r="G60" s="65">
+      <c r="G60" s="61">
         <v>1</v>
       </c>
       <c r="Q60" s="29" t="s">
@@ -7296,45 +7334,51 @@
       </c>
     </row>
     <row r="61" spans="4:22">
-      <c r="O61" s="60"/>
-      <c r="P61" s="51"/>
-      <c r="Q61" s="52" t="s">
+      <c r="O61" s="56"/>
+      <c r="P61" s="47"/>
+      <c r="Q61" s="48" t="s">
         <v>202</v>
       </c>
       <c r="R61" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="S61" s="66"/>
+      <c r="S61" s="62"/>
       <c r="T61" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="U61" s="66"/>
+      <c r="U61" s="62"/>
       <c r="V61" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="62" spans="4:22">
-      <c r="O62" s="60"/>
-      <c r="P62" s="52" t="s">
+      <c r="O62" s="56"/>
+      <c r="P62" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="Q62" s="52" t="s">
+      <c r="Q62" s="48" t="s">
         <v>204</v>
       </c>
       <c r="R62" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="S62" s="66"/>
+      <c r="S62" s="62"/>
       <c r="T62" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="U62" s="66"/>
+      <c r="U62" s="62"/>
       <c r="V62" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="63" spans="4:22">
-      <c r="Q63" s="58" t="s">
+      <c r="M63" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="N63" s="69"/>
+      <c r="O63" s="69"/>
+      <c r="P63" s="69"/>
+      <c r="Q63" s="54" t="s">
         <v>205</v>
       </c>
     </row>
@@ -7345,21 +7389,21 @@
       <c r="E64" s="13">
         <v>234.88788304347801</v>
       </c>
-      <c r="O64" s="60"/>
-      <c r="P64" s="55" t="s">
+      <c r="O64" s="56"/>
+      <c r="P64" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="Q64" s="55" t="s">
+      <c r="Q64" s="51" t="s">
         <v>206</v>
       </c>
       <c r="R64" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S64" s="66"/>
+      <c r="S64" s="62"/>
       <c r="T64" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U64" s="66"/>
+      <c r="U64" s="62"/>
       <c r="V64" t="s">
         <v>21</v>
       </c>
@@ -7372,26 +7416,26 @@
         <f>(E64/D67) *100</f>
         <v>5.4623378078715961</v>
       </c>
-      <c r="G65" s="64">
+      <c r="G65" s="60">
         <v>0.05</v>
       </c>
-      <c r="M65" s="69" t="s">
-        <v>287</v>
-      </c>
-      <c r="O65" s="60"/>
-      <c r="P65" s="52" t="s">
+      <c r="M65" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="O65" s="56"/>
+      <c r="P65" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="Q65" s="52" t="s">
+      <c r="Q65" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="S65" s="49"/>
+      <c r="S65" s="45"/>
       <c r="T65" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="U65" s="66"/>
+        <v>286</v>
+      </c>
+      <c r="U65" s="62"/>
       <c r="V65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="4:22">
@@ -7409,169 +7453,169 @@
       </c>
     </row>
     <row r="68" spans="4:22">
-      <c r="Q68" s="58" t="s">
+      <c r="Q68" s="54" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="69" spans="4:22">
-      <c r="Q69" s="58" t="s">
+      <c r="Q69" s="54" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="70" spans="4:22">
-      <c r="O70" s="60"/>
-      <c r="P70" s="51"/>
-      <c r="Q70" s="52" t="s">
+      <c r="O70" s="56"/>
+      <c r="P70" s="47"/>
+      <c r="Q70" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="S70" s="49"/>
+      <c r="S70" s="45"/>
       <c r="T70" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="U70" s="66"/>
+        <v>287</v>
+      </c>
+      <c r="U70" s="62"/>
       <c r="V70" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="4:22">
-      <c r="M71" s="69" t="s">
-        <v>288</v>
-      </c>
-      <c r="O71" s="60"/>
-      <c r="P71" s="52" t="s">
+      <c r="M71" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="O71" s="56"/>
+      <c r="P71" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="Q71" s="52" t="s">
+      <c r="Q71" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="S71" s="49"/>
+      <c r="S71" s="45"/>
       <c r="T71" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="U71" s="66"/>
+        <v>287</v>
+      </c>
+      <c r="U71" s="62"/>
       <c r="V71" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="4:22">
       <c r="Q72" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="S72" s="49"/>
-      <c r="U72" s="67"/>
+      <c r="S72" s="64"/>
+      <c r="U72" s="64"/>
     </row>
     <row r="73" spans="4:22">
-      <c r="O73" s="60"/>
-      <c r="P73" s="51"/>
-      <c r="Q73" s="52" t="s">
+      <c r="O73" s="56"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="48" t="s">
         <v>216</v>
       </c>
       <c r="R73" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="S73" s="66"/>
+      <c r="S73" s="62"/>
       <c r="T73" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="U73" s="66"/>
+      <c r="U73" s="62"/>
       <c r="V73" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="74" spans="4:22">
-      <c r="O74" s="60"/>
-      <c r="P74" s="52" t="s">
+      <c r="O74" s="56"/>
+      <c r="P74" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="Q74" s="52" t="s">
+      <c r="Q74" s="48" t="s">
         <v>217</v>
       </c>
       <c r="R74" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="S74" s="66"/>
+      <c r="S74" s="62"/>
       <c r="T74" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="U74" s="66"/>
+      <c r="U74" s="62"/>
       <c r="V74" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="75" spans="4:22">
-      <c r="N75" s="60"/>
-      <c r="O75" s="56"/>
-      <c r="P75" s="56"/>
-      <c r="Q75" s="55" t="s">
+      <c r="N75" s="56"/>
+      <c r="O75" s="52"/>
+      <c r="P75" s="52"/>
+      <c r="Q75" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="S75" s="49"/>
+      <c r="S75" s="45"/>
       <c r="T75" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="U75" s="66"/>
+        <v>290</v>
+      </c>
+      <c r="U75" s="62"/>
       <c r="V75" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="4:22">
-      <c r="M76" s="69" t="s">
-        <v>289</v>
-      </c>
-      <c r="N76" s="60"/>
-      <c r="O76" s="55" t="s">
+      <c r="M76" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="N76" s="56"/>
+      <c r="O76" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="P76" s="55" t="s">
+      <c r="P76" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="Q76" s="55" t="s">
+      <c r="Q76" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="S76" s="49"/>
+      <c r="S76" s="45"/>
       <c r="T76" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="U76" s="66"/>
+        <v>290</v>
+      </c>
+      <c r="U76" s="62"/>
       <c r="V76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="4:22">
-      <c r="N77" s="60"/>
-      <c r="O77" s="56"/>
-      <c r="P77" s="56"/>
-      <c r="Q77" s="55" t="s">
+      <c r="N77" s="56"/>
+      <c r="O77" s="52"/>
+      <c r="P77" s="52"/>
+      <c r="Q77" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="S77" s="49"/>
+      <c r="S77" s="45"/>
       <c r="T77" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="U77" s="66"/>
+        <v>290</v>
+      </c>
+      <c r="U77" s="62"/>
       <c r="V77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="4:22">
-      <c r="N78" s="60"/>
-      <c r="O78" s="52" t="s">
+      <c r="N78" s="56"/>
+      <c r="O78" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="P78" s="52" t="s">
+      <c r="P78" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="Q78" s="52" t="s">
+      <c r="Q78" s="48" t="s">
         <v>221</v>
       </c>
       <c r="R78" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="S78" s="66"/>
+      <c r="S78" s="62"/>
       <c r="T78" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="U78" s="66"/>
+      <c r="U78" s="62"/>
       <c r="V78" t="s">
         <v>96</v>
       </c>
@@ -7588,11 +7632,11 @@
       <c r="R80" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="S80" s="67"/>
+      <c r="S80" s="63"/>
       <c r="T80" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="U80" s="67"/>
+      <c r="U80" s="62"/>
       <c r="V80" t="s">
         <v>68</v>
       </c>
@@ -7604,198 +7648,204 @@
       <c r="R81" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="S81" s="67"/>
+      <c r="S81" s="63"/>
       <c r="T81" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="U81" s="67"/>
+      <c r="U81" s="62"/>
       <c r="V81" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="82" spans="13:22">
-      <c r="M82" s="69" t="s">
-        <v>290</v>
-      </c>
-      <c r="N82" s="60"/>
-      <c r="O82" s="55" t="s">
+      <c r="M82" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="N82" s="56"/>
+      <c r="O82" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="P82" s="55" t="s">
+      <c r="P82" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="Q82" s="55" t="s">
+      <c r="Q82" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="S82" s="49"/>
+      <c r="S82" s="45"/>
       <c r="T82" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="U82" s="66"/>
+        <v>289</v>
+      </c>
+      <c r="U82" s="62"/>
       <c r="V82" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="13:22">
-      <c r="Q83" s="58" t="s">
+      <c r="M83" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="N83" s="69"/>
+      <c r="O83" s="69"/>
+      <c r="P83" s="69"/>
+      <c r="Q83" s="54" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="84" spans="13:22">
-      <c r="O84" s="60"/>
-      <c r="P84" s="52" t="s">
+      <c r="O84" s="56"/>
+      <c r="P84" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="Q84" s="52" t="s">
+      <c r="Q84" s="48" t="s">
         <v>229</v>
       </c>
       <c r="R84" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="S84" s="66"/>
+      <c r="S84" s="62"/>
       <c r="T84" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="U84" s="66"/>
+      <c r="U84" s="62"/>
       <c r="V84" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="85" spans="13:22">
-      <c r="O85" s="60"/>
-      <c r="P85" s="56"/>
-      <c r="Q85" s="55" t="s">
+      <c r="O85" s="56"/>
+      <c r="P85" s="52"/>
+      <c r="Q85" s="51" t="s">
         <v>231</v>
       </c>
       <c r="R85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="S85" s="66"/>
+      <c r="S85" s="62"/>
       <c r="T85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="U85" s="66"/>
+      <c r="U85" s="62"/>
       <c r="V85" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="86" spans="13:22">
-      <c r="O86" s="60"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="55" t="s">
+      <c r="O86" s="56"/>
+      <c r="P86" s="52"/>
+      <c r="Q86" s="51" t="s">
         <v>232</v>
       </c>
       <c r="R86" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="S86" s="66"/>
+      <c r="S86" s="62"/>
       <c r="T86" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="U86" s="66"/>
+      <c r="U86" s="62"/>
       <c r="V86" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="87" spans="13:22">
-      <c r="O87" s="60"/>
-      <c r="P87" s="55" t="s">
+      <c r="O87" s="56"/>
+      <c r="P87" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="Q87" s="55" t="s">
+      <c r="Q87" s="51" t="s">
         <v>233</v>
       </c>
       <c r="R87" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="S87" s="66"/>
+      <c r="S87" s="62"/>
       <c r="T87" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="U87" s="66"/>
+      <c r="U87" s="62"/>
       <c r="V87" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="88" spans="13:22">
-      <c r="Q88" s="58" t="s">
+      <c r="Q88" s="54" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="89" spans="13:22">
-      <c r="Q89" s="58" t="s">
+      <c r="Q89" s="54" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="90" spans="13:22">
-      <c r="Q90" s="58" t="s">
+      <c r="Q90" s="54" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="91" spans="13:22">
-      <c r="Q91" s="57" t="s">
+      <c r="Q91" s="53" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="92" spans="13:22">
-      <c r="N92" s="60"/>
-      <c r="O92" s="55" t="s">
+      <c r="N92" s="56"/>
+      <c r="O92" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="P92" s="55" t="s">
+      <c r="P92" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="Q92" s="55" t="s">
+      <c r="Q92" s="51" t="s">
         <v>239</v>
       </c>
       <c r="R92" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="S92" s="66"/>
+      <c r="S92" s="62"/>
       <c r="T92" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="U92" s="66"/>
+      <c r="U92" s="62"/>
       <c r="V92" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="13:22">
-      <c r="O93" s="60"/>
-      <c r="P93" s="52" t="s">
+      <c r="O93" s="56"/>
+      <c r="P93" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="Q93" s="52" t="s">
+      <c r="Q93" s="48" t="s">
         <v>240</v>
       </c>
       <c r="R93" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="S93" s="66"/>
+      <c r="S93" s="62"/>
       <c r="T93" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="U93" s="66"/>
+      <c r="U93" s="62"/>
       <c r="V93" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="94" spans="13:22">
-      <c r="O94" s="60"/>
-      <c r="P94" s="55" t="s">
+      <c r="O94" s="56"/>
+      <c r="P94" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="Q94" s="55" t="s">
+      <c r="Q94" s="51" t="s">
         <v>241</v>
       </c>
       <c r="R94" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="S94" s="66"/>
+      <c r="S94" s="62"/>
       <c r="T94" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="U94" s="66"/>
+      <c r="U94" s="62"/>
       <c r="V94" t="s">
         <v>77</v>
       </c>
@@ -7810,229 +7860,241 @@
         <v>243</v>
       </c>
     </row>
-    <row r="97" spans="14:22">
+    <row r="97" spans="13:22">
       <c r="Q97" s="29" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="98" spans="14:22">
-      <c r="Q98" s="58" t="s">
+    <row r="98" spans="13:22">
+      <c r="Q98" s="54" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="99" spans="14:22">
-      <c r="P99" s="58" t="s">
+    <row r="99" spans="13:22">
+      <c r="P99" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="Q99" s="58" t="s">
+      <c r="Q99" s="54" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="100" spans="14:22">
-      <c r="Q100" s="58" t="s">
+    <row r="100" spans="13:22">
+      <c r="Q100" s="54" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="101" spans="14:22">
-      <c r="Q101" s="58" t="s">
+    <row r="101" spans="13:22">
+      <c r="Q101" s="54" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="102" spans="14:22">
-      <c r="O102" s="60"/>
-      <c r="P102" s="55" t="s">
+    <row r="102" spans="13:22">
+      <c r="O102" s="56"/>
+      <c r="P102" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="Q102" s="55" t="s">
+      <c r="Q102" s="51" t="s">
         <v>248</v>
       </c>
       <c r="R102" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="S102" s="66"/>
+      <c r="S102" s="62"/>
       <c r="T102" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="U102" s="66"/>
+      <c r="U102" s="62"/>
       <c r="V102" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="14:22">
-      <c r="O103" s="60"/>
-      <c r="P103" s="56"/>
-      <c r="Q103" s="55" t="s">
+    <row r="103" spans="13:22">
+      <c r="O103" s="56"/>
+      <c r="P103" s="52"/>
+      <c r="Q103" s="51" t="s">
         <v>249</v>
       </c>
       <c r="R103" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="S103" s="66"/>
+      <c r="S103" s="62"/>
       <c r="T103" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="U103" s="66"/>
+      <c r="U103" s="62"/>
       <c r="V103" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="14:22">
-      <c r="Q104" s="58" t="s">
+    <row r="104" spans="13:22">
+      <c r="M104" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="N104" s="69"/>
+      <c r="O104" s="69"/>
+      <c r="P104" s="69"/>
+      <c r="Q104" s="54" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="105" spans="14:22">
-      <c r="O105" s="60"/>
-      <c r="P105" s="56"/>
-      <c r="Q105" s="55" t="s">
+    <row r="105" spans="13:22">
+      <c r="O105" s="56"/>
+      <c r="P105" s="52"/>
+      <c r="Q105" s="51" t="s">
         <v>251</v>
       </c>
       <c r="R105" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="S105" s="66"/>
+      <c r="S105" s="62"/>
       <c r="T105" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="U105" s="66"/>
+      <c r="U105" s="62"/>
       <c r="V105" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="106" spans="14:22">
-      <c r="O106" s="60"/>
-      <c r="P106" s="55" t="s">
+    <row r="106" spans="13:22">
+      <c r="O106" s="56"/>
+      <c r="P106" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="Q106" s="55" t="s">
+      <c r="Q106" s="51" t="s">
         <v>252</v>
       </c>
       <c r="R106" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="S106" s="66"/>
+      <c r="S106" s="62"/>
       <c r="T106" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="U106" s="66"/>
+      <c r="U106" s="62"/>
       <c r="V106" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="14:22">
-      <c r="O107" s="60"/>
-      <c r="P107" s="56"/>
-      <c r="Q107" s="55" t="s">
+    <row r="107" spans="13:22">
+      <c r="O107" s="56"/>
+      <c r="P107" s="52"/>
+      <c r="Q107" s="51" t="s">
         <v>253</v>
       </c>
       <c r="R107" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="S107" s="66"/>
+      <c r="S107" s="62"/>
       <c r="T107" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="U107" s="66"/>
+      <c r="U107" s="62"/>
       <c r="V107" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="14:22">
-      <c r="O108" s="51"/>
-      <c r="P108" s="51"/>
-      <c r="Q108" s="52" t="s">
+    <row r="108" spans="13:22">
+      <c r="O108" s="47"/>
+      <c r="P108" s="47"/>
+      <c r="Q108" s="48" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="109" spans="14:22">
-      <c r="O109" s="51"/>
-      <c r="P109" s="51"/>
-      <c r="Q109" s="52" t="s">
+    <row r="109" spans="13:22">
+      <c r="O109" s="47"/>
+      <c r="P109" s="47"/>
+      <c r="Q109" s="48" t="s">
         <v>255</v>
       </c>
       <c r="R109" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="S109" s="66"/>
+      <c r="S109" s="62"/>
       <c r="T109" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="U109" s="66"/>
+      <c r="U109" s="62"/>
       <c r="V109" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="14:22">
-      <c r="N110" s="60"/>
-      <c r="O110" s="52" t="s">
+    <row r="110" spans="13:22">
+      <c r="N110" s="56"/>
+      <c r="O110" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="P110" s="52" t="s">
+      <c r="P110" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="Q110" s="52" t="s">
+      <c r="Q110" s="48" t="s">
         <v>256</v>
       </c>
       <c r="R110" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="S110" s="66"/>
+      <c r="S110" s="62"/>
       <c r="T110" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="U110" s="66"/>
+      <c r="U110" s="62"/>
       <c r="V110" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="14:22">
-      <c r="O111" s="51"/>
-      <c r="P111" s="51"/>
-      <c r="Q111" s="52" t="s">
+    <row r="111" spans="13:22">
+      <c r="O111" s="47"/>
+      <c r="P111" s="47"/>
+      <c r="Q111" s="48" t="s">
         <v>257</v>
       </c>
       <c r="R111" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="S111" s="66"/>
+      <c r="S111" s="62"/>
       <c r="T111" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="U111" s="66"/>
+      <c r="U111" s="62"/>
       <c r="V111" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="112" spans="14:22">
-      <c r="Q112" s="57" t="s">
+    <row r="112" spans="13:22">
+      <c r="Q112" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="113" spans="13:22">
-      <c r="Q113" s="58" t="s">
+      <c r="M113" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="N113" s="69"/>
+      <c r="O113" s="69"/>
+      <c r="P113" s="69"/>
+      <c r="Q113" s="54" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="114" spans="13:22">
-      <c r="Q114" s="58" t="s">
+      <c r="Q114" s="54" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="115" spans="13:22">
-      <c r="M115" s="69" t="s">
+      <c r="M115" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="P115" s="52" t="s">
+      <c r="P115" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="Q115" s="52" t="s">
+      <c r="Q115" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="S115" s="49"/>
+      <c r="S115" s="45"/>
       <c r="T115" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="U115" s="66"/>
+      <c r="U115" s="62"/>
       <c r="V115" t="s">
         <v>17</v>
       </c>
@@ -8654,7 +8716,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="42" t="s">
+      <c r="M14" s="66" t="s">
         <v>42</v>
       </c>
       <c r="N14" s="4"/>
@@ -8674,7 +8736,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="43"/>
+      <c r="M15" s="67"/>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:26">
@@ -8692,7 +8754,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="43"/>
+      <c r="M16" s="67"/>
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14">
@@ -8710,7 +8772,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="22"/>
-      <c r="M17" s="43"/>
+      <c r="M17" s="67"/>
       <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:14">
@@ -8728,7 +8790,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="22"/>
-      <c r="M18" s="43"/>
+      <c r="M18" s="67"/>
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14">
@@ -8746,7 +8808,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="22"/>
-      <c r="M19" s="43"/>
+      <c r="M19" s="67"/>
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14">
@@ -8762,7 +8824,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="44"/>
+      <c r="M20" s="68"/>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14">
@@ -9174,8 +9236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9200,16 +9262,16 @@
       <c r="A3" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="45" t="s">
         <v>273</v>
       </c>
     </row>
@@ -9223,16 +9285,17 @@
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="37"/>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="N4" s="50"/>
+      <c r="N4" s="46"/>
       <c r="O4" t="s">
         <v>18</v>
       </c>
+      <c r="P4" s="46"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="33" t="s">
@@ -9262,11 +9325,12 @@
       <c r="I5" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="46" t="s">
+      <c r="L5" s="44"/>
+      <c r="M5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="50"/>
+      <c r="N5" s="46"/>
+      <c r="P5" s="46"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="39"/>
@@ -9278,783 +9342,442 @@
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="41"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="46" t="s">
+      <c r="L6" s="44"/>
+      <c r="M6" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="N6" s="50"/>
+      <c r="N6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="L7" s="47"/>
-      <c r="M7" s="46" t="s">
+      <c r="L7" s="44"/>
+      <c r="M7" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="50"/>
+      <c r="N7" s="46"/>
+      <c r="P7" s="46"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="L8" s="47"/>
-      <c r="M8" s="46" t="s">
+      <c r="I8" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="L8" s="44"/>
+      <c r="M8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="50"/>
+      <c r="N8" s="46"/>
+      <c r="P8" s="46"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="L9" s="47"/>
-      <c r="M9" s="48" t="s">
+      <c r="I9" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="L9" s="44"/>
+      <c r="M9" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="50"/>
+      <c r="N9" s="46"/>
+      <c r="P9" s="46"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="L10" s="47"/>
-      <c r="M10" s="48" t="s">
+      <c r="I10" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="L10" s="44"/>
+      <c r="M10" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="N10" s="50"/>
+      <c r="N10" s="46"/>
+      <c r="P10" s="46"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="L11" s="47"/>
-      <c r="M11" s="48" t="s">
+      <c r="L11" s="44"/>
+      <c r="M11" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="50"/>
+      <c r="N11" s="46"/>
+      <c r="P11" s="46"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="L12" s="47"/>
-      <c r="M12" s="48" t="s">
+      <c r="L12" s="44"/>
+      <c r="M12" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="50"/>
+      <c r="N12" s="46"/>
+      <c r="P12" s="46"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="29" t="s">
-        <v>280</v>
-      </c>
+      <c r="A13" s="29"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="29"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="C16" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="C27" s="29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="C28" s="29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="C29" s="29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="C33" s="29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="C43" s="29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="C44" s="29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="C45" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="C46" s="29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="C47" s="29" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="C50" s="29" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="C51" s="29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="C52" s="29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="C53" s="29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="C54" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="C55" s="29" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="C56" s="29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="C57" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="C58" s="29" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="C59" s="29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="C60" s="29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="C63" s="29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="C64" s="29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="C65" s="29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="C66" s="29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="C67" s="29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="C68" s="29" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="C69" s="29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="C71" s="29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="C73" s="29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="C74" s="29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>98</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="C77" s="29" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="C79" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="C80" s="29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="C81" s="29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="C82" s="29" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="C83" s="29" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="C84" s="29" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="C85" s="29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="C86" s="29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C87" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>75</v>
-      </c>
-      <c r="C88" s="29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="C89" s="29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="C90" s="29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="C91" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" s="29" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="C93" s="29" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>68</v>
-      </c>
-      <c r="C94" s="29" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>68</v>
-      </c>
-      <c r="C95" s="29" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="C96" s="29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="C97" s="29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>25</v>
-      </c>
-      <c r="C98" s="29" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="C99" s="29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-      <c r="C100" s="29" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>99</v>
-      </c>
-      <c r="C101" s="29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="C102" s="29" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="C103" s="29" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="C104" s="29" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="C105" s="29" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>91</v>
-      </c>
-      <c r="C106" s="29" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>97</v>
-      </c>
-      <c r="C107" s="29" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>77</v>
-      </c>
-      <c r="C108" s="29" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="C109" s="29" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="C110" s="29" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="C111" s="29" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="C112" s="29" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="C113" s="29" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="C114" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="C115" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>93</v>
-      </c>
-      <c r="C116" s="29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>93</v>
-      </c>
-      <c r="C117" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="C118" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>78</v>
-      </c>
-      <c r="C119" s="29" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>78</v>
-      </c>
-      <c r="C120" s="29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>78</v>
-      </c>
-      <c r="C121" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="C122" s="29" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>95</v>
-      </c>
-      <c r="C123" s="29" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>95</v>
-      </c>
-      <c r="C124" s="29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>95</v>
-      </c>
-      <c r="C125" s="29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="C126" s="29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="C127" s="29" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="C128" s="29" t="s">
-        <v>260</v>
-      </c>
+      <c r="C16" s="29"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="C17" s="29"/>
+      <c r="L17" s="70" t="s">
+        <v>294</v>
+      </c>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="C18" s="29"/>
+      <c r="L18" s="70" t="s">
+        <v>295</v>
+      </c>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="29"/>
+      <c r="L19" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="29"/>
+      <c r="L20" s="70" t="s">
+        <v>297</v>
+      </c>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="C21" s="29"/>
+      <c r="L21" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="29"/>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="C23" s="29"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="C24" s="29"/>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="C25" s="29"/>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="C26" s="29"/>
+    </row>
+    <row r="27" spans="3:14">
+      <c r="C27" s="29"/>
+    </row>
+    <row r="28" spans="3:14">
+      <c r="C28" s="29"/>
+    </row>
+    <row r="29" spans="3:14">
+      <c r="C29" s="29"/>
+    </row>
+    <row r="30" spans="3:14">
+      <c r="C30" s="29"/>
+    </row>
+    <row r="31" spans="3:14">
+      <c r="C31" s="29"/>
+    </row>
+    <row r="32" spans="3:14">
+      <c r="C32" s="29"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="29"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="29"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="29"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="29"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="29"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="29"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="29"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="29"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="29"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="29"/>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="29"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="29"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="29"/>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="29"/>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="29"/>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="29"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="29"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="29"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="29"/>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="29"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="29"/>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="29"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="29"/>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="29"/>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="29"/>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="29"/>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="29"/>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="29"/>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="29"/>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="29"/>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="29"/>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="29"/>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="29"/>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="29"/>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="29"/>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="29"/>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="29"/>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="29"/>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="29"/>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="29"/>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="29"/>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="29"/>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="29"/>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="29"/>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="29"/>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="29"/>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="29"/>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="29"/>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="29"/>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="29"/>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="29"/>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="29"/>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="29"/>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="29"/>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="29"/>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="29"/>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="29"/>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="29"/>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="29"/>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="29"/>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="29"/>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="29"/>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="29"/>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="29"/>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="29"/>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="29"/>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="29"/>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="29"/>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="29"/>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="29"/>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="29"/>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="29"/>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="29"/>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="29"/>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="29"/>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="29"/>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="29"/>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" s="29"/>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="29"/>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" s="29"/>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="29"/>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" s="29"/>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="29"/>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="29"/>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" s="29"/>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="29"/>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" s="29"/>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" s="29"/>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" s="29"/>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" s="29"/>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="29"/>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" s="29"/>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" s="29"/>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" s="29"/>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="29"/>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" s="29"/>
     </row>
     <row r="129" spans="3:3">
-      <c r="C129" s="29" t="s">
-        <v>261</v>
-      </c>
+      <c r="C129" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Food_SR_Organization.xlsx
+++ b/Food_SR_Organization.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="9000" windowWidth="28760" windowHeight="8440" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Food Need" sheetId="3" r:id="rId1"/>
-    <sheet name="Crops" sheetId="2" r:id="rId2"/>
-    <sheet name="Livestock" sheetId="1" r:id="rId3"/>
-    <sheet name="Food Self Reliance" sheetId="4" r:id="rId4"/>
+    <sheet name="1.Food Need" sheetId="3" r:id="rId1"/>
+    <sheet name="2.Crops" sheetId="2" r:id="rId2"/>
+    <sheet name="3.Livestock" sheetId="1" r:id="rId3"/>
+    <sheet name="4.Food Self Reliance" sheetId="4" r:id="rId4"/>
+    <sheet name="Error" sheetId="5" r:id="rId5"/>
+    <sheet name="Work Flow" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -178,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="327">
   <si>
     <t>ALL LOCAL</t>
   </si>
@@ -1075,13 +1077,97 @@
   </si>
   <si>
     <t>4. Calculate Error</t>
+  </si>
+  <si>
+    <t>food availability data</t>
+  </si>
+  <si>
+    <t>ommiting foods (redundant/not enough data)</t>
+  </si>
+  <si>
+    <t>What percentage of the diet was ommited?</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>1: Food Need</t>
+  </si>
+  <si>
+    <t>population data</t>
+  </si>
+  <si>
+    <t>dietary recommendation</t>
+  </si>
+  <si>
+    <t>dietary recommendation for each age group</t>
+  </si>
+  <si>
+    <t>average dietary recommendation</t>
+  </si>
+  <si>
+    <t>What distorion does taking the average give us? What if we had a whole population of SWBC in the lowest and highest recommended serving groups respectively?</t>
+  </si>
+  <si>
+    <t>balance food need to dietary recommendation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the dietary recommendation is larger than the actual food need we increase the food need according to the percent difference. Doing this leaves us with a value for food need that greatly exceeds the reqirements of the people in the province. How would ommiting this step change the final calculation of food need? Try the whole calculation without balancing the food need to the dietary recommendation. </t>
+  </si>
+  <si>
+    <t>food need</t>
+  </si>
+  <si>
+    <t>diet and seasonality constraint ((fn/12)*#months avail)</t>
+  </si>
+  <si>
+    <t>2. Crop Yield</t>
+  </si>
+  <si>
+    <t>BC crop yield data</t>
+  </si>
+  <si>
+    <t>SWBC land area data</t>
+  </si>
+  <si>
+    <t>Fuzzy string matching</t>
+  </si>
+  <si>
+    <t>yield*SWBC land area</t>
+  </si>
+  <si>
+    <t>field crops</t>
+  </si>
+  <si>
+    <t>fruit crops</t>
+  </si>
+  <si>
+    <t>vegetable crops</t>
+  </si>
+  <si>
+    <t>mushrooms</t>
+  </si>
+  <si>
+    <t>greenhouse vegetables</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>mushroom &amp; greenhouse</t>
+  </si>
+  <si>
+    <t>units conversion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1139,8 +1225,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1261,8 +1355,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DB4E2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5D9F1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1393,8 +1511,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="179">
+  <cellStyleXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1574,8 +1782,80 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1650,6 +1930,8 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1659,10 +1941,92 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="179">
+  <cellStyles count="251">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1752,6 +2116,42 @@
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1841,6 +2241,42 @@
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5819,8 +6255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V115"/>
   <sheetViews>
-    <sheetView topLeftCell="K107" workbookViewId="0">
-      <selection activeCell="M114" sqref="M114"/>
+    <sheetView topLeftCell="J3" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5898,8 +6334,8 @@
       <c r="Q2" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="U2" s="45"/>
+      <c r="S2" s="64"/>
+      <c r="U2" s="64"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="29" t="s">
@@ -5937,8 +6373,8 @@
       <c r="Q3" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="S3" s="45"/>
-      <c r="U3" s="45"/>
+      <c r="S3" s="64"/>
+      <c r="U3" s="64"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="29" t="s">
@@ -5967,7 +6403,7 @@
         <v>117</v>
       </c>
       <c r="S4" s="45"/>
-      <c r="U4" s="45"/>
+      <c r="U4" s="62"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="29" t="s">
@@ -6411,9 +6847,9 @@
       <c r="M19" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
       <c r="Q19" s="54" t="s">
         <v>142</v>
       </c>
@@ -7208,9 +7644,9 @@
       <c r="M50" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="N50" s="69"/>
-      <c r="O50" s="69"/>
-      <c r="P50" s="69"/>
+      <c r="N50" s="66"/>
+      <c r="O50" s="66"/>
+      <c r="P50" s="66"/>
       <c r="Q50" s="54" t="s">
         <v>188</v>
       </c>
@@ -7375,9 +7811,9 @@
       <c r="M63" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="N63" s="69"/>
-      <c r="O63" s="69"/>
-      <c r="P63" s="69"/>
+      <c r="N63" s="66"/>
+      <c r="O63" s="66"/>
+      <c r="P63" s="66"/>
       <c r="Q63" s="54" t="s">
         <v>205</v>
       </c>
@@ -7684,9 +8120,9 @@
       <c r="M83" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="N83" s="69"/>
-      <c r="O83" s="69"/>
-      <c r="P83" s="69"/>
+      <c r="N83" s="66"/>
+      <c r="O83" s="66"/>
+      <c r="P83" s="66"/>
       <c r="Q83" s="54" t="s">
         <v>228</v>
       </c>
@@ -7930,9 +8366,9 @@
       <c r="M104" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="N104" s="69"/>
-      <c r="O104" s="69"/>
-      <c r="P104" s="69"/>
+      <c r="N104" s="66"/>
+      <c r="O104" s="66"/>
+      <c r="P104" s="66"/>
       <c r="Q104" s="54" t="s">
         <v>250</v>
       </c>
@@ -8068,9 +8504,9 @@
       <c r="M113" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="N113" s="69"/>
-      <c r="O113" s="69"/>
-      <c r="P113" s="69"/>
+      <c r="N113" s="66"/>
+      <c r="O113" s="66"/>
+      <c r="P113" s="66"/>
       <c r="Q113" s="54" t="s">
         <v>259</v>
       </c>
@@ -8716,7 +9152,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="66" t="s">
+      <c r="M14" s="68" t="s">
         <v>42</v>
       </c>
       <c r="N14" s="4"/>
@@ -8736,7 +9172,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="67"/>
+      <c r="M15" s="69"/>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:26">
@@ -8754,7 +9190,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="67"/>
+      <c r="M16" s="69"/>
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14">
@@ -8772,7 +9208,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="22"/>
-      <c r="M17" s="67"/>
+      <c r="M17" s="69"/>
       <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:14">
@@ -8790,7 +9226,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="22"/>
-      <c r="M18" s="67"/>
+      <c r="M18" s="69"/>
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14">
@@ -8808,7 +9244,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="22"/>
-      <c r="M19" s="67"/>
+      <c r="M19" s="69"/>
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14">
@@ -8824,7 +9260,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="68"/>
+      <c r="M20" s="70"/>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14">
@@ -9236,8 +9672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9417,43 +9853,43 @@
     </row>
     <row r="17" spans="3:14">
       <c r="C17" s="29"/>
-      <c r="L17" s="70" t="s">
+      <c r="L17" s="67" t="s">
         <v>294</v>
       </c>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
     </row>
     <row r="18" spans="3:14">
       <c r="C18" s="29"/>
-      <c r="L18" s="70" t="s">
+      <c r="L18" s="67" t="s">
         <v>295</v>
       </c>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
     </row>
     <row r="19" spans="3:14">
       <c r="C19" s="29"/>
-      <c r="L19" s="70" t="s">
+      <c r="L19" s="71" t="s">
         <v>296</v>
       </c>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
     </row>
     <row r="20" spans="3:14">
       <c r="C20" s="29"/>
-      <c r="L20" s="70" t="s">
+      <c r="L20" s="67" t="s">
         <v>297</v>
       </c>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
     </row>
     <row r="21" spans="3:14">
       <c r="C21" s="29"/>
-      <c r="L21" s="70" t="s">
+      <c r="L21" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="29"/>
@@ -9788,4 +10224,984 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="2.6640625" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" customWidth="1"/>
+    <col min="10" max="10" width="2.5" customWidth="1"/>
+    <col min="13" max="13" width="3.1640625" customWidth="1"/>
+    <col min="16" max="16" width="3.5" customWidth="1"/>
+    <col min="19" max="19" width="5" customWidth="1"/>
+    <col min="23" max="23" width="6" customWidth="1"/>
+    <col min="26" max="26" width="5.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="93" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+    </row>
+    <row r="3" spans="1:29" ht="15" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="72" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="76" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" s="77"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="72" t="s">
+        <v>305</v>
+      </c>
+      <c r="I3" s="73"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="72" t="s">
+        <v>306</v>
+      </c>
+      <c r="L3" s="73"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="76" t="s">
+        <v>307</v>
+      </c>
+      <c r="O3" s="77"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="76" t="s">
+        <v>308</v>
+      </c>
+      <c r="R3" s="77"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="91" t="s">
+        <v>310</v>
+      </c>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="76" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="4"/>
+    </row>
+    <row r="4" spans="1:29" ht="15" customHeight="1">
+      <c r="A4" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="4"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+    </row>
+    <row r="6" spans="1:29" ht="15" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="80" t="s">
+        <v>301</v>
+      </c>
+      <c r="F6" s="81"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="80" t="s">
+        <v>309</v>
+      </c>
+      <c r="R6" s="81"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="88" t="s">
+        <v>311</v>
+      </c>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+    </row>
+    <row r="7" spans="1:29" ht="15" customHeight="1">
+      <c r="A7" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="88"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="88"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="88"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="88"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+    </row>
+    <row r="18" spans="1:29" ht="16" thickBot="1">
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="96"/>
+      <c r="W18" s="96"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="96"/>
+      <c r="Z18" s="96"/>
+      <c r="AA18" s="96"/>
+      <c r="AB18" s="96"/>
+      <c r="AC18" s="96"/>
+    </row>
+    <row r="19" spans="1:29" ht="16" thickTop="1">
+      <c r="A19" s="93" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" s="4"/>
+      <c r="B21" s="72" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="73"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="76" t="s">
+        <v>316</v>
+      </c>
+      <c r="F21" s="77"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="84" t="s">
+        <v>326</v>
+      </c>
+      <c r="I21" s="85"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="72" t="s">
+        <v>317</v>
+      </c>
+      <c r="L21" s="73"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="O21" s="77"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="92"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="4"/>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="B22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="91"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="78"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="4"/>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="4"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+    </row>
+    <row r="24" spans="1:29" ht="15" customHeight="1">
+      <c r="B24" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="C24" s="98"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="F24" s="98"/>
+      <c r="H24" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="I24" s="98"/>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" s="102" t="s">
+        <v>303</v>
+      </c>
+      <c r="B26" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="C26" s="98"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="F26" s="98"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="I26" s="98"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="B28" s="97" t="s">
+        <v>321</v>
+      </c>
+      <c r="C28" s="98"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="97" t="s">
+        <v>321</v>
+      </c>
+      <c r="F28" s="98"/>
+      <c r="H28" s="97" t="s">
+        <v>321</v>
+      </c>
+      <c r="I28" s="98"/>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="B30" s="97" t="s">
+        <v>322</v>
+      </c>
+      <c r="C30" s="98"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="97" t="s">
+        <v>325</v>
+      </c>
+      <c r="F30" s="98"/>
+      <c r="H30" s="97" t="s">
+        <v>325</v>
+      </c>
+      <c r="I30" s="98"/>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="B32" s="99" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" s="100"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="99" t="s">
+        <v>324</v>
+      </c>
+      <c r="F32" s="100"/>
+      <c r="H32" s="99" t="s">
+        <v>324</v>
+      </c>
+      <c r="I32" s="100"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" s="98"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+    </row>
+    <row r="38" spans="2:9" ht="15" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="N21:O22"/>
+    <mergeCell ref="T21:V22"/>
+    <mergeCell ref="X21:Y22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="Q6:R13"/>
+    <mergeCell ref="X3:Y4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="T6:V17"/>
+    <mergeCell ref="T3:V4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Food_SR_Organization.xlsx
+++ b/Food_SR_Organization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="28760" windowHeight="8440" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="40" yWindow="560" windowWidth="28760" windowHeight="17540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1.Food Need" sheetId="3" r:id="rId1"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="371">
   <si>
     <t>ALL LOCAL</t>
   </si>
@@ -1115,9 +1115,6 @@
     <t>balance food need to dietary recommendation</t>
   </si>
   <si>
-    <t xml:space="preserve">If the dietary recommendation is larger than the actual food need we increase the food need according to the percent difference. Doing this leaves us with a value for food need that greatly exceeds the reqirements of the people in the province. How would ommiting this step change the final calculation of food need? Try the whole calculation without balancing the food need to the dietary recommendation. </t>
-  </si>
-  <si>
     <t>food need</t>
   </si>
   <si>
@@ -1127,15 +1124,6 @@
     <t>2. Crop Yield</t>
   </si>
   <si>
-    <t>BC crop yield data</t>
-  </si>
-  <si>
-    <t>SWBC land area data</t>
-  </si>
-  <si>
-    <t>Fuzzy string matching</t>
-  </si>
-  <si>
     <t>yield*SWBC land area</t>
   </si>
   <si>
@@ -1160,14 +1148,158 @@
     <t>mushroom &amp; greenhouse</t>
   </si>
   <si>
-    <t>units conversion</t>
+    <t>BC crop yield data (metric tonnes/seeded hectares)</t>
+  </si>
+  <si>
+    <t>SWBC land area data (hectares)</t>
+  </si>
+  <si>
+    <t>tons-tonnes</t>
+  </si>
+  <si>
+    <t>Unit Conversion</t>
+  </si>
+  <si>
+    <t>sq ft-hec     tons-tonnes</t>
+  </si>
+  <si>
+    <t>acres-h hundr wei-tonnes</t>
+  </si>
+  <si>
+    <t>sqM-hec    kg-tonnes</t>
+  </si>
+  <si>
+    <t>fuzzy string matching</t>
+  </si>
+  <si>
+    <t>sq M -  hectare</t>
+  </si>
+  <si>
+    <t>mushroom &amp; greenhouse-s</t>
+  </si>
+  <si>
+    <t>3. Livestock Yield</t>
+  </si>
+  <si>
+    <t>Livestock Feed Requirements</t>
+  </si>
+  <si>
+    <t>10 Year Average Feed Crop Yield</t>
+  </si>
+  <si>
+    <t>Feed Crop Yield (Canada data if no BC data)</t>
+  </si>
+  <si>
+    <t>Soybean Meal</t>
+  </si>
+  <si>
+    <t>Canola Meal</t>
+  </si>
+  <si>
+    <t>10yr average</t>
+  </si>
+  <si>
+    <t>static value = 2.005</t>
+  </si>
+  <si>
+    <t>hectares of each feed required per head of livestock</t>
+  </si>
+  <si>
+    <t>Breeding and Commodity Statistics per Animal</t>
+  </si>
+  <si>
+    <t>used 2011 value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How does manipulating the 10 yr average for the field crops. Calculate error by using only the lowest and highest yield values in that period. </t>
+  </si>
+  <si>
+    <t>static value = 4.2</t>
+  </si>
+  <si>
+    <t>Field Crops (wheat/oats/barley/graincorn/drypeas/silage)</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>head of livestock/hectare</t>
+  </si>
+  <si>
+    <t>head of livestock/tonne of commodity</t>
+  </si>
+  <si>
+    <t># livestock in SWBC</t>
+  </si>
+  <si>
+    <t>SWBC crop production (tonnes)</t>
+  </si>
+  <si>
+    <t>SWBC  livestock product (tonnes)</t>
+  </si>
+  <si>
+    <t>diet and seasonality constraint (DSC) ((fn/12)*#months avail)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> % Self Reliance =(min(DSC, Commodity Production) / Food Need) X 100</t>
+  </si>
+  <si>
+    <t>2011 SWBC Food Need Total My Result: 16.1%</t>
+  </si>
+  <si>
+    <t>Check On:</t>
+  </si>
+  <si>
+    <t>Fruit Yields seem too low</t>
+  </si>
+  <si>
+    <t>Plums show up as double</t>
+  </si>
+  <si>
+    <t>In the current calc of food need the greenhouse vegetables and field vegetables were combined which is wrong because they have different diet and seasonality constraints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caitlin's answers by category </t>
+  </si>
+  <si>
+    <t>Rethink the livestock shortcut</t>
+  </si>
+  <si>
+    <t>If the dietary recommendation is larger than the actual food need we increase the food need according to the percent difference. Doing this leaves us with a value for food need that greatly exceeds the reqirements of the people in the province. How would ommiting this step change the final calculation of food need? Try the whole calculation without balancing the food need to the dietary recommendation. Lower bound without dietary rec, upper boun with dietary recommendation.</t>
+  </si>
+  <si>
+    <t>food need (tonnes)</t>
+  </si>
+  <si>
+    <t>used 2014 value</t>
+  </si>
+  <si>
+    <t>Of 10 year average use +- standard error for upper and lower bound</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>SWBC tonnes of livestock product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Result: ~70% Find out the margin of error of this. Have a sense of this to know when I can call it good. </t>
+  </si>
+  <si>
+    <t>Don't do uncertainty until I have confidence in my answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some shady shit happened here………. Try and check as many of these steps as possible. Check to see where the results become inconsistent with their results. Starts by looking at what numbers I do have right. Calculate as many of her answers as possible (sanity check). </t>
+  </si>
+  <si>
+    <t>4: Food Self Reliance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1233,8 +1365,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1379,8 +1522,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1554,15 +1715,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1601,8 +1753,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="251">
+  <cellStyleXfs count="373">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1854,8 +2108,130 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1990,6 +2366,9 @@
     <xf numFmtId="0" fontId="8" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2005,28 +2384,216 @@
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="251">
+  <cellStyles count="373">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2152,6 +2719,67 @@
     <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2277,6 +2905,67 @@
     <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10228,59 +10917,63 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC38"/>
+  <dimension ref="A1:AE75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
     <col min="7" max="7" width="3.33203125" customWidth="1"/>
     <col min="10" max="10" width="2.5" customWidth="1"/>
     <col min="13" max="13" width="3.1640625" customWidth="1"/>
     <col min="16" max="16" width="3.5" customWidth="1"/>
     <col min="19" max="19" width="5" customWidth="1"/>
+    <col min="22" max="22" width="4.83203125" customWidth="1"/>
     <col min="23" max="23" width="6" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" customWidth="1"/>
     <col min="26" max="26" width="5.1640625" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:31">
+      <c r="A1" s="104" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="4"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="107"/>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="108"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -10308,10 +11001,13 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-    </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1">
-      <c r="A3" s="4"/>
+      <c r="AC2" s="109"/>
+      <c r="AE2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="15" customHeight="1">
+      <c r="A3" s="108"/>
       <c r="B3" s="72" t="s">
         <v>299</v>
       </c>
@@ -10342,58 +11038,58 @@
       </c>
       <c r="R3" s="77"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="91" t="s">
+      <c r="T3" s="92" t="s">
         <v>310</v>
       </c>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
       <c r="W3" s="4"/>
-      <c r="X3" s="76" t="s">
+      <c r="X3" s="149" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="149" t="s">
         <v>312</v>
       </c>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="76" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="4"/>
-    </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1">
-      <c r="A4" s="94" t="s">
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="109"/>
+    </row>
+    <row r="4" spans="1:31" ht="15" customHeight="1">
+      <c r="A4" s="110" t="s">
         <v>302</v>
       </c>
       <c r="B4" s="74"/>
       <c r="C4" s="75"/>
-      <c r="D4" s="95"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="78"/>
       <c r="F4" s="79"/>
-      <c r="G4" s="95"/>
+      <c r="G4" s="94"/>
       <c r="H4" s="74"/>
       <c r="I4" s="75"/>
-      <c r="J4" s="95"/>
+      <c r="J4" s="94"/>
       <c r="K4" s="74"/>
       <c r="L4" s="75"/>
-      <c r="M4" s="95"/>
+      <c r="M4" s="94"/>
       <c r="N4" s="78"/>
       <c r="O4" s="79"/>
-      <c r="P4" s="95"/>
+      <c r="P4" s="94"/>
       <c r="Q4" s="78"/>
       <c r="R4" s="79"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="4"/>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="4"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="152"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="152"/>
+      <c r="AC4" s="109"/>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="108"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -10421,10 +11117,10 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-    </row>
-    <row r="6" spans="1:29" ht="15" customHeight="1">
-      <c r="A6" s="4"/>
+      <c r="AC5" s="109"/>
+    </row>
+    <row r="6" spans="1:31" ht="15" customHeight="1">
+      <c r="A6" s="108"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -10447,54 +11143,54 @@
       </c>
       <c r="R6" s="81"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="88" t="s">
-        <v>311</v>
-      </c>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
+      <c r="T6" s="89" t="s">
+        <v>361</v>
+      </c>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-    </row>
-    <row r="7" spans="1:29" ht="15" customHeight="1">
-      <c r="A7" s="94" t="s">
+      <c r="AC6" s="109"/>
+    </row>
+    <row r="7" spans="1:31" ht="15" customHeight="1">
+      <c r="A7" s="110" t="s">
         <v>303</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
       <c r="E7" s="82"/>
       <c r="F7" s="83"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="4"/>
+      <c r="AC7" s="109"/>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="108"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -10510,22 +11206,22 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="91"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="4"/>
+      <c r="AC8" s="109"/>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="108"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -10541,22 +11237,22 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="91"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="4"/>
+      <c r="AC9" s="109"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="108"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -10572,22 +11268,22 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="91"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="4"/>
+      <c r="AC10" s="109"/>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="108"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -10603,22 +11299,22 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="91"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="4"/>
+      <c r="AC11" s="109"/>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="108"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -10634,22 +11330,22 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="91"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="4"/>
+      <c r="AC12" s="109"/>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="108"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -10668,19 +11364,19 @@
       <c r="Q13" s="82"/>
       <c r="R13" s="83"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="88"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="4"/>
+      <c r="AC13" s="109"/>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="108"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -10699,19 +11395,19 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="88"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="88"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="4"/>
+      <c r="AC14" s="109"/>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="108"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -10730,19 +11426,19 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="88"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="4"/>
+      <c r="AC15" s="109"/>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="108"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -10761,19 +11457,19 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="88"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="88"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
+      <c r="AC16" s="109"/>
     </row>
     <row r="17" spans="1:29">
-      <c r="A17" s="4"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -10792,83 +11488,83 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="88"/>
-      <c r="U17" s="88"/>
-      <c r="V17" s="88"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
+      <c r="AC17" s="109"/>
     </row>
     <row r="18" spans="1:29" ht="16" thickBot="1">
-      <c r="A18" s="96"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="96"/>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="96"/>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="96"/>
-    </row>
-    <row r="19" spans="1:29" ht="16" thickTop="1">
-      <c r="A19" s="93" t="s">
-        <v>314</v>
-      </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="112"/>
+      <c r="S18" s="112"/>
+      <c r="T18" s="112"/>
+      <c r="U18" s="112"/>
+      <c r="V18" s="112"/>
+      <c r="W18" s="112"/>
+      <c r="X18" s="112"/>
+      <c r="Y18" s="112"/>
+      <c r="Z18" s="112"/>
+      <c r="AA18" s="112"/>
+      <c r="AB18" s="112"/>
+      <c r="AC18" s="113"/>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" s="104" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="106"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="106"/>
+      <c r="V19" s="106"/>
+      <c r="W19" s="107"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
     </row>
     <row r="20" spans="1:29">
-      <c r="A20" s="4"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -10890,90 +11586,76 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-    </row>
-    <row r="21" spans="1:29">
-      <c r="A21" s="4"/>
-      <c r="B21" s="72" t="s">
-        <v>315</v>
-      </c>
-      <c r="C21" s="73"/>
+      <c r="W20" s="109"/>
+    </row>
+    <row r="21" spans="1:29" ht="15" customHeight="1">
+      <c r="A21" s="108"/>
+      <c r="B21" s="76" t="s">
+        <v>322</v>
+      </c>
+      <c r="C21" s="77"/>
       <c r="D21" s="4"/>
       <c r="E21" s="76" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="F21" s="77"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="84" t="s">
-        <v>326</v>
-      </c>
-      <c r="I21" s="85"/>
+      <c r="H21" s="76" t="s">
+        <v>323</v>
+      </c>
+      <c r="I21" s="77"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="72" t="s">
-        <v>317</v>
-      </c>
-      <c r="L21" s="73"/>
+      <c r="K21" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="L21" s="77"/>
       <c r="M21" s="4"/>
       <c r="N21" s="76" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="O21" s="77"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="76"/>
+      <c r="Q21" s="76" t="s">
+        <v>314</v>
+      </c>
       <c r="R21" s="77"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="91"/>
-      <c r="U21" s="92"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="77"/>
-      <c r="AC21" s="4"/>
+      <c r="T21" s="162" t="s">
+        <v>350</v>
+      </c>
+      <c r="U21" s="163"/>
+      <c r="V21" s="164"/>
+      <c r="W21" s="109"/>
     </row>
     <row r="22" spans="1:29">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="110" t="s">
         <v>302</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="95"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="94"/>
       <c r="E22" s="78"/>
       <c r="F22" s="79"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="95"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="94"/>
       <c r="N22" s="78"/>
       <c r="O22" s="79"/>
-      <c r="P22" s="95"/>
+      <c r="P22" s="94"/>
       <c r="Q22" s="78"/>
       <c r="R22" s="79"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="91"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="92"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="78"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="4"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="165"/>
+      <c r="U22" s="166"/>
+      <c r="V22" s="167"/>
+      <c r="W22" s="109"/>
     </row>
     <row r="23" spans="1:29">
-      <c r="A23" s="4"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="4"/>
@@ -10983,8 +11665,8 @@
       <c r="H23" s="38"/>
       <c r="I23" s="38"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -10995,176 +11677,1286 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
+      <c r="W23" s="109"/>
     </row>
     <row r="24" spans="1:29" ht="15" customHeight="1">
-      <c r="B24" s="97" t="s">
-        <v>319</v>
-      </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="97" t="s">
-        <v>319</v>
-      </c>
-      <c r="F24" s="98"/>
-      <c r="H24" s="97" t="s">
-        <v>319</v>
-      </c>
-      <c r="I24" s="98"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="95" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="96"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="95" t="s">
+        <v>315</v>
+      </c>
+      <c r="I24" s="96"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="109"/>
     </row>
     <row r="25" spans="1:29">
+      <c r="A25" s="108"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="109"/>
     </row>
     <row r="26" spans="1:29">
-      <c r="A26" s="102" t="s">
-        <v>303</v>
-      </c>
-      <c r="B26" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="F26" s="98"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="I26" s="98"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="C26" s="96"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="95" t="s">
+        <v>324</v>
+      </c>
+      <c r="F26" s="96"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="I26" s="96"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="109"/>
     </row>
     <row r="27" spans="1:29">
+      <c r="A27" s="108"/>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="109"/>
     </row>
     <row r="28" spans="1:29">
-      <c r="B28" s="97" t="s">
-        <v>321</v>
-      </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="97" t="s">
-        <v>321</v>
-      </c>
-      <c r="F28" s="98"/>
-      <c r="H28" s="97" t="s">
-        <v>321</v>
-      </c>
-      <c r="I28" s="98"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="95" t="s">
+        <v>317</v>
+      </c>
+      <c r="C28" s="96"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="95" t="s">
+        <v>317</v>
+      </c>
+      <c r="I28" s="96"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="109"/>
     </row>
     <row r="29" spans="1:29">
+      <c r="A29" s="108"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="109"/>
     </row>
     <row r="30" spans="1:29">
-      <c r="B30" s="97" t="s">
-        <v>322</v>
-      </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="97" t="s">
-        <v>325</v>
-      </c>
-      <c r="F30" s="98"/>
-      <c r="H30" s="97" t="s">
-        <v>325</v>
-      </c>
-      <c r="I30" s="98"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="C30" s="96"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="95" t="s">
+        <v>326</v>
+      </c>
+      <c r="F30" s="96"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="I30" s="96"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="L30" s="96"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="109"/>
     </row>
     <row r="31" spans="1:29">
+      <c r="A31" s="108"/>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="38"/>
       <c r="F31" s="38"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="109"/>
     </row>
     <row r="32" spans="1:29">
-      <c r="B32" s="99" t="s">
-        <v>324</v>
-      </c>
-      <c r="C32" s="100"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="99" t="s">
-        <v>324</v>
-      </c>
-      <c r="F32" s="100"/>
-      <c r="H32" s="99" t="s">
-        <v>324</v>
-      </c>
-      <c r="I32" s="100"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="C34" s="98"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-    </row>
-    <row r="38" spans="2:9" ht="15" customHeight="1"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="C32" s="98"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="97" t="s">
+        <v>327</v>
+      </c>
+      <c r="F32" s="98"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="I32" s="98"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="109"/>
+    </row>
+    <row r="33" spans="1:29">
+      <c r="A33" s="108"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="109"/>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34" s="108"/>
+      <c r="B34" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="C34" s="96"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="95" t="s">
+        <v>328</v>
+      </c>
+      <c r="F34" s="96"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="95" t="s">
+        <v>321</v>
+      </c>
+      <c r="I34" s="96"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="109"/>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" s="108"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="109"/>
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36" s="108"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="F36" s="81"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="L36" s="81"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="109"/>
+    </row>
+    <row r="37" spans="1:29" ht="15" customHeight="1">
+      <c r="A37" s="116" t="s">
+        <v>303</v>
+      </c>
+      <c r="B37" s="123" t="s">
+        <v>363</v>
+      </c>
+      <c r="C37" s="124"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="123" t="s">
+        <v>363</v>
+      </c>
+      <c r="I37" s="124"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="117"/>
+      <c r="Q37" s="117"/>
+      <c r="R37" s="117"/>
+      <c r="S37" s="117"/>
+      <c r="T37" s="117"/>
+      <c r="U37" s="117"/>
+      <c r="V37" s="117"/>
+      <c r="W37" s="109"/>
+    </row>
+    <row r="38" spans="1:29" ht="15" customHeight="1" thickBot="1">
+      <c r="A38" s="111"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="112"/>
+      <c r="H38" s="112"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="112"/>
+      <c r="K38" s="153"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="112"/>
+      <c r="N38" s="112"/>
+      <c r="O38" s="112"/>
+      <c r="P38" s="112"/>
+      <c r="Q38" s="112"/>
+      <c r="R38" s="112"/>
+      <c r="S38" s="112"/>
+      <c r="T38" s="112"/>
+      <c r="U38" s="112"/>
+      <c r="V38" s="112"/>
+      <c r="W38" s="113"/>
+    </row>
+    <row r="39" spans="1:29">
+      <c r="A39" s="104" t="s">
+        <v>332</v>
+      </c>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="106"/>
+      <c r="L39" s="106"/>
+      <c r="M39" s="106"/>
+      <c r="N39" s="106"/>
+      <c r="O39" s="106"/>
+      <c r="P39" s="106"/>
+      <c r="Q39" s="106"/>
+      <c r="R39" s="106"/>
+      <c r="S39" s="106"/>
+      <c r="T39" s="106"/>
+      <c r="U39" s="106"/>
+      <c r="V39" s="106"/>
+      <c r="W39" s="106"/>
+      <c r="X39" s="106"/>
+      <c r="Y39" s="106"/>
+      <c r="Z39" s="106"/>
+      <c r="AA39" s="106"/>
+      <c r="AB39" s="106"/>
+      <c r="AC39" s="107"/>
+    </row>
+    <row r="40" spans="1:29">
+      <c r="A40" s="108"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="109"/>
+    </row>
+    <row r="41" spans="1:29" ht="15" customHeight="1">
+      <c r="A41" s="108"/>
+      <c r="B41" s="76" t="s">
+        <v>333</v>
+      </c>
+      <c r="C41" s="77"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="76" t="s">
+        <v>335</v>
+      </c>
+      <c r="F41" s="77"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="76" t="s">
+        <v>334</v>
+      </c>
+      <c r="I41" s="77"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="76" t="s">
+        <v>340</v>
+      </c>
+      <c r="L41" s="77"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="O41" s="77"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="168" t="s">
+        <v>347</v>
+      </c>
+      <c r="R41" s="169"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="168" t="s">
+        <v>348</v>
+      </c>
+      <c r="U41" s="169"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="84" t="s">
+        <v>349</v>
+      </c>
+      <c r="X41" s="85"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="156" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA41" s="157"/>
+      <c r="AB41" s="4"/>
+    </row>
+    <row r="42" spans="1:29">
+      <c r="A42" s="110" t="s">
+        <v>302</v>
+      </c>
+      <c r="B42" s="78"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="121"/>
+      <c r="L42" s="122"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="121"/>
+      <c r="O42" s="122"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="170"/>
+      <c r="R42" s="171"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="170"/>
+      <c r="U42" s="171"/>
+      <c r="V42" s="155" t="s">
+        <v>365</v>
+      </c>
+      <c r="W42" s="86"/>
+      <c r="X42" s="87"/>
+      <c r="Y42" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z42" s="158"/>
+      <c r="AA42" s="159"/>
+    </row>
+    <row r="43" spans="1:29" ht="16" customHeight="1">
+      <c r="A43" s="108"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="79"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="Z43" s="160"/>
+      <c r="AA43" s="161"/>
+    </row>
+    <row r="44" spans="1:29" ht="15" customHeight="1">
+      <c r="A44" s="108"/>
+      <c r="E44" s="126" t="s">
+        <v>345</v>
+      </c>
+      <c r="F44" s="127"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="95" t="s">
+        <v>338</v>
+      </c>
+      <c r="I44" s="96"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+    </row>
+    <row r="45" spans="1:29">
+      <c r="E45" s="119"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="120"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="A46" s="108"/>
+      <c r="E46" s="95" t="s">
+        <v>337</v>
+      </c>
+      <c r="F46" s="118"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="123" t="s">
+        <v>342</v>
+      </c>
+      <c r="I46" s="124"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+    </row>
+    <row r="47" spans="1:29">
+      <c r="A47" s="108"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+    </row>
+    <row r="48" spans="1:29">
+      <c r="A48" s="108"/>
+      <c r="E48" s="95" t="s">
+        <v>336</v>
+      </c>
+      <c r="F48" s="118"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="95" t="s">
+        <v>339</v>
+      </c>
+      <c r="I48" s="118"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+    </row>
+    <row r="49" spans="1:29">
+      <c r="A49" s="108"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="80" t="s">
+        <v>369</v>
+      </c>
+      <c r="R49" s="88"/>
+      <c r="S49" s="88"/>
+      <c r="T49" s="88"/>
+      <c r="U49" s="88"/>
+      <c r="V49" s="88"/>
+      <c r="W49" s="88"/>
+      <c r="X49" s="88"/>
+      <c r="Y49" s="88"/>
+      <c r="Z49" s="88"/>
+      <c r="AA49" s="81"/>
+    </row>
+    <row r="50" spans="1:29">
+      <c r="A50" s="108"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="118"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="95" t="s">
+        <v>344</v>
+      </c>
+      <c r="I50" s="118"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="90"/>
+      <c r="R50" s="89"/>
+      <c r="S50" s="89"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="89"/>
+      <c r="V50" s="89"/>
+      <c r="W50" s="89"/>
+      <c r="X50" s="89"/>
+      <c r="Y50" s="89"/>
+      <c r="Z50" s="89"/>
+      <c r="AA50" s="91"/>
+    </row>
+    <row r="51" spans="1:29" ht="15" customHeight="1">
+      <c r="A51" s="108"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="I51" s="88"/>
+      <c r="J51" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="K51" s="81"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="90"/>
+      <c r="R51" s="89"/>
+      <c r="S51" s="89"/>
+      <c r="T51" s="89"/>
+      <c r="U51" s="89"/>
+      <c r="V51" s="89"/>
+      <c r="W51" s="89"/>
+      <c r="X51" s="89"/>
+      <c r="Y51" s="89"/>
+      <c r="Z51" s="89"/>
+      <c r="AA51" s="91"/>
+    </row>
+    <row r="52" spans="1:29">
+      <c r="A52" s="116" t="s">
+        <v>303</v>
+      </c>
+      <c r="B52" s="117"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="90"/>
+      <c r="K52" s="91"/>
+      <c r="L52" s="117"/>
+      <c r="M52" s="117"/>
+      <c r="N52" s="117"/>
+      <c r="O52" s="117"/>
+      <c r="P52" s="117"/>
+      <c r="Q52" s="90"/>
+      <c r="R52" s="89"/>
+      <c r="S52" s="89"/>
+      <c r="T52" s="89"/>
+      <c r="U52" s="89"/>
+      <c r="V52" s="89"/>
+      <c r="W52" s="89"/>
+      <c r="X52" s="89"/>
+      <c r="Y52" s="89"/>
+      <c r="Z52" s="89"/>
+      <c r="AA52" s="91"/>
+    </row>
+    <row r="53" spans="1:29" ht="16" thickBot="1">
+      <c r="A53" s="108"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="153"/>
+      <c r="K53" s="154"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="90"/>
+      <c r="R53" s="89"/>
+      <c r="S53" s="89"/>
+      <c r="T53" s="89"/>
+      <c r="U53" s="89"/>
+      <c r="V53" s="89"/>
+      <c r="W53" s="89"/>
+      <c r="X53" s="89"/>
+      <c r="Y53" s="89"/>
+      <c r="Z53" s="89"/>
+      <c r="AA53" s="91"/>
+    </row>
+    <row r="54" spans="1:29">
+      <c r="A54" s="108"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="90"/>
+      <c r="R54" s="89"/>
+      <c r="S54" s="89"/>
+      <c r="T54" s="89"/>
+      <c r="U54" s="89"/>
+      <c r="V54" s="89"/>
+      <c r="W54" s="89"/>
+      <c r="X54" s="89"/>
+      <c r="Y54" s="89"/>
+      <c r="Z54" s="89"/>
+      <c r="AA54" s="91"/>
+    </row>
+    <row r="55" spans="1:29">
+      <c r="A55" s="108"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="82"/>
+      <c r="R55" s="173"/>
+      <c r="S55" s="173"/>
+      <c r="T55" s="173"/>
+      <c r="U55" s="173"/>
+      <c r="V55" s="173"/>
+      <c r="W55" s="173"/>
+      <c r="X55" s="173"/>
+      <c r="Y55" s="173"/>
+      <c r="Z55" s="173"/>
+      <c r="AA55" s="83"/>
+    </row>
+    <row r="56" spans="1:29" ht="16" thickBot="1">
+      <c r="A56" s="111"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="112"/>
+      <c r="K56" s="112"/>
+      <c r="L56" s="112"/>
+      <c r="M56" s="112"/>
+      <c r="N56" s="112"/>
+      <c r="O56" s="112"/>
+      <c r="P56" s="112"/>
+      <c r="Q56" s="112"/>
+      <c r="R56" s="112"/>
+      <c r="S56" s="112"/>
+      <c r="T56" s="112"/>
+      <c r="U56" s="112"/>
+      <c r="V56" s="112"/>
+      <c r="W56" s="112"/>
+      <c r="X56" s="112"/>
+      <c r="Y56" s="112"/>
+      <c r="Z56" s="112"/>
+      <c r="AA56" s="112"/>
+      <c r="AB56" s="112"/>
+      <c r="AC56" s="113"/>
+    </row>
+    <row r="57" spans="1:29">
+      <c r="A57" s="104" t="s">
+        <v>370</v>
+      </c>
+      <c r="B57" s="105"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="106"/>
+      <c r="K57" s="106"/>
+      <c r="L57" s="106"/>
+      <c r="M57" s="106"/>
+      <c r="N57" s="106"/>
+      <c r="O57" s="106"/>
+      <c r="P57" s="106"/>
+    </row>
+    <row r="58" spans="1:29">
+      <c r="A58" s="108"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:29" ht="15" customHeight="1">
+      <c r="A59" s="108"/>
+      <c r="B59" s="76" t="s">
+        <v>311</v>
+      </c>
+      <c r="C59" s="129"/>
+    </row>
+    <row r="60" spans="1:29">
+      <c r="A60" s="110" t="s">
+        <v>302</v>
+      </c>
+      <c r="B60" s="129"/>
+      <c r="C60" s="79"/>
+    </row>
+    <row r="61" spans="1:29">
+      <c r="B61" s="38"/>
+      <c r="C61" s="130"/>
+      <c r="S61" s="144"/>
+      <c r="T61" s="144"/>
+      <c r="U61" s="144"/>
+      <c r="V61" s="144"/>
+      <c r="W61" s="144"/>
+    </row>
+    <row r="62" spans="1:29" ht="15" customHeight="1">
+      <c r="B62" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C62" s="77"/>
+      <c r="S62" s="144"/>
+      <c r="T62" s="144"/>
+      <c r="U62" s="144"/>
+      <c r="V62" s="144"/>
+      <c r="W62" s="144"/>
+    </row>
+    <row r="63" spans="1:29">
+      <c r="B63" s="78"/>
+      <c r="C63" s="79"/>
+      <c r="S63" s="144"/>
+      <c r="T63" s="147" t="s">
+        <v>355</v>
+      </c>
+      <c r="U63" s="147"/>
+      <c r="V63" s="147"/>
+      <c r="W63" s="147"/>
+    </row>
+    <row r="64" spans="1:29">
+      <c r="B64" s="38"/>
+      <c r="C64" s="130"/>
+      <c r="E64" s="131"/>
+      <c r="F64" s="131"/>
+      <c r="G64" s="131"/>
+      <c r="H64" s="131"/>
+      <c r="I64" s="131"/>
+      <c r="J64" s="131"/>
+      <c r="K64" s="131"/>
+      <c r="L64" s="132"/>
+      <c r="S64" s="144"/>
+      <c r="T64" s="145" t="s">
+        <v>356</v>
+      </c>
+      <c r="U64" s="145"/>
+      <c r="V64" s="145"/>
+      <c r="W64" s="145"/>
+    </row>
+    <row r="65" spans="2:23" ht="15" customHeight="1">
+      <c r="B65" s="84" t="s">
+        <v>350</v>
+      </c>
+      <c r="C65" s="99"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="72" t="s">
+        <v>353</v>
+      </c>
+      <c r="F65" s="133"/>
+      <c r="G65" s="133"/>
+      <c r="H65" s="133"/>
+      <c r="I65" s="133"/>
+      <c r="J65" s="133"/>
+      <c r="K65" s="133"/>
+      <c r="L65" s="73"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="135" t="s">
+        <v>354</v>
+      </c>
+      <c r="P65" s="136"/>
+      <c r="Q65" s="137"/>
+      <c r="S65" s="144"/>
+      <c r="T65" s="145" t="s">
+        <v>357</v>
+      </c>
+      <c r="U65" s="145"/>
+      <c r="V65" s="145"/>
+      <c r="W65" s="145"/>
+    </row>
+    <row r="66" spans="2:23">
+      <c r="B66" s="101"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="134"/>
+      <c r="G66" s="134"/>
+      <c r="H66" s="134"/>
+      <c r="I66" s="134"/>
+      <c r="J66" s="134"/>
+      <c r="K66" s="134"/>
+      <c r="L66" s="75"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="52"/>
+      <c r="O66" s="138"/>
+      <c r="P66" s="139"/>
+      <c r="Q66" s="140"/>
+      <c r="S66" s="144"/>
+      <c r="T66" s="146" t="s">
+        <v>358</v>
+      </c>
+      <c r="U66" s="146"/>
+      <c r="V66" s="146"/>
+      <c r="W66" s="146"/>
+    </row>
+    <row r="67" spans="2:23">
+      <c r="B67" s="38"/>
+      <c r="C67" s="130"/>
+      <c r="E67" s="131"/>
+      <c r="F67" s="131"/>
+      <c r="G67" s="131"/>
+      <c r="H67" s="131"/>
+      <c r="I67" s="131"/>
+      <c r="J67" s="131"/>
+      <c r="K67" s="131"/>
+      <c r="L67" s="132"/>
+      <c r="O67" s="141"/>
+      <c r="P67" s="142"/>
+      <c r="Q67" s="143"/>
+      <c r="S67" s="144"/>
+      <c r="T67" s="146"/>
+      <c r="U67" s="146"/>
+      <c r="V67" s="146"/>
+      <c r="W67" s="146"/>
+    </row>
+    <row r="68" spans="2:23">
+      <c r="B68" s="84" t="s">
+        <v>351</v>
+      </c>
+      <c r="C68" s="100"/>
+      <c r="E68" s="131"/>
+      <c r="F68" s="131"/>
+      <c r="G68" s="131"/>
+      <c r="H68" s="131"/>
+      <c r="I68" s="131"/>
+      <c r="J68" s="131"/>
+      <c r="K68" s="131"/>
+      <c r="L68" s="132"/>
+      <c r="P68" s="52"/>
+      <c r="S68" s="144"/>
+      <c r="T68" s="146"/>
+      <c r="U68" s="146"/>
+      <c r="V68" s="146"/>
+      <c r="W68" s="146"/>
+    </row>
+    <row r="69" spans="2:23" ht="15" customHeight="1">
+      <c r="B69" s="92"/>
+      <c r="C69" s="128"/>
+      <c r="E69" s="132"/>
+      <c r="F69" s="132"/>
+      <c r="G69" s="132"/>
+      <c r="H69" s="132"/>
+      <c r="I69" s="132"/>
+      <c r="J69" s="132"/>
+      <c r="K69" s="132"/>
+      <c r="L69" s="132"/>
+      <c r="O69" s="136" t="s">
+        <v>367</v>
+      </c>
+      <c r="P69" s="136"/>
+      <c r="Q69" s="136"/>
+      <c r="S69" s="144"/>
+      <c r="T69" s="146"/>
+      <c r="U69" s="146"/>
+      <c r="V69" s="146"/>
+      <c r="W69" s="146"/>
+    </row>
+    <row r="70" spans="2:23">
+      <c r="B70" s="101"/>
+      <c r="C70" s="103"/>
+      <c r="O70" s="139"/>
+      <c r="P70" s="139"/>
+      <c r="Q70" s="139"/>
+      <c r="S70" s="144"/>
+      <c r="T70" s="145" t="s">
+        <v>359</v>
+      </c>
+      <c r="U70" s="145"/>
+      <c r="V70" s="145"/>
+      <c r="W70" s="145"/>
+    </row>
+    <row r="71" spans="2:23">
+      <c r="O71" s="139"/>
+      <c r="P71" s="139"/>
+      <c r="Q71" s="139"/>
+      <c r="T71" s="145" t="s">
+        <v>360</v>
+      </c>
+      <c r="U71" s="145"/>
+      <c r="V71" s="145"/>
+      <c r="W71" s="145"/>
+    </row>
+    <row r="72" spans="2:23" ht="15" customHeight="1">
+      <c r="O72" s="139"/>
+      <c r="P72" s="139"/>
+      <c r="Q72" s="139"/>
+      <c r="T72" s="172" t="s">
+        <v>368</v>
+      </c>
+      <c r="U72" s="172"/>
+      <c r="V72" s="172"/>
+      <c r="W72" s="172"/>
+    </row>
+    <row r="73" spans="2:23">
+      <c r="O73" s="139"/>
+      <c r="P73" s="139"/>
+      <c r="Q73" s="139"/>
+      <c r="T73" s="148"/>
+      <c r="U73" s="148"/>
+      <c r="V73" s="148"/>
+      <c r="W73" s="148"/>
+    </row>
+    <row r="74" spans="2:23">
+      <c r="T74" s="148"/>
+      <c r="U74" s="148"/>
+      <c r="V74" s="148"/>
+      <c r="W74" s="148"/>
+    </row>
+    <row r="75" spans="2:23">
+      <c r="T75" s="148"/>
+      <c r="U75" s="148"/>
+      <c r="V75" s="148"/>
+      <c r="W75" s="148"/>
+    </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="84">
+    <mergeCell ref="T71:W71"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E36:F38"/>
+    <mergeCell ref="K36:L38"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J51:K53"/>
+    <mergeCell ref="O69:Q73"/>
+    <mergeCell ref="T72:W72"/>
+    <mergeCell ref="B68:C70"/>
+    <mergeCell ref="B65:C66"/>
+    <mergeCell ref="E65:L66"/>
+    <mergeCell ref="O65:Q67"/>
+    <mergeCell ref="Q49:AA55"/>
+    <mergeCell ref="T64:W64"/>
+    <mergeCell ref="T65:W65"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="K41:L43"/>
+    <mergeCell ref="N41:O43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="H51:I56"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="Q41:R42"/>
+    <mergeCell ref="W41:X42"/>
+    <mergeCell ref="T41:U42"/>
+    <mergeCell ref="Z41:AA43"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="T66:W69"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="T70:W70"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="AA21:AB22"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H28:I28"/>
     <mergeCell ref="AA3:AB4"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="B21:C22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="H21:I22"/>
     <mergeCell ref="N21:O22"/>
     <mergeCell ref="T21:V22"/>
-    <mergeCell ref="X21:Y22"/>
     <mergeCell ref="Q21:R22"/>
     <mergeCell ref="H3:I4"/>
     <mergeCell ref="K3:L4"/>

--- a/Food_SR_Organization.xlsx
+++ b/Food_SR_Organization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="560" windowWidth="28760" windowHeight="17540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-80" yWindow="7560" windowWidth="28820" windowHeight="10020" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1.Food Need" sheetId="3" r:id="rId1"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="381">
   <si>
     <t>ALL LOCAL</t>
   </si>
@@ -1220,9 +1220,6 @@
     <t>Field Crops (wheat/oats/barley/graincorn/drypeas/silage)</t>
   </si>
   <si>
-    <t>Key</t>
-  </si>
-  <si>
     <t>head of livestock/hectare</t>
   </si>
   <si>
@@ -1293,6 +1290,39 @@
   </si>
   <si>
     <t>4: Food Self Reliance</t>
+  </si>
+  <si>
+    <t>Instead of taking the average I am going to do a more precise method…….</t>
+  </si>
+  <si>
+    <t>(#1yr olds/SWBC pop)(food group recommended servings) + (#2yr olds/SWBC pop)(food group recommended servings)………</t>
+  </si>
+  <si>
+    <t>or by age group (it makes no difference quantitatively because the recommendation is expressed by group</t>
+  </si>
+  <si>
+    <t>(# in group #1)(food group recommended servings)+(# in group #2)(food group recommended servings)…….</t>
+  </si>
+  <si>
+    <t>To Do:</t>
+  </si>
+  <si>
+    <t>1. Change food recommendation balancing methods</t>
+  </si>
+  <si>
+    <t>2. Check food need values against the ones from Caitlin's email</t>
+  </si>
+  <si>
+    <t>4. Check SWBC crop production values against the ones from the Excel model</t>
+  </si>
+  <si>
+    <t>3. Take 10yr average for field crops and use that instead of one yr value.</t>
+  </si>
+  <si>
+    <t>6. Wait for Caitlin's response about livestock method. Double check methods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Change to 10 yr average for Canola Meal yield. </t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1407,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1538,6 +1568,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1856,7 +1892,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="373">
+  <cellStyleXfs count="393">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2230,8 +2266,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2308,116 +2364,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
@@ -2430,16 +2378,32 @@
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2447,47 +2411,79 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2502,41 +2498,83 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2554,6 +2592,27 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2574,26 +2633,42 @@
     <xf numFmtId="0" fontId="8" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="373">
+  <cellStyles count="393">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2780,6 +2855,16 @@
     <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2966,6 +3051,16 @@
     <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9841,7 +9936,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="68" t="s">
+      <c r="M14" s="90" t="s">
         <v>42</v>
       </c>
       <c r="N14" s="4"/>
@@ -9861,7 +9956,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="69"/>
+      <c r="M15" s="91"/>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:26">
@@ -9879,7 +9974,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="69"/>
+      <c r="M16" s="91"/>
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14">
@@ -9897,7 +9992,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="22"/>
-      <c r="M17" s="69"/>
+      <c r="M17" s="91"/>
       <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:14">
@@ -9915,7 +10010,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="22"/>
-      <c r="M18" s="69"/>
+      <c r="M18" s="91"/>
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14">
@@ -9933,7 +10028,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="22"/>
-      <c r="M19" s="69"/>
+      <c r="M19" s="91"/>
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14">
@@ -9949,7 +10044,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="70"/>
+      <c r="M20" s="92"/>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14">
@@ -10558,11 +10653,11 @@
     </row>
     <row r="19" spans="3:14">
       <c r="C19" s="29"/>
-      <c r="L19" s="71" t="s">
+      <c r="L19" s="68" t="s">
         <v>296</v>
       </c>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
     </row>
     <row r="20" spans="3:14">
       <c r="C20" s="29"/>
@@ -10917,10 +11012,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE75"/>
+  <dimension ref="A1:AF75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="Q59" sqref="Q59"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="Q74" sqref="Q74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10939,41 +11034,41 @@
     <col min="28" max="28" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:29">
+      <c r="A1" s="141" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="107"/>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="108"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="71"/>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="72"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -11001,95 +11096,92 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
-      <c r="AC2" s="109"/>
-      <c r="AE2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="15" customHeight="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="72" t="s">
+      <c r="AC2" s="73"/>
+    </row>
+    <row r="3" spans="1:29" ht="15" customHeight="1">
+      <c r="A3" s="72"/>
+      <c r="B3" s="111" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="73"/>
+      <c r="C3" s="113"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="132" t="s">
         <v>300</v>
       </c>
-      <c r="F3" s="77"/>
+      <c r="F3" s="133"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="111" t="s">
         <v>305</v>
       </c>
-      <c r="I3" s="73"/>
+      <c r="I3" s="113"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="111" t="s">
         <v>306</v>
       </c>
-      <c r="L3" s="73"/>
+      <c r="L3" s="113"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="76" t="s">
+      <c r="N3" s="132" t="s">
         <v>307</v>
       </c>
-      <c r="O3" s="77"/>
+      <c r="O3" s="133"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="76" t="s">
+      <c r="Q3" s="132" t="s">
         <v>308</v>
       </c>
-      <c r="R3" s="77"/>
+      <c r="R3" s="133"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="92" t="s">
+      <c r="T3" s="105" t="s">
         <v>310</v>
       </c>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
       <c r="W3" s="4"/>
-      <c r="X3" s="149" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y3" s="150"/>
+      <c r="X3" s="159" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y3" s="160"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="149" t="s">
+      <c r="AA3" s="159" t="s">
         <v>312</v>
       </c>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="109"/>
-    </row>
-    <row r="4" spans="1:31" ht="15" customHeight="1">
-      <c r="A4" s="110" t="s">
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="73"/>
+    </row>
+    <row r="4" spans="1:29" ht="15" customHeight="1">
+      <c r="A4" s="74" t="s">
         <v>302</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="152"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="152"/>
-      <c r="AC4" s="109"/>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="108"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="169"/>
+      <c r="V4" s="169"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="162"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="162"/>
+      <c r="AC4" s="73"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="72"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -11117,17 +11209,17 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
-      <c r="AC5" s="109"/>
-    </row>
-    <row r="6" spans="1:31" ht="15" customHeight="1">
-      <c r="A6" s="108"/>
+      <c r="AC5" s="73"/>
+    </row>
+    <row r="6" spans="1:29" ht="15" customHeight="1">
+      <c r="A6" s="72"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="95" t="s">
         <v>301</v>
       </c>
-      <c r="F6" s="81"/>
+      <c r="F6" s="96"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -11138,59 +11230,59 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="80" t="s">
+      <c r="Q6" s="95" t="s">
         <v>309</v>
       </c>
-      <c r="R6" s="81"/>
+      <c r="R6" s="96"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="89" t="s">
-        <v>361</v>
-      </c>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
+      <c r="T6" s="125" t="s">
+        <v>360</v>
+      </c>
+      <c r="U6" s="125"/>
+      <c r="V6" s="125"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
-      <c r="AC6" s="109"/>
-    </row>
-    <row r="7" spans="1:31" ht="15" customHeight="1">
-      <c r="A7" s="110" t="s">
+      <c r="AC6" s="73"/>
+    </row>
+    <row r="7" spans="1:29" ht="15" customHeight="1">
+      <c r="A7" s="74" t="s">
         <v>303</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="89"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="125"/>
+      <c r="U7" s="125"/>
+      <c r="V7" s="125"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
-      <c r="AC7" s="109"/>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="108"/>
+      <c r="AC7" s="73"/>
+    </row>
+    <row r="8" spans="1:29" ht="16" thickBot="1">
+      <c r="A8" s="72"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -11206,188 +11298,194 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="91"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="98"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="89"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="125"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
-      <c r="AC8" s="109"/>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="108"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="AC8" s="73"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="72"/>
+      <c r="B9" s="185" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="172"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="91"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="98"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="125"/>
+      <c r="V9" s="125"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
-      <c r="AC9" s="109"/>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10" s="108"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="AC9" s="73"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="72"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="173"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="91"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="98"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
-      <c r="AC10" s="109"/>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="108"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="AC10" s="73"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="72"/>
+      <c r="B11" s="186" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="173"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="91"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="98"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
+      <c r="T11" s="125"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="125"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="109"/>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="108"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="AC11" s="73"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="72"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="173"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="91"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="98"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
+      <c r="T12" s="125"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="125"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
-      <c r="AC12" s="109"/>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="108"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="AC12" s="73"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="72"/>
+      <c r="B13" s="186" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="173"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="83"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="128"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="125"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
-      <c r="AC13" s="109"/>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="A14" s="108"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="AC13" s="73"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="72"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="173"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -11395,30 +11493,32 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
+      <c r="T14" s="125"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="125"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
-      <c r="AC14" s="109"/>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="A15" s="108"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="AC14" s="73"/>
+    </row>
+    <row r="15" spans="1:29" ht="16" thickBot="1">
+      <c r="A15" s="72"/>
+      <c r="B15" s="187" t="s">
+        <v>373</v>
+      </c>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="175"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -11426,19 +11526,19 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
-      <c r="AC15" s="109"/>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="108"/>
+      <c r="AC15" s="73"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="72"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -11457,19 +11557,19 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
-      <c r="AC16" s="109"/>
-    </row>
-    <row r="17" spans="1:29">
-      <c r="A17" s="108"/>
+      <c r="AC16" s="73"/>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" s="72"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -11488,74 +11588,74 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
-      <c r="AC17" s="109"/>
-    </row>
-    <row r="18" spans="1:29" ht="16" thickBot="1">
-      <c r="A18" s="111"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="112"/>
-      <c r="T18" s="112"/>
-      <c r="U18" s="112"/>
-      <c r="V18" s="112"/>
-      <c r="W18" s="112"/>
-      <c r="X18" s="112"/>
-      <c r="Y18" s="112"/>
-      <c r="Z18" s="112"/>
-      <c r="AA18" s="112"/>
-      <c r="AB18" s="112"/>
-      <c r="AC18" s="113"/>
-    </row>
-    <row r="19" spans="1:29">
-      <c r="A19" s="104" t="s">
+      <c r="AC17" s="73"/>
+    </row>
+    <row r="18" spans="1:32" ht="16" thickBot="1">
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="77"/>
+    </row>
+    <row r="19" spans="1:32">
+      <c r="A19" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="106"/>
-      <c r="T19" s="106"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="106"/>
-      <c r="W19" s="107"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="71"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
@@ -11563,8 +11663,8 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="1:29">
-      <c r="A20" s="108"/>
+    <row r="20" spans="1:32">
+      <c r="A20" s="72"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -11586,76 +11686,76 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="109"/>
-    </row>
-    <row r="21" spans="1:29" ht="15" customHeight="1">
-      <c r="A21" s="108"/>
-      <c r="B21" s="76" t="s">
+      <c r="W20" s="73"/>
+    </row>
+    <row r="21" spans="1:32" ht="15" customHeight="1">
+      <c r="A21" s="72"/>
+      <c r="B21" s="132" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="77"/>
+      <c r="C21" s="133"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="76" t="s">
+      <c r="E21" s="132" t="s">
         <v>325</v>
       </c>
-      <c r="F21" s="77"/>
+      <c r="F21" s="133"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="76" t="s">
+      <c r="H21" s="132" t="s">
         <v>323</v>
       </c>
-      <c r="I21" s="77"/>
+      <c r="I21" s="133"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="76" t="s">
+      <c r="K21" s="132" t="s">
         <v>325</v>
       </c>
-      <c r="L21" s="77"/>
+      <c r="L21" s="133"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="76" t="s">
+      <c r="N21" s="132" t="s">
         <v>329</v>
       </c>
-      <c r="O21" s="77"/>
+      <c r="O21" s="133"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="76" t="s">
+      <c r="Q21" s="132" t="s">
         <v>314</v>
       </c>
-      <c r="R21" s="77"/>
+      <c r="R21" s="133"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="162" t="s">
-        <v>350</v>
-      </c>
-      <c r="U21" s="163"/>
-      <c r="V21" s="164"/>
-      <c r="W21" s="109"/>
-    </row>
-    <row r="22" spans="1:29">
-      <c r="A22" s="110" t="s">
+      <c r="T21" s="163" t="s">
+        <v>349</v>
+      </c>
+      <c r="U21" s="164"/>
+      <c r="V21" s="165"/>
+      <c r="W21" s="73"/>
+    </row>
+    <row r="22" spans="1:32" ht="16" thickBot="1">
+      <c r="A22" s="74" t="s">
         <v>302</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="165"/>
-      <c r="U22" s="166"/>
-      <c r="V22" s="167"/>
-      <c r="W22" s="109"/>
-    </row>
-    <row r="23" spans="1:29">
-      <c r="A23" s="108"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="136"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="166"/>
+      <c r="U22" s="167"/>
+      <c r="V22" s="168"/>
+      <c r="W22" s="73"/>
+    </row>
+    <row r="23" spans="1:32">
+      <c r="A23" s="72"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="4"/>
@@ -11677,25 +11777,35 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
-      <c r="W23" s="109"/>
-    </row>
-    <row r="24" spans="1:29" ht="15" customHeight="1">
-      <c r="A24" s="108"/>
-      <c r="B24" s="95" t="s">
+      <c r="W23" s="73"/>
+      <c r="Y23" s="184" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z23" s="176"/>
+      <c r="AA23" s="176"/>
+      <c r="AB23" s="176"/>
+      <c r="AC23" s="176"/>
+      <c r="AD23" s="176"/>
+      <c r="AE23" s="176"/>
+      <c r="AF23" s="177"/>
+    </row>
+    <row r="24" spans="1:32" ht="15" customHeight="1">
+      <c r="A24" s="72"/>
+      <c r="B24" s="129" t="s">
         <v>315</v>
       </c>
-      <c r="C24" s="96"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="38"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="95" t="s">
+      <c r="E24" s="129"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="129" t="s">
         <v>315</v>
       </c>
-      <c r="I24" s="96"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="96"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="130"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -11706,10 +11816,18 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
-      <c r="W24" s="109"/>
-    </row>
-    <row r="25" spans="1:29">
-      <c r="A25" s="108"/>
+      <c r="W24" s="73"/>
+      <c r="Y24" s="188"/>
+      <c r="Z24" s="179"/>
+      <c r="AA24" s="179"/>
+      <c r="AB24" s="179"/>
+      <c r="AC24" s="179"/>
+      <c r="AD24" s="179"/>
+      <c r="AE24" s="179"/>
+      <c r="AF24" s="180"/>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="A25" s="72"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
       <c r="D25" s="4"/>
@@ -11731,28 +11849,38 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
-      <c r="W25" s="109"/>
-    </row>
-    <row r="26" spans="1:29">
-      <c r="A26" s="108"/>
-      <c r="B26" s="95" t="s">
+      <c r="W25" s="73"/>
+      <c r="Y25" s="188" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z25" s="179"/>
+      <c r="AA25" s="179"/>
+      <c r="AB25" s="179"/>
+      <c r="AC25" s="179"/>
+      <c r="AD25" s="179"/>
+      <c r="AE25" s="179"/>
+      <c r="AF25" s="180"/>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="A26" s="72"/>
+      <c r="B26" s="129" t="s">
         <v>316</v>
       </c>
-      <c r="C26" s="96"/>
+      <c r="C26" s="130"/>
       <c r="D26" s="38"/>
-      <c r="E26" s="95" t="s">
+      <c r="E26" s="129" t="s">
         <v>324</v>
       </c>
-      <c r="F26" s="96"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="95" t="s">
+      <c r="F26" s="130"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="129" t="s">
         <v>316</v>
       </c>
-      <c r="I26" s="96"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="114"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="78"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -11762,10 +11890,20 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
-      <c r="W26" s="109"/>
-    </row>
-    <row r="27" spans="1:29">
-      <c r="A27" s="108"/>
+      <c r="W26" s="73"/>
+      <c r="Y26" s="188" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z26" s="179"/>
+      <c r="AA26" s="179"/>
+      <c r="AB26" s="179"/>
+      <c r="AC26" s="179"/>
+      <c r="AD26" s="179"/>
+      <c r="AE26" s="179"/>
+      <c r="AF26" s="180"/>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="A27" s="72"/>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
       <c r="D27" s="4"/>
@@ -11787,25 +11925,35 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
-      <c r="W27" s="109"/>
-    </row>
-    <row r="28" spans="1:29">
-      <c r="A28" s="108"/>
-      <c r="B28" s="95" t="s">
+      <c r="W27" s="73"/>
+      <c r="Y27" s="188" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z27" s="179"/>
+      <c r="AA27" s="179"/>
+      <c r="AB27" s="179"/>
+      <c r="AC27" s="179"/>
+      <c r="AD27" s="179"/>
+      <c r="AE27" s="179"/>
+      <c r="AF27" s="180"/>
+    </row>
+    <row r="28" spans="1:32">
+      <c r="A28" s="72"/>
+      <c r="B28" s="129" t="s">
         <v>317</v>
       </c>
-      <c r="C28" s="96"/>
+      <c r="C28" s="130"/>
       <c r="D28" s="38"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="95" t="s">
+      <c r="E28" s="129"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="129" t="s">
         <v>317</v>
       </c>
-      <c r="I28" s="96"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="96"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="130"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -11816,10 +11964,20 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
-      <c r="W28" s="109"/>
-    </row>
-    <row r="29" spans="1:29">
-      <c r="A29" s="108"/>
+      <c r="W28" s="73"/>
+      <c r="Y28" s="188" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z28" s="179"/>
+      <c r="AA28" s="179"/>
+      <c r="AB28" s="179"/>
+      <c r="AC28" s="179"/>
+      <c r="AD28" s="179"/>
+      <c r="AE28" s="179"/>
+      <c r="AF28" s="180"/>
+    </row>
+    <row r="29" spans="1:32">
+      <c r="A29" s="72"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
       <c r="D29" s="4"/>
@@ -11841,29 +11999,39 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
-      <c r="W29" s="109"/>
-    </row>
-    <row r="30" spans="1:29">
-      <c r="A30" s="108"/>
-      <c r="B30" s="95" t="s">
+      <c r="W29" s="73"/>
+      <c r="Y29" s="188" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z29" s="179"/>
+      <c r="AA29" s="179"/>
+      <c r="AB29" s="179"/>
+      <c r="AC29" s="179"/>
+      <c r="AD29" s="179"/>
+      <c r="AE29" s="179"/>
+      <c r="AF29" s="180"/>
+    </row>
+    <row r="30" spans="1:32">
+      <c r="A30" s="72"/>
+      <c r="B30" s="129" t="s">
         <v>318</v>
       </c>
-      <c r="C30" s="96"/>
+      <c r="C30" s="130"/>
       <c r="D30" s="38"/>
-      <c r="E30" s="95" t="s">
+      <c r="E30" s="129" t="s">
         <v>326</v>
       </c>
-      <c r="F30" s="96"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="95" t="s">
+      <c r="F30" s="130"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="129" t="s">
         <v>331</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="95" t="s">
+      <c r="I30" s="130"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="129" t="s">
         <v>330</v>
       </c>
-      <c r="L30" s="96"/>
+      <c r="L30" s="130"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -11874,10 +12042,20 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
-      <c r="W30" s="109"/>
-    </row>
-    <row r="31" spans="1:29">
-      <c r="A31" s="108"/>
+      <c r="W30" s="73"/>
+      <c r="Y30" s="188" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z30" s="179"/>
+      <c r="AA30" s="179"/>
+      <c r="AB30" s="179"/>
+      <c r="AC30" s="179"/>
+      <c r="AD30" s="179"/>
+      <c r="AE30" s="179"/>
+      <c r="AF30" s="180"/>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="A31" s="72"/>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
       <c r="D31" s="4"/>
@@ -11899,27 +12077,35 @@
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
-      <c r="W31" s="109"/>
-    </row>
-    <row r="32" spans="1:29">
-      <c r="A32" s="108"/>
-      <c r="B32" s="97" t="s">
+      <c r="W31" s="73"/>
+      <c r="Y31" s="178"/>
+      <c r="Z31" s="179"/>
+      <c r="AA31" s="179"/>
+      <c r="AB31" s="179"/>
+      <c r="AC31" s="179"/>
+      <c r="AD31" s="179"/>
+      <c r="AE31" s="179"/>
+      <c r="AF31" s="180"/>
+    </row>
+    <row r="32" spans="1:32">
+      <c r="A32" s="72"/>
+      <c r="B32" s="157" t="s">
         <v>320</v>
       </c>
-      <c r="C32" s="98"/>
+      <c r="C32" s="158"/>
       <c r="D32" s="38"/>
-      <c r="E32" s="97" t="s">
+      <c r="E32" s="157" t="s">
         <v>327</v>
       </c>
-      <c r="F32" s="98"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="97" t="s">
+      <c r="F32" s="158"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="157" t="s">
         <v>320</v>
       </c>
-      <c r="I32" s="98"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="98"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="158"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -11930,21 +12116,29 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
-      <c r="W32" s="109"/>
-    </row>
-    <row r="33" spans="1:29">
-      <c r="A33" s="108"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
+      <c r="W32" s="73"/>
+      <c r="Y32" s="178"/>
+      <c r="Z32" s="179"/>
+      <c r="AA32" s="179"/>
+      <c r="AB32" s="179"/>
+      <c r="AC32" s="179"/>
+      <c r="AD32" s="179"/>
+      <c r="AE32" s="179"/>
+      <c r="AF32" s="180"/>
+    </row>
+    <row r="33" spans="1:32">
+      <c r="A33" s="72"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -11955,27 +12149,35 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
-      <c r="W33" s="109"/>
-    </row>
-    <row r="34" spans="1:29">
-      <c r="A34" s="108"/>
-      <c r="B34" s="95" t="s">
+      <c r="W33" s="73"/>
+      <c r="Y33" s="178"/>
+      <c r="Z33" s="179"/>
+      <c r="AA33" s="179"/>
+      <c r="AB33" s="179"/>
+      <c r="AC33" s="179"/>
+      <c r="AD33" s="179"/>
+      <c r="AE33" s="179"/>
+      <c r="AF33" s="180"/>
+    </row>
+    <row r="34" spans="1:32" ht="16" thickBot="1">
+      <c r="A34" s="72"/>
+      <c r="B34" s="129" t="s">
         <v>319</v>
       </c>
-      <c r="C34" s="96"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="95" t="s">
+      <c r="C34" s="130"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="129" t="s">
         <v>328</v>
       </c>
-      <c r="F34" s="96"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="95" t="s">
+      <c r="F34" s="130"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="129" t="s">
         <v>321</v>
       </c>
-      <c r="I34" s="96"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="96"/>
+      <c r="I34" s="130"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="129"/>
+      <c r="L34" s="130"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -11986,21 +12188,29 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
-      <c r="W34" s="109"/>
-    </row>
-    <row r="35" spans="1:29">
-      <c r="A35" s="108"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
+      <c r="W34" s="73"/>
+      <c r="Y34" s="181"/>
+      <c r="Z34" s="182"/>
+      <c r="AA34" s="182"/>
+      <c r="AB34" s="182"/>
+      <c r="AC34" s="182"/>
+      <c r="AD34" s="182"/>
+      <c r="AE34" s="182"/>
+      <c r="AF34" s="183"/>
+    </row>
+    <row r="35" spans="1:32">
+      <c r="A35" s="72"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -12011,25 +12221,25 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
-      <c r="W35" s="109"/>
-    </row>
-    <row r="36" spans="1:29">
-      <c r="A36" s="108"/>
+      <c r="W35" s="73"/>
+    </row>
+    <row r="36" spans="1:32">
+      <c r="A36" s="72"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="80" t="s">
-        <v>364</v>
-      </c>
-      <c r="F36" s="81"/>
+      <c r="E36" s="95" t="s">
+        <v>363</v>
+      </c>
+      <c r="F36" s="96"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="80" t="s">
-        <v>364</v>
-      </c>
-      <c r="L36" s="81"/>
+      <c r="K36" s="95" t="s">
+        <v>363</v>
+      </c>
+      <c r="L36" s="96"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -12040,99 +12250,99 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="109"/>
-    </row>
-    <row r="37" spans="1:29" ht="15" customHeight="1">
-      <c r="A37" s="116" t="s">
+      <c r="W36" s="73"/>
+    </row>
+    <row r="37" spans="1:32" ht="15" customHeight="1">
+      <c r="A37" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="B37" s="123" t="s">
-        <v>363</v>
-      </c>
-      <c r="C37" s="124"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="123" t="s">
-        <v>363</v>
-      </c>
-      <c r="I37" s="124"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="117"/>
-      <c r="N37" s="117"/>
-      <c r="O37" s="117"/>
-      <c r="P37" s="117"/>
-      <c r="Q37" s="117"/>
-      <c r="R37" s="117"/>
-      <c r="S37" s="117"/>
-      <c r="T37" s="117"/>
-      <c r="U37" s="117"/>
-      <c r="V37" s="117"/>
-      <c r="W37" s="109"/>
-    </row>
-    <row r="38" spans="1:29" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="111"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="112"/>
-      <c r="H38" s="112"/>
-      <c r="I38" s="112"/>
-      <c r="J38" s="112"/>
-      <c r="K38" s="153"/>
-      <c r="L38" s="154"/>
-      <c r="M38" s="112"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="112"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="112"/>
-      <c r="R38" s="112"/>
-      <c r="S38" s="112"/>
-      <c r="T38" s="112"/>
-      <c r="U38" s="112"/>
-      <c r="V38" s="112"/>
-      <c r="W38" s="113"/>
-    </row>
-    <row r="39" spans="1:29">
-      <c r="A39" s="104" t="s">
+      <c r="B37" s="93" t="s">
+        <v>362</v>
+      </c>
+      <c r="C37" s="94"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="93" t="s">
+        <v>362</v>
+      </c>
+      <c r="I37" s="94"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="81"/>
+      <c r="T37" s="81"/>
+      <c r="U37" s="81"/>
+      <c r="V37" s="81"/>
+      <c r="W37" s="73"/>
+    </row>
+    <row r="38" spans="1:32" ht="15" customHeight="1" thickBot="1">
+      <c r="A38" s="75"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="76"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="76"/>
+      <c r="S38" s="76"/>
+      <c r="T38" s="76"/>
+      <c r="U38" s="76"/>
+      <c r="V38" s="76"/>
+      <c r="W38" s="77"/>
+    </row>
+    <row r="39" spans="1:32">
+      <c r="A39" s="141" t="s">
         <v>332</v>
       </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106"/>
-      <c r="K39" s="106"/>
-      <c r="L39" s="106"/>
-      <c r="M39" s="106"/>
-      <c r="N39" s="106"/>
-      <c r="O39" s="106"/>
-      <c r="P39" s="106"/>
-      <c r="Q39" s="106"/>
-      <c r="R39" s="106"/>
-      <c r="S39" s="106"/>
-      <c r="T39" s="106"/>
-      <c r="U39" s="106"/>
-      <c r="V39" s="106"/>
-      <c r="W39" s="106"/>
-      <c r="X39" s="106"/>
-      <c r="Y39" s="106"/>
-      <c r="Z39" s="106"/>
-      <c r="AA39" s="106"/>
-      <c r="AB39" s="106"/>
-      <c r="AC39" s="107"/>
-    </row>
-    <row r="40" spans="1:29">
-      <c r="A40" s="108"/>
+      <c r="B39" s="142"/>
+      <c r="C39" s="142"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="70"/>
+      <c r="S39" s="70"/>
+      <c r="T39" s="70"/>
+      <c r="U39" s="70"/>
+      <c r="V39" s="70"/>
+      <c r="W39" s="70"/>
+      <c r="X39" s="70"/>
+      <c r="Y39" s="70"/>
+      <c r="Z39" s="70"/>
+      <c r="AA39" s="70"/>
+      <c r="AB39" s="70"/>
+      <c r="AC39" s="71"/>
+    </row>
+    <row r="40" spans="1:32">
+      <c r="A40" s="72"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -12160,104 +12370,104 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
-      <c r="AC40" s="109"/>
-    </row>
-    <row r="41" spans="1:29" ht="15" customHeight="1">
-      <c r="A41" s="108"/>
-      <c r="B41" s="76" t="s">
+      <c r="AC40" s="73"/>
+    </row>
+    <row r="41" spans="1:32" ht="15" customHeight="1">
+      <c r="A41" s="72"/>
+      <c r="B41" s="132" t="s">
         <v>333</v>
       </c>
-      <c r="C41" s="77"/>
+      <c r="C41" s="133"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="76" t="s">
+      <c r="E41" s="132" t="s">
         <v>335</v>
       </c>
-      <c r="F41" s="77"/>
+      <c r="F41" s="133"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="76" t="s">
+      <c r="H41" s="132" t="s">
         <v>334</v>
       </c>
-      <c r="I41" s="77"/>
+      <c r="I41" s="133"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="76" t="s">
+      <c r="K41" s="132" t="s">
         <v>340</v>
       </c>
-      <c r="L41" s="77"/>
+      <c r="L41" s="133"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="76" t="s">
+      <c r="N41" s="132" t="s">
         <v>341</v>
       </c>
-      <c r="O41" s="77"/>
+      <c r="O41" s="133"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="168" t="s">
+      <c r="Q41" s="143" t="s">
+        <v>346</v>
+      </c>
+      <c r="R41" s="144"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="143" t="s">
         <v>347</v>
       </c>
-      <c r="R41" s="169"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="168" t="s">
+      <c r="U41" s="144"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="103" t="s">
         <v>348</v>
       </c>
-      <c r="U41" s="169"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="X41" s="85"/>
+      <c r="X41" s="147"/>
       <c r="Y41" s="4"/>
-      <c r="Z41" s="156" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA41" s="157"/>
+      <c r="Z41" s="150" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA41" s="151"/>
       <c r="AB41" s="4"/>
     </row>
-    <row r="42" spans="1:29">
-      <c r="A42" s="110" t="s">
+    <row r="42" spans="1:32">
+      <c r="A42" s="74" t="s">
         <v>302</v>
       </c>
-      <c r="B42" s="78"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="121"/>
-      <c r="L42" s="122"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="121"/>
-      <c r="O42" s="122"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="170"/>
-      <c r="R42" s="171"/>
-      <c r="S42" s="94"/>
-      <c r="T42" s="170"/>
-      <c r="U42" s="171"/>
-      <c r="V42" s="155" t="s">
-        <v>365</v>
-      </c>
-      <c r="W42" s="86"/>
-      <c r="X42" s="87"/>
-      <c r="Y42" s="94" t="s">
+      <c r="B42" s="136"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="134"/>
+      <c r="L42" s="135"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="134"/>
+      <c r="O42" s="135"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="145"/>
+      <c r="R42" s="146"/>
+      <c r="S42" s="69"/>
+      <c r="T42" s="145"/>
+      <c r="U42" s="146"/>
+      <c r="V42" s="89" t="s">
+        <v>364</v>
+      </c>
+      <c r="W42" s="148"/>
+      <c r="X42" s="149"/>
+      <c r="Y42" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="Z42" s="158"/>
-      <c r="AA42" s="159"/>
-    </row>
-    <row r="43" spans="1:29" ht="16" customHeight="1">
-      <c r="A43" s="108"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="120"/>
+      <c r="Z42" s="152"/>
+      <c r="AA42" s="153"/>
+    </row>
+    <row r="43" spans="1:32" ht="16" customHeight="1">
+      <c r="A43" s="72"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="83"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="120"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="83"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="79"/>
+      <c r="K43" s="136"/>
+      <c r="L43" s="137"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="79"/>
+      <c r="N43" s="136"/>
+      <c r="O43" s="137"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
@@ -12265,20 +12475,20 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-      <c r="Z43" s="160"/>
-      <c r="AA43" s="161"/>
-    </row>
-    <row r="44" spans="1:29" ht="15" customHeight="1">
-      <c r="A44" s="108"/>
-      <c r="E44" s="126" t="s">
+      <c r="Z43" s="154"/>
+      <c r="AA43" s="155"/>
+    </row>
+    <row r="44" spans="1:32" ht="15" customHeight="1">
+      <c r="A44" s="72"/>
+      <c r="E44" s="138" t="s">
         <v>345</v>
       </c>
-      <c r="F44" s="127"/>
+      <c r="F44" s="139"/>
       <c r="G44" s="38"/>
-      <c r="H44" s="95" t="s">
+      <c r="H44" s="129" t="s">
         <v>338</v>
       </c>
-      <c r="I44" s="96"/>
+      <c r="I44" s="130"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -12293,12 +12503,12 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
     </row>
-    <row r="45" spans="1:29">
-      <c r="E45" s="119"/>
-      <c r="F45" s="120"/>
+    <row r="45" spans="1:32">
+      <c r="E45" s="82"/>
+      <c r="F45" s="83"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="120"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="83"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
@@ -12306,17 +12516,17 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
     </row>
-    <row r="46" spans="1:29">
-      <c r="A46" s="108"/>
-      <c r="E46" s="95" t="s">
+    <row r="46" spans="1:32">
+      <c r="A46" s="72"/>
+      <c r="E46" s="129" t="s">
         <v>337</v>
       </c>
-      <c r="F46" s="118"/>
+      <c r="F46" s="131"/>
       <c r="G46" s="38"/>
-      <c r="H46" s="123" t="s">
+      <c r="H46" s="93" t="s">
         <v>342</v>
       </c>
-      <c r="I46" s="124"/>
+      <c r="I46" s="94"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -12331,13 +12541,13 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
     </row>
-    <row r="47" spans="1:29">
-      <c r="A47" s="108"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="120"/>
+    <row r="47" spans="1:32">
+      <c r="A47" s="72"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="83"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="120"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="83"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -12352,17 +12562,17 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
     </row>
-    <row r="48" spans="1:29">
-      <c r="A48" s="108"/>
-      <c r="E48" s="95" t="s">
+    <row r="48" spans="1:32">
+      <c r="A48" s="72"/>
+      <c r="E48" s="129" t="s">
         <v>336</v>
       </c>
-      <c r="F48" s="118"/>
+      <c r="F48" s="131"/>
       <c r="G48" s="38"/>
-      <c r="H48" s="95" t="s">
+      <c r="H48" s="129" t="s">
         <v>339</v>
       </c>
-      <c r="I48" s="118"/>
+      <c r="I48" s="131"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -12378,7 +12588,7 @@
       <c r="V48" s="4"/>
     </row>
     <row r="49" spans="1:29">
-      <c r="A49" s="108"/>
+      <c r="A49" s="72"/>
       <c r="E49" s="39"/>
       <c r="F49" s="41"/>
       <c r="G49" s="4"/>
@@ -12391,34 +12601,34 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
-      <c r="Q49" s="80" t="s">
-        <v>369</v>
-      </c>
-      <c r="R49" s="88"/>
-      <c r="S49" s="88"/>
-      <c r="T49" s="88"/>
-      <c r="U49" s="88"/>
-      <c r="V49" s="88"/>
-      <c r="W49" s="88"/>
-      <c r="X49" s="88"/>
-      <c r="Y49" s="88"/>
-      <c r="Z49" s="88"/>
-      <c r="AA49" s="81"/>
+      <c r="Q49" s="95" t="s">
+        <v>368</v>
+      </c>
+      <c r="R49" s="124"/>
+      <c r="S49" s="124"/>
+      <c r="T49" s="124"/>
+      <c r="U49" s="124"/>
+      <c r="V49" s="124"/>
+      <c r="W49" s="124"/>
+      <c r="X49" s="124"/>
+      <c r="Y49" s="124"/>
+      <c r="Z49" s="124"/>
+      <c r="AA49" s="96"/>
     </row>
     <row r="50" spans="1:29">
-      <c r="A50" s="108"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="95" t="s">
+      <c r="E50" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="118"/>
+      <c r="F50" s="131"/>
       <c r="G50" s="38"/>
-      <c r="H50" s="95" t="s">
+      <c r="H50" s="129" t="s">
         <v>344</v>
       </c>
-      <c r="I50" s="118"/>
+      <c r="I50" s="131"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -12426,121 +12636,121 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
-      <c r="Q50" s="90"/>
-      <c r="R50" s="89"/>
-      <c r="S50" s="89"/>
-      <c r="T50" s="89"/>
-      <c r="U50" s="89"/>
-      <c r="V50" s="89"/>
-      <c r="W50" s="89"/>
-      <c r="X50" s="89"/>
-      <c r="Y50" s="89"/>
-      <c r="Z50" s="89"/>
-      <c r="AA50" s="91"/>
+      <c r="Q50" s="97"/>
+      <c r="R50" s="125"/>
+      <c r="S50" s="125"/>
+      <c r="T50" s="125"/>
+      <c r="U50" s="125"/>
+      <c r="V50" s="125"/>
+      <c r="W50" s="125"/>
+      <c r="X50" s="125"/>
+      <c r="Y50" s="125"/>
+      <c r="Z50" s="125"/>
+      <c r="AA50" s="98"/>
     </row>
     <row r="51" spans="1:29" ht="15" customHeight="1">
-      <c r="A51" s="108"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="88" t="s">
+      <c r="H51" s="124" t="s">
         <v>343</v>
       </c>
-      <c r="I51" s="88"/>
-      <c r="J51" s="80" t="s">
-        <v>364</v>
-      </c>
-      <c r="K51" s="81"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="95" t="s">
+        <v>363</v>
+      </c>
+      <c r="K51" s="96"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="90"/>
-      <c r="R51" s="89"/>
-      <c r="S51" s="89"/>
-      <c r="T51" s="89"/>
-      <c r="U51" s="89"/>
-      <c r="V51" s="89"/>
-      <c r="W51" s="89"/>
-      <c r="X51" s="89"/>
-      <c r="Y51" s="89"/>
-      <c r="Z51" s="89"/>
-      <c r="AA51" s="91"/>
+      <c r="Q51" s="97"/>
+      <c r="R51" s="125"/>
+      <c r="S51" s="125"/>
+      <c r="T51" s="125"/>
+      <c r="U51" s="125"/>
+      <c r="V51" s="125"/>
+      <c r="W51" s="125"/>
+      <c r="X51" s="125"/>
+      <c r="Y51" s="125"/>
+      <c r="Z51" s="125"/>
+      <c r="AA51" s="98"/>
     </row>
     <row r="52" spans="1:29">
-      <c r="A52" s="116" t="s">
+      <c r="A52" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="B52" s="117"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="117"/>
-      <c r="E52" s="117"/>
-      <c r="F52" s="117"/>
-      <c r="G52" s="117"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="90"/>
-      <c r="K52" s="91"/>
-      <c r="L52" s="117"/>
-      <c r="M52" s="117"/>
-      <c r="N52" s="117"/>
-      <c r="O52" s="117"/>
-      <c r="P52" s="117"/>
-      <c r="Q52" s="90"/>
-      <c r="R52" s="89"/>
-      <c r="S52" s="89"/>
-      <c r="T52" s="89"/>
-      <c r="U52" s="89"/>
-      <c r="V52" s="89"/>
-      <c r="W52" s="89"/>
-      <c r="X52" s="89"/>
-      <c r="Y52" s="89"/>
-      <c r="Z52" s="89"/>
-      <c r="AA52" s="91"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="97"/>
+      <c r="K52" s="98"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="81"/>
+      <c r="N52" s="81"/>
+      <c r="O52" s="81"/>
+      <c r="P52" s="81"/>
+      <c r="Q52" s="97"/>
+      <c r="R52" s="125"/>
+      <c r="S52" s="125"/>
+      <c r="T52" s="125"/>
+      <c r="U52" s="125"/>
+      <c r="V52" s="125"/>
+      <c r="W52" s="125"/>
+      <c r="X52" s="125"/>
+      <c r="Y52" s="125"/>
+      <c r="Z52" s="125"/>
+      <c r="AA52" s="98"/>
     </row>
     <row r="53" spans="1:29" ht="16" thickBot="1">
-      <c r="A53" s="108"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="89"/>
-      <c r="I53" s="89"/>
-      <c r="J53" s="153"/>
-      <c r="K53" s="154"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="99"/>
+      <c r="K53" s="100"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
-      <c r="Q53" s="90"/>
-      <c r="R53" s="89"/>
-      <c r="S53" s="89"/>
-      <c r="T53" s="89"/>
-      <c r="U53" s="89"/>
-      <c r="V53" s="89"/>
-      <c r="W53" s="89"/>
-      <c r="X53" s="89"/>
-      <c r="Y53" s="89"/>
-      <c r="Z53" s="89"/>
-      <c r="AA53" s="91"/>
+      <c r="Q53" s="97"/>
+      <c r="R53" s="125"/>
+      <c r="S53" s="125"/>
+      <c r="T53" s="125"/>
+      <c r="U53" s="125"/>
+      <c r="V53" s="125"/>
+      <c r="W53" s="125"/>
+      <c r="X53" s="125"/>
+      <c r="Y53" s="125"/>
+      <c r="Z53" s="125"/>
+      <c r="AA53" s="98"/>
     </row>
     <row r="54" spans="1:29">
-      <c r="A54" s="108"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="125"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -12548,28 +12758,28 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
-      <c r="Q54" s="90"/>
-      <c r="R54" s="89"/>
-      <c r="S54" s="89"/>
-      <c r="T54" s="89"/>
-      <c r="U54" s="89"/>
-      <c r="V54" s="89"/>
-      <c r="W54" s="89"/>
-      <c r="X54" s="89"/>
-      <c r="Y54" s="89"/>
-      <c r="Z54" s="89"/>
-      <c r="AA54" s="91"/>
+      <c r="Q54" s="97"/>
+      <c r="R54" s="125"/>
+      <c r="S54" s="125"/>
+      <c r="T54" s="125"/>
+      <c r="U54" s="125"/>
+      <c r="V54" s="125"/>
+      <c r="W54" s="125"/>
+      <c r="X54" s="125"/>
+      <c r="Y54" s="125"/>
+      <c r="Z54" s="125"/>
+      <c r="AA54" s="98"/>
     </row>
     <row r="55" spans="1:29">
-      <c r="A55" s="108"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="89"/>
-      <c r="I55" s="89"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="125"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -12577,315 +12787,383 @@
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
-      <c r="Q55" s="82"/>
-      <c r="R55" s="173"/>
-      <c r="S55" s="173"/>
-      <c r="T55" s="173"/>
-      <c r="U55" s="173"/>
-      <c r="V55" s="173"/>
-      <c r="W55" s="173"/>
-      <c r="X55" s="173"/>
-      <c r="Y55" s="173"/>
-      <c r="Z55" s="173"/>
-      <c r="AA55" s="83"/>
+      <c r="Q55" s="126"/>
+      <c r="R55" s="127"/>
+      <c r="S55" s="127"/>
+      <c r="T55" s="127"/>
+      <c r="U55" s="127"/>
+      <c r="V55" s="127"/>
+      <c r="W55" s="127"/>
+      <c r="X55" s="127"/>
+      <c r="Y55" s="127"/>
+      <c r="Z55" s="127"/>
+      <c r="AA55" s="128"/>
     </row>
     <row r="56" spans="1:29" ht="16" thickBot="1">
-      <c r="A56" s="111"/>
-      <c r="B56" s="112"/>
-      <c r="C56" s="112"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
-      <c r="J56" s="112"/>
-      <c r="K56" s="112"/>
-      <c r="L56" s="112"/>
-      <c r="M56" s="112"/>
-      <c r="N56" s="112"/>
-      <c r="O56" s="112"/>
-      <c r="P56" s="112"/>
-      <c r="Q56" s="112"/>
-      <c r="R56" s="112"/>
-      <c r="S56" s="112"/>
-      <c r="T56" s="112"/>
-      <c r="U56" s="112"/>
-      <c r="V56" s="112"/>
-      <c r="W56" s="112"/>
-      <c r="X56" s="112"/>
-      <c r="Y56" s="112"/>
-      <c r="Z56" s="112"/>
-      <c r="AA56" s="112"/>
-      <c r="AB56" s="112"/>
-      <c r="AC56" s="113"/>
+      <c r="A56" s="75"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="140"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="76"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="76"/>
+      <c r="Q56" s="76"/>
+      <c r="R56" s="76"/>
+      <c r="S56" s="76"/>
+      <c r="T56" s="76"/>
+      <c r="U56" s="76"/>
+      <c r="V56" s="76"/>
+      <c r="W56" s="76"/>
+      <c r="X56" s="76"/>
+      <c r="Y56" s="76"/>
+      <c r="Z56" s="76"/>
+      <c r="AA56" s="76"/>
+      <c r="AB56" s="76"/>
+      <c r="AC56" s="77"/>
     </row>
     <row r="57" spans="1:29">
-      <c r="A57" s="104" t="s">
-        <v>370</v>
-      </c>
-      <c r="B57" s="105"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="106"/>
-      <c r="G57" s="106"/>
-      <c r="H57" s="106"/>
-      <c r="I57" s="106"/>
-      <c r="J57" s="106"/>
-      <c r="K57" s="106"/>
-      <c r="L57" s="106"/>
-      <c r="M57" s="106"/>
-      <c r="N57" s="106"/>
-      <c r="O57" s="106"/>
-      <c r="P57" s="106"/>
+      <c r="A57" s="141" t="s">
+        <v>369</v>
+      </c>
+      <c r="B57" s="142"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="70"/>
+      <c r="P57" s="70"/>
     </row>
     <row r="58" spans="1:29">
-      <c r="A58" s="108"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:29" ht="15" customHeight="1">
-      <c r="A59" s="108"/>
-      <c r="B59" s="76" t="s">
+      <c r="A59" s="72"/>
+      <c r="B59" s="132" t="s">
         <v>311</v>
       </c>
-      <c r="C59" s="129"/>
+      <c r="C59" s="156"/>
     </row>
     <row r="60" spans="1:29">
-      <c r="A60" s="110" t="s">
+      <c r="A60" s="74" t="s">
         <v>302</v>
       </c>
-      <c r="B60" s="129"/>
-      <c r="C60" s="79"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="137"/>
     </row>
     <row r="61" spans="1:29">
       <c r="B61" s="38"/>
-      <c r="C61" s="130"/>
-      <c r="S61" s="144"/>
-      <c r="T61" s="144"/>
-      <c r="U61" s="144"/>
-      <c r="V61" s="144"/>
-      <c r="W61" s="144"/>
+      <c r="C61" s="84"/>
+      <c r="S61" s="87"/>
+      <c r="T61" s="87"/>
+      <c r="U61" s="87"/>
+      <c r="V61" s="87"/>
+      <c r="W61" s="87"/>
     </row>
     <row r="62" spans="1:29" ht="15" customHeight="1">
-      <c r="B62" s="76" t="s">
-        <v>352</v>
-      </c>
-      <c r="C62" s="77"/>
-      <c r="S62" s="144"/>
-      <c r="T62" s="144"/>
-      <c r="U62" s="144"/>
-      <c r="V62" s="144"/>
-      <c r="W62" s="144"/>
+      <c r="B62" s="132" t="s">
+        <v>351</v>
+      </c>
+      <c r="C62" s="133"/>
+      <c r="S62" s="87"/>
+      <c r="T62" s="87"/>
+      <c r="U62" s="87"/>
+      <c r="V62" s="87"/>
+      <c r="W62" s="87"/>
     </row>
     <row r="63" spans="1:29">
-      <c r="B63" s="78"/>
-      <c r="C63" s="79"/>
-      <c r="S63" s="144"/>
-      <c r="T63" s="147" t="s">
-        <v>355</v>
-      </c>
-      <c r="U63" s="147"/>
-      <c r="V63" s="147"/>
-      <c r="W63" s="147"/>
+      <c r="B63" s="136"/>
+      <c r="C63" s="137"/>
+      <c r="S63" s="87"/>
+      <c r="T63" s="88" t="s">
+        <v>354</v>
+      </c>
+      <c r="U63" s="88"/>
+      <c r="V63" s="88"/>
+      <c r="W63" s="88"/>
     </row>
     <row r="64" spans="1:29">
       <c r="B64" s="38"/>
-      <c r="C64" s="130"/>
-      <c r="E64" s="131"/>
-      <c r="F64" s="131"/>
-      <c r="G64" s="131"/>
-      <c r="H64" s="131"/>
-      <c r="I64" s="131"/>
-      <c r="J64" s="131"/>
-      <c r="K64" s="131"/>
-      <c r="L64" s="132"/>
-      <c r="S64" s="144"/>
-      <c r="T64" s="145" t="s">
-        <v>356</v>
-      </c>
-      <c r="U64" s="145"/>
-      <c r="V64" s="145"/>
-      <c r="W64" s="145"/>
+      <c r="C64" s="84"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="85"/>
+      <c r="J64" s="85"/>
+      <c r="K64" s="85"/>
+      <c r="L64" s="86"/>
+      <c r="S64" s="87"/>
+      <c r="T64" s="189" t="s">
+        <v>355</v>
+      </c>
+      <c r="U64" s="189"/>
+      <c r="V64" s="189"/>
+      <c r="W64" s="189"/>
     </row>
     <row r="65" spans="2:23" ht="15" customHeight="1">
-      <c r="B65" s="84" t="s">
-        <v>350</v>
-      </c>
-      <c r="C65" s="99"/>
+      <c r="B65" s="103" t="s">
+        <v>349</v>
+      </c>
+      <c r="C65" s="109"/>
       <c r="D65" s="52"/>
-      <c r="E65" s="72" t="s">
-        <v>353</v>
-      </c>
-      <c r="F65" s="133"/>
-      <c r="G65" s="133"/>
-      <c r="H65" s="133"/>
-      <c r="I65" s="133"/>
-      <c r="J65" s="133"/>
-      <c r="K65" s="133"/>
-      <c r="L65" s="73"/>
+      <c r="E65" s="111" t="s">
+        <v>352</v>
+      </c>
+      <c r="F65" s="112"/>
+      <c r="G65" s="112"/>
+      <c r="H65" s="112"/>
+      <c r="I65" s="112"/>
+      <c r="J65" s="112"/>
+      <c r="K65" s="112"/>
+      <c r="L65" s="113"/>
       <c r="M65" s="52"/>
       <c r="N65" s="52"/>
-      <c r="O65" s="135" t="s">
-        <v>354</v>
-      </c>
-      <c r="P65" s="136"/>
-      <c r="Q65" s="137"/>
-      <c r="S65" s="144"/>
-      <c r="T65" s="145" t="s">
-        <v>357</v>
-      </c>
-      <c r="U65" s="145"/>
-      <c r="V65" s="145"/>
-      <c r="W65" s="145"/>
+      <c r="O65" s="117" t="s">
+        <v>353</v>
+      </c>
+      <c r="P65" s="101"/>
+      <c r="Q65" s="118"/>
+      <c r="S65" s="87"/>
+      <c r="T65" s="189" t="s">
+        <v>356</v>
+      </c>
+      <c r="U65" s="189"/>
+      <c r="V65" s="189"/>
+      <c r="W65" s="189"/>
     </row>
     <row r="66" spans="2:23">
-      <c r="B66" s="101"/>
-      <c r="C66" s="102"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="110"/>
       <c r="D66" s="52"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="134"/>
-      <c r="G66" s="134"/>
-      <c r="H66" s="134"/>
-      <c r="I66" s="134"/>
-      <c r="J66" s="134"/>
-      <c r="K66" s="134"/>
-      <c r="L66" s="75"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="115"/>
+      <c r="G66" s="115"/>
+      <c r="H66" s="115"/>
+      <c r="I66" s="115"/>
+      <c r="J66" s="115"/>
+      <c r="K66" s="115"/>
+      <c r="L66" s="116"/>
       <c r="M66" s="52"/>
       <c r="N66" s="52"/>
-      <c r="O66" s="138"/>
-      <c r="P66" s="139"/>
-      <c r="Q66" s="140"/>
-      <c r="S66" s="144"/>
-      <c r="T66" s="146" t="s">
-        <v>358</v>
-      </c>
-      <c r="U66" s="146"/>
-      <c r="V66" s="146"/>
-      <c r="W66" s="146"/>
+      <c r="O66" s="119"/>
+      <c r="P66" s="102"/>
+      <c r="Q66" s="120"/>
+      <c r="S66" s="87"/>
+      <c r="T66" s="190" t="s">
+        <v>357</v>
+      </c>
+      <c r="U66" s="190"/>
+      <c r="V66" s="190"/>
+      <c r="W66" s="190"/>
     </row>
     <row r="67" spans="2:23">
       <c r="B67" s="38"/>
-      <c r="C67" s="130"/>
-      <c r="E67" s="131"/>
-      <c r="F67" s="131"/>
-      <c r="G67" s="131"/>
-      <c r="H67" s="131"/>
-      <c r="I67" s="131"/>
-      <c r="J67" s="131"/>
-      <c r="K67" s="131"/>
-      <c r="L67" s="132"/>
-      <c r="O67" s="141"/>
-      <c r="P67" s="142"/>
-      <c r="Q67" s="143"/>
-      <c r="S67" s="144"/>
-      <c r="T67" s="146"/>
-      <c r="U67" s="146"/>
-      <c r="V67" s="146"/>
-      <c r="W67" s="146"/>
+      <c r="C67" s="84"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="85"/>
+      <c r="H67" s="85"/>
+      <c r="I67" s="85"/>
+      <c r="J67" s="85"/>
+      <c r="K67" s="85"/>
+      <c r="L67" s="86"/>
+      <c r="O67" s="121"/>
+      <c r="P67" s="122"/>
+      <c r="Q67" s="123"/>
+      <c r="S67" s="87"/>
+      <c r="T67" s="190"/>
+      <c r="U67" s="190"/>
+      <c r="V67" s="190"/>
+      <c r="W67" s="190"/>
     </row>
     <row r="68" spans="2:23">
-      <c r="B68" s="84" t="s">
-        <v>351</v>
-      </c>
-      <c r="C68" s="100"/>
-      <c r="E68" s="131"/>
-      <c r="F68" s="131"/>
-      <c r="G68" s="131"/>
-      <c r="H68" s="131"/>
-      <c r="I68" s="131"/>
-      <c r="J68" s="131"/>
-      <c r="K68" s="131"/>
-      <c r="L68" s="132"/>
+      <c r="B68" s="103" t="s">
+        <v>350</v>
+      </c>
+      <c r="C68" s="104"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="85"/>
+      <c r="I68" s="85"/>
+      <c r="J68" s="85"/>
+      <c r="K68" s="85"/>
+      <c r="L68" s="86"/>
       <c r="P68" s="52"/>
-      <c r="S68" s="144"/>
-      <c r="T68" s="146"/>
-      <c r="U68" s="146"/>
-      <c r="V68" s="146"/>
-      <c r="W68" s="146"/>
+      <c r="S68" s="87"/>
+      <c r="T68" s="190"/>
+      <c r="U68" s="190"/>
+      <c r="V68" s="190"/>
+      <c r="W68" s="190"/>
     </row>
     <row r="69" spans="2:23" ht="15" customHeight="1">
-      <c r="B69" s="92"/>
-      <c r="C69" s="128"/>
-      <c r="E69" s="132"/>
-      <c r="F69" s="132"/>
-      <c r="G69" s="132"/>
-      <c r="H69" s="132"/>
-      <c r="I69" s="132"/>
-      <c r="J69" s="132"/>
-      <c r="K69" s="132"/>
-      <c r="L69" s="132"/>
-      <c r="O69" s="136" t="s">
+      <c r="B69" s="105"/>
+      <c r="C69" s="106"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="H69" s="86"/>
+      <c r="I69" s="86"/>
+      <c r="J69" s="86"/>
+      <c r="K69" s="86"/>
+      <c r="L69" s="86"/>
+      <c r="O69" s="101" t="s">
+        <v>366</v>
+      </c>
+      <c r="P69" s="101"/>
+      <c r="Q69" s="101"/>
+      <c r="S69" s="87"/>
+      <c r="T69" s="190"/>
+      <c r="U69" s="190"/>
+      <c r="V69" s="190"/>
+      <c r="W69" s="190"/>
+    </row>
+    <row r="70" spans="2:23">
+      <c r="B70" s="107"/>
+      <c r="C70" s="108"/>
+      <c r="O70" s="102"/>
+      <c r="P70" s="102"/>
+      <c r="Q70" s="102"/>
+      <c r="S70" s="87"/>
+      <c r="T70" s="189" t="s">
+        <v>358</v>
+      </c>
+      <c r="U70" s="189"/>
+      <c r="V70" s="189"/>
+      <c r="W70" s="189"/>
+    </row>
+    <row r="71" spans="2:23">
+      <c r="O71" s="102"/>
+      <c r="P71" s="102"/>
+      <c r="Q71" s="102"/>
+      <c r="T71" s="189" t="s">
+        <v>359</v>
+      </c>
+      <c r="U71" s="189"/>
+      <c r="V71" s="189"/>
+      <c r="W71" s="189"/>
+    </row>
+    <row r="72" spans="2:23" ht="15" customHeight="1">
+      <c r="O72" s="102"/>
+      <c r="P72" s="102"/>
+      <c r="Q72" s="102"/>
+      <c r="T72" s="191" t="s">
         <v>367</v>
       </c>
-      <c r="P69" s="136"/>
-      <c r="Q69" s="136"/>
-      <c r="S69" s="144"/>
-      <c r="T69" s="146"/>
-      <c r="U69" s="146"/>
-      <c r="V69" s="146"/>
-      <c r="W69" s="146"/>
-    </row>
-    <row r="70" spans="2:23">
-      <c r="B70" s="101"/>
-      <c r="C70" s="103"/>
-      <c r="O70" s="139"/>
-      <c r="P70" s="139"/>
-      <c r="Q70" s="139"/>
-      <c r="S70" s="144"/>
-      <c r="T70" s="145" t="s">
-        <v>359</v>
-      </c>
-      <c r="U70" s="145"/>
-      <c r="V70" s="145"/>
-      <c r="W70" s="145"/>
-    </row>
-    <row r="71" spans="2:23">
-      <c r="O71" s="139"/>
-      <c r="P71" s="139"/>
-      <c r="Q71" s="139"/>
-      <c r="T71" s="145" t="s">
-        <v>360</v>
-      </c>
-      <c r="U71" s="145"/>
-      <c r="V71" s="145"/>
-      <c r="W71" s="145"/>
-    </row>
-    <row r="72" spans="2:23" ht="15" customHeight="1">
-      <c r="O72" s="139"/>
-      <c r="P72" s="139"/>
-      <c r="Q72" s="139"/>
-      <c r="T72" s="172" t="s">
-        <v>368</v>
-      </c>
-      <c r="U72" s="172"/>
-      <c r="V72" s="172"/>
-      <c r="W72" s="172"/>
+      <c r="U72" s="191"/>
+      <c r="V72" s="191"/>
+      <c r="W72" s="191"/>
     </row>
     <row r="73" spans="2:23">
-      <c r="O73" s="139"/>
-      <c r="P73" s="139"/>
-      <c r="Q73" s="139"/>
-      <c r="T73" s="148"/>
-      <c r="U73" s="148"/>
-      <c r="V73" s="148"/>
-      <c r="W73" s="148"/>
+      <c r="O73" s="102"/>
+      <c r="P73" s="102"/>
+      <c r="Q73" s="102"/>
+      <c r="T73" s="192"/>
+      <c r="U73" s="192"/>
+      <c r="V73" s="192"/>
+      <c r="W73" s="192"/>
     </row>
     <row r="74" spans="2:23">
-      <c r="T74" s="148"/>
-      <c r="U74" s="148"/>
-      <c r="V74" s="148"/>
-      <c r="W74" s="148"/>
+      <c r="T74" s="192"/>
+      <c r="U74" s="192"/>
+      <c r="V74" s="192"/>
+      <c r="W74" s="192"/>
     </row>
     <row r="75" spans="2:23">
-      <c r="T75" s="148"/>
-      <c r="U75" s="148"/>
-      <c r="V75" s="148"/>
-      <c r="W75" s="148"/>
+      <c r="T75" s="192"/>
+      <c r="U75" s="192"/>
+      <c r="V75" s="192"/>
+      <c r="W75" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="T6:V17"/>
+    <mergeCell ref="T3:V4"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="N21:O22"/>
+    <mergeCell ref="T21:V22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="Q6:R13"/>
+    <mergeCell ref="X3:Y4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="T70:W70"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="W41:X42"/>
+    <mergeCell ref="T41:U42"/>
+    <mergeCell ref="Z41:AA43"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="T66:W69"/>
+    <mergeCell ref="H51:I56"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="Q41:R42"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="K41:L43"/>
+    <mergeCell ref="N41:O43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E46:F46"/>
     <mergeCell ref="T71:W71"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="E36:F38"/>
@@ -12902,74 +13180,6 @@
     <mergeCell ref="T64:W64"/>
     <mergeCell ref="T65:W65"/>
     <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="K41:L43"/>
-    <mergeCell ref="N41:O43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="H51:I56"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="Q41:R42"/>
-    <mergeCell ref="W41:X42"/>
-    <mergeCell ref="T41:U42"/>
-    <mergeCell ref="Z41:AA43"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="T66:W69"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="T70:W70"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="AA3:AB4"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="N21:O22"/>
-    <mergeCell ref="T21:V22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="Q6:R13"/>
-    <mergeCell ref="X3:Y4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="T6:V17"/>
-    <mergeCell ref="T3:V4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Food_SR_Organization.xlsx
+++ b/Food_SR_Organization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35040" windowHeight="8760" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="8500" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1.Food Need" sheetId="3" r:id="rId1"/>
@@ -1666,7 +1666,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1832,6 +1832,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2572,7 +2578,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2703,6 +2709,13 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2712,73 +2725,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2792,102 +2745,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2904,7 +2761,13 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2922,10 +2785,22 @@
     <xf numFmtId="0" fontId="8" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2949,16 +2824,149 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="419">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -10254,7 +10262,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="110" t="s">
+      <c r="M14" s="117" t="s">
         <v>42</v>
       </c>
       <c r="N14" s="4"/>
@@ -10274,7 +10282,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="111"/>
+      <c r="M15" s="118"/>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:26">
@@ -10292,7 +10300,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="111"/>
+      <c r="M16" s="118"/>
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14">
@@ -10310,7 +10318,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="22"/>
-      <c r="M17" s="111"/>
+      <c r="M17" s="118"/>
       <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:14">
@@ -10328,7 +10336,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="22"/>
-      <c r="M18" s="111"/>
+      <c r="M18" s="118"/>
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14">
@@ -10346,7 +10354,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="22"/>
-      <c r="M19" s="111"/>
+      <c r="M19" s="118"/>
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14">
@@ -10362,7 +10370,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="112"/>
+      <c r="M20" s="119"/>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14">
@@ -11353,11 +11361,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="172" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
       <c r="D1" s="70"/>
       <c r="E1" s="70"/>
       <c r="F1" s="70"/>
@@ -11418,84 +11426,84 @@
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1">
       <c r="A3" s="72"/>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="140" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="133"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="166" t="s">
         <v>300</v>
       </c>
-      <c r="F3" s="123"/>
+      <c r="F3" s="178"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="132" t="s">
+      <c r="H3" s="140" t="s">
         <v>305</v>
       </c>
-      <c r="I3" s="133"/>
+      <c r="I3" s="142"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="132" t="s">
+      <c r="K3" s="140" t="s">
         <v>306</v>
       </c>
-      <c r="L3" s="133"/>
+      <c r="L3" s="142"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="122" t="s">
+      <c r="N3" s="166" t="s">
         <v>307</v>
       </c>
-      <c r="O3" s="123"/>
+      <c r="O3" s="178"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="122" t="s">
+      <c r="Q3" s="166" t="s">
         <v>308</v>
       </c>
-      <c r="R3" s="123"/>
+      <c r="R3" s="178"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="116" t="s">
+      <c r="T3" s="134" t="s">
         <v>310</v>
       </c>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
       <c r="W3" s="4"/>
-      <c r="X3" s="118" t="s">
+      <c r="X3" s="196" t="s">
         <v>361</v>
       </c>
-      <c r="Y3" s="119"/>
+      <c r="Y3" s="197"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="118" t="s">
+      <c r="AA3" s="196" t="s">
         <v>312</v>
       </c>
-      <c r="AB3" s="119"/>
+      <c r="AB3" s="197"/>
       <c r="AC3" s="73"/>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1">
       <c r="A4" s="74" t="s">
         <v>302</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="135"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="145"/>
       <c r="D4" s="69"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="168"/>
       <c r="G4" s="69"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="135"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="145"/>
       <c r="J4" s="69"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="135"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="145"/>
       <c r="M4" s="69"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="125"/>
+      <c r="N4" s="181"/>
+      <c r="O4" s="168"/>
       <c r="P4" s="69"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="125"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="168"/>
       <c r="S4" s="69"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="195"/>
+      <c r="V4" s="195"/>
       <c r="W4" s="69"/>
-      <c r="X4" s="120"/>
-      <c r="Y4" s="121"/>
+      <c r="X4" s="198"/>
+      <c r="Y4" s="199"/>
       <c r="Z4" s="69"/>
-      <c r="AA4" s="120"/>
-      <c r="AB4" s="121"/>
+      <c r="AA4" s="198"/>
+      <c r="AB4" s="199"/>
       <c r="AC4" s="73"/>
     </row>
     <row r="5" spans="1:29">
@@ -11534,10 +11542,10 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="123" t="s">
         <v>301</v>
       </c>
-      <c r="F6" s="137"/>
+      <c r="F6" s="124"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -11548,16 +11556,16 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="136" t="s">
+      <c r="Q6" s="123" t="s">
         <v>309</v>
       </c>
-      <c r="R6" s="137"/>
+      <c r="R6" s="124"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="115" t="s">
+      <c r="T6" s="154" t="s">
         <v>360</v>
       </c>
-      <c r="U6" s="115"/>
-      <c r="V6" s="115"/>
+      <c r="U6" s="154"/>
+      <c r="V6" s="154"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
@@ -11573,8 +11581,8 @@
       <c r="B7" s="69"/>
       <c r="C7" s="69"/>
       <c r="D7" s="69"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="141"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="157"/>
       <c r="G7" s="69"/>
       <c r="H7" s="69"/>
       <c r="I7" s="69"/>
@@ -11585,12 +11593,12 @@
       <c r="N7" s="69"/>
       <c r="O7" s="69"/>
       <c r="P7" s="69"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="139"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="126"/>
       <c r="S7" s="69"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
+      <c r="T7" s="154"/>
+      <c r="U7" s="154"/>
+      <c r="V7" s="154"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
@@ -11616,12 +11624,12 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="138"/>
-      <c r="R8" s="139"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="126"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
+      <c r="T8" s="154"/>
+      <c r="U8" s="154"/>
+      <c r="V8" s="154"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
@@ -11649,12 +11657,12 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="138"/>
-      <c r="R9" s="139"/>
+      <c r="Q9" s="125"/>
+      <c r="R9" s="126"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="115"/>
-      <c r="U9" s="115"/>
-      <c r="V9" s="115"/>
+      <c r="T9" s="154"/>
+      <c r="U9" s="154"/>
+      <c r="V9" s="154"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
@@ -11680,12 +11688,12 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="139"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="126"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="115"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="115"/>
+      <c r="T10" s="154"/>
+      <c r="U10" s="154"/>
+      <c r="V10" s="154"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
@@ -11713,12 +11721,12 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="139"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="126"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="115"/>
-      <c r="U11" s="115"/>
-      <c r="V11" s="115"/>
+      <c r="T11" s="154"/>
+      <c r="U11" s="154"/>
+      <c r="V11" s="154"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
@@ -11744,12 +11752,12 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="138"/>
-      <c r="R12" s="139"/>
+      <c r="Q12" s="125"/>
+      <c r="R12" s="126"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="115"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
+      <c r="T12" s="154"/>
+      <c r="U12" s="154"/>
+      <c r="V12" s="154"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
@@ -11777,12 +11785,12 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="140"/>
-      <c r="R13" s="141"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="157"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="115"/>
-      <c r="U13" s="115"/>
-      <c r="V13" s="115"/>
+      <c r="T13" s="154"/>
+      <c r="U13" s="154"/>
+      <c r="V13" s="154"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
@@ -11811,9 +11819,9 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="115"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="115"/>
+      <c r="T14" s="154"/>
+      <c r="U14" s="154"/>
+      <c r="V14" s="154"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
@@ -11844,9 +11852,9 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="115"/>
-      <c r="U15" s="115"/>
-      <c r="V15" s="115"/>
+      <c r="T15" s="154"/>
+      <c r="U15" s="154"/>
+      <c r="V15" s="154"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -11875,9 +11883,9 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="115"/>
-      <c r="U16" s="115"/>
-      <c r="V16" s="115"/>
+      <c r="T16" s="154"/>
+      <c r="U16" s="154"/>
+      <c r="V16" s="154"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
@@ -11906,9 +11914,9 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="115"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="115"/>
+      <c r="T17" s="154"/>
+      <c r="U17" s="154"/>
+      <c r="V17" s="154"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
@@ -11949,11 +11957,11 @@
       <c r="AC18" s="77"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="172" t="s">
         <v>313</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="173"/>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
       <c r="F19" s="70"/>
@@ -12008,68 +12016,68 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="72"/>
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="166" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="123"/>
+      <c r="C21" s="178"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="122" t="s">
+      <c r="E21" s="166" t="s">
         <v>325</v>
       </c>
-      <c r="F21" s="123"/>
+      <c r="F21" s="178"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="122" t="s">
+      <c r="H21" s="166" t="s">
         <v>323</v>
       </c>
-      <c r="I21" s="123"/>
+      <c r="I21" s="178"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="122" t="s">
+      <c r="K21" s="166" t="s">
         <v>325</v>
       </c>
-      <c r="L21" s="123"/>
+      <c r="L21" s="178"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="122" t="s">
+      <c r="N21" s="166" t="s">
         <v>329</v>
       </c>
-      <c r="O21" s="123"/>
+      <c r="O21" s="178"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="122" t="s">
+      <c r="Q21" s="166" t="s">
         <v>314</v>
       </c>
-      <c r="R21" s="123"/>
+      <c r="R21" s="178"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="126" t="s">
+      <c r="T21" s="189" t="s">
         <v>349</v>
       </c>
-      <c r="U21" s="127"/>
-      <c r="V21" s="128"/>
+      <c r="U21" s="190"/>
+      <c r="V21" s="191"/>
       <c r="W21" s="73"/>
     </row>
     <row r="22" spans="1:32" ht="16" thickBot="1">
       <c r="A22" s="74" t="s">
         <v>302</v>
       </c>
-      <c r="B22" s="124"/>
-      <c r="C22" s="125"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="168"/>
       <c r="D22" s="69"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="125"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="168"/>
       <c r="G22" s="69"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="125"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="168"/>
       <c r="J22" s="69"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="125"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="168"/>
       <c r="M22" s="69"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="125"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="168"/>
       <c r="P22" s="69"/>
-      <c r="Q22" s="124"/>
-      <c r="R22" s="125"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="168"/>
       <c r="S22" s="69"/>
-      <c r="T22" s="129"/>
-      <c r="U22" s="130"/>
-      <c r="V22" s="131"/>
+      <c r="T22" s="192"/>
+      <c r="U22" s="193"/>
+      <c r="V22" s="194"/>
       <c r="W22" s="73"/>
     </row>
     <row r="23" spans="1:32">
@@ -12109,21 +12117,21 @@
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="72"/>
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="158" t="s">
         <v>315</v>
       </c>
-      <c r="C24" s="143"/>
+      <c r="C24" s="159"/>
       <c r="D24" s="38"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="143"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="159"/>
       <c r="G24" s="69"/>
-      <c r="H24" s="142" t="s">
+      <c r="H24" s="158" t="s">
         <v>315</v>
       </c>
-      <c r="I24" s="143"/>
+      <c r="I24" s="159"/>
       <c r="J24" s="69"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="143"/>
+      <c r="K24" s="158"/>
+      <c r="L24" s="159"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -12179,23 +12187,23 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="72"/>
-      <c r="B26" s="142" t="s">
+      <c r="B26" s="158" t="s">
         <v>316</v>
       </c>
-      <c r="C26" s="143"/>
+      <c r="C26" s="159"/>
       <c r="D26" s="38"/>
-      <c r="E26" s="142" t="s">
+      <c r="E26" s="158" t="s">
         <v>324</v>
       </c>
-      <c r="F26" s="143"/>
+      <c r="F26" s="159"/>
       <c r="G26" s="69"/>
-      <c r="H26" s="142" t="s">
+      <c r="H26" s="158" t="s">
         <v>316</v>
       </c>
-      <c r="I26" s="143"/>
+      <c r="I26" s="159"/>
       <c r="J26" s="69"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="143"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="159"/>
       <c r="M26" s="78"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -12240,7 +12248,7 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="73"/>
-      <c r="Y27" s="195" t="s">
+      <c r="Y27" s="112" t="s">
         <v>376</v>
       </c>
       <c r="Z27" s="8"/>
@@ -12249,25 +12257,25 @@
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
       <c r="AE27" s="8"/>
-      <c r="AF27" s="196"/>
+      <c r="AF27" s="113"/>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="72"/>
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="158" t="s">
         <v>317</v>
       </c>
-      <c r="C28" s="143"/>
+      <c r="C28" s="159"/>
       <c r="D28" s="38"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="143"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="159"/>
       <c r="G28" s="69"/>
-      <c r="H28" s="142" t="s">
+      <c r="H28" s="158" t="s">
         <v>317</v>
       </c>
-      <c r="I28" s="143"/>
+      <c r="I28" s="159"/>
       <c r="J28" s="69"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="143"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="159"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -12327,25 +12335,25 @@
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="72"/>
-      <c r="B30" s="142" t="s">
+      <c r="B30" s="158" t="s">
         <v>318</v>
       </c>
-      <c r="C30" s="143"/>
+      <c r="C30" s="159"/>
       <c r="D30" s="38"/>
-      <c r="E30" s="142" t="s">
+      <c r="E30" s="158" t="s">
         <v>326</v>
       </c>
-      <c r="F30" s="143"/>
+      <c r="F30" s="159"/>
       <c r="G30" s="69"/>
-      <c r="H30" s="142" t="s">
+      <c r="H30" s="158" t="s">
         <v>331</v>
       </c>
-      <c r="I30" s="143"/>
+      <c r="I30" s="159"/>
       <c r="J30" s="69"/>
-      <c r="K30" s="142" t="s">
+      <c r="K30" s="158" t="s">
         <v>330</v>
       </c>
-      <c r="L30" s="143"/>
+      <c r="L30" s="159"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -12403,23 +12411,23 @@
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="72"/>
-      <c r="B32" s="144" t="s">
+      <c r="B32" s="184" t="s">
         <v>320</v>
       </c>
-      <c r="C32" s="145"/>
+      <c r="C32" s="185"/>
       <c r="D32" s="38"/>
-      <c r="E32" s="144" t="s">
+      <c r="E32" s="184" t="s">
         <v>327</v>
       </c>
-      <c r="F32" s="145"/>
+      <c r="F32" s="185"/>
       <c r="G32" s="69"/>
-      <c r="H32" s="144" t="s">
+      <c r="H32" s="184" t="s">
         <v>320</v>
       </c>
-      <c r="I32" s="145"/>
+      <c r="I32" s="185"/>
       <c r="J32" s="69"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="145"/>
+      <c r="K32" s="184"/>
+      <c r="L32" s="185"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -12475,23 +12483,23 @@
     </row>
     <row r="34" spans="1:32" ht="16" thickBot="1">
       <c r="A34" s="72"/>
-      <c r="B34" s="142" t="s">
+      <c r="B34" s="158" t="s">
         <v>319</v>
       </c>
-      <c r="C34" s="143"/>
+      <c r="C34" s="159"/>
       <c r="D34" s="69"/>
-      <c r="E34" s="142" t="s">
+      <c r="E34" s="158" t="s">
         <v>328</v>
       </c>
-      <c r="F34" s="143"/>
+      <c r="F34" s="159"/>
       <c r="G34" s="69"/>
-      <c r="H34" s="142" t="s">
+      <c r="H34" s="158" t="s">
         <v>321</v>
       </c>
-      <c r="I34" s="143"/>
+      <c r="I34" s="159"/>
       <c r="J34" s="69"/>
-      <c r="K34" s="142"/>
-      <c r="L34" s="143"/>
+      <c r="K34" s="158"/>
+      <c r="L34" s="159"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -12542,18 +12550,18 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="136" t="s">
+      <c r="E36" s="123" t="s">
         <v>363</v>
       </c>
-      <c r="F36" s="137"/>
+      <c r="F36" s="124"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="136" t="s">
+      <c r="K36" s="123" t="s">
         <v>363</v>
       </c>
-      <c r="L36" s="137"/>
+      <c r="L36" s="124"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -12570,21 +12578,21 @@
       <c r="A37" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="B37" s="166" t="s">
+      <c r="B37" s="121" t="s">
         <v>362</v>
       </c>
-      <c r="C37" s="167"/>
+      <c r="C37" s="122"/>
       <c r="D37" s="81"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="139"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="126"/>
       <c r="G37" s="81"/>
-      <c r="H37" s="166" t="s">
+      <c r="H37" s="121" t="s">
         <v>362</v>
       </c>
-      <c r="I37" s="167"/>
+      <c r="I37" s="122"/>
       <c r="J37" s="81"/>
-      <c r="K37" s="138"/>
-      <c r="L37" s="139"/>
+      <c r="K37" s="125"/>
+      <c r="L37" s="126"/>
       <c r="M37" s="81"/>
       <c r="N37" s="81"/>
       <c r="O37" s="81"/>
@@ -12602,14 +12610,14 @@
       <c r="B38" s="76"/>
       <c r="C38" s="76"/>
       <c r="D38" s="76"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="173"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="128"/>
       <c r="G38" s="76"/>
       <c r="H38" s="76"/>
       <c r="I38" s="76"/>
       <c r="J38" s="76"/>
-      <c r="K38" s="172"/>
-      <c r="L38" s="173"/>
+      <c r="K38" s="127"/>
+      <c r="L38" s="128"/>
       <c r="M38" s="76"/>
       <c r="N38" s="76"/>
       <c r="O38" s="76"/>
@@ -12623,11 +12631,11 @@
       <c r="W38" s="77"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" s="113" t="s">
+      <c r="A39" s="172" t="s">
         <v>332</v>
       </c>
-      <c r="B39" s="114"/>
-      <c r="C39" s="114"/>
+      <c r="B39" s="173"/>
+      <c r="C39" s="173"/>
       <c r="D39" s="70"/>
       <c r="E39" s="70"/>
       <c r="F39" s="70"/>
@@ -12688,86 +12696,86 @@
     </row>
     <row r="41" spans="1:32" ht="15" customHeight="1">
       <c r="A41" s="72"/>
-      <c r="B41" s="122" t="s">
+      <c r="B41" s="166" t="s">
         <v>333</v>
       </c>
-      <c r="C41" s="123"/>
+      <c r="C41" s="178"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="122" t="s">
+      <c r="E41" s="166" t="s">
         <v>335</v>
       </c>
-      <c r="F41" s="123"/>
+      <c r="F41" s="178"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="122" t="s">
+      <c r="H41" s="166" t="s">
         <v>334</v>
       </c>
-      <c r="I41" s="123"/>
+      <c r="I41" s="178"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="122" t="s">
+      <c r="K41" s="166" t="s">
         <v>340</v>
       </c>
-      <c r="L41" s="123"/>
+      <c r="L41" s="178"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="122" t="s">
+      <c r="N41" s="166" t="s">
         <v>341</v>
       </c>
-      <c r="O41" s="123"/>
+      <c r="O41" s="178"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="151" t="s">
+      <c r="Q41" s="174" t="s">
         <v>346</v>
       </c>
-      <c r="R41" s="152"/>
+      <c r="R41" s="175"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="151" t="s">
+      <c r="T41" s="174" t="s">
         <v>347</v>
       </c>
-      <c r="U41" s="152"/>
+      <c r="U41" s="175"/>
       <c r="V41" s="4"/>
-      <c r="W41" s="147" t="s">
+      <c r="W41" s="132" t="s">
         <v>348</v>
       </c>
-      <c r="X41" s="148"/>
+      <c r="X41" s="186"/>
       <c r="Y41" s="4"/>
-      <c r="Z41" s="155" t="s">
+      <c r="Z41" s="160" t="s">
         <v>365</v>
       </c>
-      <c r="AA41" s="156"/>
+      <c r="AA41" s="161"/>
       <c r="AB41" s="4"/>
     </row>
     <row r="42" spans="1:32">
       <c r="A42" s="74" t="s">
         <v>302</v>
       </c>
-      <c r="B42" s="124"/>
-      <c r="C42" s="125"/>
+      <c r="B42" s="181"/>
+      <c r="C42" s="168"/>
       <c r="D42" s="69"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="125"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="168"/>
       <c r="G42" s="69"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="125"/>
+      <c r="H42" s="181"/>
+      <c r="I42" s="168"/>
       <c r="J42" s="69"/>
-      <c r="K42" s="168"/>
-      <c r="L42" s="169"/>
+      <c r="K42" s="179"/>
+      <c r="L42" s="180"/>
       <c r="M42" s="69"/>
-      <c r="N42" s="168"/>
-      <c r="O42" s="169"/>
+      <c r="N42" s="179"/>
+      <c r="O42" s="180"/>
       <c r="P42" s="69"/>
-      <c r="Q42" s="153"/>
-      <c r="R42" s="154"/>
+      <c r="Q42" s="176"/>
+      <c r="R42" s="177"/>
       <c r="S42" s="69"/>
-      <c r="T42" s="153"/>
-      <c r="U42" s="154"/>
+      <c r="T42" s="176"/>
+      <c r="U42" s="177"/>
       <c r="V42" s="89" t="s">
         <v>364</v>
       </c>
-      <c r="W42" s="149"/>
-      <c r="X42" s="150"/>
+      <c r="W42" s="187"/>
+      <c r="X42" s="188"/>
       <c r="Y42" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="Z42" s="157"/>
-      <c r="AA42" s="158"/>
+      <c r="Z42" s="162"/>
+      <c r="AA42" s="163"/>
     </row>
     <row r="43" spans="1:32" ht="16" customHeight="1">
       <c r="A43" s="72"/>
@@ -12777,11 +12785,11 @@
       <c r="H43" s="82"/>
       <c r="I43" s="83"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="124"/>
-      <c r="L43" s="125"/>
+      <c r="K43" s="181"/>
+      <c r="L43" s="168"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="124"/>
-      <c r="O43" s="125"/>
+      <c r="N43" s="181"/>
+      <c r="O43" s="168"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
@@ -12789,20 +12797,20 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-      <c r="Z43" s="159"/>
-      <c r="AA43" s="160"/>
+      <c r="Z43" s="164"/>
+      <c r="AA43" s="165"/>
     </row>
     <row r="44" spans="1:32" ht="15" customHeight="1">
       <c r="A44" s="72"/>
-      <c r="E44" s="170" t="s">
+      <c r="E44" s="182" t="s">
         <v>345</v>
       </c>
-      <c r="F44" s="171"/>
+      <c r="F44" s="183"/>
       <c r="G44" s="38"/>
-      <c r="H44" s="142" t="s">
+      <c r="H44" s="158" t="s">
         <v>338</v>
       </c>
-      <c r="I44" s="143"/>
+      <c r="I44" s="159"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -12832,15 +12840,15 @@
     </row>
     <row r="46" spans="1:32">
       <c r="A46" s="72"/>
-      <c r="E46" s="142" t="s">
+      <c r="E46" s="158" t="s">
         <v>337</v>
       </c>
-      <c r="F46" s="165"/>
+      <c r="F46" s="171"/>
       <c r="G46" s="38"/>
-      <c r="H46" s="166" t="s">
+      <c r="H46" s="121" t="s">
         <v>342</v>
       </c>
-      <c r="I46" s="167"/>
+      <c r="I46" s="122"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -12878,15 +12886,15 @@
     </row>
     <row r="48" spans="1:32">
       <c r="A48" s="72"/>
-      <c r="E48" s="142" t="s">
+      <c r="E48" s="158" t="s">
         <v>336</v>
       </c>
-      <c r="F48" s="165"/>
+      <c r="F48" s="171"/>
       <c r="G48" s="38"/>
-      <c r="H48" s="142" t="s">
+      <c r="H48" s="158" t="s">
         <v>339</v>
       </c>
-      <c r="I48" s="165"/>
+      <c r="I48" s="171"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -12915,34 +12923,34 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
-      <c r="Q49" s="136" t="s">
+      <c r="Q49" s="123" t="s">
         <v>368</v>
       </c>
-      <c r="R49" s="163"/>
-      <c r="S49" s="163"/>
-      <c r="T49" s="163"/>
-      <c r="U49" s="163"/>
-      <c r="V49" s="163"/>
-      <c r="W49" s="163"/>
-      <c r="X49" s="163"/>
-      <c r="Y49" s="163"/>
-      <c r="Z49" s="163"/>
-      <c r="AA49" s="137"/>
+      <c r="R49" s="153"/>
+      <c r="S49" s="153"/>
+      <c r="T49" s="153"/>
+      <c r="U49" s="153"/>
+      <c r="V49" s="153"/>
+      <c r="W49" s="153"/>
+      <c r="X49" s="153"/>
+      <c r="Y49" s="153"/>
+      <c r="Z49" s="153"/>
+      <c r="AA49" s="124"/>
     </row>
     <row r="50" spans="1:29">
       <c r="A50" s="72"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="142" t="s">
+      <c r="E50" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="165"/>
+      <c r="F50" s="171"/>
       <c r="G50" s="38"/>
-      <c r="H50" s="142" t="s">
+      <c r="H50" s="158" t="s">
         <v>344</v>
       </c>
-      <c r="I50" s="165"/>
+      <c r="I50" s="171"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -12950,17 +12958,17 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
-      <c r="Q50" s="138"/>
-      <c r="R50" s="115"/>
-      <c r="S50" s="115"/>
-      <c r="T50" s="115"/>
-      <c r="U50" s="115"/>
-      <c r="V50" s="115"/>
-      <c r="W50" s="115"/>
-      <c r="X50" s="115"/>
-      <c r="Y50" s="115"/>
-      <c r="Z50" s="115"/>
-      <c r="AA50" s="139"/>
+      <c r="Q50" s="125"/>
+      <c r="R50" s="154"/>
+      <c r="S50" s="154"/>
+      <c r="T50" s="154"/>
+      <c r="U50" s="154"/>
+      <c r="V50" s="154"/>
+      <c r="W50" s="154"/>
+      <c r="X50" s="154"/>
+      <c r="Y50" s="154"/>
+      <c r="Z50" s="154"/>
+      <c r="AA50" s="126"/>
     </row>
     <row r="51" spans="1:29" ht="15" customHeight="1">
       <c r="A51" s="72"/>
@@ -12970,30 +12978,30 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="163" t="s">
+      <c r="H51" s="153" t="s">
         <v>343</v>
       </c>
-      <c r="I51" s="163"/>
-      <c r="J51" s="136" t="s">
+      <c r="I51" s="153"/>
+      <c r="J51" s="123" t="s">
         <v>363</v>
       </c>
-      <c r="K51" s="137"/>
+      <c r="K51" s="124"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="138"/>
-      <c r="R51" s="115"/>
-      <c r="S51" s="115"/>
-      <c r="T51" s="115"/>
-      <c r="U51" s="115"/>
-      <c r="V51" s="115"/>
-      <c r="W51" s="115"/>
-      <c r="X51" s="115"/>
-      <c r="Y51" s="115"/>
-      <c r="Z51" s="115"/>
-      <c r="AA51" s="139"/>
+      <c r="Q51" s="125"/>
+      <c r="R51" s="154"/>
+      <c r="S51" s="154"/>
+      <c r="T51" s="154"/>
+      <c r="U51" s="154"/>
+      <c r="V51" s="154"/>
+      <c r="W51" s="154"/>
+      <c r="X51" s="154"/>
+      <c r="Y51" s="154"/>
+      <c r="Z51" s="154"/>
+      <c r="AA51" s="126"/>
     </row>
     <row r="52" spans="1:29">
       <c r="A52" s="80" t="s">
@@ -13005,26 +13013,26 @@
       <c r="E52" s="81"/>
       <c r="F52" s="81"/>
       <c r="G52" s="81"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="115"/>
-      <c r="J52" s="138"/>
-      <c r="K52" s="139"/>
+      <c r="H52" s="154"/>
+      <c r="I52" s="154"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="126"/>
       <c r="L52" s="81"/>
       <c r="M52" s="81"/>
       <c r="N52" s="81"/>
       <c r="O52" s="81"/>
       <c r="P52" s="81"/>
-      <c r="Q52" s="138"/>
-      <c r="R52" s="115"/>
-      <c r="S52" s="115"/>
-      <c r="T52" s="115"/>
-      <c r="U52" s="115"/>
-      <c r="V52" s="115"/>
-      <c r="W52" s="115"/>
-      <c r="X52" s="115"/>
-      <c r="Y52" s="115"/>
-      <c r="Z52" s="115"/>
-      <c r="AA52" s="139"/>
+      <c r="Q52" s="125"/>
+      <c r="R52" s="154"/>
+      <c r="S52" s="154"/>
+      <c r="T52" s="154"/>
+      <c r="U52" s="154"/>
+      <c r="V52" s="154"/>
+      <c r="W52" s="154"/>
+      <c r="X52" s="154"/>
+      <c r="Y52" s="154"/>
+      <c r="Z52" s="154"/>
+      <c r="AA52" s="126"/>
     </row>
     <row r="53" spans="1:29" ht="16" thickBot="1">
       <c r="A53" s="72"/>
@@ -13034,26 +13042,26 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="115"/>
-      <c r="J53" s="172"/>
-      <c r="K53" s="173"/>
+      <c r="H53" s="154"/>
+      <c r="I53" s="154"/>
+      <c r="J53" s="127"/>
+      <c r="K53" s="128"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
-      <c r="Q53" s="138"/>
-      <c r="R53" s="115"/>
-      <c r="S53" s="115"/>
-      <c r="T53" s="115"/>
-      <c r="U53" s="115"/>
-      <c r="V53" s="115"/>
-      <c r="W53" s="115"/>
-      <c r="X53" s="115"/>
-      <c r="Y53" s="115"/>
-      <c r="Z53" s="115"/>
-      <c r="AA53" s="139"/>
+      <c r="Q53" s="125"/>
+      <c r="R53" s="154"/>
+      <c r="S53" s="154"/>
+      <c r="T53" s="154"/>
+      <c r="U53" s="154"/>
+      <c r="V53" s="154"/>
+      <c r="W53" s="154"/>
+      <c r="X53" s="154"/>
+      <c r="Y53" s="154"/>
+      <c r="Z53" s="154"/>
+      <c r="AA53" s="126"/>
     </row>
     <row r="54" spans="1:29">
       <c r="A54" s="72"/>
@@ -13063,8 +13071,8 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="115"/>
+      <c r="H54" s="154"/>
+      <c r="I54" s="154"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -13072,17 +13080,17 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
-      <c r="Q54" s="138"/>
-      <c r="R54" s="115"/>
-      <c r="S54" s="115"/>
-      <c r="T54" s="115"/>
-      <c r="U54" s="115"/>
-      <c r="V54" s="115"/>
-      <c r="W54" s="115"/>
-      <c r="X54" s="115"/>
-      <c r="Y54" s="115"/>
-      <c r="Z54" s="115"/>
-      <c r="AA54" s="139"/>
+      <c r="Q54" s="125"/>
+      <c r="R54" s="154"/>
+      <c r="S54" s="154"/>
+      <c r="T54" s="154"/>
+      <c r="U54" s="154"/>
+      <c r="V54" s="154"/>
+      <c r="W54" s="154"/>
+      <c r="X54" s="154"/>
+      <c r="Y54" s="154"/>
+      <c r="Z54" s="154"/>
+      <c r="AA54" s="126"/>
     </row>
     <row r="55" spans="1:29">
       <c r="A55" s="72"/>
@@ -13092,8 +13100,8 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="115"/>
-      <c r="I55" s="115"/>
+      <c r="H55" s="154"/>
+      <c r="I55" s="154"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -13101,17 +13109,17 @@
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
-      <c r="Q55" s="140"/>
-      <c r="R55" s="192"/>
-      <c r="S55" s="192"/>
-      <c r="T55" s="192"/>
-      <c r="U55" s="192"/>
-      <c r="V55" s="192"/>
-      <c r="W55" s="192"/>
-      <c r="X55" s="192"/>
-      <c r="Y55" s="192"/>
-      <c r="Z55" s="192"/>
-      <c r="AA55" s="141"/>
+      <c r="Q55" s="155"/>
+      <c r="R55" s="156"/>
+      <c r="S55" s="156"/>
+      <c r="T55" s="156"/>
+      <c r="U55" s="156"/>
+      <c r="V55" s="156"/>
+      <c r="W55" s="156"/>
+      <c r="X55" s="156"/>
+      <c r="Y55" s="156"/>
+      <c r="Z55" s="156"/>
+      <c r="AA55" s="157"/>
     </row>
     <row r="56" spans="1:29" ht="16" thickBot="1">
       <c r="A56" s="75"/>
@@ -13121,8 +13129,8 @@
       <c r="E56" s="76"/>
       <c r="F56" s="76"/>
       <c r="G56" s="76"/>
-      <c r="H56" s="164"/>
-      <c r="I56" s="164"/>
+      <c r="H56" s="170"/>
+      <c r="I56" s="170"/>
       <c r="J56" s="76"/>
       <c r="K56" s="76"/>
       <c r="L56" s="76"/>
@@ -13145,11 +13153,11 @@
       <c r="AC56" s="77"/>
     </row>
     <row r="57" spans="1:29">
-      <c r="A57" s="113" t="s">
+      <c r="A57" s="172" t="s">
         <v>369</v>
       </c>
-      <c r="B57" s="114"/>
-      <c r="C57" s="114"/>
+      <c r="B57" s="173"/>
+      <c r="C57" s="173"/>
       <c r="D57" s="70"/>
       <c r="E57" s="70"/>
       <c r="F57" s="70"/>
@@ -13171,17 +13179,17 @@
     </row>
     <row r="59" spans="1:29" ht="15" customHeight="1">
       <c r="A59" s="72"/>
-      <c r="B59" s="122" t="s">
+      <c r="B59" s="166" t="s">
         <v>311</v>
       </c>
-      <c r="C59" s="161"/>
+      <c r="C59" s="167"/>
     </row>
     <row r="60" spans="1:29">
       <c r="A60" s="74" t="s">
         <v>302</v>
       </c>
-      <c r="B60" s="161"/>
-      <c r="C60" s="125"/>
+      <c r="B60" s="167"/>
+      <c r="C60" s="168"/>
     </row>
     <row r="61" spans="1:29">
       <c r="B61" s="38"/>
@@ -13193,10 +13201,10 @@
       <c r="W61" s="87"/>
     </row>
     <row r="62" spans="1:29" ht="15" customHeight="1">
-      <c r="B62" s="122" t="s">
+      <c r="B62" s="166" t="s">
         <v>351</v>
       </c>
-      <c r="C62" s="123"/>
+      <c r="C62" s="178"/>
       <c r="S62" s="87"/>
       <c r="T62" s="87"/>
       <c r="U62" s="87"/>
@@ -13204,8 +13212,8 @@
       <c r="W62" s="87"/>
     </row>
     <row r="63" spans="1:29">
-      <c r="B63" s="124"/>
-      <c r="C63" s="125"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="168"/>
       <c r="S63" s="87"/>
       <c r="T63" s="88" t="s">
         <v>354</v>
@@ -13226,68 +13234,68 @@
       <c r="K64" s="85"/>
       <c r="L64" s="86"/>
       <c r="S64" s="87"/>
-      <c r="T64" s="146" t="s">
+      <c r="T64" s="120" t="s">
         <v>355</v>
       </c>
-      <c r="U64" s="146"/>
-      <c r="V64" s="146"/>
-      <c r="W64" s="146"/>
+      <c r="U64" s="120"/>
+      <c r="V64" s="120"/>
+      <c r="W64" s="120"/>
     </row>
     <row r="65" spans="2:23" ht="15" customHeight="1">
-      <c r="B65" s="147" t="s">
+      <c r="B65" s="132" t="s">
         <v>349</v>
       </c>
-      <c r="C65" s="181"/>
+      <c r="C65" s="138"/>
       <c r="D65" s="52"/>
-      <c r="E65" s="132" t="s">
+      <c r="E65" s="140" t="s">
         <v>352</v>
       </c>
-      <c r="F65" s="183"/>
-      <c r="G65" s="183"/>
-      <c r="H65" s="183"/>
-      <c r="I65" s="183"/>
-      <c r="J65" s="183"/>
-      <c r="K65" s="183"/>
-      <c r="L65" s="133"/>
+      <c r="F65" s="141"/>
+      <c r="G65" s="141"/>
+      <c r="H65" s="141"/>
+      <c r="I65" s="141"/>
+      <c r="J65" s="141"/>
+      <c r="K65" s="141"/>
+      <c r="L65" s="142"/>
       <c r="M65" s="52"/>
       <c r="N65" s="52"/>
-      <c r="O65" s="185" t="s">
+      <c r="O65" s="146" t="s">
         <v>353</v>
       </c>
-      <c r="P65" s="174"/>
-      <c r="Q65" s="186"/>
+      <c r="P65" s="129"/>
+      <c r="Q65" s="147"/>
       <c r="S65" s="87"/>
-      <c r="T65" s="146" t="s">
+      <c r="T65" s="120" t="s">
         <v>356</v>
       </c>
-      <c r="U65" s="146"/>
-      <c r="V65" s="146"/>
-      <c r="W65" s="146"/>
+      <c r="U65" s="120"/>
+      <c r="V65" s="120"/>
+      <c r="W65" s="120"/>
     </row>
     <row r="66" spans="2:23">
-      <c r="B66" s="179"/>
-      <c r="C66" s="182"/>
+      <c r="B66" s="136"/>
+      <c r="C66" s="139"/>
       <c r="D66" s="52"/>
-      <c r="E66" s="134"/>
-      <c r="F66" s="184"/>
-      <c r="G66" s="184"/>
-      <c r="H66" s="184"/>
-      <c r="I66" s="184"/>
-      <c r="J66" s="184"/>
-      <c r="K66" s="184"/>
-      <c r="L66" s="135"/>
+      <c r="E66" s="143"/>
+      <c r="F66" s="144"/>
+      <c r="G66" s="144"/>
+      <c r="H66" s="144"/>
+      <c r="I66" s="144"/>
+      <c r="J66" s="144"/>
+      <c r="K66" s="144"/>
+      <c r="L66" s="145"/>
       <c r="M66" s="52"/>
       <c r="N66" s="52"/>
-      <c r="O66" s="187"/>
-      <c r="P66" s="175"/>
-      <c r="Q66" s="188"/>
+      <c r="O66" s="148"/>
+      <c r="P66" s="130"/>
+      <c r="Q66" s="149"/>
       <c r="S66" s="87"/>
-      <c r="T66" s="162" t="s">
+      <c r="T66" s="169" t="s">
         <v>357</v>
       </c>
-      <c r="U66" s="162"/>
-      <c r="V66" s="162"/>
-      <c r="W66" s="162"/>
+      <c r="U66" s="169"/>
+      <c r="V66" s="169"/>
+      <c r="W66" s="169"/>
     </row>
     <row r="67" spans="2:23">
       <c r="B67" s="38"/>
@@ -13300,20 +13308,20 @@
       <c r="J67" s="85"/>
       <c r="K67" s="85"/>
       <c r="L67" s="86"/>
-      <c r="O67" s="189"/>
-      <c r="P67" s="190"/>
-      <c r="Q67" s="191"/>
+      <c r="O67" s="150"/>
+      <c r="P67" s="151"/>
+      <c r="Q67" s="152"/>
       <c r="S67" s="87"/>
-      <c r="T67" s="162"/>
-      <c r="U67" s="162"/>
-      <c r="V67" s="162"/>
-      <c r="W67" s="162"/>
+      <c r="T67" s="169"/>
+      <c r="U67" s="169"/>
+      <c r="V67" s="169"/>
+      <c r="W67" s="169"/>
     </row>
     <row r="68" spans="2:23">
-      <c r="B68" s="147" t="s">
+      <c r="B68" s="132" t="s">
         <v>350</v>
       </c>
-      <c r="C68" s="177"/>
+      <c r="C68" s="133"/>
       <c r="E68" s="85"/>
       <c r="F68" s="85"/>
       <c r="G68" s="85"/>
@@ -13324,14 +13332,14 @@
       <c r="L68" s="86"/>
       <c r="P68" s="52"/>
       <c r="S68" s="87"/>
-      <c r="T68" s="162"/>
-      <c r="U68" s="162"/>
-      <c r="V68" s="162"/>
-      <c r="W68" s="162"/>
+      <c r="T68" s="169"/>
+      <c r="U68" s="169"/>
+      <c r="V68" s="169"/>
+      <c r="W68" s="169"/>
     </row>
     <row r="69" spans="2:23" ht="15" customHeight="1">
-      <c r="B69" s="116"/>
-      <c r="C69" s="178"/>
+      <c r="B69" s="134"/>
+      <c r="C69" s="135"/>
       <c r="E69" s="86"/>
       <c r="F69" s="86"/>
       <c r="G69" s="86"/>
@@ -13340,57 +13348,57 @@
       <c r="J69" s="86"/>
       <c r="K69" s="86"/>
       <c r="L69" s="86"/>
-      <c r="O69" s="174" t="s">
+      <c r="O69" s="129" t="s">
         <v>366</v>
       </c>
-      <c r="P69" s="174"/>
-      <c r="Q69" s="174"/>
+      <c r="P69" s="129"/>
+      <c r="Q69" s="129"/>
       <c r="S69" s="87"/>
-      <c r="T69" s="162"/>
-      <c r="U69" s="162"/>
-      <c r="V69" s="162"/>
-      <c r="W69" s="162"/>
+      <c r="T69" s="169"/>
+      <c r="U69" s="169"/>
+      <c r="V69" s="169"/>
+      <c r="W69" s="169"/>
     </row>
     <row r="70" spans="2:23">
-      <c r="B70" s="179"/>
-      <c r="C70" s="180"/>
-      <c r="O70" s="175"/>
-      <c r="P70" s="175"/>
-      <c r="Q70" s="175"/>
+      <c r="B70" s="136"/>
+      <c r="C70" s="137"/>
+      <c r="O70" s="130"/>
+      <c r="P70" s="130"/>
+      <c r="Q70" s="130"/>
       <c r="S70" s="87"/>
-      <c r="T70" s="146" t="s">
+      <c r="T70" s="120" t="s">
         <v>358</v>
       </c>
-      <c r="U70" s="146"/>
-      <c r="V70" s="146"/>
-      <c r="W70" s="146"/>
+      <c r="U70" s="120"/>
+      <c r="V70" s="120"/>
+      <c r="W70" s="120"/>
     </row>
     <row r="71" spans="2:23">
-      <c r="O71" s="175"/>
-      <c r="P71" s="175"/>
-      <c r="Q71" s="175"/>
-      <c r="T71" s="146" t="s">
+      <c r="O71" s="130"/>
+      <c r="P71" s="130"/>
+      <c r="Q71" s="130"/>
+      <c r="T71" s="120" t="s">
         <v>359</v>
       </c>
-      <c r="U71" s="146"/>
-      <c r="V71" s="146"/>
-      <c r="W71" s="146"/>
+      <c r="U71" s="120"/>
+      <c r="V71" s="120"/>
+      <c r="W71" s="120"/>
     </row>
     <row r="72" spans="2:23" ht="15" customHeight="1">
-      <c r="O72" s="175"/>
-      <c r="P72" s="175"/>
-      <c r="Q72" s="175"/>
-      <c r="T72" s="176" t="s">
+      <c r="O72" s="130"/>
+      <c r="P72" s="130"/>
+      <c r="Q72" s="130"/>
+      <c r="T72" s="131" t="s">
         <v>367</v>
       </c>
-      <c r="U72" s="176"/>
-      <c r="V72" s="176"/>
-      <c r="W72" s="176"/>
+      <c r="U72" s="131"/>
+      <c r="V72" s="131"/>
+      <c r="W72" s="131"/>
     </row>
     <row r="73" spans="2:23">
-      <c r="O73" s="175"/>
-      <c r="P73" s="175"/>
-      <c r="Q73" s="175"/>
+      <c r="O73" s="130"/>
+      <c r="P73" s="130"/>
+      <c r="Q73" s="130"/>
       <c r="T73" s="109"/>
       <c r="U73" s="109"/>
       <c r="V73" s="109"/>
@@ -13410,6 +13418,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="T6:V17"/>
+    <mergeCell ref="T3:V4"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="Q6:R13"/>
+    <mergeCell ref="X3:Y4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="N21:O22"/>
+    <mergeCell ref="T21:V22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="T70:W70"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="W41:X42"/>
+    <mergeCell ref="T41:U42"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="Z41:AA43"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="T66:W69"/>
+    <mergeCell ref="H51:I56"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="Q41:R42"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="K41:L43"/>
+    <mergeCell ref="N41:O43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E46:F46"/>
     <mergeCell ref="T71:W71"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="E36:F38"/>
@@ -13426,74 +13502,6 @@
     <mergeCell ref="T64:W64"/>
     <mergeCell ref="T65:W65"/>
     <mergeCell ref="H44:I44"/>
-    <mergeCell ref="Z41:AA43"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="T66:W69"/>
-    <mergeCell ref="H51:I56"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="Q41:R42"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="K41:L43"/>
-    <mergeCell ref="N41:O43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="T70:W70"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="W41:X42"/>
-    <mergeCell ref="T41:U42"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="N21:O22"/>
-    <mergeCell ref="T21:V22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="T6:V17"/>
-    <mergeCell ref="T3:V4"/>
-    <mergeCell ref="AA3:AB4"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="Q6:R13"/>
-    <mergeCell ref="X3:Y4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="E6:F7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -13546,17 +13554,17 @@
       <c r="A3" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="B3" s="193">
+      <c r="B3" s="110">
         <v>1070953</v>
       </c>
-      <c r="C3" s="193">
+      <c r="C3" s="110">
         <v>1097710</v>
       </c>
-      <c r="D3" s="193">
+      <c r="D3" s="110">
         <f>MAX(B3:C3)-MIN(B3:C3)</f>
         <v>26757</v>
       </c>
-      <c r="E3" s="194">
+      <c r="E3" s="111">
         <f>MIN(B3:C3)/MAX(B3:C3)</f>
         <v>0.97562470962276016</v>
       </c>
@@ -13565,13 +13573,13 @@
       <c r="A4" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="B4" s="193">
+      <c r="B4" s="110">
         <v>225655</v>
       </c>
-      <c r="C4" s="193">
+      <c r="C4" s="110">
         <v>252861</v>
       </c>
-      <c r="D4" s="193">
+      <c r="D4" s="110">
         <f t="shared" ref="D4:D8" si="0">MAX(B4:C4)-MIN(B4:C4)</f>
         <v>27206</v>
       </c>
@@ -13584,13 +13592,13 @@
       <c r="A5" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="B5" s="193">
+      <c r="B5" s="110">
         <v>323534</v>
       </c>
-      <c r="C5" s="193">
+      <c r="C5" s="110">
         <v>279948</v>
       </c>
-      <c r="D5" s="193">
+      <c r="D5" s="110">
         <f t="shared" si="0"/>
         <v>43586</v>
       </c>
@@ -13603,18 +13611,18 @@
       <c r="A6" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="B6" s="193">
+      <c r="B6" s="110">
         <v>806519</v>
       </c>
-      <c r="C6" s="193">
+      <c r="C6" s="110">
         <v>806783</v>
       </c>
-      <c r="D6" s="193">
+      <c r="D6" s="110">
         <f t="shared" si="0"/>
         <v>264</v>
       </c>
-      <c r="E6" s="194">
-        <f t="shared" ref="E4:E11" si="1">MIN(B6:C6)/MAX(B6:C6)</f>
+      <c r="E6" s="111">
+        <f t="shared" ref="E6:E11" si="1">MIN(B6:C6)/MAX(B6:C6)</f>
         <v>0.99967277446351743</v>
       </c>
     </row>
@@ -13622,13 +13630,13 @@
       <c r="A7" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="193">
+      <c r="B7" s="110">
         <v>249241</v>
       </c>
-      <c r="C7" s="193">
+      <c r="C7" s="110">
         <v>188529</v>
       </c>
-      <c r="D7" s="193">
+      <c r="D7" s="110">
         <f t="shared" si="0"/>
         <v>60712</v>
       </c>
@@ -13641,18 +13649,18 @@
       <c r="A8" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="B8" s="193">
+      <c r="B8" s="110">
         <v>2675902</v>
       </c>
-      <c r="C8" s="193">
+      <c r="C8" s="110">
         <f>SUM(C3:C7)</f>
         <v>2625831</v>
       </c>
-      <c r="D8" s="193">
+      <c r="D8" s="110">
         <f t="shared" si="0"/>
         <v>50071</v>
       </c>
-      <c r="E8" s="194">
+      <c r="E8" s="111">
         <f t="shared" si="1"/>
         <v>0.98128817871506502</v>
       </c>
@@ -13661,10 +13669,10 @@
       <c r="A10" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="B10" s="193">
+      <c r="B10" s="110">
         <v>2673344</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="110">
         <v>2673344</v>
       </c>
       <c r="D10">
@@ -13691,7 +13699,7 @@
         <f>B11-C11</f>
         <v>1.8729725766680083E-2</v>
       </c>
-      <c r="E11" s="194">
+      <c r="E11" s="111">
         <f t="shared" si="1"/>
         <v>0.98128817871506524</v>
       </c>
@@ -13711,8 +13719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13731,10 +13739,10 @@
       <c r="B1" s="52" t="s">
         <v>394</v>
       </c>
-      <c r="C1" s="198" t="s">
+      <c r="C1" s="115" t="s">
         <v>395</v>
       </c>
-      <c r="D1" s="198" t="s">
+      <c r="D1" s="115" t="s">
         <v>396</v>
       </c>
       <c r="E1" s="52" t="s">
@@ -13746,25 +13754,25 @@
       <c r="H1" s="52" t="s">
         <v>394</v>
       </c>
-      <c r="I1" s="198" t="s">
+      <c r="I1" s="115" t="s">
         <v>420</v>
       </c>
-      <c r="J1" s="198" t="s">
+      <c r="J1" s="115" t="s">
         <v>421</v>
       </c>
       <c r="K1" s="52" t="s">
         <v>397</v>
       </c>
-      <c r="M1" s="197" t="s">
+      <c r="M1" s="200" t="s">
         <v>393</v>
       </c>
-      <c r="N1" s="197" t="s">
+      <c r="N1" s="200" t="s">
         <v>394</v>
       </c>
-      <c r="O1" s="199" t="s">
+      <c r="O1" s="200" t="s">
         <v>395</v>
       </c>
-      <c r="P1" s="197" t="s">
+      <c r="P1" s="200" t="s">
         <v>397</v>
       </c>
     </row>
@@ -13799,16 +13807,16 @@
       <c r="K2" s="52">
         <v>54600</v>
       </c>
-      <c r="M2" s="197">
+      <c r="M2" s="200">
         <v>2014</v>
       </c>
-      <c r="N2" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O2" s="197" t="s">
+      <c r="N2" s="200" t="s">
+        <v>398</v>
+      </c>
+      <c r="O2" s="116" t="s">
         <v>441</v>
       </c>
-      <c r="P2" s="197">
+      <c r="P2" s="200">
         <v>2487</v>
       </c>
     </row>
@@ -13843,16 +13851,16 @@
       <c r="K3" s="52">
         <v>46500</v>
       </c>
-      <c r="M3" s="197">
+      <c r="M3" s="200">
         <v>2014</v>
       </c>
-      <c r="N3" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O3" s="197" t="s">
+      <c r="N3" s="200" t="s">
+        <v>398</v>
+      </c>
+      <c r="O3" s="116" t="s">
         <v>442</v>
       </c>
-      <c r="P3" s="197">
+      <c r="P3" s="200">
         <v>51371</v>
       </c>
     </row>
@@ -13951,16 +13959,16 @@
       <c r="K6" s="52">
         <v>24600</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="M6" s="201" t="s">
         <v>393</v>
       </c>
-      <c r="N6" s="52" t="s">
+      <c r="N6" s="201" t="s">
         <v>394</v>
       </c>
-      <c r="O6" s="198" t="s">
+      <c r="O6" s="201" t="s">
         <v>395</v>
       </c>
-      <c r="P6" s="52" t="s">
+      <c r="P6" s="201" t="s">
         <v>397</v>
       </c>
     </row>
@@ -13995,16 +14003,16 @@
       <c r="K7" s="52">
         <v>34400</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="201">
         <v>2014</v>
       </c>
-      <c r="N7" s="52" t="s">
-        <v>398</v>
-      </c>
-      <c r="O7" s="52" t="s">
+      <c r="N7" s="201" t="s">
+        <v>398</v>
+      </c>
+      <c r="O7" s="115" t="s">
         <v>443</v>
       </c>
-      <c r="P7" s="52">
+      <c r="P7" s="201">
         <v>5890</v>
       </c>
     </row>
@@ -14039,16 +14047,16 @@
       <c r="K8" s="52">
         <v>32400</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M8" s="201">
         <v>2014</v>
       </c>
-      <c r="N8" s="52" t="s">
-        <v>398</v>
-      </c>
-      <c r="O8" s="52" t="s">
+      <c r="N8" s="201" t="s">
+        <v>398</v>
+      </c>
+      <c r="O8" s="115" t="s">
         <v>444</v>
       </c>
-      <c r="P8" s="52">
+      <c r="P8" s="201">
         <v>1563</v>
       </c>
     </row>
@@ -14153,13 +14161,13 @@
       <c r="N11" s="52" t="s">
         <v>394</v>
       </c>
-      <c r="O11" s="198" t="s">
+      <c r="O11" s="115" t="s">
         <v>396</v>
       </c>
-      <c r="P11" s="198" t="s">
+      <c r="P11" s="115" t="s">
         <v>445</v>
       </c>
-      <c r="Q11" s="198" t="s">
+      <c r="Q11" s="115" t="s">
         <v>446</v>
       </c>
       <c r="R11" s="52" t="s">
@@ -15079,22 +15087,22 @@
       <c r="K30" s="52">
         <v>26000</v>
       </c>
-      <c r="M30" s="197" t="s">
+      <c r="M30" s="114" t="s">
         <v>463</v>
       </c>
-      <c r="N30" s="197" t="s">
+      <c r="N30" s="114" t="s">
         <v>464</v>
       </c>
-      <c r="O30" s="199" t="s">
+      <c r="O30" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="P30" s="199" t="s">
+      <c r="P30" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="Q30" s="197" t="s">
+      <c r="Q30" s="114" t="s">
         <v>465</v>
       </c>
-      <c r="R30" s="197" t="s">
+      <c r="R30" s="114" t="s">
         <v>466</v>
       </c>
     </row>
@@ -15129,22 +15137,22 @@
       <c r="K31" s="52">
         <v>28300</v>
       </c>
-      <c r="M31" s="197">
+      <c r="M31" s="114">
         <v>2014</v>
       </c>
-      <c r="N31" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O31" s="197" t="s">
+      <c r="N31" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O31" s="114" t="s">
         <v>457</v>
       </c>
-      <c r="P31" s="197" t="s">
+      <c r="P31" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="Q31" s="197" t="s">
+      <c r="Q31" s="114" t="s">
         <v>458</v>
       </c>
-      <c r="R31" s="197">
+      <c r="R31" s="114">
         <v>110257</v>
       </c>
     </row>
@@ -15179,22 +15187,22 @@
       <c r="K32" s="52">
         <v>24300</v>
       </c>
-      <c r="M32" s="197">
+      <c r="M32" s="114">
         <v>2014</v>
       </c>
-      <c r="N32" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O32" s="197" t="s">
+      <c r="N32" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O32" s="114" t="s">
         <v>457</v>
       </c>
-      <c r="P32" s="197" t="s">
+      <c r="P32" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="Q32" s="197" t="s">
+      <c r="Q32" s="114" t="s">
         <v>458</v>
       </c>
-      <c r="R32" s="197">
+      <c r="R32" s="114">
         <v>703</v>
       </c>
     </row>
@@ -15229,22 +15237,22 @@
       <c r="K33" s="52">
         <v>30400</v>
       </c>
-      <c r="M33" s="197">
+      <c r="M33" s="114">
         <v>2014</v>
       </c>
-      <c r="N33" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O33" s="197" t="s">
+      <c r="N33" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O33" s="114" t="s">
         <v>457</v>
       </c>
-      <c r="P33" s="197" t="s">
+      <c r="P33" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="Q33" s="197" t="s">
+      <c r="Q33" s="114" t="s">
         <v>458</v>
       </c>
-      <c r="R33" s="197">
+      <c r="R33" s="114">
         <v>72168</v>
       </c>
     </row>
@@ -15279,22 +15287,22 @@
       <c r="K34" s="52">
         <v>40500</v>
       </c>
-      <c r="M34" s="197">
+      <c r="M34" s="114">
         <v>2014</v>
       </c>
-      <c r="N34" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O34" s="197" t="s">
+      <c r="N34" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O34" s="114" t="s">
         <v>457</v>
       </c>
-      <c r="P34" s="197" t="s">
+      <c r="P34" s="114" t="s">
         <v>459</v>
       </c>
-      <c r="Q34" s="197" t="s">
+      <c r="Q34" s="114" t="s">
         <v>458</v>
       </c>
-      <c r="R34" s="197" t="s">
+      <c r="R34" s="114" t="s">
         <v>408</v>
       </c>
     </row>
@@ -15329,22 +15337,22 @@
       <c r="K35" s="52">
         <v>35800</v>
       </c>
-      <c r="M35" s="197">
+      <c r="M35" s="114">
         <v>2014</v>
       </c>
-      <c r="N35" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O35" s="197" t="s">
+      <c r="N35" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O35" s="114" t="s">
         <v>457</v>
       </c>
-      <c r="P35" s="197" t="s">
+      <c r="P35" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="Q35" s="197" t="s">
+      <c r="Q35" s="114" t="s">
         <v>458</v>
       </c>
-      <c r="R35" s="197">
+      <c r="R35" s="114">
         <v>15424</v>
       </c>
     </row>
@@ -15379,22 +15387,22 @@
       <c r="K36" s="52">
         <v>48600</v>
       </c>
-      <c r="M36" s="197">
+      <c r="M36" s="114">
         <v>2014</v>
       </c>
-      <c r="N36" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O36" s="197" t="s">
+      <c r="N36" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O36" s="114" t="s">
         <v>457</v>
       </c>
-      <c r="P36" s="197" t="s">
+      <c r="P36" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="Q36" s="197" t="s">
+      <c r="Q36" s="114" t="s">
         <v>458</v>
       </c>
-      <c r="R36" s="197">
+      <c r="R36" s="114">
         <v>47154</v>
       </c>
     </row>
@@ -15429,22 +15437,22 @@
       <c r="K37" s="52">
         <v>40500</v>
       </c>
-      <c r="M37" s="197">
+      <c r="M37" s="114">
         <v>2014</v>
       </c>
-      <c r="N37" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O37" s="197" t="s">
+      <c r="N37" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O37" s="114" t="s">
         <v>457</v>
       </c>
-      <c r="P37" s="197" t="s">
+      <c r="P37" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="Q37" s="197" t="s">
+      <c r="Q37" s="114" t="s">
         <v>458</v>
       </c>
-      <c r="R37" s="197">
+      <c r="R37" s="114">
         <v>28794</v>
       </c>
     </row>
@@ -15479,22 +15487,22 @@
       <c r="K38" s="52">
         <v>10100</v>
       </c>
-      <c r="M38" s="197">
+      <c r="M38" s="114">
         <v>2014</v>
       </c>
-      <c r="N38" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O38" s="197" t="s">
+      <c r="N38" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O38" s="114" t="s">
         <v>457</v>
       </c>
-      <c r="P38" s="197" t="s">
+      <c r="P38" s="114" t="s">
         <v>460</v>
       </c>
-      <c r="Q38" s="197" t="s">
+      <c r="Q38" s="114" t="s">
         <v>458</v>
       </c>
-      <c r="R38" s="197">
+      <c r="R38" s="114">
         <v>957</v>
       </c>
     </row>
@@ -15529,22 +15537,22 @@
       <c r="K39" s="52">
         <v>10100</v>
       </c>
-      <c r="M39" s="197">
+      <c r="M39" s="114">
         <v>2014</v>
       </c>
-      <c r="N39" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O39" s="197" t="s">
+      <c r="N39" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O39" s="114" t="s">
         <v>457</v>
       </c>
-      <c r="P39" s="197" t="s">
+      <c r="P39" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="Q39" s="197" t="s">
+      <c r="Q39" s="114" t="s">
         <v>458</v>
       </c>
-      <c r="R39" s="197">
+      <c r="R39" s="114">
         <v>5805</v>
       </c>
     </row>
@@ -15579,22 +15587,22 @@
       <c r="K40" s="52">
         <v>12100</v>
       </c>
-      <c r="M40" s="197">
+      <c r="M40" s="114">
         <v>2014</v>
       </c>
-      <c r="N40" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O40" s="197" t="s">
+      <c r="N40" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O40" s="114" t="s">
         <v>457</v>
       </c>
-      <c r="P40" s="197" t="s">
+      <c r="P40" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="Q40" s="197" t="s">
+      <c r="Q40" s="114" t="s">
         <v>458</v>
       </c>
-      <c r="R40" s="197">
+      <c r="R40" s="114">
         <v>4901</v>
       </c>
     </row>
@@ -15629,22 +15637,22 @@
       <c r="K41" s="52">
         <v>12100</v>
       </c>
-      <c r="M41" s="197">
+      <c r="M41" s="114">
         <v>2014</v>
       </c>
-      <c r="N41" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O41" s="197" t="s">
+      <c r="N41" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O41" s="114" t="s">
         <v>457</v>
       </c>
-      <c r="P41" s="197" t="s">
+      <c r="P41" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="Q41" s="197" t="s">
+      <c r="Q41" s="114" t="s">
         <v>458</v>
       </c>
-      <c r="R41" s="197">
+      <c r="R41" s="114">
         <v>1703</v>
       </c>
     </row>
@@ -15679,22 +15687,22 @@
       <c r="K42" s="52">
         <v>12900</v>
       </c>
-      <c r="M42" s="197">
+      <c r="M42" s="114">
         <v>2014</v>
       </c>
-      <c r="N42" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O42" s="197" t="s">
+      <c r="N42" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O42" s="114" t="s">
         <v>457</v>
       </c>
-      <c r="P42" s="197" t="s">
+      <c r="P42" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="Q42" s="197" t="s">
+      <c r="Q42" s="114" t="s">
         <v>458</v>
       </c>
-      <c r="R42" s="197">
+      <c r="R42" s="114">
         <v>11306</v>
       </c>
     </row>
@@ -15729,22 +15737,22 @@
       <c r="K43" s="52">
         <v>12100</v>
       </c>
-      <c r="M43" s="197">
+      <c r="M43" s="114">
         <v>2014</v>
       </c>
-      <c r="N43" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O43" s="197" t="s">
+      <c r="N43" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O43" s="114" t="s">
         <v>457</v>
       </c>
-      <c r="P43" s="197" t="s">
+      <c r="P43" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="Q43" s="197" t="s">
+      <c r="Q43" s="114" t="s">
         <v>458</v>
       </c>
-      <c r="R43" s="197">
+      <c r="R43" s="114">
         <v>1577</v>
       </c>
     </row>
@@ -15779,22 +15787,22 @@
       <c r="K44" s="52">
         <v>12100</v>
       </c>
-      <c r="M44" s="197">
+      <c r="M44" s="114">
         <v>2014</v>
       </c>
-      <c r="N44" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O44" s="197" t="s">
+      <c r="N44" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O44" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="P44" s="197" t="s">
+      <c r="P44" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="Q44" s="197" t="s">
+      <c r="Q44" s="114" t="s">
         <v>462</v>
       </c>
-      <c r="R44" s="197">
+      <c r="R44" s="114">
         <v>3698</v>
       </c>
     </row>
@@ -15829,22 +15837,22 @@
       <c r="K45" s="52">
         <v>14200</v>
       </c>
-      <c r="M45" s="197">
+      <c r="M45" s="114">
         <v>2014</v>
       </c>
-      <c r="N45" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O45" s="197" t="s">
+      <c r="N45" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O45" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="P45" s="197" t="s">
+      <c r="P45" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="Q45" s="197" t="s">
+      <c r="Q45" s="114" t="s">
         <v>462</v>
       </c>
-      <c r="R45" s="197">
+      <c r="R45" s="114">
         <v>73</v>
       </c>
     </row>
@@ -15879,22 +15887,22 @@
       <c r="K46" s="52">
         <v>14200</v>
       </c>
-      <c r="M46" s="197">
+      <c r="M46" s="114">
         <v>2014</v>
       </c>
-      <c r="N46" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O46" s="197" t="s">
+      <c r="N46" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O46" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="P46" s="197" t="s">
+      <c r="P46" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="Q46" s="197" t="s">
+      <c r="Q46" s="114" t="s">
         <v>462</v>
       </c>
-      <c r="R46" s="197">
+      <c r="R46" s="114">
         <v>8452</v>
       </c>
     </row>
@@ -15929,22 +15937,22 @@
       <c r="K47" s="52">
         <v>13800</v>
       </c>
-      <c r="M47" s="197">
+      <c r="M47" s="114">
         <v>2014</v>
       </c>
-      <c r="N47" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O47" s="197" t="s">
+      <c r="N47" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O47" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="P47" s="197" t="s">
+      <c r="P47" s="114" t="s">
         <v>459</v>
       </c>
-      <c r="Q47" s="197" t="s">
+      <c r="Q47" s="114" t="s">
         <v>462</v>
       </c>
-      <c r="R47" s="197" t="s">
+      <c r="R47" s="114" t="s">
         <v>408</v>
       </c>
     </row>
@@ -15979,22 +15987,22 @@
       <c r="K48" s="52">
         <v>14200</v>
       </c>
-      <c r="M48" s="197">
+      <c r="M48" s="114">
         <v>2014</v>
       </c>
-      <c r="N48" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O48" s="197" t="s">
+      <c r="N48" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O48" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="P48" s="197" t="s">
+      <c r="P48" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="Q48" s="197" t="s">
+      <c r="Q48" s="114" t="s">
         <v>462</v>
       </c>
-      <c r="R48" s="197">
+      <c r="R48" s="114">
         <v>1376</v>
       </c>
     </row>
@@ -16029,22 +16037,22 @@
       <c r="K49" s="52">
         <v>16200</v>
       </c>
-      <c r="M49" s="197">
+      <c r="M49" s="114">
         <v>2014</v>
       </c>
-      <c r="N49" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O49" s="197" t="s">
+      <c r="N49" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O49" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="P49" s="197" t="s">
+      <c r="P49" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="Q49" s="197" t="s">
+      <c r="Q49" s="114" t="s">
         <v>462</v>
       </c>
-      <c r="R49" s="197">
+      <c r="R49" s="114">
         <v>2611</v>
       </c>
     </row>
@@ -16079,22 +16087,22 @@
       <c r="K50" s="52" t="s">
         <v>424</v>
       </c>
-      <c r="M50" s="197">
+      <c r="M50" s="114">
         <v>2014</v>
       </c>
-      <c r="N50" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O50" s="197" t="s">
+      <c r="N50" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O50" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="P50" s="197" t="s">
+      <c r="P50" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="Q50" s="197" t="s">
+      <c r="Q50" s="114" t="s">
         <v>462</v>
       </c>
-      <c r="R50" s="197">
+      <c r="R50" s="114">
         <v>4122</v>
       </c>
     </row>
@@ -16129,22 +16137,22 @@
       <c r="K51" s="52" t="s">
         <v>424</v>
       </c>
-      <c r="M51" s="197">
+      <c r="M51" s="114">
         <v>2014</v>
       </c>
-      <c r="N51" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O51" s="197" t="s">
+      <c r="N51" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O51" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="P51" s="197" t="s">
+      <c r="P51" s="114" t="s">
         <v>460</v>
       </c>
-      <c r="Q51" s="197" t="s">
+      <c r="Q51" s="114" t="s">
         <v>462</v>
       </c>
-      <c r="R51" s="197">
+      <c r="R51" s="114">
         <v>80</v>
       </c>
     </row>
@@ -16179,22 +16187,22 @@
       <c r="K52" s="52" t="s">
         <v>424</v>
       </c>
-      <c r="M52" s="197">
+      <c r="M52" s="114">
         <v>2014</v>
       </c>
-      <c r="N52" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O52" s="197" t="s">
+      <c r="N52" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O52" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="P52" s="197" t="s">
+      <c r="P52" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="Q52" s="197" t="s">
+      <c r="Q52" s="114" t="s">
         <v>462</v>
       </c>
-      <c r="R52" s="197">
+      <c r="R52" s="114">
         <v>427</v>
       </c>
     </row>
@@ -16229,22 +16237,22 @@
       <c r="K53" s="52" t="s">
         <v>424</v>
       </c>
-      <c r="M53" s="197">
+      <c r="M53" s="114">
         <v>2014</v>
       </c>
-      <c r="N53" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O53" s="197" t="s">
+      <c r="N53" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O53" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="P53" s="197" t="s">
+      <c r="P53" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="Q53" s="197" t="s">
+      <c r="Q53" s="114" t="s">
         <v>462</v>
       </c>
-      <c r="R53" s="197">
+      <c r="R53" s="114">
         <v>184</v>
       </c>
     </row>
@@ -16279,22 +16287,22 @@
       <c r="K54" s="52" t="s">
         <v>424</v>
       </c>
-      <c r="M54" s="197">
+      <c r="M54" s="114">
         <v>2014</v>
       </c>
-      <c r="N54" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O54" s="197" t="s">
+      <c r="N54" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O54" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="P54" s="197" t="s">
+      <c r="P54" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="Q54" s="197" t="s">
+      <c r="Q54" s="114" t="s">
         <v>462</v>
       </c>
-      <c r="R54" s="197">
+      <c r="R54" s="114">
         <v>138</v>
       </c>
     </row>
@@ -16329,22 +16337,22 @@
       <c r="K55" s="52" t="s">
         <v>424</v>
       </c>
-      <c r="M55" s="197">
+      <c r="M55" s="114">
         <v>2014</v>
       </c>
-      <c r="N55" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O55" s="197" t="s">
+      <c r="N55" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O55" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="P55" s="197" t="s">
+      <c r="P55" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="Q55" s="197" t="s">
+      <c r="Q55" s="114" t="s">
         <v>462</v>
       </c>
-      <c r="R55" s="197">
+      <c r="R55" s="114">
         <v>1437</v>
       </c>
     </row>
@@ -16379,22 +16387,22 @@
       <c r="K56" s="52" t="s">
         <v>424</v>
       </c>
-      <c r="M56" s="197">
+      <c r="M56" s="114">
         <v>2014</v>
       </c>
-      <c r="N56" s="197" t="s">
-        <v>398</v>
-      </c>
-      <c r="O56" s="197" t="s">
+      <c r="N56" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O56" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="P56" s="197" t="s">
+      <c r="P56" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="Q56" s="197" t="s">
+      <c r="Q56" s="114" t="s">
         <v>462</v>
       </c>
-      <c r="R56" s="197">
+      <c r="R56" s="114">
         <v>275</v>
       </c>
     </row>

--- a/Food_SR_Organization.xlsx
+++ b/Food_SR_Organization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1540" windowWidth="29060" windowHeight="16120" tabRatio="500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11220" tabRatio="500" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1.Food Need" sheetId="3" r:id="rId1"/>
@@ -15,9 +15,11 @@
     <sheet name="Work Flow" sheetId="6" r:id="rId6"/>
     <sheet name="Yield Check" sheetId="7" r:id="rId7"/>
     <sheet name="SWBC Area Check" sheetId="8" r:id="rId8"/>
+    <sheet name="Livestock HecT Check" sheetId="9" r:id="rId9"/>
+    <sheet name="Livestock Commodity Yield" sheetId="10" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -374,7 +376,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="563">
   <si>
     <t>ALL LOCAL</t>
   </si>
@@ -1985,20 +1987,109 @@
   </si>
   <si>
     <t>Canola Oil</t>
+  </si>
+  <si>
+    <t>GSM</t>
+  </si>
+  <si>
+    <t>Barn</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Hay, Barn, Pasture</t>
+  </si>
+  <si>
+    <t>Class 1-4 Land Portion - No Imports</t>
+  </si>
+  <si>
+    <t>Class 1-4 Land Portion - With Imports</t>
+  </si>
+  <si>
+    <t>headperheci</t>
+  </si>
+  <si>
+    <t>headperhecni</t>
+  </si>
+  <si>
+    <t>headpercommodity - imports</t>
+  </si>
+  <si>
+    <t>headpercommodity - no imports</t>
+  </si>
+  <si>
+    <t>Production Type</t>
+  </si>
+  <si>
+    <t>Livestock Type</t>
+  </si>
+  <si>
+    <t>Barn Area (ha/T)</t>
+  </si>
+  <si>
+    <t>Total Area (Ha/T)</t>
+  </si>
+  <si>
+    <t>Class 1-4 Portion of Total Area</t>
+  </si>
+  <si>
+    <t>Grain, Silage, Meal Area</t>
+  </si>
+  <si>
+    <t>Yield (T/Ha)</t>
+  </si>
+  <si>
+    <t>All Local</t>
+  </si>
+  <si>
+    <t>Feed import</t>
+  </si>
+  <si>
+    <t>Yt = tonnes commodity/head</t>
+  </si>
+  <si>
+    <t># head livestock in SWBC</t>
+  </si>
+  <si>
+    <t>commodity_per_head</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>min/max</t>
+  </si>
+  <si>
+    <t>r-c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="9">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2121,6 +2212,11 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2312,7 +2408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -2729,670 +2825,717 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="649">
+  <cellStyleXfs count="687">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3404,21 +3547,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3430,61 +3573,61 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3504,278 +3647,26 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3796,18 +3687,18 @@
     <xf numFmtId="43" fontId="0" fillId="29" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="29" borderId="35" xfId="419" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="29" borderId="35" xfId="419" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="29" borderId="11" xfId="419" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -3828,15 +3719,15 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="36" xfId="419" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="31" borderId="0" xfId="419" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" xfId="510" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" xfId="510" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" xfId="510" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" xfId="510" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="31" borderId="0" xfId="419" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="31" borderId="0" xfId="419" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="31" borderId="0" xfId="419" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3846,9 +3737,290 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="419" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="419" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="419" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="419" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="419" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="650" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="419" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="649" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="38" xfId="419" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="30" borderId="0" xfId="419" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="19" fillId="30" borderId="0" xfId="419" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="19" fillId="30" borderId="0" xfId="419" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="19" fillId="30" borderId="0" xfId="419" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="0" xfId="419" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="30" borderId="0" xfId="419" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="19" fillId="30" borderId="38" xfId="419" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="19" fillId="30" borderId="0" xfId="650" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="649">
+  <cellStyles count="687">
     <cellStyle name="Comma" xfId="419" builtinId="3"/>
+    <cellStyle name="Currency" xfId="649" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4172,6 +4344,24 @@
     <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4495,8 +4685,27 @@
     <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 9" xfId="510"/>
+    <cellStyle name="Percent" xfId="650" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -8587,6 +8796,253 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="4" width="6.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="111" t="s">
+        <v>562</v>
+      </c>
+      <c r="I1" s="111" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>0.41768999999999901</v>
+      </c>
+      <c r="D2">
+        <v>117571</v>
+      </c>
+      <c r="E2" s="58">
+        <v>49108.230989999996</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2">
+        <v>349.49586762958978</v>
+      </c>
+      <c r="H2" s="111">
+        <f>E2-G2</f>
+        <v>48758.73512237041</v>
+      </c>
+      <c r="I2" s="111">
+        <f>MIN(E2,G2)/MAX(E2,G2)</f>
+        <v>7.1168490614283847E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>2.4840000000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>9400</v>
+      </c>
+      <c r="E3" s="58">
+        <v>233.49600000000001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3">
+        <v>141.63439849624061</v>
+      </c>
+      <c r="H3" s="111">
+        <f t="shared" ref="H3:H8" si="0">E3-G3</f>
+        <v>91.861601503759402</v>
+      </c>
+      <c r="I3" s="111">
+        <f t="shared" ref="I3:I8" si="1">MIN(E3,G3)/MAX(E3,G3)</f>
+        <v>0.60658169089081015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>9.486E-2</v>
+      </c>
+      <c r="D4">
+        <v>76717</v>
+      </c>
+      <c r="E4" s="58">
+        <v>7277.3746199999996</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4">
+        <v>14196.938740498699</v>
+      </c>
+      <c r="H4" s="111">
+        <f t="shared" si="0"/>
+        <v>-6919.5641204986996</v>
+      </c>
+      <c r="I4" s="111">
+        <f t="shared" si="1"/>
+        <v>0.51260167794063227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>7.9490159999999997E-3</v>
+      </c>
+      <c r="D5">
+        <v>876802</v>
+      </c>
+      <c r="E5" s="58">
+        <v>6969.7131268319999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5">
+        <v>14557.319</v>
+      </c>
+      <c r="H5" s="111">
+        <f t="shared" si="0"/>
+        <v>-7587.6058731679996</v>
+      </c>
+      <c r="I5" s="111">
+        <f t="shared" si="1"/>
+        <v>0.47877724784570569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>1.60389E-3</v>
+      </c>
+      <c r="D6">
+        <v>12638070</v>
+      </c>
+      <c r="E6" s="58">
+        <v>20270.074092300001</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>119486.655</v>
+      </c>
+      <c r="H6" s="111">
+        <f t="shared" si="0"/>
+        <v>-99216.580907700001</v>
+      </c>
+      <c r="I6" s="111">
+        <f>MIN(E6,G6)/MAX(E6,G6)</f>
+        <v>0.16964299563244115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>2101777</v>
+      </c>
+      <c r="E7" s="58">
+        <v>31526.654999999999</v>
+      </c>
+      <c r="F7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G7">
+        <v>29292.388465919994</v>
+      </c>
+      <c r="H7" s="111">
+        <f t="shared" si="0"/>
+        <v>2234.2665340800049</v>
+      </c>
+      <c r="I7" s="111">
+        <f t="shared" si="1"/>
+        <v>0.92913087246077941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8">
+        <v>425000.03384006489</v>
+      </c>
+      <c r="H8" s="111">
+        <f t="shared" si="0"/>
+        <v>-425000.03384006489</v>
+      </c>
+      <c r="I8" s="111">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V115"/>
@@ -11488,7 +11944,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="115" t="s">
+      <c r="M14" s="156" t="s">
         <v>42</v>
       </c>
       <c r="N14" s="4"/>
@@ -11508,7 +11964,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="116"/>
+      <c r="M15" s="157"/>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:26">
@@ -11526,7 +11982,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="116"/>
+      <c r="M16" s="157"/>
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14">
@@ -11544,7 +12000,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="22"/>
-      <c r="M17" s="116"/>
+      <c r="M17" s="157"/>
       <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:14">
@@ -11562,7 +12018,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="22"/>
-      <c r="M18" s="116"/>
+      <c r="M18" s="157"/>
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14">
@@ -11580,7 +12036,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="22"/>
-      <c r="M19" s="116"/>
+      <c r="M19" s="157"/>
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14">
@@ -11596,7 +12052,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="117"/>
+      <c r="M20" s="158"/>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14">
@@ -12566,8 +13022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF75"/>
   <sheetViews>
-    <sheetView topLeftCell="L23" workbookViewId="0">
-      <selection activeCell="Y27" sqref="Y27"/>
+    <sheetView topLeftCell="E36" workbookViewId="0">
+      <selection activeCell="Z46" sqref="Z46:AA48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12587,11 +13043,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="211" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
       <c r="D1" s="70"/>
       <c r="E1" s="70"/>
       <c r="F1" s="70"/>
@@ -12652,84 +13108,84 @@
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1">
       <c r="A3" s="72"/>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="179" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="128"/>
+      <c r="C3" s="181"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="131" t="s">
+      <c r="E3" s="205" t="s">
         <v>300</v>
       </c>
-      <c r="F3" s="132"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="127" t="s">
+      <c r="H3" s="179" t="s">
         <v>305</v>
       </c>
-      <c r="I3" s="128"/>
+      <c r="I3" s="181"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="127" t="s">
+      <c r="K3" s="179" t="s">
         <v>306</v>
       </c>
-      <c r="L3" s="128"/>
+      <c r="L3" s="181"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="131" t="s">
+      <c r="N3" s="205" t="s">
         <v>307</v>
       </c>
-      <c r="O3" s="132"/>
+      <c r="O3" s="217"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="131" t="s">
+      <c r="Q3" s="205" t="s">
         <v>308</v>
       </c>
-      <c r="R3" s="132"/>
+      <c r="R3" s="217"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="121" t="s">
+      <c r="T3" s="173" t="s">
         <v>310</v>
       </c>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
+      <c r="U3" s="234"/>
+      <c r="V3" s="234"/>
       <c r="W3" s="4"/>
-      <c r="X3" s="123" t="s">
+      <c r="X3" s="235" t="s">
         <v>361</v>
       </c>
-      <c r="Y3" s="124"/>
+      <c r="Y3" s="236"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="123" t="s">
+      <c r="AA3" s="235" t="s">
         <v>312</v>
       </c>
-      <c r="AB3" s="124"/>
+      <c r="AB3" s="236"/>
       <c r="AC3" s="73"/>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1">
       <c r="A4" s="74" t="s">
         <v>302</v>
       </c>
-      <c r="B4" s="129"/>
-      <c r="C4" s="130"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="184"/>
       <c r="D4" s="69"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="207"/>
       <c r="G4" s="69"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="130"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="184"/>
       <c r="J4" s="69"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="130"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="184"/>
       <c r="M4" s="69"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="134"/>
+      <c r="N4" s="220"/>
+      <c r="O4" s="207"/>
       <c r="P4" s="69"/>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="134"/>
+      <c r="Q4" s="220"/>
+      <c r="R4" s="207"/>
       <c r="S4" s="69"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
+      <c r="T4" s="173"/>
+      <c r="U4" s="234"/>
+      <c r="V4" s="234"/>
       <c r="W4" s="69"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="126"/>
+      <c r="X4" s="237"/>
+      <c r="Y4" s="238"/>
       <c r="Z4" s="69"/>
-      <c r="AA4" s="125"/>
-      <c r="AB4" s="126"/>
+      <c r="AA4" s="237"/>
+      <c r="AB4" s="238"/>
       <c r="AC4" s="73"/>
     </row>
     <row r="5" spans="1:29">
@@ -12768,10 +13224,10 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="135" t="s">
+      <c r="E6" s="162" t="s">
         <v>301</v>
       </c>
-      <c r="F6" s="136"/>
+      <c r="F6" s="163"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -12782,16 +13238,16 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="135" t="s">
+      <c r="Q6" s="162" t="s">
         <v>309</v>
       </c>
-      <c r="R6" s="136"/>
+      <c r="R6" s="163"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="120" t="s">
+      <c r="T6" s="193" t="s">
         <v>360</v>
       </c>
-      <c r="U6" s="120"/>
-      <c r="V6" s="120"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
@@ -12807,8 +13263,8 @@
       <c r="B7" s="69"/>
       <c r="C7" s="69"/>
       <c r="D7" s="69"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="140"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="196"/>
       <c r="G7" s="69"/>
       <c r="H7" s="69"/>
       <c r="I7" s="69"/>
@@ -12819,12 +13275,12 @@
       <c r="N7" s="69"/>
       <c r="O7" s="69"/>
       <c r="P7" s="69"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="138"/>
+      <c r="Q7" s="164"/>
+      <c r="R7" s="165"/>
       <c r="S7" s="69"/>
-      <c r="T7" s="120"/>
-      <c r="U7" s="120"/>
-      <c r="V7" s="120"/>
+      <c r="T7" s="193"/>
+      <c r="U7" s="193"/>
+      <c r="V7" s="193"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
@@ -12850,12 +13306,12 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="138"/>
+      <c r="Q8" s="164"/>
+      <c r="R8" s="165"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="120"/>
-      <c r="U8" s="120"/>
-      <c r="V8" s="120"/>
+      <c r="T8" s="193"/>
+      <c r="U8" s="193"/>
+      <c r="V8" s="193"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
@@ -12883,12 +13339,12 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="137"/>
-      <c r="R9" s="138"/>
+      <c r="Q9" s="164"/>
+      <c r="R9" s="165"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="120"/>
-      <c r="V9" s="120"/>
+      <c r="T9" s="193"/>
+      <c r="U9" s="193"/>
+      <c r="V9" s="193"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
@@ -12914,12 +13370,12 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="138"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="165"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120"/>
+      <c r="T10" s="193"/>
+      <c r="U10" s="193"/>
+      <c r="V10" s="193"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
@@ -12947,12 +13403,12 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="137"/>
-      <c r="R11" s="138"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="165"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="120"/>
-      <c r="U11" s="120"/>
-      <c r="V11" s="120"/>
+      <c r="T11" s="193"/>
+      <c r="U11" s="193"/>
+      <c r="V11" s="193"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
@@ -12978,12 +13434,12 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="137"/>
-      <c r="R12" s="138"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="165"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="120"/>
-      <c r="U12" s="120"/>
-      <c r="V12" s="120"/>
+      <c r="T12" s="193"/>
+      <c r="U12" s="193"/>
+      <c r="V12" s="193"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
@@ -13011,12 +13467,12 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="140"/>
+      <c r="Q13" s="194"/>
+      <c r="R13" s="196"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="120"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="120"/>
+      <c r="T13" s="193"/>
+      <c r="U13" s="193"/>
+      <c r="V13" s="193"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
@@ -13045,9 +13501,9 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="120"/>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
+      <c r="T14" s="193"/>
+      <c r="U14" s="193"/>
+      <c r="V14" s="193"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
@@ -13078,9 +13534,9 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="120"/>
-      <c r="U15" s="120"/>
-      <c r="V15" s="120"/>
+      <c r="T15" s="193"/>
+      <c r="U15" s="193"/>
+      <c r="V15" s="193"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -13109,9 +13565,9 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="120"/>
-      <c r="U16" s="120"/>
-      <c r="V16" s="120"/>
+      <c r="T16" s="193"/>
+      <c r="U16" s="193"/>
+      <c r="V16" s="193"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
@@ -13140,9 +13596,9 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="120"/>
-      <c r="U17" s="120"/>
-      <c r="V17" s="120"/>
+      <c r="T17" s="193"/>
+      <c r="U17" s="193"/>
+      <c r="V17" s="193"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
@@ -13183,11 +13639,11 @@
       <c r="AC18" s="77"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="211" t="s">
         <v>313</v>
       </c>
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="212"/>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
       <c r="F19" s="70"/>
@@ -13242,68 +13698,68 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="72"/>
-      <c r="B21" s="131" t="s">
+      <c r="B21" s="205" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="132"/>
+      <c r="C21" s="217"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="131" t="s">
+      <c r="E21" s="205" t="s">
         <v>325</v>
       </c>
-      <c r="F21" s="132"/>
+      <c r="F21" s="217"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="131" t="s">
+      <c r="H21" s="205" t="s">
         <v>323</v>
       </c>
-      <c r="I21" s="132"/>
+      <c r="I21" s="217"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="131" t="s">
+      <c r="K21" s="205" t="s">
         <v>325</v>
       </c>
-      <c r="L21" s="132"/>
+      <c r="L21" s="217"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="131" t="s">
+      <c r="N21" s="205" t="s">
         <v>329</v>
       </c>
-      <c r="O21" s="132"/>
+      <c r="O21" s="217"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="131" t="s">
+      <c r="Q21" s="205" t="s">
         <v>314</v>
       </c>
-      <c r="R21" s="132"/>
+      <c r="R21" s="217"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="141" t="s">
+      <c r="T21" s="228" t="s">
         <v>349</v>
       </c>
-      <c r="U21" s="142"/>
-      <c r="V21" s="143"/>
+      <c r="U21" s="229"/>
+      <c r="V21" s="230"/>
       <c r="W21" s="73"/>
     </row>
     <row r="22" spans="1:32" ht="16" thickBot="1">
       <c r="A22" s="74" t="s">
         <v>302</v>
       </c>
-      <c r="B22" s="133"/>
-      <c r="C22" s="134"/>
+      <c r="B22" s="220"/>
+      <c r="C22" s="207"/>
       <c r="D22" s="69"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
+      <c r="E22" s="220"/>
+      <c r="F22" s="207"/>
       <c r="G22" s="69"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
+      <c r="H22" s="220"/>
+      <c r="I22" s="207"/>
       <c r="J22" s="69"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="134"/>
+      <c r="K22" s="220"/>
+      <c r="L22" s="207"/>
       <c r="M22" s="69"/>
-      <c r="N22" s="133"/>
-      <c r="O22" s="134"/>
+      <c r="N22" s="220"/>
+      <c r="O22" s="207"/>
       <c r="P22" s="69"/>
-      <c r="Q22" s="133"/>
-      <c r="R22" s="134"/>
+      <c r="Q22" s="220"/>
+      <c r="R22" s="207"/>
       <c r="S22" s="69"/>
-      <c r="T22" s="144"/>
-      <c r="U22" s="145"/>
-      <c r="V22" s="146"/>
+      <c r="T22" s="231"/>
+      <c r="U22" s="232"/>
+      <c r="V22" s="233"/>
       <c r="W22" s="73"/>
     </row>
     <row r="23" spans="1:32">
@@ -13343,21 +13799,21 @@
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="72"/>
-      <c r="B24" s="147" t="s">
+      <c r="B24" s="197" t="s">
         <v>315</v>
       </c>
-      <c r="C24" s="148"/>
+      <c r="C24" s="198"/>
       <c r="D24" s="38"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="148"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="198"/>
       <c r="G24" s="69"/>
-      <c r="H24" s="147" t="s">
+      <c r="H24" s="197" t="s">
         <v>315</v>
       </c>
-      <c r="I24" s="148"/>
+      <c r="I24" s="198"/>
       <c r="J24" s="69"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="148"/>
+      <c r="K24" s="197"/>
+      <c r="L24" s="198"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -13413,23 +13869,23 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="72"/>
-      <c r="B26" s="147" t="s">
+      <c r="B26" s="197" t="s">
         <v>316</v>
       </c>
-      <c r="C26" s="148"/>
+      <c r="C26" s="198"/>
       <c r="D26" s="38"/>
-      <c r="E26" s="147" t="s">
+      <c r="E26" s="197" t="s">
         <v>324</v>
       </c>
-      <c r="F26" s="148"/>
+      <c r="F26" s="198"/>
       <c r="G26" s="69"/>
-      <c r="H26" s="147" t="s">
+      <c r="H26" s="197" t="s">
         <v>316</v>
       </c>
-      <c r="I26" s="148"/>
+      <c r="I26" s="198"/>
       <c r="J26" s="69"/>
-      <c r="K26" s="147"/>
-      <c r="L26" s="148"/>
+      <c r="K26" s="197"/>
+      <c r="L26" s="198"/>
       <c r="M26" s="78"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -13487,21 +13943,21 @@
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="72"/>
-      <c r="B28" s="147" t="s">
+      <c r="B28" s="197" t="s">
         <v>317</v>
       </c>
-      <c r="C28" s="148"/>
+      <c r="C28" s="198"/>
       <c r="D28" s="38"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="148"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="198"/>
       <c r="G28" s="69"/>
-      <c r="H28" s="147" t="s">
+      <c r="H28" s="197" t="s">
         <v>317</v>
       </c>
-      <c r="I28" s="148"/>
+      <c r="I28" s="198"/>
       <c r="J28" s="69"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="148"/>
+      <c r="K28" s="197"/>
+      <c r="L28" s="198"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -13561,25 +14017,25 @@
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="72"/>
-      <c r="B30" s="147" t="s">
+      <c r="B30" s="197" t="s">
         <v>318</v>
       </c>
-      <c r="C30" s="148"/>
+      <c r="C30" s="198"/>
       <c r="D30" s="38"/>
-      <c r="E30" s="147" t="s">
+      <c r="E30" s="197" t="s">
         <v>326</v>
       </c>
-      <c r="F30" s="148"/>
+      <c r="F30" s="198"/>
       <c r="G30" s="69"/>
-      <c r="H30" s="147" t="s">
+      <c r="H30" s="197" t="s">
         <v>331</v>
       </c>
-      <c r="I30" s="148"/>
+      <c r="I30" s="198"/>
       <c r="J30" s="69"/>
-      <c r="K30" s="147" t="s">
+      <c r="K30" s="197" t="s">
         <v>330</v>
       </c>
-      <c r="L30" s="148"/>
+      <c r="L30" s="198"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -13637,23 +14093,23 @@
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="72"/>
-      <c r="B32" s="149" t="s">
+      <c r="B32" s="223" t="s">
         <v>320</v>
       </c>
-      <c r="C32" s="150"/>
+      <c r="C32" s="224"/>
       <c r="D32" s="38"/>
-      <c r="E32" s="149" t="s">
+      <c r="E32" s="223" t="s">
         <v>327</v>
       </c>
-      <c r="F32" s="150"/>
+      <c r="F32" s="224"/>
       <c r="G32" s="69"/>
-      <c r="H32" s="149" t="s">
+      <c r="H32" s="223" t="s">
         <v>320</v>
       </c>
-      <c r="I32" s="150"/>
+      <c r="I32" s="224"/>
       <c r="J32" s="69"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="150"/>
+      <c r="K32" s="223"/>
+      <c r="L32" s="224"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -13709,23 +14165,23 @@
     </row>
     <row r="34" spans="1:32" ht="16" thickBot="1">
       <c r="A34" s="72"/>
-      <c r="B34" s="147" t="s">
+      <c r="B34" s="197" t="s">
         <v>319</v>
       </c>
-      <c r="C34" s="148"/>
+      <c r="C34" s="198"/>
       <c r="D34" s="69"/>
-      <c r="E34" s="147" t="s">
+      <c r="E34" s="197" t="s">
         <v>328</v>
       </c>
-      <c r="F34" s="148"/>
+      <c r="F34" s="198"/>
       <c r="G34" s="69"/>
-      <c r="H34" s="147" t="s">
+      <c r="H34" s="197" t="s">
         <v>321</v>
       </c>
-      <c r="I34" s="148"/>
+      <c r="I34" s="198"/>
       <c r="J34" s="69"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="148"/>
+      <c r="K34" s="197"/>
+      <c r="L34" s="198"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -13776,18 +14232,18 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="135" t="s">
+      <c r="E36" s="162" t="s">
         <v>363</v>
       </c>
-      <c r="F36" s="136"/>
+      <c r="F36" s="163"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="135" t="s">
+      <c r="K36" s="162" t="s">
         <v>363</v>
       </c>
-      <c r="L36" s="136"/>
+      <c r="L36" s="163"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -13804,21 +14260,21 @@
       <c r="A37" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="B37" s="171" t="s">
+      <c r="B37" s="160" t="s">
         <v>362</v>
       </c>
-      <c r="C37" s="172"/>
+      <c r="C37" s="161"/>
       <c r="D37" s="81"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="138"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="165"/>
       <c r="G37" s="81"/>
-      <c r="H37" s="171" t="s">
+      <c r="H37" s="160" t="s">
         <v>362</v>
       </c>
-      <c r="I37" s="172"/>
+      <c r="I37" s="161"/>
       <c r="J37" s="81"/>
-      <c r="K37" s="137"/>
-      <c r="L37" s="138"/>
+      <c r="K37" s="164"/>
+      <c r="L37" s="165"/>
       <c r="M37" s="81"/>
       <c r="N37" s="81"/>
       <c r="O37" s="81"/>
@@ -13836,14 +14292,14 @@
       <c r="B38" s="76"/>
       <c r="C38" s="76"/>
       <c r="D38" s="76"/>
-      <c r="E38" s="177"/>
-      <c r="F38" s="178"/>
+      <c r="E38" s="166"/>
+      <c r="F38" s="167"/>
       <c r="G38" s="76"/>
       <c r="H38" s="76"/>
       <c r="I38" s="76"/>
       <c r="J38" s="76"/>
-      <c r="K38" s="177"/>
-      <c r="L38" s="178"/>
+      <c r="K38" s="166"/>
+      <c r="L38" s="167"/>
       <c r="M38" s="76"/>
       <c r="N38" s="76"/>
       <c r="O38" s="76"/>
@@ -13857,11 +14313,11 @@
       <c r="W38" s="77"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" s="118" t="s">
+      <c r="A39" s="211" t="s">
         <v>332</v>
       </c>
-      <c r="B39" s="119"/>
-      <c r="C39" s="119"/>
+      <c r="B39" s="212"/>
+      <c r="C39" s="212"/>
       <c r="D39" s="70"/>
       <c r="E39" s="70"/>
       <c r="F39" s="70"/>
@@ -13922,86 +14378,86 @@
     </row>
     <row r="41" spans="1:32" ht="15" customHeight="1">
       <c r="A41" s="72"/>
-      <c r="B41" s="131" t="s">
+      <c r="B41" s="205" t="s">
         <v>333</v>
       </c>
-      <c r="C41" s="132"/>
+      <c r="C41" s="217"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="131" t="s">
+      <c r="E41" s="205" t="s">
         <v>335</v>
       </c>
-      <c r="F41" s="132"/>
+      <c r="F41" s="217"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="131" t="s">
+      <c r="H41" s="205" t="s">
         <v>334</v>
       </c>
-      <c r="I41" s="132"/>
+      <c r="I41" s="217"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="131" t="s">
+      <c r="K41" s="205" t="s">
         <v>340</v>
       </c>
-      <c r="L41" s="132"/>
+      <c r="L41" s="217"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="131" t="s">
+      <c r="N41" s="205" t="s">
         <v>341</v>
       </c>
-      <c r="O41" s="132"/>
+      <c r="O41" s="217"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="156" t="s">
+      <c r="Q41" s="213" t="s">
         <v>346</v>
       </c>
-      <c r="R41" s="157"/>
+      <c r="R41" s="214"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="156" t="s">
+      <c r="T41" s="213" t="s">
         <v>347</v>
       </c>
-      <c r="U41" s="157"/>
+      <c r="U41" s="214"/>
       <c r="V41" s="4"/>
-      <c r="W41" s="152" t="s">
+      <c r="W41" s="171" t="s">
         <v>348</v>
       </c>
-      <c r="X41" s="153"/>
+      <c r="X41" s="225"/>
       <c r="Y41" s="4"/>
-      <c r="Z41" s="160" t="s">
+      <c r="Z41" s="199" t="s">
         <v>365</v>
       </c>
-      <c r="AA41" s="161"/>
+      <c r="AA41" s="200"/>
       <c r="AB41" s="4"/>
     </row>
     <row r="42" spans="1:32">
       <c r="A42" s="74" t="s">
         <v>302</v>
       </c>
-      <c r="B42" s="133"/>
-      <c r="C42" s="134"/>
+      <c r="B42" s="220"/>
+      <c r="C42" s="207"/>
       <c r="D42" s="69"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="134"/>
+      <c r="E42" s="220"/>
+      <c r="F42" s="207"/>
       <c r="G42" s="69"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="134"/>
+      <c r="H42" s="220"/>
+      <c r="I42" s="207"/>
       <c r="J42" s="69"/>
-      <c r="K42" s="173"/>
-      <c r="L42" s="174"/>
+      <c r="K42" s="218"/>
+      <c r="L42" s="219"/>
       <c r="M42" s="69"/>
-      <c r="N42" s="173"/>
-      <c r="O42" s="174"/>
+      <c r="N42" s="218"/>
+      <c r="O42" s="219"/>
       <c r="P42" s="69"/>
-      <c r="Q42" s="158"/>
-      <c r="R42" s="159"/>
+      <c r="Q42" s="215"/>
+      <c r="R42" s="216"/>
       <c r="S42" s="69"/>
-      <c r="T42" s="158"/>
-      <c r="U42" s="159"/>
+      <c r="T42" s="215"/>
+      <c r="U42" s="216"/>
       <c r="V42" s="89" t="s">
         <v>364</v>
       </c>
-      <c r="W42" s="154"/>
-      <c r="X42" s="155"/>
+      <c r="W42" s="226"/>
+      <c r="X42" s="227"/>
       <c r="Y42" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="Z42" s="162"/>
-      <c r="AA42" s="163"/>
+      <c r="Z42" s="201"/>
+      <c r="AA42" s="202"/>
     </row>
     <row r="43" spans="1:32" ht="16" customHeight="1">
       <c r="A43" s="72"/>
@@ -14011,11 +14467,11 @@
       <c r="H43" s="82"/>
       <c r="I43" s="83"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="133"/>
-      <c r="L43" s="134"/>
+      <c r="K43" s="220"/>
+      <c r="L43" s="207"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="133"/>
-      <c r="O43" s="134"/>
+      <c r="N43" s="220"/>
+      <c r="O43" s="207"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
@@ -14023,20 +14479,20 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-      <c r="Z43" s="164"/>
-      <c r="AA43" s="165"/>
+      <c r="Z43" s="203"/>
+      <c r="AA43" s="204"/>
     </row>
     <row r="44" spans="1:32" ht="15" customHeight="1">
       <c r="A44" s="72"/>
-      <c r="E44" s="175" t="s">
+      <c r="E44" s="221" t="s">
         <v>345</v>
       </c>
-      <c r="F44" s="176"/>
+      <c r="F44" s="222"/>
       <c r="G44" s="38"/>
-      <c r="H44" s="147" t="s">
+      <c r="H44" s="197" t="s">
         <v>338</v>
       </c>
-      <c r="I44" s="148"/>
+      <c r="I44" s="198"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -14064,17 +14520,17 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
     </row>
-    <row r="46" spans="1:32">
+    <row r="46" spans="1:32" ht="15" customHeight="1">
       <c r="A46" s="72"/>
-      <c r="E46" s="147" t="s">
+      <c r="E46" s="197" t="s">
         <v>337</v>
       </c>
-      <c r="F46" s="170"/>
+      <c r="F46" s="210"/>
       <c r="G46" s="38"/>
-      <c r="H46" s="171" t="s">
+      <c r="H46" s="160" t="s">
         <v>342</v>
       </c>
-      <c r="I46" s="172"/>
+      <c r="I46" s="161"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -14082,12 +14538,21 @@
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
       <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
+      <c r="T46" s="213" t="s">
+        <v>556</v>
+      </c>
+      <c r="U46" s="214"/>
       <c r="V46" s="4"/>
+      <c r="W46" s="171" t="s">
+        <v>557</v>
+      </c>
+      <c r="X46" s="225"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="199" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA46" s="200"/>
     </row>
     <row r="47" spans="1:32">
       <c r="A47" s="72"/>
@@ -14102,25 +14567,32 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
+      <c r="P47" s="17"/>
+      <c r="S47" s="69"/>
+      <c r="T47" s="215"/>
+      <c r="U47" s="216"/>
+      <c r="V47" s="89" t="s">
+        <v>364</v>
+      </c>
+      <c r="W47" s="226"/>
+      <c r="X47" s="227"/>
+      <c r="Y47" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z47" s="201"/>
+      <c r="AA47" s="202"/>
     </row>
     <row r="48" spans="1:32">
       <c r="A48" s="72"/>
-      <c r="E48" s="147" t="s">
+      <c r="E48" s="197" t="s">
         <v>336</v>
       </c>
-      <c r="F48" s="170"/>
+      <c r="F48" s="210"/>
       <c r="G48" s="38"/>
-      <c r="H48" s="147" t="s">
+      <c r="H48" s="197" t="s">
         <v>339</v>
       </c>
-      <c r="I48" s="170"/>
+      <c r="I48" s="210"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -14134,6 +14606,8 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
+      <c r="Z48" s="203"/>
+      <c r="AA48" s="204"/>
     </row>
     <row r="49" spans="1:29">
       <c r="A49" s="72"/>
@@ -14149,34 +14623,34 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
-      <c r="Q49" s="135" t="s">
+      <c r="Q49" s="162" t="s">
         <v>368</v>
       </c>
-      <c r="R49" s="168"/>
-      <c r="S49" s="168"/>
-      <c r="T49" s="168"/>
-      <c r="U49" s="168"/>
-      <c r="V49" s="168"/>
-      <c r="W49" s="168"/>
-      <c r="X49" s="168"/>
-      <c r="Y49" s="168"/>
-      <c r="Z49" s="168"/>
-      <c r="AA49" s="136"/>
+      <c r="R49" s="192"/>
+      <c r="S49" s="192"/>
+      <c r="T49" s="192"/>
+      <c r="U49" s="192"/>
+      <c r="V49" s="192"/>
+      <c r="W49" s="192"/>
+      <c r="X49" s="192"/>
+      <c r="Y49" s="192"/>
+      <c r="Z49" s="192"/>
+      <c r="AA49" s="163"/>
     </row>
     <row r="50" spans="1:29">
       <c r="A50" s="72"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="147" t="s">
+      <c r="E50" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="170"/>
+      <c r="F50" s="210"/>
       <c r="G50" s="38"/>
-      <c r="H50" s="147" t="s">
+      <c r="H50" s="197" t="s">
         <v>344</v>
       </c>
-      <c r="I50" s="170"/>
+      <c r="I50" s="210"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -14184,17 +14658,17 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
-      <c r="Q50" s="137"/>
-      <c r="R50" s="120"/>
-      <c r="S50" s="120"/>
-      <c r="T50" s="120"/>
-      <c r="U50" s="120"/>
-      <c r="V50" s="120"/>
-      <c r="W50" s="120"/>
-      <c r="X50" s="120"/>
-      <c r="Y50" s="120"/>
-      <c r="Z50" s="120"/>
-      <c r="AA50" s="138"/>
+      <c r="Q50" s="164"/>
+      <c r="R50" s="193"/>
+      <c r="S50" s="193"/>
+      <c r="T50" s="193"/>
+      <c r="U50" s="193"/>
+      <c r="V50" s="193"/>
+      <c r="W50" s="193"/>
+      <c r="X50" s="193"/>
+      <c r="Y50" s="193"/>
+      <c r="Z50" s="193"/>
+      <c r="AA50" s="165"/>
     </row>
     <row r="51" spans="1:29" ht="15" customHeight="1">
       <c r="A51" s="72"/>
@@ -14204,30 +14678,30 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="168" t="s">
+      <c r="H51" s="192" t="s">
         <v>343</v>
       </c>
-      <c r="I51" s="168"/>
-      <c r="J51" s="135" t="s">
+      <c r="I51" s="192"/>
+      <c r="J51" s="162" t="s">
         <v>363</v>
       </c>
-      <c r="K51" s="136"/>
+      <c r="K51" s="163"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="137"/>
-      <c r="R51" s="120"/>
-      <c r="S51" s="120"/>
-      <c r="T51" s="120"/>
-      <c r="U51" s="120"/>
-      <c r="V51" s="120"/>
-      <c r="W51" s="120"/>
-      <c r="X51" s="120"/>
-      <c r="Y51" s="120"/>
-      <c r="Z51" s="120"/>
-      <c r="AA51" s="138"/>
+      <c r="Q51" s="164"/>
+      <c r="R51" s="193"/>
+      <c r="S51" s="193"/>
+      <c r="T51" s="193"/>
+      <c r="U51" s="193"/>
+      <c r="V51" s="193"/>
+      <c r="W51" s="193"/>
+      <c r="X51" s="193"/>
+      <c r="Y51" s="193"/>
+      <c r="Z51" s="193"/>
+      <c r="AA51" s="165"/>
     </row>
     <row r="52" spans="1:29">
       <c r="A52" s="80" t="s">
@@ -14239,26 +14713,26 @@
       <c r="E52" s="81"/>
       <c r="F52" s="81"/>
       <c r="G52" s="81"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="137"/>
-      <c r="K52" s="138"/>
+      <c r="H52" s="193"/>
+      <c r="I52" s="193"/>
+      <c r="J52" s="164"/>
+      <c r="K52" s="165"/>
       <c r="L52" s="81"/>
       <c r="M52" s="81"/>
       <c r="N52" s="81"/>
       <c r="O52" s="81"/>
       <c r="P52" s="81"/>
-      <c r="Q52" s="137"/>
-      <c r="R52" s="120"/>
-      <c r="S52" s="120"/>
-      <c r="T52" s="120"/>
-      <c r="U52" s="120"/>
-      <c r="V52" s="120"/>
-      <c r="W52" s="120"/>
-      <c r="X52" s="120"/>
-      <c r="Y52" s="120"/>
-      <c r="Z52" s="120"/>
-      <c r="AA52" s="138"/>
+      <c r="Q52" s="164"/>
+      <c r="R52" s="193"/>
+      <c r="S52" s="193"/>
+      <c r="T52" s="193"/>
+      <c r="U52" s="193"/>
+      <c r="V52" s="193"/>
+      <c r="W52" s="193"/>
+      <c r="X52" s="193"/>
+      <c r="Y52" s="193"/>
+      <c r="Z52" s="193"/>
+      <c r="AA52" s="165"/>
     </row>
     <row r="53" spans="1:29" ht="16" thickBot="1">
       <c r="A53" s="72"/>
@@ -14268,26 +14742,26 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="120"/>
-      <c r="J53" s="177"/>
-      <c r="K53" s="178"/>
+      <c r="H53" s="193"/>
+      <c r="I53" s="193"/>
+      <c r="J53" s="166"/>
+      <c r="K53" s="167"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
-      <c r="Q53" s="137"/>
-      <c r="R53" s="120"/>
-      <c r="S53" s="120"/>
-      <c r="T53" s="120"/>
-      <c r="U53" s="120"/>
-      <c r="V53" s="120"/>
-      <c r="W53" s="120"/>
-      <c r="X53" s="120"/>
-      <c r="Y53" s="120"/>
-      <c r="Z53" s="120"/>
-      <c r="AA53" s="138"/>
+      <c r="Q53" s="164"/>
+      <c r="R53" s="193"/>
+      <c r="S53" s="193"/>
+      <c r="T53" s="193"/>
+      <c r="U53" s="193"/>
+      <c r="V53" s="193"/>
+      <c r="W53" s="193"/>
+      <c r="X53" s="193"/>
+      <c r="Y53" s="193"/>
+      <c r="Z53" s="193"/>
+      <c r="AA53" s="165"/>
     </row>
     <row r="54" spans="1:29">
       <c r="A54" s="72"/>
@@ -14297,8 +14771,8 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="120"/>
+      <c r="H54" s="193"/>
+      <c r="I54" s="193"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -14306,17 +14780,17 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
-      <c r="Q54" s="137"/>
-      <c r="R54" s="120"/>
-      <c r="S54" s="120"/>
-      <c r="T54" s="120"/>
-      <c r="U54" s="120"/>
-      <c r="V54" s="120"/>
-      <c r="W54" s="120"/>
-      <c r="X54" s="120"/>
-      <c r="Y54" s="120"/>
-      <c r="Z54" s="120"/>
-      <c r="AA54" s="138"/>
+      <c r="Q54" s="164"/>
+      <c r="R54" s="193"/>
+      <c r="S54" s="193"/>
+      <c r="T54" s="193"/>
+      <c r="U54" s="193"/>
+      <c r="V54" s="193"/>
+      <c r="W54" s="193"/>
+      <c r="X54" s="193"/>
+      <c r="Y54" s="193"/>
+      <c r="Z54" s="193"/>
+      <c r="AA54" s="165"/>
     </row>
     <row r="55" spans="1:29">
       <c r="A55" s="72"/>
@@ -14326,8 +14800,8 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120"/>
+      <c r="H55" s="193"/>
+      <c r="I55" s="193"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -14335,17 +14809,17 @@
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
-      <c r="Q55" s="139"/>
-      <c r="R55" s="197"/>
-      <c r="S55" s="197"/>
-      <c r="T55" s="197"/>
-      <c r="U55" s="197"/>
-      <c r="V55" s="197"/>
-      <c r="W55" s="197"/>
-      <c r="X55" s="197"/>
-      <c r="Y55" s="197"/>
-      <c r="Z55" s="197"/>
-      <c r="AA55" s="140"/>
+      <c r="Q55" s="194"/>
+      <c r="R55" s="195"/>
+      <c r="S55" s="195"/>
+      <c r="T55" s="195"/>
+      <c r="U55" s="195"/>
+      <c r="V55" s="195"/>
+      <c r="W55" s="195"/>
+      <c r="X55" s="195"/>
+      <c r="Y55" s="195"/>
+      <c r="Z55" s="195"/>
+      <c r="AA55" s="196"/>
     </row>
     <row r="56" spans="1:29" ht="16" thickBot="1">
       <c r="A56" s="75"/>
@@ -14355,8 +14829,8 @@
       <c r="E56" s="76"/>
       <c r="F56" s="76"/>
       <c r="G56" s="76"/>
-      <c r="H56" s="169"/>
-      <c r="I56" s="169"/>
+      <c r="H56" s="209"/>
+      <c r="I56" s="209"/>
       <c r="J56" s="76"/>
       <c r="K56" s="76"/>
       <c r="L56" s="76"/>
@@ -14379,11 +14853,11 @@
       <c r="AC56" s="77"/>
     </row>
     <row r="57" spans="1:29">
-      <c r="A57" s="118" t="s">
+      <c r="A57" s="211" t="s">
         <v>369</v>
       </c>
-      <c r="B57" s="119"/>
-      <c r="C57" s="119"/>
+      <c r="B57" s="212"/>
+      <c r="C57" s="212"/>
       <c r="D57" s="70"/>
       <c r="E57" s="70"/>
       <c r="F57" s="70"/>
@@ -14405,17 +14879,17 @@
     </row>
     <row r="59" spans="1:29" ht="15" customHeight="1">
       <c r="A59" s="72"/>
-      <c r="B59" s="131" t="s">
+      <c r="B59" s="205" t="s">
         <v>311</v>
       </c>
-      <c r="C59" s="166"/>
+      <c r="C59" s="206"/>
     </row>
     <row r="60" spans="1:29">
       <c r="A60" s="74" t="s">
         <v>302</v>
       </c>
-      <c r="B60" s="166"/>
-      <c r="C60" s="134"/>
+      <c r="B60" s="206"/>
+      <c r="C60" s="207"/>
     </row>
     <row r="61" spans="1:29">
       <c r="B61" s="38"/>
@@ -14427,10 +14901,10 @@
       <c r="W61" s="87"/>
     </row>
     <row r="62" spans="1:29" ht="15" customHeight="1">
-      <c r="B62" s="131" t="s">
+      <c r="B62" s="205" t="s">
         <v>351</v>
       </c>
-      <c r="C62" s="132"/>
+      <c r="C62" s="217"/>
       <c r="S62" s="87"/>
       <c r="T62" s="87"/>
       <c r="U62" s="87"/>
@@ -14438,8 +14912,8 @@
       <c r="W62" s="87"/>
     </row>
     <row r="63" spans="1:29">
-      <c r="B63" s="133"/>
-      <c r="C63" s="134"/>
+      <c r="B63" s="220"/>
+      <c r="C63" s="207"/>
       <c r="S63" s="87"/>
       <c r="T63" s="88" t="s">
         <v>354</v>
@@ -14460,68 +14934,68 @@
       <c r="K64" s="85"/>
       <c r="L64" s="86"/>
       <c r="S64" s="87"/>
-      <c r="T64" s="151" t="s">
+      <c r="T64" s="159" t="s">
         <v>355</v>
       </c>
-      <c r="U64" s="151"/>
-      <c r="V64" s="151"/>
-      <c r="W64" s="151"/>
+      <c r="U64" s="159"/>
+      <c r="V64" s="159"/>
+      <c r="W64" s="159"/>
     </row>
     <row r="65" spans="2:23" ht="15" customHeight="1">
-      <c r="B65" s="152" t="s">
+      <c r="B65" s="171" t="s">
         <v>349</v>
       </c>
-      <c r="C65" s="186"/>
+      <c r="C65" s="177"/>
       <c r="D65" s="52"/>
-      <c r="E65" s="127" t="s">
+      <c r="E65" s="179" t="s">
         <v>352</v>
       </c>
-      <c r="F65" s="188"/>
-      <c r="G65" s="188"/>
-      <c r="H65" s="188"/>
-      <c r="I65" s="188"/>
-      <c r="J65" s="188"/>
-      <c r="K65" s="188"/>
-      <c r="L65" s="128"/>
+      <c r="F65" s="180"/>
+      <c r="G65" s="180"/>
+      <c r="H65" s="180"/>
+      <c r="I65" s="180"/>
+      <c r="J65" s="180"/>
+      <c r="K65" s="180"/>
+      <c r="L65" s="181"/>
       <c r="M65" s="52"/>
       <c r="N65" s="52"/>
-      <c r="O65" s="190" t="s">
+      <c r="O65" s="185" t="s">
         <v>353</v>
       </c>
-      <c r="P65" s="179"/>
-      <c r="Q65" s="191"/>
+      <c r="P65" s="168"/>
+      <c r="Q65" s="186"/>
       <c r="S65" s="87"/>
-      <c r="T65" s="151" t="s">
+      <c r="T65" s="159" t="s">
         <v>356</v>
       </c>
-      <c r="U65" s="151"/>
-      <c r="V65" s="151"/>
-      <c r="W65" s="151"/>
+      <c r="U65" s="159"/>
+      <c r="V65" s="159"/>
+      <c r="W65" s="159"/>
     </row>
     <row r="66" spans="2:23">
-      <c r="B66" s="184"/>
-      <c r="C66" s="187"/>
+      <c r="B66" s="175"/>
+      <c r="C66" s="178"/>
       <c r="D66" s="52"/>
-      <c r="E66" s="129"/>
-      <c r="F66" s="189"/>
-      <c r="G66" s="189"/>
-      <c r="H66" s="189"/>
-      <c r="I66" s="189"/>
-      <c r="J66" s="189"/>
-      <c r="K66" s="189"/>
-      <c r="L66" s="130"/>
+      <c r="E66" s="182"/>
+      <c r="F66" s="183"/>
+      <c r="G66" s="183"/>
+      <c r="H66" s="183"/>
+      <c r="I66" s="183"/>
+      <c r="J66" s="183"/>
+      <c r="K66" s="183"/>
+      <c r="L66" s="184"/>
       <c r="M66" s="52"/>
       <c r="N66" s="52"/>
-      <c r="O66" s="192"/>
-      <c r="P66" s="180"/>
-      <c r="Q66" s="193"/>
+      <c r="O66" s="187"/>
+      <c r="P66" s="169"/>
+      <c r="Q66" s="188"/>
       <c r="S66" s="87"/>
-      <c r="T66" s="167" t="s">
+      <c r="T66" s="208" t="s">
         <v>357</v>
       </c>
-      <c r="U66" s="167"/>
-      <c r="V66" s="167"/>
-      <c r="W66" s="167"/>
+      <c r="U66" s="208"/>
+      <c r="V66" s="208"/>
+      <c r="W66" s="208"/>
     </row>
     <row r="67" spans="2:23">
       <c r="B67" s="38"/>
@@ -14534,20 +15008,20 @@
       <c r="J67" s="85"/>
       <c r="K67" s="85"/>
       <c r="L67" s="86"/>
-      <c r="O67" s="194"/>
-      <c r="P67" s="195"/>
-      <c r="Q67" s="196"/>
+      <c r="O67" s="189"/>
+      <c r="P67" s="190"/>
+      <c r="Q67" s="191"/>
       <c r="S67" s="87"/>
-      <c r="T67" s="167"/>
-      <c r="U67" s="167"/>
-      <c r="V67" s="167"/>
-      <c r="W67" s="167"/>
+      <c r="T67" s="208"/>
+      <c r="U67" s="208"/>
+      <c r="V67" s="208"/>
+      <c r="W67" s="208"/>
     </row>
     <row r="68" spans="2:23">
-      <c r="B68" s="152" t="s">
+      <c r="B68" s="171" t="s">
         <v>350</v>
       </c>
-      <c r="C68" s="182"/>
+      <c r="C68" s="172"/>
       <c r="E68" s="85"/>
       <c r="F68" s="85"/>
       <c r="G68" s="85"/>
@@ -14558,14 +15032,14 @@
       <c r="L68" s="86"/>
       <c r="P68" s="52"/>
       <c r="S68" s="87"/>
-      <c r="T68" s="167"/>
-      <c r="U68" s="167"/>
-      <c r="V68" s="167"/>
-      <c r="W68" s="167"/>
+      <c r="T68" s="208"/>
+      <c r="U68" s="208"/>
+      <c r="V68" s="208"/>
+      <c r="W68" s="208"/>
     </row>
     <row r="69" spans="2:23" ht="15" customHeight="1">
-      <c r="B69" s="121"/>
-      <c r="C69" s="183"/>
+      <c r="B69" s="173"/>
+      <c r="C69" s="174"/>
       <c r="E69" s="86"/>
       <c r="F69" s="86"/>
       <c r="G69" s="86"/>
@@ -14574,57 +15048,57 @@
       <c r="J69" s="86"/>
       <c r="K69" s="86"/>
       <c r="L69" s="86"/>
-      <c r="O69" s="179" t="s">
+      <c r="O69" s="168" t="s">
         <v>366</v>
       </c>
-      <c r="P69" s="179"/>
-      <c r="Q69" s="179"/>
+      <c r="P69" s="168"/>
+      <c r="Q69" s="168"/>
       <c r="S69" s="87"/>
-      <c r="T69" s="167"/>
-      <c r="U69" s="167"/>
-      <c r="V69" s="167"/>
-      <c r="W69" s="167"/>
+      <c r="T69" s="208"/>
+      <c r="U69" s="208"/>
+      <c r="V69" s="208"/>
+      <c r="W69" s="208"/>
     </row>
     <row r="70" spans="2:23">
-      <c r="B70" s="184"/>
-      <c r="C70" s="185"/>
-      <c r="O70" s="180"/>
-      <c r="P70" s="180"/>
-      <c r="Q70" s="180"/>
+      <c r="B70" s="175"/>
+      <c r="C70" s="176"/>
+      <c r="O70" s="169"/>
+      <c r="P70" s="169"/>
+      <c r="Q70" s="169"/>
       <c r="S70" s="87"/>
-      <c r="T70" s="151" t="s">
+      <c r="T70" s="159" t="s">
         <v>358</v>
       </c>
-      <c r="U70" s="151"/>
-      <c r="V70" s="151"/>
-      <c r="W70" s="151"/>
+      <c r="U70" s="159"/>
+      <c r="V70" s="159"/>
+      <c r="W70" s="159"/>
     </row>
     <row r="71" spans="2:23">
-      <c r="O71" s="180"/>
-      <c r="P71" s="180"/>
-      <c r="Q71" s="180"/>
-      <c r="T71" s="151" t="s">
+      <c r="O71" s="169"/>
+      <c r="P71" s="169"/>
+      <c r="Q71" s="169"/>
+      <c r="T71" s="159" t="s">
         <v>359</v>
       </c>
-      <c r="U71" s="151"/>
-      <c r="V71" s="151"/>
-      <c r="W71" s="151"/>
+      <c r="U71" s="159"/>
+      <c r="V71" s="159"/>
+      <c r="W71" s="159"/>
     </row>
     <row r="72" spans="2:23" ht="15" customHeight="1">
-      <c r="O72" s="180"/>
-      <c r="P72" s="180"/>
-      <c r="Q72" s="180"/>
-      <c r="T72" s="181" t="s">
+      <c r="O72" s="169"/>
+      <c r="P72" s="169"/>
+      <c r="Q72" s="169"/>
+      <c r="T72" s="170" t="s">
         <v>367</v>
       </c>
-      <c r="U72" s="181"/>
-      <c r="V72" s="181"/>
-      <c r="W72" s="181"/>
+      <c r="U72" s="170"/>
+      <c r="V72" s="170"/>
+      <c r="W72" s="170"/>
     </row>
     <row r="73" spans="2:23">
-      <c r="O73" s="180"/>
-      <c r="P73" s="180"/>
-      <c r="Q73" s="180"/>
+      <c r="O73" s="169"/>
+      <c r="P73" s="169"/>
+      <c r="Q73" s="169"/>
       <c r="T73" s="109"/>
       <c r="U73" s="109"/>
       <c r="V73" s="109"/>
@@ -14643,7 +15117,78 @@
       <c r="W75" s="109"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="87">
+    <mergeCell ref="T46:U47"/>
+    <mergeCell ref="W46:X47"/>
+    <mergeCell ref="Z46:AA48"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="T6:V17"/>
+    <mergeCell ref="T3:V4"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="Q6:R13"/>
+    <mergeCell ref="X3:Y4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="N21:O22"/>
+    <mergeCell ref="T21:V22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="T70:W70"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="W41:X42"/>
+    <mergeCell ref="T41:U42"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="Z41:AA43"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="T66:W69"/>
+    <mergeCell ref="H51:I56"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="Q41:R42"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="K41:L43"/>
+    <mergeCell ref="N41:O43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E46:F46"/>
     <mergeCell ref="T71:W71"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="E36:F38"/>
@@ -14660,74 +15205,6 @@
     <mergeCell ref="T64:W64"/>
     <mergeCell ref="T65:W65"/>
     <mergeCell ref="H44:I44"/>
-    <mergeCell ref="Z41:AA43"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="T66:W69"/>
-    <mergeCell ref="H51:I56"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="Q41:R42"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="K41:L43"/>
-    <mergeCell ref="N41:O43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="T70:W70"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="W41:X42"/>
-    <mergeCell ref="T41:U42"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="N21:O22"/>
-    <mergeCell ref="T21:V22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="T6:V17"/>
-    <mergeCell ref="T3:V4"/>
-    <mergeCell ref="AA3:AB4"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="Q6:R13"/>
-    <mergeCell ref="X3:Y4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="E6:F7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -14956,7 +15433,7 @@
     <col min="3" max="3" width="5" style="86" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="86"/>
     <col min="5" max="5" width="12.5" style="86" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="211" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="127" customWidth="1"/>
     <col min="7" max="7" width="7.1640625" customWidth="1"/>
     <col min="9" max="9" width="24.33203125" customWidth="1"/>
     <col min="13" max="13" width="17.6640625" customWidth="1"/>
@@ -14969,12 +15446,12 @@
       <c r="C1" s="64"/>
       <c r="D1" s="64"/>
       <c r="E1" s="64"/>
-      <c r="F1" s="210"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="199" t="s">
+      <c r="F1" s="126"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="239" t="s">
         <v>444</v>
       </c>
-      <c r="K1" s="199"/>
+      <c r="K1" s="239"/>
     </row>
     <row r="2" spans="2:14" ht="28">
       <c r="B2" s="64" t="s">
@@ -14989,25 +15466,25 @@
       <c r="E2" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="211" t="s">
+      <c r="F2" s="127" t="s">
         <v>442</v>
       </c>
-      <c r="I2" s="200" t="s">
+      <c r="I2" s="116" t="s">
         <v>445</v>
       </c>
-      <c r="J2" s="201" t="s">
+      <c r="J2" s="117" t="s">
         <v>446</v>
       </c>
-      <c r="K2" s="201" t="s">
+      <c r="K2" s="117" t="s">
         <v>447</v>
       </c>
-      <c r="L2" s="212" t="s">
+      <c r="L2" s="128" t="s">
         <v>483</v>
       </c>
-      <c r="M2" s="213" t="s">
+      <c r="M2" s="129" t="s">
         <v>484</v>
       </c>
-      <c r="N2" s="212"/>
+      <c r="N2" s="128"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="86" t="s">
@@ -15022,16 +15499,16 @@
       <c r="E3" s="86">
         <v>100107</v>
       </c>
-      <c r="F3" s="211">
+      <c r="F3" s="127">
         <v>25.642161885245901</v>
       </c>
-      <c r="I3" s="202" t="s">
+      <c r="I3" s="118" t="s">
         <v>422</v>
       </c>
-      <c r="J3" s="203">
+      <c r="J3" s="119">
         <v>4.3166417538614796</v>
       </c>
-      <c r="K3" s="203">
+      <c r="K3" s="119">
         <v>3.4031388522371464</v>
       </c>
       <c r="L3" s="114"/>
@@ -15049,19 +15526,19 @@
       <c r="E4" s="86">
         <v>402</v>
       </c>
-      <c r="F4" s="211">
+      <c r="F4" s="127">
         <v>4.2765957446808498</v>
       </c>
-      <c r="I4" s="202" t="s">
+      <c r="I4" s="118" t="s">
         <v>448</v>
       </c>
-      <c r="J4" s="203">
+      <c r="J4" s="119">
         <v>4.3166417538614796</v>
       </c>
-      <c r="K4" s="203">
+      <c r="K4" s="119">
         <v>3.4031388522371464</v>
       </c>
-      <c r="L4" s="211">
+      <c r="L4" s="127">
         <v>4.3166417538614796</v>
       </c>
     </row>
@@ -15078,19 +15555,19 @@
       <c r="E5" s="86">
         <v>203</v>
       </c>
-      <c r="F5" s="211">
+      <c r="F5" s="127">
         <v>1.72033898305084</v>
       </c>
-      <c r="I5" s="202" t="s">
+      <c r="I5" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="203">
+      <c r="J5" s="119">
         <v>26.994691254540399</v>
       </c>
-      <c r="K5" s="203">
+      <c r="K5" s="119">
         <v>23.250239817953975</v>
       </c>
-      <c r="L5" s="211">
+      <c r="L5" s="127">
         <v>25.642161885245901</v>
       </c>
     </row>
@@ -15107,19 +15584,19 @@
       <c r="E6" s="86">
         <v>64200</v>
       </c>
-      <c r="F6" s="211">
+      <c r="F6" s="127">
         <v>2.4226415094339599</v>
       </c>
-      <c r="I6" s="202" t="s">
+      <c r="I6" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="203">
+      <c r="J6" s="119">
         <v>4.5061728395061724</v>
       </c>
-      <c r="K6" s="203">
+      <c r="K6" s="119">
         <v>6.2224855130128756</v>
       </c>
-      <c r="L6" s="211">
+      <c r="L6" s="127">
         <v>4.2765957446808498</v>
       </c>
     </row>
@@ -15136,19 +15613,19 @@
       <c r="E7" s="86">
         <v>162500</v>
       </c>
-      <c r="F7" s="211">
+      <c r="F7" s="127">
         <v>2.0287141073657899</v>
       </c>
-      <c r="I7" s="202" t="s">
+      <c r="I7" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="203">
+      <c r="J7" s="119">
         <v>1.7894279697553683</v>
       </c>
-      <c r="K7" s="203">
+      <c r="K7" s="119">
         <v>1.4986450456101292</v>
       </c>
-      <c r="L7" s="211">
+      <c r="L7" s="127">
         <v>1.72033898305084</v>
       </c>
     </row>
@@ -15165,16 +15642,16 @@
       <c r="E8" s="86">
         <v>4258</v>
       </c>
-      <c r="F8" s="211">
+      <c r="F8" s="127">
         <v>5.6849132176234898</v>
       </c>
-      <c r="I8" s="202" t="s">
+      <c r="I8" s="118" t="s">
         <v>449</v>
       </c>
-      <c r="J8" s="203">
+      <c r="J8" s="119">
         <v>0</v>
       </c>
-      <c r="K8" s="203">
+      <c r="K8" s="119">
         <v>0</v>
       </c>
       <c r="L8" s="86"/>
@@ -15192,16 +15669,16 @@
       <c r="E9" s="86">
         <v>4694</v>
       </c>
-      <c r="F9" s="211">
+      <c r="F9" s="127">
         <v>29.522012578616302</v>
       </c>
-      <c r="I9" s="202" t="s">
+      <c r="I9" s="118" t="s">
         <v>450</v>
       </c>
-      <c r="J9" s="203">
+      <c r="J9" s="119">
         <v>0</v>
       </c>
-      <c r="K9" s="203">
+      <c r="K9" s="119">
         <v>0</v>
       </c>
       <c r="L9" s="86"/>
@@ -15219,19 +15696,19 @@
       <c r="E10" s="86">
         <v>44120</v>
       </c>
-      <c r="F10" s="211">
+      <c r="F10" s="127">
         <v>5.2268688544011299</v>
       </c>
-      <c r="I10" s="202" t="s">
+      <c r="I10" s="118" t="s">
         <v>451</v>
       </c>
-      <c r="J10" s="203">
+      <c r="J10" s="119">
         <v>2.4226415094339622</v>
       </c>
-      <c r="K10" s="203">
+      <c r="K10" s="119">
         <v>2.0077454037681006</v>
       </c>
-      <c r="L10" s="211">
+      <c r="L10" s="127">
         <v>2.4226415094339599</v>
       </c>
     </row>
@@ -15248,19 +15725,19 @@
       <c r="E11" s="86">
         <v>1804</v>
       </c>
-      <c r="F11" s="211">
+      <c r="F11" s="127">
         <v>5.4011976047904096</v>
       </c>
-      <c r="I11" s="202" t="s">
+      <c r="I11" s="118" t="s">
         <v>420</v>
       </c>
-      <c r="J11" s="203">
+      <c r="J11" s="119">
         <v>5.6799098405924591</v>
       </c>
-      <c r="K11" s="203">
+      <c r="K11" s="119">
         <v>6.5426390082841692</v>
       </c>
-      <c r="L11" s="211">
+      <c r="L11" s="127">
         <v>5.6849132176234898</v>
       </c>
     </row>
@@ -15277,19 +15754,19 @@
       <c r="E12" s="86">
         <v>3914</v>
       </c>
-      <c r="F12" s="211">
+      <c r="F12" s="127">
         <v>12.625806451612901</v>
       </c>
-      <c r="I12" s="202" t="s">
+      <c r="I12" s="118" t="s">
         <v>452</v>
       </c>
-      <c r="J12" s="203">
+      <c r="J12" s="119">
         <v>2.0287141073657899</v>
       </c>
-      <c r="K12" s="203">
+      <c r="K12" s="119">
         <v>1.8689466591152695</v>
       </c>
-      <c r="L12" s="211">
+      <c r="L12" s="127">
         <v>2.0287141073657899</v>
       </c>
     </row>
@@ -15306,19 +15783,19 @@
       <c r="E13" s="86">
         <v>6540</v>
       </c>
-      <c r="F13" s="211">
+      <c r="F13" s="127">
         <v>15.1740139211136</v>
       </c>
-      <c r="I13" s="202" t="s">
+      <c r="I13" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="203">
+      <c r="J13" s="119">
         <v>29.512030302628471</v>
       </c>
-      <c r="K13" s="203">
+      <c r="K13" s="119">
         <v>20.783207216869652</v>
       </c>
-      <c r="L13" s="211">
+      <c r="L13" s="127">
         <v>29.522012578616302</v>
       </c>
     </row>
@@ -15335,19 +15812,19 @@
       <c r="E14" s="86">
         <v>56000</v>
       </c>
-      <c r="F14" s="211">
+      <c r="F14" s="127">
         <v>1.5642458100558601</v>
       </c>
-      <c r="I14" s="202" t="s">
+      <c r="I14" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="203">
+      <c r="J14" s="119">
         <v>5.2831996168123574</v>
       </c>
-      <c r="K14" s="203">
+      <c r="K14" s="119">
         <v>5.84412262262091</v>
       </c>
-      <c r="L14" s="211">
+      <c r="L14" s="127">
         <v>5.2268688544011299</v>
       </c>
     </row>
@@ -15364,19 +15841,19 @@
       <c r="E15" s="86">
         <v>0</v>
       </c>
-      <c r="F15" s="211">
+      <c r="F15" s="127">
         <v>0.97</v>
       </c>
-      <c r="I15" s="202" t="s">
+      <c r="I15" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="203">
+      <c r="J15" s="119">
         <v>5.4041005601521039</v>
       </c>
-      <c r="K15" s="203">
+      <c r="K15" s="119">
         <v>4.7261562730009974</v>
       </c>
-      <c r="L15" s="211">
+      <c r="L15" s="127">
         <v>5.4011976047904096</v>
       </c>
     </row>
@@ -15393,19 +15870,19 @@
       <c r="E16" s="86">
         <v>0</v>
       </c>
-      <c r="F16" s="211">
+      <c r="F16" s="127">
         <v>0.75</v>
       </c>
-      <c r="I16" s="202" t="s">
+      <c r="I16" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="203">
+      <c r="J16" s="119">
         <v>12.642755549144699</v>
       </c>
-      <c r="K16" s="203">
+      <c r="K16" s="119">
         <v>11.744933704754416</v>
       </c>
-      <c r="L16" s="211">
+      <c r="L16" s="127">
         <v>12.625806451612901</v>
       </c>
     </row>
@@ -15422,19 +15899,19 @@
       <c r="E17" s="86">
         <v>8740</v>
       </c>
-      <c r="F17" s="211">
+      <c r="F17" s="127">
         <v>29.427609427609401</v>
       </c>
-      <c r="I17" s="202" t="s">
+      <c r="I17" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="203">
+      <c r="J17" s="119">
         <v>16.171067384898482</v>
       </c>
-      <c r="K17" s="203">
+      <c r="K17" s="119">
         <v>19.342892616570339</v>
       </c>
-      <c r="L17" s="211">
+      <c r="L17" s="127">
         <v>15.1740139211136</v>
       </c>
     </row>
@@ -15451,19 +15928,19 @@
       <c r="E18" s="86">
         <v>813</v>
       </c>
-      <c r="F18" s="211">
+      <c r="F18" s="127">
         <v>11.2916666666666</v>
       </c>
-      <c r="I18" s="202" t="s">
+      <c r="I18" s="118" t="s">
         <v>453</v>
       </c>
-      <c r="J18" s="203">
+      <c r="J18" s="119">
         <v>0.96867256662849444</v>
       </c>
-      <c r="K18" s="204">
+      <c r="K18" s="120">
         <v>0.88938117606405609</v>
       </c>
-      <c r="L18" s="211">
+      <c r="L18" s="127">
         <v>0.97</v>
       </c>
     </row>
@@ -15480,19 +15957,19 @@
       <c r="E19" s="86">
         <v>56</v>
       </c>
-      <c r="F19" s="211">
+      <c r="F19" s="127">
         <v>7</v>
       </c>
-      <c r="I19" s="202" t="s">
+      <c r="I19" s="118" t="s">
         <v>454</v>
       </c>
-      <c r="J19" s="203">
+      <c r="J19" s="119">
         <v>0.75250475469519862</v>
       </c>
-      <c r="K19" s="204">
+      <c r="K19" s="120">
         <v>0.69090793605728884</v>
       </c>
-      <c r="L19" s="211">
+      <c r="L19" s="127">
         <v>0.75</v>
       </c>
     </row>
@@ -15506,19 +15983,19 @@
       <c r="E20" s="86">
         <v>176</v>
       </c>
-      <c r="F20" s="211">
+      <c r="F20" s="127">
         <v>4.3940886699507304</v>
       </c>
-      <c r="I20" s="202" t="s">
+      <c r="I20" s="118" t="s">
         <v>393</v>
       </c>
-      <c r="J20" s="203">
+      <c r="J20" s="119">
         <v>32.708242382039295</v>
       </c>
-      <c r="K20" s="203">
+      <c r="K20" s="119">
         <v>28.247003367141794</v>
       </c>
-      <c r="L20" s="211">
+      <c r="L20" s="127">
         <v>29.427609427609401</v>
       </c>
     </row>
@@ -15535,19 +16012,19 @@
       <c r="E21" s="86">
         <v>10419</v>
       </c>
-      <c r="F21" s="211">
+      <c r="F21" s="127">
         <v>6.1614429331756302</v>
       </c>
-      <c r="I21" s="202" t="s">
+      <c r="I21" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="203">
+      <c r="J21" s="119">
         <v>11.331097887467072</v>
       </c>
-      <c r="K21" s="203">
+      <c r="K21" s="119">
         <v>8.0037329444503982</v>
       </c>
-      <c r="L21" s="211">
+      <c r="L21" s="127">
         <v>11.2916666666666</v>
       </c>
     </row>
@@ -15564,19 +16041,19 @@
       <c r="E22" s="86">
         <v>85600</v>
       </c>
-      <c r="F22" s="211">
+      <c r="F22" s="127">
         <v>1.80210526315789</v>
       </c>
-      <c r="I22" s="202" t="s">
+      <c r="I22" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="J22" s="203">
+      <c r="J22" s="119">
         <v>6.9741808052004108</v>
       </c>
-      <c r="K22" s="203">
+      <c r="K22" s="119">
         <v>21.898927728329291</v>
       </c>
-      <c r="L22" s="211">
+      <c r="L22" s="127">
         <v>7</v>
       </c>
     </row>
@@ -15593,19 +16070,19 @@
       <c r="E23" s="86">
         <v>11358700</v>
       </c>
-      <c r="F23" s="211">
+      <c r="F23" s="127">
         <v>8.7942861567048602</v>
       </c>
-      <c r="I23" s="202" t="s">
+      <c r="I23" s="118" t="s">
         <v>416</v>
       </c>
-      <c r="J23" s="203">
+      <c r="J23" s="119">
         <v>4.3940886699507384</v>
       </c>
-      <c r="K23" s="205">
+      <c r="K23" s="121">
         <v>4.3940886699507384</v>
       </c>
-      <c r="L23" s="211">
+      <c r="L23" s="127">
         <v>4.3940886699507304</v>
       </c>
     </row>
@@ -15622,19 +16099,19 @@
       <c r="E24" s="86">
         <v>530700</v>
       </c>
-      <c r="F24" s="211">
+      <c r="F24" s="127">
         <v>38.456521739130402</v>
       </c>
-      <c r="I24" s="202" t="s">
+      <c r="I24" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="J24" s="203">
+      <c r="J24" s="119">
         <v>6.8544257498171177</v>
       </c>
-      <c r="K24" s="203">
+      <c r="K24" s="119">
         <v>6.8960614643665554</v>
       </c>
-      <c r="L24" s="211">
+      <c r="L24" s="127">
         <v>6.1614429331756302</v>
       </c>
     </row>
@@ -15651,16 +16128,16 @@
       <c r="E25" s="86">
         <v>7511</v>
       </c>
-      <c r="F25" s="211">
+      <c r="F25" s="127">
         <v>5.7732513451191299</v>
       </c>
-      <c r="I25" s="202" t="s">
+      <c r="I25" s="118" t="s">
         <v>455</v>
       </c>
-      <c r="J25" s="203">
+      <c r="J25" s="119">
         <v>0</v>
       </c>
-      <c r="K25" s="203">
+      <c r="K25" s="119">
         <v>0</v>
       </c>
       <c r="L25" s="86"/>
@@ -15678,19 +16155,19 @@
       <c r="E26" s="86">
         <v>27431</v>
       </c>
-      <c r="F26" s="211">
+      <c r="F26" s="127">
         <v>10.398407884761101</v>
       </c>
-      <c r="I26" s="202" t="s">
+      <c r="I26" s="118" t="s">
         <v>456</v>
       </c>
-      <c r="J26" s="203">
+      <c r="J26" s="119">
         <v>8.794286156704862</v>
       </c>
-      <c r="K26" s="203">
+      <c r="K26" s="119">
         <v>8.2185709394994326</v>
       </c>
-      <c r="L26" s="211">
+      <c r="L26" s="127">
         <v>8.7942861567048602</v>
       </c>
     </row>
@@ -15707,16 +16184,16 @@
       <c r="E27" s="86">
         <v>964</v>
       </c>
-      <c r="F27" s="211">
+      <c r="F27" s="127">
         <v>9.2692307692307701</v>
       </c>
-      <c r="I27" s="202" t="s">
+      <c r="I27" s="118" t="s">
         <v>457</v>
       </c>
-      <c r="J27" s="203">
+      <c r="J27" s="119">
         <v>38.456521739130402</v>
       </c>
-      <c r="K27" s="203">
+      <c r="K27" s="119">
         <v>38.189552847516708</v>
       </c>
       <c r="L27" s="86"/>
@@ -15734,19 +16211,19 @@
       <c r="E28" s="86">
         <v>3995</v>
       </c>
-      <c r="F28" s="211">
+      <c r="F28" s="127">
         <v>32.479674796747901</v>
       </c>
-      <c r="I28" s="202" t="s">
+      <c r="I28" s="118" t="s">
         <v>394</v>
       </c>
-      <c r="J28" s="203">
+      <c r="J28" s="119">
         <v>5.7713101778088198</v>
       </c>
-      <c r="K28" s="203">
+      <c r="K28" s="119">
         <v>8.0020317416026803</v>
       </c>
-      <c r="L28" s="211">
+      <c r="L28" s="127">
         <v>5.7732513451191299</v>
       </c>
     </row>
@@ -15763,19 +16240,19 @@
       <c r="E29" s="86">
         <v>398900</v>
       </c>
-      <c r="F29" s="211">
+      <c r="F29" s="127">
         <v>1.33277647844971</v>
       </c>
-      <c r="I29" s="202" t="s">
+      <c r="I29" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="J29" s="203">
+      <c r="J29" s="119">
         <v>10.395904436860068</v>
       </c>
-      <c r="K29" s="203">
+      <c r="K29" s="119">
         <v>13.10995082814785</v>
       </c>
-      <c r="L29" s="211">
+      <c r="L29" s="127">
         <v>10.398407884761101</v>
       </c>
     </row>
@@ -15792,19 +16269,19 @@
       <c r="E30" s="86">
         <v>18451.581999999999</v>
       </c>
-      <c r="F30" s="211">
+      <c r="F30" s="127">
         <v>466.97969761544402</v>
       </c>
-      <c r="I30" s="202" t="s">
+      <c r="I30" s="118" t="s">
         <v>458</v>
       </c>
-      <c r="J30" s="203">
+      <c r="J30" s="119">
         <v>9.2675198765968858</v>
       </c>
-      <c r="K30" s="203">
+      <c r="K30" s="119">
         <v>11.484443044927678</v>
       </c>
-      <c r="L30" s="211">
+      <c r="L30" s="127">
         <v>9.2692307692307701</v>
       </c>
     </row>
@@ -15821,19 +16298,19 @@
       <c r="E31" s="86">
         <v>29513.440999999999</v>
       </c>
-      <c r="F31" s="211">
+      <c r="F31" s="127">
         <v>224.770636542332</v>
       </c>
-      <c r="I31" s="202" t="s">
+      <c r="I31" s="118" t="s">
         <v>459</v>
       </c>
-      <c r="J31" s="203">
+      <c r="J31" s="119">
         <v>466.97969761544419</v>
       </c>
-      <c r="K31" s="203">
+      <c r="K31" s="119">
         <v>466.97969761544419</v>
       </c>
-      <c r="L31" s="211">
+      <c r="L31" s="127">
         <v>466.97969761544402</v>
       </c>
     </row>
@@ -15850,16 +16327,16 @@
       <c r="E32" s="86">
         <v>64129.726000000002</v>
       </c>
-      <c r="F32" s="211">
+      <c r="F32" s="127">
         <v>593.02995863660703</v>
       </c>
-      <c r="I32" s="202" t="s">
+      <c r="I32" s="118" t="s">
         <v>460</v>
       </c>
-      <c r="J32" s="203">
+      <c r="J32" s="119">
         <v>0</v>
       </c>
-      <c r="K32" s="203">
+      <c r="K32" s="119">
         <v>0</v>
       </c>
       <c r="L32" s="86"/>
@@ -15877,19 +16354,19 @@
       <c r="E33" s="86">
         <v>276</v>
       </c>
-      <c r="F33" s="211">
+      <c r="F33" s="127">
         <v>2.46428571428571</v>
       </c>
-      <c r="I33" s="202" t="s">
+      <c r="I33" s="118" t="s">
         <v>431</v>
       </c>
-      <c r="J33" s="203">
+      <c r="J33" s="119">
         <v>32.371822570805236</v>
       </c>
-      <c r="K33" s="203">
+      <c r="K33" s="119">
         <v>32.645537643695938</v>
       </c>
-      <c r="L33" s="211">
+      <c r="L33" s="127">
         <v>32.479674796747901</v>
       </c>
     </row>
@@ -15906,16 +16383,16 @@
       <c r="E34" s="86">
         <v>20972</v>
       </c>
-      <c r="F34" s="211">
+      <c r="F34" s="127">
         <v>5.6225201072386</v>
       </c>
-      <c r="I34" s="202" t="s">
+      <c r="I34" s="118" t="s">
         <v>461</v>
       </c>
-      <c r="J34" s="203">
+      <c r="J34" s="119">
         <v>0</v>
       </c>
-      <c r="K34" s="203">
+      <c r="K34" s="119">
         <v>0</v>
       </c>
       <c r="L34" s="86"/>
@@ -15933,16 +16410,16 @@
       <c r="E35" s="86">
         <v>360</v>
       </c>
-      <c r="F35" s="211">
+      <c r="F35" s="127">
         <v>9.7297297297297298</v>
       </c>
-      <c r="I35" s="202" t="s">
+      <c r="I35" s="118" t="s">
         <v>462</v>
       </c>
-      <c r="J35" s="203">
+      <c r="J35" s="119">
         <v>0</v>
       </c>
-      <c r="K35" s="203">
+      <c r="K35" s="119">
         <v>0</v>
       </c>
       <c r="L35" s="86"/>
@@ -15960,19 +16437,19 @@
       <c r="E36" s="86">
         <v>1573500</v>
       </c>
-      <c r="F36" s="211">
+      <c r="F36" s="127">
         <v>1.52028985507246</v>
       </c>
-      <c r="I36" s="202" t="s">
+      <c r="I36" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="J36" s="203">
+      <c r="J36" s="119">
         <v>5.6214036031191181</v>
       </c>
-      <c r="K36" s="203">
+      <c r="K36" s="119">
         <v>5.1802683414326607</v>
       </c>
-      <c r="L36" s="211">
+      <c r="L36" s="127">
         <v>5.6225201072386</v>
       </c>
     </row>
@@ -15989,16 +16466,16 @@
       <c r="E37" s="86">
         <v>6215</v>
       </c>
-      <c r="F37" s="211">
+      <c r="F37" s="127">
         <v>26.113445378151201</v>
       </c>
-      <c r="I37" s="202" t="s">
+      <c r="I37" s="118" t="s">
         <v>463</v>
       </c>
-      <c r="J37" s="203">
+      <c r="J37" s="119">
         <v>0</v>
       </c>
-      <c r="K37" s="203">
+      <c r="K37" s="119">
         <v>0</v>
       </c>
       <c r="L37" s="86"/>
@@ -16013,16 +16490,16 @@
       <c r="E38" s="86">
         <v>3671.4285714285702</v>
       </c>
-      <c r="F38" s="211">
+      <c r="F38" s="127">
         <v>1.2108843537414899</v>
       </c>
-      <c r="I38" s="202" t="s">
+      <c r="I38" s="118" t="s">
         <v>464</v>
       </c>
-      <c r="J38" s="203">
+      <c r="J38" s="119">
         <v>0</v>
       </c>
-      <c r="K38" s="203">
+      <c r="K38" s="119">
         <v>0</v>
       </c>
       <c r="L38" s="86"/>
@@ -16037,16 +16514,16 @@
       <c r="E39" s="86">
         <v>21849.006413999999</v>
       </c>
-      <c r="F39" s="211">
+      <c r="F39" s="127">
         <v>758.56341472194094</v>
       </c>
-      <c r="I39" s="202" t="s">
+      <c r="I39" s="118" t="s">
         <v>465</v>
       </c>
-      <c r="J39" s="203">
+      <c r="J39" s="119">
         <v>0</v>
       </c>
-      <c r="K39" s="203">
+      <c r="K39" s="119">
         <v>0</v>
       </c>
       <c r="L39" s="86"/>
@@ -16064,19 +16541,19 @@
       <c r="E40" s="86">
         <v>806</v>
       </c>
-      <c r="F40" s="211">
+      <c r="F40" s="127">
         <v>10.074999999999999</v>
       </c>
-      <c r="I40" s="202" t="s">
+      <c r="I40" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="J40" s="203">
+      <c r="J40" s="119">
         <v>26.119153369588751</v>
       </c>
-      <c r="K40" s="203">
+      <c r="K40" s="119">
         <v>22.92301432318547</v>
       </c>
-      <c r="L40" s="211">
+      <c r="L40" s="127">
         <v>26.113445378151201</v>
       </c>
     </row>
@@ -16093,16 +16570,16 @@
       <c r="E41" s="86">
         <v>86400</v>
       </c>
-      <c r="F41" s="211">
+      <c r="F41" s="127">
         <v>2.4545454545454501</v>
       </c>
-      <c r="I41" s="202" t="s">
+      <c r="I41" s="118" t="s">
         <v>466</v>
       </c>
-      <c r="J41" s="203">
+      <c r="J41" s="119">
         <v>0</v>
       </c>
-      <c r="K41" s="203">
+      <c r="K41" s="119">
         <v>0</v>
       </c>
       <c r="L41" s="86"/>
@@ -16120,16 +16597,16 @@
       <c r="E42" s="86">
         <v>479</v>
       </c>
-      <c r="F42" s="211">
+      <c r="F42" s="127">
         <v>23.95</v>
       </c>
-      <c r="I42" s="202" t="s">
+      <c r="I42" s="118" t="s">
         <v>467</v>
       </c>
-      <c r="J42" s="203">
+      <c r="J42" s="119">
         <v>0</v>
       </c>
-      <c r="K42" s="203">
+      <c r="K42" s="119">
         <v>0</v>
       </c>
       <c r="L42" s="86"/>
@@ -16147,19 +16624,19 @@
       <c r="E43" s="86">
         <v>114</v>
       </c>
-      <c r="F43" s="211">
+      <c r="F43" s="127">
         <v>14.25</v>
       </c>
-      <c r="I43" s="202" t="s">
+      <c r="I43" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="J43" s="203">
+      <c r="J43" s="119">
         <v>778.05659218150174</v>
       </c>
-      <c r="K43" s="203">
+      <c r="K43" s="119">
         <v>778.05659218150174</v>
       </c>
-      <c r="L43" s="211">
+      <c r="L43" s="127">
         <v>758.56341472194094</v>
       </c>
     </row>
@@ -16176,19 +16653,19 @@
       <c r="E44" s="86">
         <v>290</v>
       </c>
-      <c r="F44" s="211">
+      <c r="F44" s="127">
         <v>15.2631578947368</v>
       </c>
-      <c r="I44" s="202" t="s">
+      <c r="I44" s="118" t="s">
         <v>468</v>
       </c>
-      <c r="J44" s="203">
+      <c r="J44" s="119">
         <v>2.4545454545454546</v>
       </c>
-      <c r="K44" s="206">
+      <c r="K44" s="122">
         <v>1.3959514574153877</v>
       </c>
-      <c r="L44" s="211">
+      <c r="L44" s="127">
         <v>2.4545454545454501</v>
       </c>
     </row>
@@ -16205,16 +16682,16 @@
       <c r="E45" s="86">
         <v>0</v>
       </c>
-      <c r="F45" s="211">
+      <c r="F45" s="127">
         <v>4.2</v>
       </c>
-      <c r="I45" s="202" t="s">
+      <c r="I45" s="118" t="s">
         <v>469</v>
       </c>
-      <c r="J45" s="203">
+      <c r="J45" s="119">
         <v>0</v>
       </c>
-      <c r="K45" s="203">
+      <c r="K45" s="119">
         <v>0</v>
       </c>
       <c r="L45" s="86"/>
@@ -16232,16 +16709,16 @@
       <c r="E46" s="86">
         <v>4858</v>
       </c>
-      <c r="F46" s="211">
+      <c r="F46" s="127">
         <v>9.5068493150684894</v>
       </c>
-      <c r="I46" s="202" t="s">
+      <c r="I46" s="118" t="s">
         <v>470</v>
       </c>
-      <c r="J46" s="203">
+      <c r="J46" s="119">
         <v>0</v>
       </c>
-      <c r="K46" s="203">
+      <c r="K46" s="119">
         <v>0</v>
       </c>
       <c r="L46" s="86"/>
@@ -16259,19 +16736,19 @@
       <c r="E47" s="86">
         <v>5838</v>
       </c>
-      <c r="F47" s="211">
+      <c r="F47" s="127">
         <v>22.453846153846101</v>
       </c>
-      <c r="I47" s="202" t="s">
+      <c r="I47" s="118" t="s">
         <v>287</v>
       </c>
-      <c r="J47" s="203">
+      <c r="J47" s="119">
         <v>9.5011709601873537</v>
       </c>
-      <c r="K47" s="203">
+      <c r="K47" s="119">
         <v>9.9090371433944568</v>
       </c>
-      <c r="L47" s="211">
+      <c r="L47" s="127">
         <v>9.5068493150684894</v>
       </c>
     </row>
@@ -16285,16 +16762,16 @@
       <c r="E48" s="86">
         <v>4900</v>
       </c>
-      <c r="F48" s="211">
+      <c r="F48" s="127">
         <v>1.71166666666666</v>
       </c>
-      <c r="I48" s="202" t="s">
+      <c r="I48" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="J48" s="203">
+      <c r="J48" s="119">
         <v>0</v>
       </c>
-      <c r="K48" s="203">
+      <c r="K48" s="119">
         <v>0</v>
       </c>
       <c r="L48" s="86"/>
@@ -16312,19 +16789,19 @@
       <c r="E49" s="86">
         <v>1159</v>
       </c>
-      <c r="F49" s="211">
+      <c r="F49" s="127">
         <v>3.7147435897435899</v>
       </c>
-      <c r="I49" s="202" t="s">
+      <c r="I49" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="J49" s="203">
+      <c r="J49" s="119">
         <v>22.44927536231884</v>
       </c>
-      <c r="K49" s="203">
+      <c r="K49" s="119">
         <v>19.156394762825691</v>
       </c>
-      <c r="L49" s="211">
+      <c r="L49" s="127">
         <v>22.453846153846101</v>
       </c>
     </row>
@@ -16341,19 +16818,19 @@
       <c r="E50" s="86">
         <v>2451</v>
       </c>
-      <c r="F50" s="211">
+      <c r="F50" s="127">
         <v>16.449664429530198</v>
       </c>
-      <c r="I50" s="202" t="s">
+      <c r="I50" s="118" t="s">
         <v>411</v>
       </c>
-      <c r="J50" s="203">
+      <c r="J50" s="119">
         <v>1.7116666666666667</v>
       </c>
-      <c r="K50" s="203">
+      <c r="K50" s="119">
         <v>1.7116666666666667</v>
       </c>
-      <c r="L50" s="211">
+      <c r="L50" s="127">
         <v>1.71166666666666</v>
       </c>
     </row>
@@ -16370,19 +16847,19 @@
       <c r="E51" s="86">
         <v>1447</v>
       </c>
-      <c r="F51" s="211">
+      <c r="F51" s="127">
         <v>7.6560846560846496</v>
       </c>
-      <c r="I51" s="202" t="s">
+      <c r="I51" s="118" t="s">
         <v>402</v>
       </c>
-      <c r="J51" s="203">
+      <c r="J51" s="119">
         <v>3.7109415410342113</v>
       </c>
-      <c r="K51" s="203">
+      <c r="K51" s="119">
         <v>4.5164525130861151</v>
       </c>
-      <c r="L51" s="211">
+      <c r="L51" s="127">
         <v>3.7147435897435899</v>
       </c>
     </row>
@@ -16399,19 +16876,19 @@
       <c r="E52" s="86">
         <v>96418.4</v>
       </c>
-      <c r="F52" s="211">
+      <c r="F52" s="127">
         <v>33.557020351650799</v>
       </c>
-      <c r="I52" s="202" t="s">
+      <c r="I52" s="118" t="s">
         <v>471</v>
       </c>
-      <c r="J52" s="203">
+      <c r="J52" s="119">
         <v>16.413454312417528</v>
       </c>
-      <c r="K52" s="203">
+      <c r="K52" s="119">
         <v>14.470671238061332</v>
       </c>
-      <c r="L52" s="211">
+      <c r="L52" s="127">
         <v>16.449664429530198</v>
       </c>
     </row>
@@ -16428,19 +16905,19 @@
       <c r="E53" s="86">
         <v>9842</v>
       </c>
-      <c r="F53" s="211">
+      <c r="F53" s="127">
         <v>26.6</v>
       </c>
-      <c r="I53" s="202" t="s">
+      <c r="I53" s="118" t="s">
         <v>472</v>
       </c>
-      <c r="J53" s="203">
+      <c r="J53" s="119">
         <v>224.77080772493881</v>
       </c>
-      <c r="K53" s="203">
+      <c r="K53" s="119">
         <v>233.69361746558371</v>
       </c>
-      <c r="L53" s="211">
+      <c r="L53" s="127">
         <v>224.770636542332</v>
       </c>
     </row>
@@ -16457,16 +16934,16 @@
       <c r="E54" s="86">
         <v>635</v>
       </c>
-      <c r="F54" s="211">
+      <c r="F54" s="127">
         <v>14.7674418604651</v>
       </c>
-      <c r="I54" s="202" t="s">
+      <c r="I54" s="118" t="s">
         <v>473</v>
       </c>
-      <c r="J54" s="203">
+      <c r="J54" s="119">
         <v>0</v>
       </c>
-      <c r="K54" s="203">
+      <c r="K54" s="119">
         <v>0</v>
       </c>
       <c r="L54" s="86"/>
@@ -16484,19 +16961,19 @@
       <c r="E55" s="86">
         <v>11170</v>
       </c>
-      <c r="F55" s="211">
+      <c r="F55" s="127">
         <v>6.3938179736691403</v>
       </c>
-      <c r="I55" s="202" t="s">
+      <c r="I55" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="J55" s="203">
+      <c r="J55" s="119">
         <v>7.6159420289855069</v>
       </c>
-      <c r="K55" s="203">
+      <c r="K55" s="119">
         <v>6.6824873298811225</v>
       </c>
-      <c r="L55" s="211">
+      <c r="L55" s="127">
         <v>7.6560846560846496</v>
       </c>
     </row>
@@ -16513,19 +16990,19 @@
       <c r="E56" s="86">
         <v>744</v>
       </c>
-      <c r="F56" s="211">
+      <c r="F56" s="127">
         <v>10.9411764705882</v>
       </c>
-      <c r="I56" s="202" t="s">
+      <c r="I56" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="J56" s="203">
+      <c r="J56" s="119">
         <v>29.963008644573886</v>
       </c>
-      <c r="K56" s="203">
+      <c r="K56" s="119">
         <v>30.324343396347569</v>
       </c>
-      <c r="L56" s="211">
+      <c r="L56" s="127">
         <v>33.557020351650799</v>
       </c>
     </row>
@@ -16542,19 +17019,19 @@
       <c r="E57" s="86">
         <v>2421</v>
       </c>
-      <c r="F57" s="211">
+      <c r="F57" s="127">
         <v>20.692307692307601</v>
       </c>
-      <c r="I57" s="202" t="s">
+      <c r="I57" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="J57" s="203">
+      <c r="J57" s="119">
         <v>26.610401411450869</v>
       </c>
-      <c r="K57" s="203">
+      <c r="K57" s="119">
         <v>24.543023857850528</v>
       </c>
-      <c r="L57" s="211">
+      <c r="L57" s="127">
         <v>26.6</v>
       </c>
     </row>
@@ -16571,19 +17048,19 @@
       <c r="E58" s="86">
         <v>241400</v>
       </c>
-      <c r="F58" s="211">
+      <c r="F58" s="127">
         <v>1.9546558704453401</v>
       </c>
-      <c r="I58" s="202" t="s">
+      <c r="I58" s="118" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="203">
+      <c r="J58" s="119">
         <v>14.824151596307326</v>
       </c>
-      <c r="K58" s="203">
+      <c r="K58" s="119">
         <v>12.290674910281458</v>
       </c>
-      <c r="L58" s="211">
+      <c r="L58" s="127">
         <v>14.7674418604651</v>
       </c>
     </row>
@@ -16600,19 +17077,19 @@
       <c r="E59" s="86">
         <v>760</v>
       </c>
-      <c r="F59" s="211">
+      <c r="F59" s="127">
         <v>13.818181818181801</v>
       </c>
-      <c r="I59" s="202" t="s">
+      <c r="I59" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="J59" s="203">
+      <c r="J59" s="119">
         <v>6.393504059962523</v>
       </c>
-      <c r="K59" s="203">
+      <c r="K59" s="119">
         <v>5.8767266375964553</v>
       </c>
-      <c r="L59" s="211">
+      <c r="L59" s="127">
         <v>6.3938179736691403</v>
       </c>
     </row>
@@ -16629,16 +17106,16 @@
       <c r="E60" s="86">
         <v>0</v>
       </c>
-      <c r="F60" s="211">
+      <c r="F60" s="127">
         <v>2.0049999999999999</v>
       </c>
-      <c r="I60" s="202" t="s">
+      <c r="I60" s="118" t="s">
         <v>242</v>
       </c>
-      <c r="J60" s="203">
+      <c r="J60" s="119">
         <v>0</v>
       </c>
-      <c r="K60" s="203">
+      <c r="K60" s="119">
         <v>0</v>
       </c>
       <c r="L60" s="86"/>
@@ -16656,19 +17133,19 @@
       <c r="E61" s="86">
         <v>4466500</v>
       </c>
-      <c r="F61" s="211">
+      <c r="F61" s="127">
         <v>2.86534513728509</v>
       </c>
-      <c r="I61" s="202" t="s">
+      <c r="I61" s="118" t="s">
         <v>405</v>
       </c>
-      <c r="J61" s="203">
+      <c r="J61" s="119">
         <v>20.627762165315893</v>
       </c>
-      <c r="K61" s="203">
+      <c r="K61" s="119">
         <v>22.132352916196773</v>
       </c>
-      <c r="L61" s="211">
+      <c r="L61" s="127">
         <v>20.692307692307601</v>
       </c>
     </row>
@@ -16685,16 +17162,16 @@
       <c r="E62" s="86">
         <v>655</v>
       </c>
-      <c r="F62" s="211">
+      <c r="F62" s="127">
         <v>9.4927536231884009</v>
       </c>
-      <c r="I62" s="202" t="s">
+      <c r="I62" s="118" t="s">
         <v>474</v>
       </c>
-      <c r="J62" s="203">
+      <c r="J62" s="119">
         <v>0</v>
       </c>
-      <c r="K62" s="203">
+      <c r="K62" s="119">
         <v>0</v>
       </c>
       <c r="L62" s="86"/>
@@ -16712,19 +17189,19 @@
       <c r="E63" s="86">
         <v>3830</v>
       </c>
-      <c r="F63" s="211">
+      <c r="F63" s="127">
         <v>9.2961165048543695</v>
       </c>
-      <c r="I63" s="202" t="s">
+      <c r="I63" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="J63" s="203">
+      <c r="J63" s="119">
         <v>13.842503508893314</v>
       </c>
-      <c r="K63" s="203">
+      <c r="K63" s="119">
         <v>15.932756231727456</v>
       </c>
-      <c r="L63" s="211">
+      <c r="L63" s="127">
         <v>13.818181818181801</v>
       </c>
     </row>
@@ -16741,19 +17218,19 @@
       <c r="E64" s="86">
         <v>2103</v>
       </c>
-      <c r="F64" s="211">
+      <c r="F64" s="127">
         <v>5.7933884297520599</v>
       </c>
-      <c r="I64" s="202" t="s">
+      <c r="I64" s="118" t="s">
         <v>475</v>
       </c>
-      <c r="J64" s="203">
+      <c r="J64" s="119">
         <v>2.222667366614286</v>
       </c>
-      <c r="K64" s="203">
+      <c r="K64" s="119">
         <v>2.0047230772811644</v>
       </c>
-      <c r="L64" s="211">
+      <c r="L64" s="127">
         <v>2.0049999999999999</v>
       </c>
     </row>
@@ -16770,19 +17247,19 @@
       <c r="E65" s="86">
         <v>1732700</v>
       </c>
-      <c r="F65" s="211">
+      <c r="F65" s="127">
         <v>4.3166417538614796</v>
       </c>
-      <c r="I65" s="202" t="s">
+      <c r="I65" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="J65" s="203">
+      <c r="J65" s="119">
         <v>9.5338223738317378</v>
       </c>
-      <c r="K65" s="203">
+      <c r="K65" s="119">
         <v>12.44121692603286</v>
       </c>
-      <c r="L65" s="211">
+      <c r="L65" s="127">
         <v>9.4927536231884009</v>
       </c>
     </row>
@@ -16799,19 +17276,19 @@
       <c r="E66" s="86">
         <v>2420</v>
       </c>
-      <c r="F66" s="211">
+      <c r="F66" s="127">
         <v>21.043478260869499</v>
       </c>
-      <c r="I66" s="202" t="s">
+      <c r="I66" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="J66" s="203">
+      <c r="J66" s="119">
         <v>10.32946222503373</v>
       </c>
-      <c r="K66" s="203">
+      <c r="K66" s="119">
         <v>14.320062916956491</v>
       </c>
-      <c r="L66" s="211">
+      <c r="L66" s="127">
         <v>9.2961165048543695</v>
       </c>
     </row>
@@ -16828,19 +17305,19 @@
       <c r="E67" s="86">
         <v>121600</v>
       </c>
-      <c r="F67" s="211">
+      <c r="F67" s="127">
         <v>3.6516516516516502</v>
       </c>
-      <c r="I67" s="202" t="s">
+      <c r="I67" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="J67" s="203">
+      <c r="J67" s="119">
         <v>5.8032786885245899</v>
       </c>
-      <c r="K67" s="203">
+      <c r="K67" s="119">
         <v>4.8073466830219775</v>
       </c>
-      <c r="L67" s="211">
+      <c r="L67" s="127">
         <v>5.7933884297520599</v>
       </c>
     </row>
@@ -16857,16 +17334,16 @@
       <c r="E68" s="86">
         <v>293</v>
       </c>
-      <c r="F68" s="211">
+      <c r="F68" s="127">
         <v>26.636363636363601</v>
       </c>
-      <c r="I68" s="202" t="s">
+      <c r="I68" s="118" t="s">
         <v>476</v>
       </c>
-      <c r="J68" s="203">
+      <c r="J68" s="119">
         <v>0</v>
       </c>
-      <c r="K68" s="203">
+      <c r="K68" s="119">
         <v>0</v>
       </c>
       <c r="L68" s="86"/>
@@ -16884,16 +17361,16 @@
       <c r="E69" s="86">
         <v>121600</v>
       </c>
-      <c r="F69" s="211">
+      <c r="F69" s="127">
         <v>3.6516516516516502</v>
       </c>
-      <c r="I69" s="202" t="s">
+      <c r="I69" s="118" t="s">
         <v>477</v>
       </c>
-      <c r="J69" s="203">
+      <c r="J69" s="119">
         <v>0</v>
       </c>
-      <c r="K69" s="203">
+      <c r="K69" s="119">
         <v>0</v>
       </c>
       <c r="L69" s="86"/>
@@ -16911,71 +17388,71 @@
       <c r="E70" s="86">
         <v>121600</v>
       </c>
-      <c r="F70" s="211">
+      <c r="F70" s="127">
         <v>3.6516516516516502</v>
       </c>
-      <c r="I70" s="202" t="s">
+      <c r="I70" s="118" t="s">
         <v>478</v>
       </c>
-      <c r="J70" s="203">
+      <c r="J70" s="119">
         <v>0</v>
       </c>
-      <c r="K70" s="203">
+      <c r="K70" s="119">
         <v>0</v>
       </c>
       <c r="L70" s="86"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="I71" s="207" t="s">
+      <c r="I71" s="123" t="s">
         <v>479</v>
       </c>
-      <c r="J71" s="203">
+      <c r="J71" s="119">
         <v>21.133774544986402</v>
       </c>
-      <c r="K71" s="203">
+      <c r="K71" s="119">
         <v>17.512832164363228</v>
       </c>
-      <c r="L71" s="211">
+      <c r="L71" s="127">
         <v>21.043478260869499</v>
       </c>
     </row>
     <row r="72" spans="2:12">
-      <c r="I72" s="202" t="s">
+      <c r="I72" s="118" t="s">
         <v>480</v>
       </c>
-      <c r="J72" s="203">
+      <c r="J72" s="119">
         <v>593.02995863660783</v>
       </c>
-      <c r="K72" s="203">
+      <c r="K72" s="119">
         <v>524.48380263681679</v>
       </c>
-      <c r="L72" s="211">
+      <c r="L72" s="127">
         <v>593.02995863660703</v>
       </c>
     </row>
     <row r="73" spans="2:12">
-      <c r="I73" s="202" t="s">
+      <c r="I73" s="118" t="s">
         <v>481</v>
       </c>
-      <c r="J73" s="203">
+      <c r="J73" s="119">
         <v>0</v>
       </c>
-      <c r="K73" s="203">
+      <c r="K73" s="119">
         <v>0</v>
       </c>
       <c r="L73" s="86"/>
     </row>
     <row r="74" spans="2:12" ht="16" thickBot="1">
-      <c r="I74" s="208" t="s">
+      <c r="I74" s="124" t="s">
         <v>482</v>
       </c>
-      <c r="J74" s="209">
+      <c r="J74" s="125">
         <v>3.6516516516516515</v>
       </c>
-      <c r="K74" s="209">
+      <c r="K74" s="125">
         <v>2.4762960851367692</v>
       </c>
-      <c r="L74" s="211">
+      <c r="L74" s="127">
         <v>3.6516516516516502</v>
       </c>
     </row>
@@ -17001,7 +17478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
@@ -17012,23 +17489,23 @@
     <col min="3" max="3" width="22.1640625" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20" style="211" customWidth="1"/>
+    <col min="7" max="7" width="20" style="127" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="130" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="215" t="s">
+      <c r="B1" s="131" t="s">
         <v>486</v>
       </c>
-      <c r="C1" s="215" t="s">
+      <c r="C1" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="216" t="s">
+      <c r="D1" s="132" t="s">
         <v>487</v>
       </c>
-      <c r="E1" s="217" t="s">
+      <c r="E1" s="133" t="s">
         <v>488</v>
       </c>
       <c r="F1" t="s">
@@ -17039,7 +17516,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="123" t="s">
         <v>422</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -17048,16 +17525,16 @@
       <c r="C2" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="D2" s="218" t="s">
+      <c r="D2" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E2" s="219">
+      <c r="E2" s="135">
         <v>2530</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="123" t="s">
         <v>448</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -17066,10 +17543,10 @@
       <c r="C3" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="D3" s="218" t="s">
+      <c r="D3" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E3" s="220">
+      <c r="E3" s="136">
         <v>14794</v>
       </c>
       <c r="F3">
@@ -17078,7 +17555,7 @@
       <c r="G3"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="123" t="s">
         <v>423</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -17087,10 +17564,10 @@
       <c r="C4" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E4" s="220">
+      <c r="E4" s="136">
         <v>36</v>
       </c>
       <c r="F4" s="57">
@@ -17101,7 +17578,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="207" t="s">
+      <c r="A5" s="123" t="s">
         <v>424</v>
       </c>
       <c r="B5" s="27" t="s">
@@ -17110,10 +17587,10 @@
       <c r="C5" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="218" t="s">
+      <c r="D5" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E5" s="220">
+      <c r="E5" s="136">
         <v>0.5</v>
       </c>
       <c r="F5">
@@ -17124,7 +17601,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="207" t="s">
+      <c r="A6" s="123" t="s">
         <v>491</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -17133,10 +17610,10 @@
       <c r="C6" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="218" t="s">
+      <c r="D6" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E6" s="220">
+      <c r="E6" s="136">
         <v>1</v>
       </c>
       <c r="F6">
@@ -17147,7 +17624,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="207" t="s">
+      <c r="A7" s="123" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -17156,10 +17633,10 @@
       <c r="C7" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="D7" s="218" t="s">
+      <c r="D7" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E7" s="220">
+      <c r="E7" s="136">
         <v>30</v>
       </c>
       <c r="F7" s="57">
@@ -17170,7 +17647,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="207" t="s">
+      <c r="A8" s="123" t="s">
         <v>80</v>
       </c>
       <c r="B8" s="27" t="s">
@@ -17179,17 +17656,17 @@
       <c r="C8" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="D8" s="218" t="s">
+      <c r="D8" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E8" s="220">
+      <c r="E8" s="136">
         <v>221</v>
       </c>
       <c r="F8" s="86"/>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="207" t="s">
+      <c r="A9" s="123" t="s">
         <v>435</v>
       </c>
       <c r="B9" s="27" t="s">
@@ -17198,10 +17675,10 @@
       <c r="C9" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="D9" s="218" t="s">
+      <c r="D9" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E9" s="220">
+      <c r="E9" s="136">
         <v>0.5</v>
       </c>
       <c r="F9" s="57">
@@ -17212,7 +17689,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="207" t="s">
+      <c r="A10" s="123" t="s">
         <v>81</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -17221,10 +17698,10 @@
       <c r="C10" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="218" t="s">
+      <c r="D10" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E10" s="220">
+      <c r="E10" s="136">
         <v>9</v>
       </c>
       <c r="F10" s="57">
@@ -17235,7 +17712,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="207" t="s">
+      <c r="A11" s="123" t="s">
         <v>425</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -17244,10 +17721,10 @@
       <c r="C11" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="218" t="s">
+      <c r="D11" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E11" s="220">
+      <c r="E11" s="136">
         <v>3258</v>
       </c>
       <c r="F11" s="57">
@@ -17258,7 +17735,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="207" t="s">
+      <c r="A12" s="123" t="s">
         <v>82</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -17267,10 +17744,10 @@
       <c r="C12" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="218" t="s">
+      <c r="D12" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E12" s="220">
+      <c r="E12" s="136">
         <v>265</v>
       </c>
       <c r="F12">
@@ -17281,7 +17758,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="207" t="s">
+      <c r="A13" s="123" t="s">
         <v>83</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -17290,10 +17767,10 @@
       <c r="C13" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="218" t="s">
+      <c r="D13" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E13" s="220">
+      <c r="E13" s="136">
         <v>295</v>
       </c>
       <c r="F13">
@@ -17304,7 +17781,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="207" t="s">
+      <c r="A14" s="123" t="s">
         <v>494</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -17313,16 +17790,16 @@
       <c r="C14" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="D14" s="218" t="s">
+      <c r="D14" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E14" s="220">
+      <c r="E14" s="136">
         <v>0</v>
       </c>
       <c r="G14"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="123" t="s">
         <v>84</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -17331,10 +17808,10 @@
       <c r="C15" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="218" t="s">
+      <c r="D15" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E15" s="220">
+      <c r="E15" s="136">
         <v>96</v>
       </c>
       <c r="F15" s="57">
@@ -17345,7 +17822,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="207" t="s">
+      <c r="A16" s="123" t="s">
         <v>495</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -17354,10 +17831,10 @@
       <c r="C16" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="D16" s="218" t="s">
+      <c r="D16" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E16" s="220">
+      <c r="E16" s="136">
         <v>0</v>
       </c>
       <c r="F16">
@@ -17366,7 +17843,7 @@
       <c r="G16"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="207" t="s">
+      <c r="A17" s="123" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -17375,10 +17852,10 @@
       <c r="C17" s="27" t="s">
         <v>454</v>
       </c>
-      <c r="D17" s="218" t="s">
+      <c r="D17" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E17" s="220">
+      <c r="E17" s="136">
         <v>192.5</v>
       </c>
       <c r="F17" s="57">
@@ -17389,7 +17866,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="207" t="s">
+      <c r="A18" s="123" t="s">
         <v>496</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -17398,17 +17875,17 @@
       <c r="C18" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="D18" s="218" t="s">
+      <c r="D18" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E18" s="220">
+      <c r="E18" s="136">
         <v>0</v>
       </c>
       <c r="F18" s="86"/>
       <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="207" t="s">
+      <c r="A19" s="123" t="s">
         <v>393</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -17417,10 +17894,10 @@
       <c r="C19" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="D19" s="218" t="s">
+      <c r="D19" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E19" s="220">
+      <c r="E19" s="136">
         <v>13</v>
       </c>
       <c r="F19" s="57">
@@ -17431,7 +17908,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="207" t="s">
+      <c r="A20" s="123" t="s">
         <v>85</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -17440,10 +17917,10 @@
       <c r="C20" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="218" t="s">
+      <c r="D20" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E20" s="220">
+      <c r="E20" s="136">
         <v>37</v>
       </c>
       <c r="F20">
@@ -17454,7 +17931,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="207" t="s">
+      <c r="A21" s="123" t="s">
         <v>86</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -17463,10 +17940,10 @@
       <c r="C21" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="218" t="s">
+      <c r="D21" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E21" s="220">
+      <c r="E21" s="136">
         <v>0</v>
       </c>
       <c r="F21">
@@ -17477,7 +17954,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="207" t="s">
+      <c r="A22" s="123" t="s">
         <v>426</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -17486,10 +17963,10 @@
       <c r="C22" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="D22" s="218" t="s">
+      <c r="D22" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E22" s="220">
+      <c r="E22" s="136">
         <v>1</v>
       </c>
       <c r="F22">
@@ -17500,7 +17977,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="207" t="s">
+      <c r="A23" s="123" t="s">
         <v>427</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -17509,10 +17986,10 @@
       <c r="C23" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="218" t="s">
+      <c r="D23" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E23" s="220">
+      <c r="E23" s="136">
         <v>10</v>
       </c>
       <c r="F23">
@@ -17523,7 +18000,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="207" t="s">
+      <c r="A24" s="123" t="s">
         <v>428</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -17532,10 +18009,10 @@
       <c r="C24" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="D24" s="218" t="s">
+      <c r="D24" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E24" s="220">
+      <c r="E24" s="136">
         <v>0</v>
       </c>
       <c r="F24">
@@ -17546,7 +18023,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="207" t="s">
+      <c r="A25" s="123" t="s">
         <v>441</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -17555,10 +18032,10 @@
       <c r="C25" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="D25" s="218" t="s">
+      <c r="D25" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E25" s="220">
+      <c r="E25" s="136">
         <v>157</v>
       </c>
       <c r="F25">
@@ -17569,7 +18046,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="207" t="s">
+      <c r="A26" s="123" t="s">
         <v>497</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -17578,10 +18055,10 @@
       <c r="C26" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="D26" s="218" t="s">
+      <c r="D26" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E26" s="220">
+      <c r="E26" s="136">
         <v>7551</v>
       </c>
       <c r="F26">
@@ -17590,7 +18067,7 @@
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="207" t="s">
+      <c r="A27" s="123" t="s">
         <v>87</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -17599,16 +18076,16 @@
       <c r="C27" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="D27" s="218" t="s">
+      <c r="D27" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E27" s="220">
+      <c r="E27" s="136">
         <v>800</v>
       </c>
       <c r="G27"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="207" t="s">
+      <c r="A28" s="123" t="s">
         <v>429</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -17617,10 +18094,10 @@
       <c r="C28" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="218" t="s">
+      <c r="D28" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E28" s="220">
+      <c r="E28" s="136">
         <v>165</v>
       </c>
       <c r="F28" s="57">
@@ -17631,7 +18108,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="207" t="s">
+      <c r="A29" s="123" t="s">
         <v>88</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -17640,10 +18117,10 @@
       <c r="C29" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="D29" s="218" t="s">
+      <c r="D29" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E29" s="220">
+      <c r="E29" s="136">
         <v>38</v>
       </c>
       <c r="F29">
@@ -17654,7 +18131,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="207" t="s">
+      <c r="A30" s="123" t="s">
         <v>498</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -17663,10 +18140,10 @@
       <c r="C30" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="D30" s="218" t="s">
+      <c r="D30" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E30" s="220">
+      <c r="E30" s="136">
         <v>10.95972191250028</v>
       </c>
       <c r="F30">
@@ -17677,7 +18154,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="207" t="s">
+      <c r="A31" s="123" t="s">
         <v>431</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -17686,10 +18163,10 @@
       <c r="C31" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="D31" s="218" t="s">
+      <c r="D31" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E31" s="220">
+      <c r="E31" s="136">
         <v>2</v>
       </c>
       <c r="F31">
@@ -17700,7 +18177,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="207" t="s">
+      <c r="A32" s="123" t="s">
         <v>432</v>
       </c>
       <c r="B32" s="17" t="s">
@@ -17709,10 +18186,10 @@
       <c r="C32" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="D32" s="218" t="s">
+      <c r="D32" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E32" s="220">
+      <c r="E32" s="136">
         <v>0</v>
       </c>
       <c r="F32">
@@ -17721,7 +18198,7 @@
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="207" t="s">
+      <c r="A33" s="123" t="s">
         <v>410</v>
       </c>
       <c r="B33" s="17" t="s">
@@ -17730,10 +18207,10 @@
       <c r="C33" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="D33" s="218" t="s">
+      <c r="D33" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E33" s="220">
+      <c r="E33" s="136">
         <v>0</v>
       </c>
       <c r="F33">
@@ -17744,7 +18221,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="207" t="s">
+      <c r="A34" s="123" t="s">
         <v>500</v>
       </c>
       <c r="B34" s="17" t="s">
@@ -17753,10 +18230,10 @@
       <c r="C34" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="D34" s="218" t="s">
+      <c r="D34" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E34" s="220">
+      <c r="E34" s="136">
         <v>244</v>
       </c>
       <c r="F34">
@@ -17767,7 +18244,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="207" t="s">
+      <c r="A35" s="123" t="s">
         <v>501</v>
       </c>
       <c r="B35" s="17" t="s">
@@ -17776,10 +18253,10 @@
       <c r="C35" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="D35" s="218" t="s">
+      <c r="D35" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E35" s="220">
+      <c r="E35" s="136">
         <v>0</v>
       </c>
       <c r="F35">
@@ -17790,7 +18267,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="207" t="s">
+      <c r="A36" s="123" t="s">
         <v>433</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -17799,10 +18276,10 @@
       <c r="C36" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="218" t="s">
+      <c r="D36" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E36" s="220">
+      <c r="E36" s="136">
         <v>57</v>
       </c>
       <c r="F36">
@@ -17811,7 +18288,7 @@
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="207" t="s">
+      <c r="A37" s="123" t="s">
         <v>434</v>
       </c>
       <c r="B37" s="17" t="s">
@@ -17820,10 +18297,10 @@
       <c r="C37" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="D37" s="218" t="s">
+      <c r="D37" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E37" s="220">
+      <c r="E37" s="136">
         <v>0</v>
       </c>
       <c r="F37">
@@ -17834,7 +18311,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="207" t="s">
+      <c r="A38" s="123" t="s">
         <v>89</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -17843,10 +18320,10 @@
       <c r="C38" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="218" t="s">
+      <c r="D38" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E38" s="220">
+      <c r="E38" s="136">
         <v>2</v>
       </c>
       <c r="F38">
@@ -17857,19 +18334,19 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="221" t="s">
+      <c r="A39" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="222" t="s">
+      <c r="B39" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="222" t="s">
+      <c r="C39" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="223" t="s">
+      <c r="D39" s="139" t="s">
         <v>418</v>
       </c>
-      <c r="E39" s="224">
+      <c r="E39" s="140">
         <v>0</v>
       </c>
       <c r="F39">
@@ -17880,7 +18357,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="207" t="s">
+      <c r="A40" s="123" t="s">
         <v>98</v>
       </c>
       <c r="B40" s="17" t="s">
@@ -17889,10 +18366,10 @@
       <c r="C40" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="218" t="s">
+      <c r="D40" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E40" s="220">
+      <c r="E40" s="136">
         <v>9.7163000000000004</v>
       </c>
       <c r="F40">
@@ -17901,7 +18378,7 @@
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="207" t="s">
+      <c r="A41" s="123" t="s">
         <v>503</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -17910,10 +18387,10 @@
       <c r="C41" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="D41" s="218" t="s">
+      <c r="D41" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E41" s="220">
+      <c r="E41" s="136">
         <v>0</v>
       </c>
       <c r="F41">
@@ -17924,7 +18401,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="207" t="s">
+      <c r="A42" s="123" t="s">
         <v>504</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -17933,10 +18410,10 @@
       <c r="C42" s="27" t="s">
         <v>504</v>
       </c>
-      <c r="D42" s="218" t="s">
+      <c r="D42" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E42" s="220">
+      <c r="E42" s="136">
         <v>15799</v>
       </c>
       <c r="F42">
@@ -17947,7 +18424,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="207" t="s">
+      <c r="A43" s="123" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -17956,10 +18433,10 @@
       <c r="C43" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="D43" s="218" t="s">
+      <c r="D43" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E43" s="220">
+      <c r="E43" s="136">
         <v>60.5</v>
       </c>
       <c r="F43">
@@ -17970,7 +18447,7 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="207" t="s">
+      <c r="A44" s="123" t="s">
         <v>436</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -17979,10 +18456,10 @@
       <c r="C44" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D44" s="218" t="s">
+      <c r="D44" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E44" s="220">
+      <c r="E44" s="136">
         <v>2</v>
       </c>
       <c r="F44">
@@ -17993,7 +18470,7 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="207" t="s">
+      <c r="A45" s="123" t="s">
         <v>437</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -18002,10 +18479,10 @@
       <c r="C45" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="218" t="s">
+      <c r="D45" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E45" s="220">
+      <c r="E45" s="136">
         <v>15</v>
       </c>
       <c r="F45">
@@ -18014,7 +18491,7 @@
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="207" t="s">
+      <c r="A46" s="123" t="s">
         <v>430</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -18023,10 +18500,10 @@
       <c r="C46" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="D46" s="218" t="s">
+      <c r="D46" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E46" s="220">
+      <c r="E46" s="136">
         <v>0</v>
       </c>
       <c r="F46">
@@ -18037,7 +18514,7 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="207" t="s">
+      <c r="A47" s="123" t="s">
         <v>90</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -18046,16 +18523,16 @@
       <c r="C47" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="D47" s="218" t="s">
+      <c r="D47" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E47" s="220">
+      <c r="E47" s="136">
         <v>117</v>
       </c>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="207" t="s">
+      <c r="A48" s="123" t="s">
         <v>96</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -18064,10 +18541,10 @@
       <c r="C48" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="D48" s="218" t="s">
+      <c r="D48" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E48" s="220">
+      <c r="E48" s="136">
         <v>53</v>
       </c>
       <c r="F48">
@@ -18076,7 +18553,7 @@
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="207" t="s">
+      <c r="A49" s="123" t="s">
         <v>506</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -18085,10 +18562,10 @@
       <c r="C49" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="D49" s="218" t="s">
+      <c r="D49" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E49" s="220">
+      <c r="E49" s="136">
         <v>36.420329257808504</v>
       </c>
       <c r="F49">
@@ -18097,7 +18574,7 @@
       <c r="G49"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="207" t="s">
+      <c r="A50" s="123" t="s">
         <v>438</v>
       </c>
       <c r="B50" s="27" t="s">
@@ -18106,10 +18583,10 @@
       <c r="C50" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D50" s="218" t="s">
+      <c r="D50" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E50" s="220">
+      <c r="E50" s="136">
         <v>9</v>
       </c>
       <c r="F50">
@@ -18120,7 +18597,7 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="207" t="s">
+      <c r="A51" s="123" t="s">
         <v>99</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -18129,10 +18606,10 @@
       <c r="C51" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="218" t="s">
+      <c r="D51" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E51" s="220">
+      <c r="E51" s="136">
         <v>59</v>
       </c>
       <c r="F51">
@@ -18143,7 +18620,7 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="207" t="s">
+      <c r="A52" s="123" t="s">
         <v>91</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -18152,10 +18629,10 @@
       <c r="C52" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="218" t="s">
+      <c r="D52" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E52" s="220">
+      <c r="E52" s="136">
         <v>61</v>
       </c>
       <c r="G52" t="s">
@@ -18163,7 +18640,7 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="207" t="s">
+      <c r="A53" s="123" t="s">
         <v>97</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -18172,10 +18649,10 @@
       <c r="C53" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="218" t="s">
+      <c r="D53" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E53" s="220">
+      <c r="E53" s="136">
         <v>4</v>
       </c>
       <c r="F53">
@@ -18186,7 +18663,7 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="207" t="s">
+      <c r="A54" s="123" t="s">
         <v>439</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -18195,10 +18672,10 @@
       <c r="C54" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D54" s="218" t="s">
+      <c r="D54" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E54" s="220">
+      <c r="E54" s="136">
         <v>1419</v>
       </c>
       <c r="F54">
@@ -18209,7 +18686,7 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="207" t="s">
+      <c r="A55" s="123" t="s">
         <v>405</v>
       </c>
       <c r="B55" s="27" t="s">
@@ -18218,10 +18695,10 @@
       <c r="C55" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D55" s="218" t="s">
+      <c r="D55" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E55" s="220">
+      <c r="E55" s="136">
         <v>4</v>
       </c>
       <c r="F55">
@@ -18232,7 +18709,7 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="207" t="s">
+      <c r="A56" s="123" t="s">
         <v>508</v>
       </c>
       <c r="B56" s="27" t="s">
@@ -18241,10 +18718,10 @@
       <c r="C56" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="D56" s="218" t="s">
+      <c r="D56" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E56" s="220">
+      <c r="E56" s="136">
         <v>227</v>
       </c>
       <c r="F56">
@@ -18255,7 +18732,7 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="202" t="s">
+      <c r="A57" s="118" t="s">
         <v>92</v>
       </c>
       <c r="B57" s="27" t="s">
@@ -18264,10 +18741,10 @@
       <c r="C57" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="218" t="s">
+      <c r="D57" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E57" s="220">
+      <c r="E57" s="136">
         <v>2</v>
       </c>
       <c r="F57">
@@ -18278,7 +18755,7 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="207" t="s">
+      <c r="A58" s="123" t="s">
         <v>421</v>
       </c>
       <c r="B58" s="17" t="s">
@@ -18287,10 +18764,10 @@
       <c r="C58" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="D58" s="218" t="s">
+      <c r="D58" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E58" s="220">
+      <c r="E58" s="136">
         <v>0</v>
       </c>
       <c r="F58">
@@ -18301,7 +18778,7 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="207" t="s">
+      <c r="A59" s="123" t="s">
         <v>93</v>
       </c>
       <c r="B59" s="27" t="s">
@@ -18310,10 +18787,10 @@
       <c r="C59" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="218" t="s">
+      <c r="D59" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E59" s="220">
+      <c r="E59" s="136">
         <v>1</v>
       </c>
       <c r="F59">
@@ -18324,7 +18801,7 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="207" t="s">
+      <c r="A60" s="123" t="s">
         <v>94</v>
       </c>
       <c r="B60" s="27" t="s">
@@ -18333,10 +18810,10 @@
       <c r="C60" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="218" t="s">
+      <c r="D60" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E60" s="220">
+      <c r="E60" s="136">
         <v>83</v>
       </c>
       <c r="F60">
@@ -18347,7 +18824,7 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="207" t="s">
+      <c r="A61" s="123" t="s">
         <v>440</v>
       </c>
       <c r="B61" s="27" t="s">
@@ -18356,10 +18833,10 @@
       <c r="C61" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="218" t="s">
+      <c r="D61" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E61" s="220">
+      <c r="E61" s="136">
         <v>68</v>
       </c>
       <c r="F61">
@@ -18368,7 +18845,7 @@
       <c r="G61"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="207" t="s">
+      <c r="A62" s="123" t="s">
         <v>509</v>
       </c>
       <c r="B62" s="17" t="s">
@@ -18377,10 +18854,10 @@
       <c r="C62" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="D62" s="218" t="s">
+      <c r="D62" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E62" s="220">
+      <c r="E62" s="136">
         <v>0</v>
       </c>
       <c r="F62">
@@ -18391,7 +18868,7 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="207" t="s">
+      <c r="A63" s="123" t="s">
         <v>510</v>
       </c>
       <c r="B63" s="17" t="s">
@@ -18400,10 +18877,10 @@
       <c r="C63" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="D63" s="218" t="s">
+      <c r="D63" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E63" s="220">
+      <c r="E63" s="136">
         <v>3</v>
       </c>
       <c r="F63">
@@ -18414,7 +18891,7 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="207" t="s">
+      <c r="A64" s="123" t="s">
         <v>511</v>
       </c>
       <c r="B64" s="27" t="s">
@@ -18423,10 +18900,10 @@
       <c r="C64" s="27" t="s">
         <v>511</v>
       </c>
-      <c r="D64" s="218" t="s">
+      <c r="D64" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E64" s="220">
+      <c r="E64" s="136">
         <v>3440</v>
       </c>
       <c r="F64">
@@ -18437,7 +18914,7 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="207" t="s">
+      <c r="A65" s="123" t="s">
         <v>95</v>
       </c>
       <c r="B65" s="27" t="s">
@@ -18446,10 +18923,10 @@
       <c r="C65" s="27" t="s">
         <v>479</v>
       </c>
-      <c r="D65" s="218" t="s">
+      <c r="D65" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E65" s="220">
+      <c r="E65" s="136">
         <v>5</v>
       </c>
       <c r="F65">
@@ -18460,7 +18937,7 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="207" t="s">
+      <c r="A66" s="123" t="s">
         <v>512</v>
       </c>
       <c r="B66" s="27" t="s">
@@ -18469,10 +18946,10 @@
       <c r="C66" s="27" t="s">
         <v>480</v>
       </c>
-      <c r="D66" s="218" t="s">
+      <c r="D66" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E66" s="220">
+      <c r="E66" s="136">
         <v>29.994848829691268</v>
       </c>
       <c r="F66">
@@ -18483,7 +18960,7 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="207" t="s">
+      <c r="A67" s="123" t="s">
         <v>514</v>
       </c>
       <c r="B67" s="27" t="s">
@@ -18492,10 +18969,10 @@
       <c r="C67" s="27" t="s">
         <v>482</v>
       </c>
-      <c r="D67" s="218" t="s">
+      <c r="D67" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E67" s="220">
+      <c r="E67" s="136">
         <v>664</v>
       </c>
       <c r="F67">
@@ -18506,7 +18983,7 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="207" t="s">
+      <c r="A68" s="123" t="s">
         <v>515</v>
       </c>
       <c r="B68" s="27" t="s">
@@ -18515,10 +18992,10 @@
       <c r="C68" s="27" t="s">
         <v>516</v>
       </c>
-      <c r="D68" s="218" t="s">
+      <c r="D68" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E68" s="225" t="str">
+      <c r="E68" s="141" t="str">
         <f>'[1]3.Livestock Land'!B162</f>
         <v>Rams</v>
       </c>
@@ -18528,7 +19005,7 @@
       <c r="G68"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="207" t="s">
+      <c r="A69" s="123" t="s">
         <v>515</v>
       </c>
       <c r="B69" s="27" t="s">
@@ -18537,10 +19014,10 @@
       <c r="C69" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="D69" s="218" t="s">
+      <c r="D69" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E69" s="225" t="str">
+      <c r="E69" s="141" t="str">
         <f>'[1]3.Livestock Land'!B163</f>
         <v>Ewes</v>
       </c>
@@ -18552,7 +19029,7 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="207" t="s">
+      <c r="A70" s="123" t="s">
         <v>515</v>
       </c>
       <c r="B70" s="27" t="s">
@@ -18561,10 +19038,10 @@
       <c r="C70" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="D70" s="218" t="s">
+      <c r="D70" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E70" s="225" t="str">
+      <c r="E70" s="141" t="str">
         <f>'[1]3.Livestock Land'!B164</f>
         <v>Lambs</v>
       </c>
@@ -18576,7 +19053,7 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="207" t="s">
+      <c r="A71" s="123" t="s">
         <v>515</v>
       </c>
       <c r="B71" s="27" t="s">
@@ -18585,10 +19062,10 @@
       <c r="C71" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="D71" s="218" t="s">
+      <c r="D71" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E71" s="225" t="str">
+      <c r="E71" s="141" t="str">
         <f>'[1]3.Livestock Land'!B165</f>
         <v>Silage Needed-Total</v>
       </c>
@@ -18600,7 +19077,7 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="207" t="s">
+      <c r="A72" s="123" t="s">
         <v>515</v>
       </c>
       <c r="B72" s="27" t="s">
@@ -18609,10 +19086,10 @@
       <c r="C72" s="27" t="s">
         <v>520</v>
       </c>
-      <c r="D72" s="218" t="s">
+      <c r="D72" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E72" s="225" t="str">
+      <c r="E72" s="141" t="str">
         <f>'[1]3.Livestock Land'!B166</f>
         <v>Silage Available-Total</v>
       </c>
@@ -18622,7 +19099,7 @@
       <c r="G72"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="207" t="s">
+      <c r="A73" s="123" t="s">
         <v>515</v>
       </c>
       <c r="B73" s="27" t="s">
@@ -18631,10 +19108,10 @@
       <c r="C73" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="D73" s="218" t="s">
+      <c r="D73" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E73" s="225" t="str">
+      <c r="E73" s="141" t="str">
         <f>'[1]3.Livestock Land'!B167</f>
         <v>Silage Shortage</v>
       </c>
@@ -18646,7 +19123,7 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="207" t="s">
+      <c r="A74" s="123" t="s">
         <v>515</v>
       </c>
       <c r="B74" s="27" t="s">
@@ -18655,10 +19132,10 @@
       <c r="C74" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="D74" s="218" t="s">
+      <c r="D74" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E74" s="225" t="str">
+      <c r="E74" s="141" t="str">
         <f>'[1]3.Livestock Land'!B168</f>
         <v>Silage Allocated-Dairy</v>
       </c>
@@ -18668,7 +19145,7 @@
       <c r="G74"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="207" t="s">
+      <c r="A75" s="123" t="s">
         <v>515</v>
       </c>
       <c r="B75" s="27" t="s">
@@ -18677,17 +19154,17 @@
       <c r="C75" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="D75" s="218" t="s">
+      <c r="D75" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E75" s="225" t="str">
+      <c r="E75" s="141" t="str">
         <f>'[1]3.Livestock Land'!B169</f>
         <v>Silage Allocated-Beef</v>
       </c>
       <c r="G75"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="207" t="s">
+      <c r="A76" s="123" t="s">
         <v>515</v>
       </c>
       <c r="B76" s="27" t="s">
@@ -18696,17 +19173,17 @@
       <c r="C76" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="D76" s="218" t="s">
+      <c r="D76" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E76" s="225" t="str">
+      <c r="E76" s="141" t="str">
         <f>'[1]3.Livestock Land'!B170</f>
         <v>Silage Allocated-Lamb</v>
       </c>
       <c r="G76"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="207" t="s">
+      <c r="A77" s="123" t="s">
         <v>515</v>
       </c>
       <c r="B77" s="27" t="s">
@@ -18715,17 +19192,17 @@
       <c r="C77" s="27" t="s">
         <v>525</v>
       </c>
-      <c r="D77" s="218" t="s">
+      <c r="D77" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E77" s="225" t="str">
+      <c r="E77" s="141" t="str">
         <f>'[1]3.Livestock Land'!B171</f>
         <v>Silage Allocated-Total</v>
       </c>
       <c r="G77"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="207" t="s">
+      <c r="A78" s="123" t="s">
         <v>515</v>
       </c>
       <c r="B78" s="27" t="s">
@@ -18734,17 +19211,17 @@
       <c r="C78" s="27" t="s">
         <v>526</v>
       </c>
-      <c r="D78" s="218" t="s">
+      <c r="D78" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E78" s="225" t="str">
+      <c r="E78" s="141" t="str">
         <f>'[1]3.Livestock Land'!B172</f>
         <v>Silage Remaining-Total</v>
       </c>
       <c r="G78"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="207" t="s">
+      <c r="A79" s="123" t="s">
         <v>515</v>
       </c>
       <c r="B79" s="27" t="s">
@@ -18753,17 +19230,17 @@
       <c r="C79" s="27" t="s">
         <v>527</v>
       </c>
-      <c r="D79" s="218" t="s">
+      <c r="D79" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E79" s="225">
+      <c r="E79" s="141">
         <f>'[1]3.Livestock Land'!B173</f>
         <v>0</v>
       </c>
       <c r="G79"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="207" t="s">
+      <c r="A80" s="123" t="s">
         <v>515</v>
       </c>
       <c r="B80" s="27" t="s">
@@ -18772,17 +19249,17 @@
       <c r="C80" s="27" t="s">
         <v>528</v>
       </c>
-      <c r="D80" s="218" t="s">
+      <c r="D80" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E80" s="225" t="str">
+      <c r="E80" s="141" t="str">
         <f>'[1]3.Livestock Land'!B174</f>
         <v>Hectares Barn Allocated</v>
       </c>
       <c r="G80"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="207" t="s">
+      <c r="A81" s="123" t="s">
         <v>515</v>
       </c>
       <c r="B81" s="27" t="s">
@@ -18791,17 +19268,17 @@
       <c r="C81" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="D81" s="218" t="s">
+      <c r="D81" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E81" s="225" t="str">
+      <c r="E81" s="141" t="str">
         <f>'[1]3.Livestock Land'!B175</f>
         <v>Livestock type:</v>
       </c>
       <c r="G81"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="207" t="s">
+      <c r="A82" s="123" t="s">
         <v>515</v>
       </c>
       <c r="B82" s="27" t="s">
@@ -18810,17 +19287,17 @@
       <c r="C82" s="27" t="s">
         <v>530</v>
       </c>
-      <c r="D82" s="218" t="s">
+      <c r="D82" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E82" s="225" t="str">
+      <c r="E82" s="141" t="str">
         <f>'[1]3.Livestock Land'!B176</f>
         <v>Broilers, roasters and Cornish production (68)</v>
       </c>
       <c r="G82"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="207" t="s">
+      <c r="A83" s="123" t="s">
         <v>515</v>
       </c>
       <c r="B83" s="27" t="s">
@@ -18829,17 +19306,17 @@
       <c r="C83" s="27" t="s">
         <v>531</v>
       </c>
-      <c r="D83" s="218" t="s">
+      <c r="D83" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E83" s="225" t="str">
+      <c r="E83" s="141" t="str">
         <f>'[1]3.Livestock Land'!B177</f>
         <v>Turkey production (69)</v>
       </c>
       <c r="G83"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="207" t="s">
+      <c r="A84" s="123" t="s">
         <v>515</v>
       </c>
       <c r="B84" s="27" t="s">
@@ -18848,17 +19325,17 @@
       <c r="C84" s="27" t="s">
         <v>532</v>
       </c>
-      <c r="D84" s="218" t="s">
+      <c r="D84" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E84" s="225" t="str">
+      <c r="E84" s="141" t="str">
         <f>'[1]3.Livestock Land'!B178</f>
         <v>Calves, under 1 year</v>
       </c>
       <c r="G84"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="207" t="s">
+      <c r="A85" s="123" t="s">
         <v>515</v>
       </c>
       <c r="B85" s="27" t="s">
@@ -18867,17 +19344,17 @@
       <c r="C85" s="27" t="s">
         <v>533</v>
       </c>
-      <c r="D85" s="218" t="s">
+      <c r="D85" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E85" s="225" t="str">
+      <c r="E85" s="141" t="str">
         <f>'[1]3.Livestock Land'!B179</f>
         <v>Steers, 1 year and over</v>
       </c>
       <c r="G85"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="207" t="s">
+      <c r="A86" s="123" t="s">
         <v>515</v>
       </c>
       <c r="B86" s="27" t="s">
@@ -18886,120 +19363,120 @@
       <c r="C86" s="27" t="s">
         <v>534</v>
       </c>
-      <c r="D86" s="218" t="s">
+      <c r="D86" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="E86" s="225" t="str">
+      <c r="E86" s="141" t="str">
         <f>'[1]3.Livestock Land'!B180</f>
         <v>Heifers for slaughter or feeding</v>
       </c>
       <c r="G86"/>
     </row>
     <row r="87" spans="1:7" ht="16" thickBot="1">
-      <c r="A87" s="226" t="s">
+      <c r="A87" s="142" t="s">
         <v>515</v>
       </c>
-      <c r="B87" s="227" t="s">
+      <c r="B87" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="C87" s="227" t="s">
+      <c r="C87" s="143" t="s">
         <v>535</v>
       </c>
-      <c r="D87" s="228" t="s">
+      <c r="D87" s="144" t="s">
         <v>418</v>
       </c>
-      <c r="E87" s="229" t="str">
+      <c r="E87" s="145" t="str">
         <f>'[1]3.Livestock Land'!B181</f>
         <v>Heifers for beef herd replacement</v>
       </c>
       <c r="G87"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="230"/>
-      <c r="B88" s="230"/>
-      <c r="C88" s="230"/>
-      <c r="D88" s="230"/>
-      <c r="E88" s="231"/>
+      <c r="A88" s="146"/>
+      <c r="B88" s="146"/>
+      <c r="C88" s="146"/>
+      <c r="D88" s="146"/>
+      <c r="E88" s="147"/>
       <c r="G88"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="230"/>
-      <c r="B89" s="232"/>
-      <c r="C89" s="230"/>
-      <c r="D89" s="230"/>
-      <c r="E89" s="230"/>
+      <c r="A89" s="146"/>
+      <c r="B89" s="148"/>
+      <c r="C89" s="146"/>
+      <c r="D89" s="146"/>
+      <c r="E89" s="146"/>
       <c r="G89"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="233"/>
-      <c r="B90" s="233"/>
-      <c r="C90" s="230"/>
-      <c r="D90" s="230"/>
-      <c r="E90" s="230"/>
+      <c r="A90" s="149"/>
+      <c r="B90" s="149"/>
+      <c r="C90" s="146"/>
+      <c r="D90" s="146"/>
+      <c r="E90" s="146"/>
       <c r="G90"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="233"/>
-      <c r="B91" s="233"/>
-      <c r="C91" s="230"/>
-      <c r="D91" s="230"/>
-      <c r="E91" s="230"/>
+      <c r="A91" s="149"/>
+      <c r="B91" s="149"/>
+      <c r="C91" s="146"/>
+      <c r="D91" s="146"/>
+      <c r="E91" s="146"/>
       <c r="G91"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="234"/>
-      <c r="B92" s="234"/>
-      <c r="C92" s="234"/>
-      <c r="D92" s="234"/>
-      <c r="E92" s="234"/>
+      <c r="A92" s="150"/>
+      <c r="B92" s="150"/>
+      <c r="C92" s="150"/>
+      <c r="D92" s="150"/>
+      <c r="E92" s="150"/>
       <c r="G92"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="230"/>
-      <c r="B93" s="230"/>
-      <c r="C93" s="230"/>
-      <c r="D93" s="230"/>
-      <c r="E93" s="235"/>
+      <c r="A93" s="146"/>
+      <c r="B93" s="146"/>
+      <c r="C93" s="146"/>
+      <c r="D93" s="146"/>
+      <c r="E93" s="151"/>
       <c r="G93"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="230"/>
-      <c r="B94" s="230"/>
-      <c r="C94" s="230"/>
-      <c r="D94" s="230"/>
-      <c r="E94" s="235"/>
+      <c r="A94" s="146"/>
+      <c r="B94" s="146"/>
+      <c r="C94" s="146"/>
+      <c r="D94" s="146"/>
+      <c r="E94" s="151"/>
       <c r="G94"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="230"/>
-      <c r="B95" s="230"/>
-      <c r="C95" s="236"/>
-      <c r="D95" s="236"/>
-      <c r="E95" s="235"/>
+      <c r="A95" s="146"/>
+      <c r="B95" s="146"/>
+      <c r="C95" s="152"/>
+      <c r="D95" s="152"/>
+      <c r="E95" s="151"/>
       <c r="G95"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="230"/>
-      <c r="B96" s="230"/>
-      <c r="C96" s="230"/>
-      <c r="D96" s="230"/>
-      <c r="E96" s="235"/>
+      <c r="A96" s="146"/>
+      <c r="B96" s="146"/>
+      <c r="C96" s="146"/>
+      <c r="D96" s="146"/>
+      <c r="E96" s="151"/>
       <c r="G96"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="230"/>
-      <c r="B97" s="230"/>
-      <c r="C97" s="230"/>
-      <c r="D97" s="230"/>
-      <c r="E97" s="235"/>
+      <c r="A97" s="146"/>
+      <c r="B97" s="146"/>
+      <c r="C97" s="146"/>
+      <c r="D97" s="146"/>
+      <c r="E97" s="151"/>
       <c r="G97"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="237"/>
-      <c r="B98" s="238"/>
-      <c r="C98" s="239"/>
-      <c r="D98" s="230"/>
-      <c r="E98" s="235"/>
+      <c r="A98" s="153"/>
+      <c r="B98" s="154"/>
+      <c r="C98" s="155"/>
+      <c r="D98" s="146"/>
+      <c r="E98" s="151"/>
       <c r="G98"/>
     </row>
     <row r="99" spans="1:7">
@@ -19063,4 +19540,886 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="12" max="12" width="33" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="262" customWidth="1"/>
+    <col min="15" max="15" width="28.1640625" style="262" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="127" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1" s="127" t="s">
+        <v>538</v>
+      </c>
+      <c r="G1" s="127" t="s">
+        <v>539</v>
+      </c>
+      <c r="H1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I1" s="127" t="s">
+        <v>541</v>
+      </c>
+      <c r="J1" t="s">
+        <v>542</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="127" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>543</v>
+      </c>
+      <c r="N1" s="262" t="s">
+        <v>544</v>
+      </c>
+      <c r="O1" s="262" t="s">
+        <v>545</v>
+      </c>
+      <c r="P1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="127">
+        <v>2.3885325302302598</v>
+      </c>
+      <c r="D2" s="127">
+        <v>1.95636663916208</v>
+      </c>
+      <c r="E2" s="127">
+        <v>2.1667292138810601</v>
+      </c>
+      <c r="F2" s="127">
+        <v>9.7984230147471207E-3</v>
+      </c>
+      <c r="G2" s="127">
+        <v>6.5214268062881597</v>
+      </c>
+      <c r="H2">
+        <v>4.3546975924070903</v>
+      </c>
+      <c r="I2" s="127">
+        <v>0.63223830850444096</v>
+      </c>
+      <c r="J2">
+        <v>0.44925430472444899</v>
+      </c>
+      <c r="K2">
+        <v>0.229637070951519</v>
+      </c>
+      <c r="L2" s="127">
+        <v>0.15334067677272201</v>
+      </c>
+      <c r="M2">
+        <v>10.399215957837701</v>
+      </c>
+      <c r="N2" s="262">
+        <v>15.5734638910565</v>
+      </c>
+      <c r="O2" s="262">
+        <v>45.285440694517597</v>
+      </c>
+      <c r="P2">
+        <v>101.561204885897</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="127">
+        <v>3.3121693121693099</v>
+      </c>
+      <c r="D3" s="127">
+        <v>2.8252784362572299</v>
+      </c>
+      <c r="E3" s="127">
+        <v>1.3185405207018801</v>
+      </c>
+      <c r="F3" s="127">
+        <v>6.1185185185185101E-3</v>
+      </c>
+      <c r="G3" s="127">
+        <v>7.4621067876469498</v>
+      </c>
+      <c r="H3">
+        <v>6.1435662669450597</v>
+      </c>
+      <c r="I3" s="127">
+        <v>0.55531488289861397</v>
+      </c>
+      <c r="J3">
+        <v>0.45987596023150301</v>
+      </c>
+      <c r="K3">
+        <v>0.16277190747992901</v>
+      </c>
+      <c r="L3" s="127">
+        <v>0.13401041132987199</v>
+      </c>
+      <c r="M3">
+        <v>252.04375204011799</v>
+      </c>
+      <c r="N3" s="262">
+        <v>306.137723784625</v>
+      </c>
+      <c r="O3" s="262">
+        <v>1548.4474928279301</v>
+      </c>
+      <c r="P3">
+        <v>2284.4323866080399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="127">
+        <v>0</v>
+      </c>
+      <c r="D4" s="127">
+        <v>0</v>
+      </c>
+      <c r="E4" s="127">
+        <v>1.8514670757965901</v>
+      </c>
+      <c r="F4" s="127">
+        <v>3.3291085952123799E-4</v>
+      </c>
+      <c r="G4" s="127">
+        <v>1.8517999866561099</v>
+      </c>
+      <c r="H4">
+        <v>3.3291085952123799E-4</v>
+      </c>
+      <c r="I4" s="127">
+        <v>0.99982022310080998</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>3003.80708949569</v>
+      </c>
+      <c r="L4" s="127">
+        <v>0.54001512431466703</v>
+      </c>
+      <c r="M4">
+        <v>3.5337990324730301E-3</v>
+      </c>
+      <c r="N4" s="262">
+        <v>19.656580174614199</v>
+      </c>
+      <c r="O4" s="263">
+        <v>1.17644007327592E-6</v>
+      </c>
+      <c r="P4">
+        <v>36.400054905055399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="127">
+        <v>0</v>
+      </c>
+      <c r="D5" s="127">
+        <v>0</v>
+      </c>
+      <c r="E5" s="127">
+        <v>0.64579404667610996</v>
+      </c>
+      <c r="F5" s="127">
+        <v>6.3370956705190596E-4</v>
+      </c>
+      <c r="G5" s="127">
+        <v>0.64642775624316196</v>
+      </c>
+      <c r="H5">
+        <v>6.3370956705190596E-4</v>
+      </c>
+      <c r="I5" s="127">
+        <v>0.99901967457162599</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1578.00994649981</v>
+      </c>
+      <c r="L5" s="127">
+        <v>1.5469632767808199</v>
+      </c>
+      <c r="M5">
+        <v>7.9721317222597399E-2</v>
+      </c>
+      <c r="N5" s="262">
+        <v>81.321278541991703</v>
+      </c>
+      <c r="O5" s="263">
+        <v>5.0520161421939798E-5</v>
+      </c>
+      <c r="P5">
+        <v>52.568331622724898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="127">
+        <v>0</v>
+      </c>
+      <c r="D6" s="127">
+        <v>0</v>
+      </c>
+      <c r="E6" s="127">
+        <v>0.85027782418891895</v>
+      </c>
+      <c r="F6" s="127">
+        <v>4.0918310453618101E-4</v>
+      </c>
+      <c r="G6" s="127">
+        <v>0.85068700729345503</v>
+      </c>
+      <c r="H6">
+        <v>4.0918310453618101E-4</v>
+      </c>
+      <c r="I6" s="127">
+        <v>0.99951899688013501</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>2443.89367232922</v>
+      </c>
+      <c r="L6" s="127">
+        <v>1.1755204810069899</v>
+      </c>
+      <c r="M6">
+        <v>0.25512549974709497</v>
+      </c>
+      <c r="N6" s="262">
+        <v>530.40300407836799</v>
+      </c>
+      <c r="O6" s="262">
+        <v>1.04393044032861E-4</v>
+      </c>
+      <c r="P6">
+        <v>451.20694419888503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="127">
+        <v>1.7465631594079999E-2</v>
+      </c>
+      <c r="D7" s="127">
+        <v>5.3264890324061197E-2</v>
+      </c>
+      <c r="E7" s="127">
+        <v>0.25285069520812697</v>
+      </c>
+      <c r="F7" s="127">
+        <v>1.5760003508720599E-4</v>
+      </c>
+      <c r="G7" s="127">
+        <v>0.323738817161355</v>
+      </c>
+      <c r="H7">
+        <v>7.0888121953228397E-2</v>
+      </c>
+      <c r="I7" s="127">
+        <v>0.94556342738355104</v>
+      </c>
+      <c r="J7">
+        <v>0.75139372939242299</v>
+      </c>
+      <c r="K7">
+        <v>14.106735690639301</v>
+      </c>
+      <c r="L7" s="127">
+        <v>3.0889097846477398</v>
+      </c>
+      <c r="M7">
+        <v>7.5654345734501999E-3</v>
+      </c>
+      <c r="N7" s="262">
+        <v>3.4550567466526703E-2</v>
+      </c>
+      <c r="O7" s="262">
+        <v>5.3629944867190796E-4</v>
+      </c>
+      <c r="P7">
+        <v>1.1185359843866999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="127">
+        <v>0</v>
+      </c>
+      <c r="D8" s="127">
+        <v>0</v>
+      </c>
+      <c r="E8" s="127">
+        <v>0.93654462976862396</v>
+      </c>
+      <c r="F8" s="127">
+        <v>1.6219780224000001E-3</v>
+      </c>
+      <c r="G8" s="127">
+        <v>0.93816660779102401</v>
+      </c>
+      <c r="H8">
+        <v>1.6219780224000001E-3</v>
+      </c>
+      <c r="I8" s="127">
+        <v>0.99827111942705005</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>616.53116515125396</v>
+      </c>
+      <c r="L8" s="127">
+        <v>1.0659087540480301</v>
+      </c>
+      <c r="M8">
+        <v>0.10813186816000001</v>
+      </c>
+      <c r="N8" s="262">
+        <v>62.544440519401597</v>
+      </c>
+      <c r="O8" s="262">
+        <v>1.7538751367657401E-4</v>
+      </c>
+      <c r="P8">
+        <v>58.677105598274501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="L9" s="127"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="240" t="s">
+        <v>547</v>
+      </c>
+      <c r="B10" s="241" t="s">
+        <v>548</v>
+      </c>
+      <c r="C10" s="252" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="252" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="255" t="s">
+        <v>552</v>
+      </c>
+      <c r="F10" s="257" t="s">
+        <v>549</v>
+      </c>
+      <c r="G10" s="252" t="s">
+        <v>550</v>
+      </c>
+      <c r="I10" s="255" t="s">
+        <v>551</v>
+      </c>
+      <c r="J10" s="241"/>
+      <c r="K10" s="241"/>
+      <c r="L10" s="259" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="242" t="s">
+        <v>554</v>
+      </c>
+      <c r="B11" s="241" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="253">
+        <v>2.3885325302302642</v>
+      </c>
+      <c r="D11" s="254">
+        <v>1.8845229602210121</v>
+      </c>
+      <c r="E11" s="256">
+        <v>2.1685682812683313</v>
+      </c>
+      <c r="F11" s="258">
+        <v>9.7984230147471225E-3</v>
+      </c>
+      <c r="G11" s="253">
+        <v>6.451422194734354</v>
+      </c>
+      <c r="I11" s="261">
+        <v>0.6282477133177663</v>
+      </c>
+      <c r="J11" s="244"/>
+      <c r="K11" s="250"/>
+      <c r="L11" s="260">
+        <v>0.15500458190694746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="242"/>
+      <c r="B12" s="241" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="253">
+        <v>3.3121693121693125</v>
+      </c>
+      <c r="D12" s="254">
+        <v>2.8252784362572374</v>
+      </c>
+      <c r="E12" s="256">
+        <v>1.3189810859595519</v>
+      </c>
+      <c r="F12" s="258">
+        <v>6.1185185185185197E-3</v>
+      </c>
+      <c r="G12" s="253">
+        <v>7.46254735290462</v>
+      </c>
+      <c r="I12" s="261">
+        <v>0.55534113570532107</v>
+      </c>
+      <c r="J12" s="244"/>
+      <c r="K12" s="250"/>
+      <c r="L12" s="260">
+        <v>0.13400249977787729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="242"/>
+      <c r="B13" s="241" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="253">
+        <v>0</v>
+      </c>
+      <c r="D13" s="254">
+        <v>0</v>
+      </c>
+      <c r="E13" s="256">
+        <v>1.8559378643921964</v>
+      </c>
+      <c r="F13" s="258">
+        <v>3.3291086713062973E-4</v>
+      </c>
+      <c r="G13" s="253">
+        <v>1.856270775259327</v>
+      </c>
+      <c r="I13" s="261">
+        <v>0.99982065608554116</v>
+      </c>
+      <c r="J13" s="244"/>
+      <c r="K13" s="250"/>
+      <c r="L13" s="260">
+        <v>0.53871450939602106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="242"/>
+      <c r="B14" s="241" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="253">
+        <v>0</v>
+      </c>
+      <c r="D14" s="254">
+        <v>0</v>
+      </c>
+      <c r="E14" s="256">
+        <v>0.65412174624550123</v>
+      </c>
+      <c r="F14" s="258">
+        <v>6.3371300996879288E-4</v>
+      </c>
+      <c r="G14" s="253">
+        <v>0.65475545925547007</v>
+      </c>
+      <c r="I14" s="261">
+        <v>0.99903213787527723</v>
+      </c>
+      <c r="J14" s="244"/>
+      <c r="K14" s="250"/>
+      <c r="L14" s="260">
+        <v>1.5272877619640033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="242"/>
+      <c r="B15" s="241" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="253">
+        <v>0</v>
+      </c>
+      <c r="D15" s="254">
+        <v>0</v>
+      </c>
+      <c r="E15" s="256">
+        <v>0.85464548272482521</v>
+      </c>
+      <c r="F15" s="258">
+        <v>4.0896884727136267E-4</v>
+      </c>
+      <c r="G15" s="253">
+        <v>0.85505445157209659</v>
+      </c>
+      <c r="I15" s="261">
+        <v>0.99952170432360254</v>
+      </c>
+      <c r="J15" s="244"/>
+      <c r="K15" s="250"/>
+      <c r="L15" s="260">
+        <v>1.1695161614110161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="242"/>
+      <c r="B16" s="241" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="253">
+        <v>1.7469371020292866E-2</v>
+      </c>
+      <c r="D16" s="254">
+        <v>5.328404484933285E-2</v>
+      </c>
+      <c r="E16" s="256">
+        <v>0.25324815656620991</v>
+      </c>
+      <c r="F16" s="258">
+        <v>1.5761936755060593E-4</v>
+      </c>
+      <c r="G16" s="253">
+        <v>0.32415919180338626</v>
+      </c>
+      <c r="I16" s="261">
+        <v>0.94562242616111014</v>
+      </c>
+      <c r="J16" s="244"/>
+      <c r="K16" s="250"/>
+      <c r="L16" s="260">
+        <v>3.0849040387740554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="242"/>
+      <c r="B17" s="241" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="253">
+        <v>0</v>
+      </c>
+      <c r="D17" s="254">
+        <v>0</v>
+      </c>
+      <c r="E17" s="256">
+        <v>0.94914534591610888</v>
+      </c>
+      <c r="F17" s="258">
+        <v>1.6310469912058185E-3</v>
+      </c>
+      <c r="G17" s="253">
+        <v>0.95077639290731475</v>
+      </c>
+      <c r="I17" s="261">
+        <v>0.99828451042393007</v>
+      </c>
+      <c r="J17" s="244"/>
+      <c r="K17" s="250"/>
+      <c r="L17" s="260">
+        <v>1.0517720122837377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="242" t="s">
+        <v>555</v>
+      </c>
+      <c r="B18" s="241" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="245">
+        <v>2.3885325302302642</v>
+      </c>
+      <c r="D18" s="246">
+        <v>1.8845229602210121</v>
+      </c>
+      <c r="E18" s="243">
+        <v>0</v>
+      </c>
+      <c r="F18" s="247">
+        <v>9.7984230147471225E-3</v>
+      </c>
+      <c r="G18" s="245">
+        <v>4.2828539134660231</v>
+      </c>
+      <c r="I18" s="248">
+        <v>0.44001569941383023</v>
+      </c>
+      <c r="J18" s="244"/>
+      <c r="K18" s="250"/>
+      <c r="L18" s="251">
+        <v>0.23348916871897718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="242"/>
+      <c r="B19" s="241" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="245">
+        <v>3.3121693121693125</v>
+      </c>
+      <c r="D19" s="246">
+        <v>2.8252784362572374</v>
+      </c>
+      <c r="E19" s="243">
+        <v>0</v>
+      </c>
+      <c r="F19" s="247">
+        <v>6.1185185185185197E-3</v>
+      </c>
+      <c r="G19" s="245">
+        <v>6.1435662669450686</v>
+      </c>
+      <c r="I19" s="248">
+        <v>0.45987596023150362</v>
+      </c>
+      <c r="J19" s="244"/>
+      <c r="K19" s="250"/>
+      <c r="L19" s="251">
+        <v>0.16277190747992973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="242"/>
+      <c r="B20" s="241" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="245">
+        <v>0</v>
+      </c>
+      <c r="D20" s="246">
+        <v>0</v>
+      </c>
+      <c r="E20" s="243">
+        <v>0</v>
+      </c>
+      <c r="F20" s="247">
+        <v>3.3291086713062973E-4</v>
+      </c>
+      <c r="G20" s="245">
+        <v>3.3291086713062973E-4</v>
+      </c>
+      <c r="I20" s="248">
+        <v>0</v>
+      </c>
+      <c r="J20" s="244"/>
+      <c r="K20" s="250"/>
+      <c r="L20" s="251">
+        <v>3003.8070208372424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="242"/>
+      <c r="B21" s="241" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="245">
+        <v>0</v>
+      </c>
+      <c r="D21" s="246">
+        <v>0</v>
+      </c>
+      <c r="E21" s="243">
+        <v>0</v>
+      </c>
+      <c r="F21" s="247">
+        <v>6.3371300996879288E-4</v>
+      </c>
+      <c r="G21" s="245">
+        <v>6.3371300996879288E-4</v>
+      </c>
+      <c r="I21" s="248">
+        <v>0</v>
+      </c>
+      <c r="J21" s="244"/>
+      <c r="K21" s="250"/>
+      <c r="L21" s="251">
+        <v>1578.0013732860634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="242"/>
+      <c r="B22" s="241" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="245">
+        <v>0</v>
+      </c>
+      <c r="D22" s="246">
+        <v>0</v>
+      </c>
+      <c r="E22" s="243">
+        <v>0</v>
+      </c>
+      <c r="F22" s="247">
+        <v>4.0896884727136267E-4</v>
+      </c>
+      <c r="G22" s="245">
+        <v>4.0896884727136267E-4</v>
+      </c>
+      <c r="I22" s="248">
+        <v>0</v>
+      </c>
+      <c r="J22" s="244"/>
+      <c r="K22" s="250"/>
+      <c r="L22" s="251">
+        <v>2445.1740191752824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="242"/>
+      <c r="B23" s="241" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="245">
+        <v>1.7469371020292866E-2</v>
+      </c>
+      <c r="D23" s="246">
+        <v>5.328404484933285E-2</v>
+      </c>
+      <c r="E23" s="243">
+        <v>0</v>
+      </c>
+      <c r="F23" s="247">
+        <v>1.5761936755060593E-4</v>
+      </c>
+      <c r="G23" s="245">
+        <v>7.0911035237176331E-2</v>
+      </c>
+      <c r="I23" s="248">
+        <v>0.7514210541577</v>
+      </c>
+      <c r="J23" s="249"/>
+      <c r="K23" s="250"/>
+      <c r="L23" s="251">
+        <v>14.1021774206976</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="242"/>
+      <c r="B24" s="241" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="245">
+        <v>0</v>
+      </c>
+      <c r="D24" s="246">
+        <v>0</v>
+      </c>
+      <c r="E24" s="243">
+        <v>0</v>
+      </c>
+      <c r="F24" s="247">
+        <v>1.6310469912058185E-3</v>
+      </c>
+      <c r="G24" s="245">
+        <v>1.6310469912058185E-3</v>
+      </c>
+      <c r="I24" s="248">
+        <v>0</v>
+      </c>
+      <c r="J24" s="244"/>
+      <c r="K24" s="250"/>
+      <c r="L24" s="251">
+        <v>613.1031205058714</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A24"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Food_SR_Organization.xlsx
+++ b/Food_SR_Organization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="760" windowWidth="28720" windowHeight="21800" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="-60" yWindow="0" windowWidth="28720" windowHeight="22560" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1.Food Need" sheetId="3" r:id="rId1"/>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="731">
   <si>
     <t>ALL LOCAL</t>
   </si>
@@ -2598,6 +2598,45 @@
   </si>
   <si>
     <t>YIELD ERROR</t>
+  </si>
+  <si>
+    <t>50-50</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Livestock Error (Chicken/Eggs, Beef/Dairy breeder attribution)</t>
+  </si>
+  <si>
+    <t>Beef (100%) - Dairy (0%)</t>
+  </si>
+  <si>
+    <t>Chicken (100%) - Eggs (0%)</t>
+  </si>
+  <si>
+    <t>Chicken (0%) - Eggs (100%)</t>
+  </si>
+  <si>
+    <t>Beef (0%) - Dairy (100%)</t>
+  </si>
+  <si>
+    <t>UPPER</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower - Beef(100%) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Dairy(100%) </t>
+  </si>
+  <si>
+    <t>Lower Bound</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
   </si>
 </sst>
 </file>
@@ -3453,7 +3492,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1270">
+  <cellStyleXfs count="1300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4724,8 +4763,38 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="354">
+  <cellXfs count="369">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -5114,6 +5183,12 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5195,6 +5270,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5254,12 +5332,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5284,10 +5356,16 @@
     <xf numFmtId="0" fontId="22" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="22" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="22" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5412,15 +5490,6 @@
     <xf numFmtId="9" fontId="22" fillId="17" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="22" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5454,8 +5523,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1270">
+  <cellStyles count="1300">
     <cellStyle name="Comma" xfId="419" builtinId="3"/>
     <cellStyle name="Comma 3" xfId="689"/>
     <cellStyle name="Currency" xfId="649" builtinId="4"/>
@@ -6091,6 +6201,21 @@
     <cellStyle name="Followed Hyperlink" xfId="1265" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1267" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1299" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6723,6 +6848,21 @@
     <cellStyle name="Hyperlink" xfId="1264" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1266" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1298" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 9" xfId="510"/>
     <cellStyle name="Percent" xfId="650" builtinId="5"/>
@@ -16999,7 +17139,7 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="256" t="s">
+      <c r="A11" s="259" t="s">
         <v>521</v>
       </c>
       <c r="B11" s="118" t="s">
@@ -17030,7 +17170,7 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="256"/>
+      <c r="A12" s="259"/>
       <c r="B12" s="118" t="s">
         <v>47</v>
       </c>
@@ -17059,7 +17199,7 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="256"/>
+      <c r="A13" s="259"/>
       <c r="B13" s="118" t="s">
         <v>48</v>
       </c>
@@ -17088,7 +17228,7 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="256"/>
+      <c r="A14" s="259"/>
       <c r="B14" s="118" t="s">
         <v>49</v>
       </c>
@@ -17117,7 +17257,7 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="256"/>
+      <c r="A15" s="259"/>
       <c r="B15" s="118" t="s">
         <v>50</v>
       </c>
@@ -17146,7 +17286,7 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="256"/>
+      <c r="A16" s="259"/>
       <c r="B16" s="118" t="s">
         <v>51</v>
       </c>
@@ -17175,7 +17315,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="256"/>
+      <c r="A17" s="259"/>
       <c r="B17" s="118" t="s">
         <v>52</v>
       </c>
@@ -17204,7 +17344,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="256" t="s">
+      <c r="A18" s="259" t="s">
         <v>522</v>
       </c>
       <c r="B18" s="118" t="s">
@@ -17235,7 +17375,7 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="256"/>
+      <c r="A19" s="259"/>
       <c r="B19" s="118" t="s">
         <v>47</v>
       </c>
@@ -17264,7 +17404,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="256"/>
+      <c r="A20" s="259"/>
       <c r="B20" s="118" t="s">
         <v>48</v>
       </c>
@@ -17293,7 +17433,7 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="256"/>
+      <c r="A21" s="259"/>
       <c r="B21" s="118" t="s">
         <v>49</v>
       </c>
@@ -17322,7 +17462,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="256"/>
+      <c r="A22" s="259"/>
       <c r="B22" s="118" t="s">
         <v>50</v>
       </c>
@@ -17351,7 +17491,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="256"/>
+      <c r="A23" s="259"/>
       <c r="B23" s="118" t="s">
         <v>51</v>
       </c>
@@ -17380,7 +17520,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="256"/>
+      <c r="A24" s="259"/>
       <c r="B24" s="118" t="s">
         <v>52</v>
       </c>
@@ -17750,7 +17890,7 @@
       <c r="F18" t="s">
         <v>681</v>
       </c>
-      <c r="G18" s="262" t="s">
+      <c r="G18" s="265" t="s">
         <v>683</v>
       </c>
       <c r="H18" t="s">
@@ -17779,7 +17919,7 @@
       <c r="F19">
         <v>99806.112356659694</v>
       </c>
-      <c r="G19" s="262">
+      <c r="G19" s="265">
         <f>C19/F19</f>
         <v>0.49203630750099231</v>
       </c>
@@ -17807,7 +17947,7 @@
       <c r="F20">
         <v>109104.821642215</v>
       </c>
-      <c r="G20" s="262">
+      <c r="G20" s="265">
         <f t="shared" ref="G20:G25" si="0">C20/F20</f>
         <v>0.25287244064862657</v>
       </c>
@@ -17835,7 +17975,7 @@
       <c r="F21" s="74">
         <v>44622.642291288699</v>
       </c>
-      <c r="G21" s="263">
+      <c r="G21" s="266">
         <f t="shared" si="0"/>
         <v>0.98236719631812786</v>
       </c>
@@ -17846,7 +17986,7 @@
         <f t="shared" si="1"/>
         <v>1.4818599848911072</v>
       </c>
-      <c r="J21" s="264">
+      <c r="J21" s="267">
         <v>1</v>
       </c>
     </row>
@@ -17866,7 +18006,7 @@
       <c r="F22" s="88">
         <v>3593.7813243607502</v>
       </c>
-      <c r="G22" s="262">
+      <c r="G22" s="265">
         <f t="shared" si="0"/>
         <v>6.4972233679669839E-2</v>
       </c>
@@ -17894,7 +18034,7 @@
       <c r="F23" s="74">
         <v>806782.53276746196</v>
       </c>
-      <c r="G23" s="263">
+      <c r="G23" s="266">
         <f t="shared" si="0"/>
         <v>0.67156991877533068</v>
       </c>
@@ -17922,7 +18062,7 @@
       <c r="F24" s="88">
         <v>71223.3327715622</v>
       </c>
-      <c r="G24" s="262">
+      <c r="G24" s="265">
         <f t="shared" si="0"/>
         <v>0.10217683358543542</v>
       </c>
@@ -17950,7 +18090,7 @@
       <c r="F25" s="88">
         <v>14522.348481853</v>
       </c>
-      <c r="G25" s="262">
+      <c r="G25" s="265">
         <f t="shared" si="0"/>
         <v>0.47993016663532712</v>
       </c>
@@ -17973,7 +18113,7 @@
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="C29" s="266" t="s">
+      <c r="C29" s="269" t="s">
         <v>702</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -18155,7 +18295,7 @@
       </c>
     </row>
     <row r="39" spans="3:10">
-      <c r="G39" s="261" t="s">
+      <c r="G39" s="264" t="s">
         <v>691</v>
       </c>
       <c r="H39" s="88" t="s">
@@ -18212,7 +18352,7 @@
       </c>
     </row>
     <row r="47" spans="3:10">
-      <c r="C47" s="265" t="s">
+      <c r="C47" s="268" t="s">
         <v>699</v>
       </c>
       <c r="D47" s="48"/>
@@ -18276,7 +18416,7 @@
       </c>
     </row>
     <row r="54" spans="3:10">
-      <c r="C54" s="265" t="s">
+      <c r="C54" s="268" t="s">
         <v>700</v>
       </c>
       <c r="D54" s="48"/>
@@ -24938,11 +25078,11 @@
       <c r="I3" s="144">
         <v>56003.963442452397</v>
       </c>
-      <c r="L3" s="259">
+      <c r="L3" s="262">
         <f>H3/C3</f>
         <v>1.0000000000437896</v>
       </c>
-      <c r="M3" s="260">
+      <c r="M3" s="263">
         <f>C3/H3</f>
         <v>0.99999999995621025</v>
       </c>
@@ -24973,11 +25113,11 @@
       <c r="I4" s="144">
         <v>20359.786902399999</v>
       </c>
-      <c r="L4" s="259">
+      <c r="L4" s="262">
         <f t="shared" ref="L4:L67" si="0">H4/C4</f>
         <v>1.0000000001178795</v>
       </c>
-      <c r="M4" s="260">
+      <c r="M4" s="263">
         <f t="shared" ref="M4:M67" si="1">C4/H4</f>
         <v>0.99999999988212052</v>
       </c>
@@ -25008,11 +25148,11 @@
       <c r="I5" s="144">
         <v>72303.034589759904</v>
       </c>
-      <c r="L5" s="259">
+      <c r="L5" s="262">
         <f t="shared" si="0"/>
         <v>0.99999999999667932</v>
       </c>
-      <c r="M5" s="260">
+      <c r="M5" s="263">
         <f t="shared" si="1"/>
         <v>1.0000000000033207</v>
       </c>
@@ -25043,11 +25183,11 @@
       <c r="I6" s="144">
         <v>39862.702892544003</v>
       </c>
-      <c r="L6" s="259">
+      <c r="L6" s="262">
         <f t="shared" si="0"/>
         <v>1.0000000000638192</v>
       </c>
-      <c r="M6" s="260">
+      <c r="M6" s="263">
         <f t="shared" si="1"/>
         <v>0.99999999993618094</v>
       </c>
@@ -25078,11 +25218,11 @@
       <c r="I7" s="48">
         <v>19386.085510655899</v>
       </c>
-      <c r="L7" s="259">
+      <c r="L7" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274494903405</v>
       </c>
-      <c r="M7" s="260">
+      <c r="M7" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551672974844</v>
       </c>
@@ -25113,11 +25253,11 @@
       <c r="I8" s="48">
         <v>372.1294848</v>
       </c>
-      <c r="L8" s="259">
+      <c r="L8" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274493785444</v>
       </c>
-      <c r="M8" s="260">
+      <c r="M8" s="263">
         <f t="shared" si="1"/>
         <v>1.835055167335131</v>
       </c>
@@ -25148,11 +25288,11 @@
       <c r="I9" s="48">
         <v>1360.1332669439901</v>
       </c>
-      <c r="L9" s="259">
+      <c r="L9" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274488763372</v>
       </c>
-      <c r="M9" s="260">
+      <c r="M9" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551675042455</v>
       </c>
@@ -25183,11 +25323,11 @@
       <c r="I10" s="48">
         <v>1461.89143295999</v>
       </c>
-      <c r="L10" s="259">
+      <c r="L10" s="262">
         <f t="shared" si="0"/>
         <v>0.5449427449655192</v>
       </c>
-      <c r="M10" s="260">
+      <c r="M10" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551672419717</v>
       </c>
@@ -25218,11 +25358,11 @@
       <c r="I11" s="48">
         <v>898.24358399999903</v>
       </c>
-      <c r="L11" s="259">
+      <c r="L11" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274505185514</v>
       </c>
-      <c r="M11" s="260">
+      <c r="M11" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551669512418</v>
       </c>
@@ -25253,11 +25393,11 @@
       <c r="I12" s="48">
         <v>22905.211392000001</v>
       </c>
-      <c r="L12" s="259">
+      <c r="L12" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274485738303</v>
       </c>
-      <c r="M12" s="260">
+      <c r="M12" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551676061124</v>
       </c>
@@ -25288,11 +25428,11 @@
       <c r="I13" s="48">
         <v>239.5316224</v>
       </c>
-      <c r="L13" s="259">
+      <c r="L13" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274484522842</v>
       </c>
-      <c r="M13" s="260">
+      <c r="M13" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551676470421</v>
       </c>
@@ -25323,11 +25463,11 @@
       <c r="I14" s="48">
         <v>69.7742784</v>
       </c>
-      <c r="L14" s="259">
+      <c r="L14" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274504425566</v>
       </c>
-      <c r="M14" s="260">
+      <c r="M14" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551669768325</v>
       </c>
@@ -25358,11 +25498,11 @@
       <c r="I15" s="48">
         <v>49.545975466666597</v>
       </c>
-      <c r="L15" s="259">
+      <c r="L15" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274494244732</v>
       </c>
-      <c r="M15" s="260">
+      <c r="M15" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551673196647</v>
       </c>
@@ -25393,11 +25533,11 @@
       <c r="I16" s="48">
         <v>1180.8908984320001</v>
       </c>
-      <c r="L16" s="259">
+      <c r="L16" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274499485507</v>
       </c>
-      <c r="M16" s="260">
+      <c r="M16" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551671431852</v>
       </c>
@@ -25428,11 +25568,11 @@
       <c r="I17" s="48">
         <v>223.31333546666599</v>
       </c>
-      <c r="L17" s="259">
+      <c r="L17" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274495950834</v>
       </c>
-      <c r="M17" s="260">
+      <c r="M17" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551672622128</v>
       </c>
@@ -25463,11 +25603,11 @@
       <c r="I18" s="48">
         <v>0</v>
       </c>
-      <c r="L18" s="259">
+      <c r="L18" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274490310812</v>
       </c>
-      <c r="M18" s="260">
+      <c r="M18" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551674521365</v>
       </c>
@@ -25498,11 +25638,11 @@
       <c r="I19" s="48">
         <v>0</v>
       </c>
-      <c r="L19" s="259">
+      <c r="L19" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274486840522</v>
       </c>
-      <c r="M19" s="260">
+      <c r="M19" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551675689961</v>
       </c>
@@ -25533,11 +25673,11 @@
       <c r="I20" s="48">
         <v>1708.0743352320001</v>
       </c>
-      <c r="L20" s="259">
+      <c r="L20" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274494828276</v>
       </c>
-      <c r="M20" s="260">
+      <c r="M20" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551673000142</v>
       </c>
@@ -25568,11 +25708,11 @@
       <c r="I21" s="48">
         <v>565.94692480000003</v>
       </c>
-      <c r="L21" s="259">
+      <c r="L21" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274495971773</v>
       </c>
-      <c r="M21" s="260">
+      <c r="M21" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551672615079</v>
       </c>
@@ -25603,11 +25743,11 @@
       <c r="I22" s="48">
         <v>801.68239871999901</v>
       </c>
-      <c r="L22" s="259">
+      <c r="L22" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274506111573</v>
       </c>
-      <c r="M22" s="260">
+      <c r="M22" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551669200574</v>
       </c>
@@ -25638,11 +25778,11 @@
       <c r="I23" s="48">
         <v>600.98911795199899</v>
       </c>
-      <c r="L23" s="259">
+      <c r="L23" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274514044405</v>
       </c>
-      <c r="M23" s="260">
+      <c r="M23" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551666529251</v>
       </c>
@@ -25673,11 +25813,11 @@
       <c r="I24" s="48">
         <v>1452.6951296</v>
       </c>
-      <c r="L24" s="259">
+      <c r="L24" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274496546313</v>
       </c>
-      <c r="M24" s="260">
+      <c r="M24" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551672421607</v>
       </c>
@@ -25708,11 +25848,11 @@
       <c r="I25" s="48">
         <v>62.021580800000002</v>
       </c>
-      <c r="L25" s="259">
+      <c r="L25" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274509745622</v>
       </c>
-      <c r="M25" s="260">
+      <c r="M25" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551667976833</v>
       </c>
@@ -25743,11 +25883,11 @@
       <c r="I26" s="48">
         <v>604.3094112</v>
       </c>
-      <c r="L26" s="259">
+      <c r="L26" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274486830896</v>
       </c>
-      <c r="M26" s="260">
+      <c r="M26" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551675693201</v>
       </c>
@@ -25778,11 +25918,11 @@
       <c r="I27" s="48">
         <v>2140.0546455039998</v>
       </c>
-      <c r="L27" s="259">
+      <c r="L27" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274488396777</v>
       </c>
-      <c r="M27" s="260">
+      <c r="M27" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551675165905</v>
       </c>
@@ -25813,11 +25953,11 @@
       <c r="I28" s="48">
         <v>2559.2831048960002</v>
       </c>
-      <c r="L28" s="259">
+      <c r="L28" s="262">
         <f t="shared" si="0"/>
         <v>0.5449427448581281</v>
       </c>
-      <c r="M28" s="260">
+      <c r="M28" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551676036033</v>
       </c>
@@ -25848,11 +25988,11 @@
       <c r="I29" s="48">
         <v>2354.2803936</v>
       </c>
-      <c r="L29" s="259">
+      <c r="L29" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274489136851</v>
       </c>
-      <c r="M29" s="260">
+      <c r="M29" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551674916689</v>
       </c>
@@ -25883,11 +26023,11 @@
       <c r="I30" s="48">
         <v>151.8459392</v>
       </c>
-      <c r="L30" s="259">
+      <c r="L30" s="262">
         <f t="shared" si="0"/>
         <v>0.5449427448749129</v>
       </c>
-      <c r="M30" s="260">
+      <c r="M30" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551675470819</v>
       </c>
@@ -25918,11 +26058,11 @@
       <c r="I31" s="48">
         <v>216.88839872</v>
       </c>
-      <c r="L31" s="259">
+      <c r="L31" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274494631356</v>
       </c>
-      <c r="M31" s="260">
+      <c r="M31" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551673066453</v>
       </c>
@@ -25953,11 +26093,11 @@
       <c r="I32" s="48">
         <v>8208.2354175999899</v>
       </c>
-      <c r="L32" s="259">
+      <c r="L32" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274485718031</v>
       </c>
-      <c r="M32" s="260">
+      <c r="M32" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551676067952</v>
       </c>
@@ -25988,11 +26128,11 @@
       <c r="I33" s="48">
         <v>538.34732134399997</v>
       </c>
-      <c r="L33" s="259">
+      <c r="L33" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274491211225</v>
       </c>
-      <c r="M33" s="260">
+      <c r="M33" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551674218158</v>
       </c>
@@ -26023,11 +26163,11 @@
       <c r="I34" s="48">
         <v>15281.9704752</v>
       </c>
-      <c r="L34" s="259">
+      <c r="L34" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274493938299</v>
       </c>
-      <c r="M34" s="260">
+      <c r="M34" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551673299835</v>
       </c>
@@ -26058,11 +26198,11 @@
       <c r="I35" s="48">
         <v>6085.7499888640004</v>
       </c>
-      <c r="L35" s="259">
+      <c r="L35" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274514155971</v>
       </c>
-      <c r="M35" s="260">
+      <c r="M35" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551666491681</v>
       </c>
@@ -26093,11 +26233,11 @@
       <c r="I36" s="48">
         <v>1986.4282592</v>
       </c>
-      <c r="L36" s="259">
+      <c r="L36" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274487588679</v>
       </c>
-      <c r="M36" s="260">
+      <c r="M36" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551675438025</v>
       </c>
@@ -26128,11 +26268,11 @@
       <c r="I37" s="48">
         <v>2994.59083733333</v>
       </c>
-      <c r="L37" s="259">
+      <c r="L37" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274478278759</v>
       </c>
-      <c r="M37" s="260">
+      <c r="M37" s="263">
         <f t="shared" si="1"/>
         <v>1.835055167857307</v>
       </c>
@@ -26163,11 +26303,11 @@
       <c r="I38" s="48">
         <v>379.61484799999897</v>
       </c>
-      <c r="L38" s="259">
+      <c r="L38" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274487491057</v>
       </c>
-      <c r="M38" s="260">
+      <c r="M38" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551675470899</v>
       </c>
@@ -26198,11 +26338,11 @@
       <c r="I39" s="48">
         <v>589.20501760000002</v>
       </c>
-      <c r="L39" s="259">
+      <c r="L39" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274502185547</v>
       </c>
-      <c r="M39" s="260">
+      <c r="M39" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551670522637</v>
       </c>
@@ -26233,11 +26373,11 @@
       <c r="I40" s="48">
         <v>0</v>
       </c>
-      <c r="L40" s="259">
+      <c r="L40" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274482385319</v>
       </c>
-      <c r="M40" s="260">
+      <c r="M40" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551677190219</v>
       </c>
@@ -26268,11 +26408,11 @@
       <c r="I41" s="48">
         <v>5929.2631244799904</v>
       </c>
-      <c r="L41" s="259">
+      <c r="L41" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274469077142</v>
       </c>
-      <c r="M41" s="260">
+      <c r="M41" s="263">
         <f t="shared" si="1"/>
         <v>1.835055168167165</v>
       </c>
@@ -26303,11 +26443,11 @@
       <c r="I42" s="48">
         <v>1482.81480533333</v>
       </c>
-      <c r="L42" s="259">
+      <c r="L42" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274488337502</v>
       </c>
-      <c r="M42" s="260">
+      <c r="M42" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551675185862</v>
       </c>
@@ -26338,11 +26478,11 @@
       <c r="I43" s="48">
         <v>4379.8998758399903</v>
       </c>
-      <c r="L43" s="259">
+      <c r="L43" s="262">
         <f t="shared" si="0"/>
         <v>0.5449427449087455</v>
       </c>
-      <c r="M43" s="260">
+      <c r="M43" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551674331532</v>
       </c>
@@ -26373,11 +26513,11 @@
       <c r="I44" s="48">
         <v>610.41354666666598</v>
       </c>
-      <c r="L44" s="259">
+      <c r="L44" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274486748995</v>
       </c>
-      <c r="M44" s="260">
+      <c r="M44" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551675720783</v>
       </c>
@@ -26408,11 +26548,11 @@
       <c r="I45" s="48">
         <v>10169.6010768</v>
       </c>
-      <c r="L45" s="259">
+      <c r="L45" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274488584016</v>
       </c>
-      <c r="M45" s="260">
+      <c r="M45" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551675102851</v>
       </c>
@@ -26443,11 +26583,11 @@
       <c r="I46" s="48">
         <v>0</v>
       </c>
-      <c r="L46" s="259">
+      <c r="L46" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274485871785</v>
       </c>
-      <c r="M46" s="260">
+      <c r="M46" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551676016176</v>
       </c>
@@ -26478,11 +26618,11 @@
       <c r="I47" s="48">
         <v>0</v>
       </c>
-      <c r="L47" s="259">
+      <c r="L47" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274488281935</v>
       </c>
-      <c r="M47" s="260">
+      <c r="M47" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551675204574</v>
       </c>
@@ -26513,11 +26653,11 @@
       <c r="I48" s="48">
         <v>10036.3322050559</v>
       </c>
-      <c r="L48" s="259">
+      <c r="L48" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274475972471</v>
       </c>
-      <c r="M48" s="260">
+      <c r="M48" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551679349696</v>
       </c>
@@ -26548,11 +26688,11 @@
       <c r="I49" s="48">
         <v>0</v>
       </c>
-      <c r="L49" s="259">
+      <c r="L49" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274486530814</v>
       </c>
-      <c r="M49" s="260">
+      <c r="M49" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551675794251</v>
       </c>
@@ -26583,11 +26723,11 @@
       <c r="I50" s="48">
         <v>966.50296746666595</v>
       </c>
-      <c r="L50" s="259">
+      <c r="L50" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274484397109</v>
       </c>
-      <c r="M50" s="260">
+      <c r="M50" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551676512763</v>
       </c>
@@ -26618,11 +26758,11 @@
       <c r="I51" s="48">
         <v>0</v>
       </c>
-      <c r="L51" s="259">
+      <c r="L51" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274493785344</v>
       </c>
-      <c r="M51" s="260">
+      <c r="M51" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551673351341</v>
       </c>
@@ -26653,11 +26793,11 @@
       <c r="I52" s="48">
         <v>11305.7054431999</v>
       </c>
-      <c r="L52" s="259">
+      <c r="L52" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274490930217</v>
       </c>
-      <c r="M52" s="260">
+      <c r="M52" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551674312785</v>
       </c>
@@ -26688,11 +26828,11 @@
       <c r="I53" s="48">
         <v>0</v>
       </c>
-      <c r="L53" s="259">
+      <c r="L53" s="262">
         <f t="shared" si="0"/>
         <v>0.5449427449349713</v>
       </c>
-      <c r="M53" s="260">
+      <c r="M53" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551673448394</v>
       </c>
@@ -26723,11 +26863,11 @@
       <c r="I54" s="48">
         <v>963.81536563199995</v>
       </c>
-      <c r="L54" s="259">
+      <c r="L54" s="262">
         <f t="shared" si="0"/>
         <v>0.5449427449563411</v>
       </c>
-      <c r="M54" s="260">
+      <c r="M54" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551672728783</v>
       </c>
@@ -26758,11 +26898,11 @@
       <c r="I55" s="48">
         <v>3717.2848319999998</v>
       </c>
-      <c r="L55" s="259">
+      <c r="L55" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274489136851</v>
       </c>
-      <c r="M55" s="260">
+      <c r="M55" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551674916689</v>
       </c>
@@ -26793,11 +26933,11 @@
       <c r="I56" s="48">
         <v>19474.776371200001</v>
       </c>
-      <c r="L56" s="259">
+      <c r="L56" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274497851736</v>
       </c>
-      <c r="M56" s="260">
+      <c r="M56" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551671982014</v>
       </c>
@@ -26828,11 +26968,11 @@
       <c r="I57" s="48">
         <v>0</v>
       </c>
-      <c r="L57" s="259">
+      <c r="L57" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274492274963</v>
       </c>
-      <c r="M57" s="260">
+      <c r="M57" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551673859949</v>
       </c>
@@ -26863,11 +27003,11 @@
       <c r="I58" s="48">
         <v>0</v>
       </c>
-      <c r="L58" s="259">
+      <c r="L58" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274480192506</v>
       </c>
-      <c r="M58" s="260">
+      <c r="M58" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551677928633</v>
       </c>
@@ -26898,11 +27038,11 @@
       <c r="I59" s="48">
         <v>2403.9564718080001</v>
       </c>
-      <c r="L59" s="259">
+      <c r="L59" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274489338335</v>
       </c>
-      <c r="M59" s="260">
+      <c r="M59" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551674848841</v>
       </c>
@@ -26933,11 +27073,11 @@
       <c r="I60" s="48">
         <v>205.71382080000001</v>
       </c>
-      <c r="L60" s="259">
+      <c r="L60" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274484348304</v>
       </c>
-      <c r="M60" s="260">
+      <c r="M60" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551676529194</v>
       </c>
@@ -26968,11 +27108,11 @@
       <c r="I61" s="48">
         <v>911.09702195199998</v>
       </c>
-      <c r="L61" s="259">
+      <c r="L61" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274496284312</v>
       </c>
-      <c r="M61" s="260">
+      <c r="M61" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551672509832</v>
       </c>
@@ -27003,11 +27143,11 @@
       <c r="I62" s="48">
         <v>2136.4474133333301</v>
       </c>
-      <c r="L62" s="259">
+      <c r="L62" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274490223948</v>
       </c>
-      <c r="M62" s="260">
+      <c r="M62" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551674550617</v>
       </c>
@@ -27038,11 +27178,11 @@
       <c r="I63" s="48">
         <v>665.49156198399999</v>
       </c>
-      <c r="L63" s="259">
+      <c r="L63" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274477572413</v>
       </c>
-      <c r="M63" s="260">
+      <c r="M63" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551678810931</v>
       </c>
@@ -27073,11 +27213,11 @@
       <c r="I64" s="48">
         <v>117.09246719999901</v>
       </c>
-      <c r="L64" s="259">
+      <c r="L64" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274491599037</v>
       </c>
-      <c r="M64" s="260">
+      <c r="M64" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551674087563</v>
       </c>
@@ -27108,11 +27248,11 @@
       <c r="I65" s="48">
         <v>2150.4913804799999</v>
       </c>
-      <c r="L65" s="259">
+      <c r="L65" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274494606842</v>
       </c>
-      <c r="M65" s="260">
+      <c r="M65" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551673074709</v>
       </c>
@@ -27143,11 +27283,11 @@
       <c r="I66" s="48">
         <v>5747.6895999999997</v>
       </c>
-      <c r="L66" s="259">
+      <c r="L66" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274497497119</v>
       </c>
-      <c r="M66" s="260">
+      <c r="M66" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551672101427</v>
       </c>
@@ -27178,11 +27318,11 @@
       <c r="I67" s="48">
         <v>0</v>
       </c>
-      <c r="L67" s="259">
+      <c r="L67" s="262">
         <f t="shared" si="0"/>
         <v>0.54494274495663109</v>
       </c>
-      <c r="M67" s="260">
+      <c r="M67" s="263">
         <f t="shared" si="1"/>
         <v>1.8350551672719018</v>
       </c>
@@ -27213,11 +27353,11 @@
       <c r="I68" s="48">
         <v>0</v>
       </c>
-      <c r="L68" s="259">
+      <c r="L68" s="262">
         <f t="shared" ref="L68:L113" si="2">H68/C68</f>
         <v>0.54494274493657457</v>
       </c>
-      <c r="M68" s="260">
+      <c r="M68" s="263">
         <f t="shared" ref="M68:M113" si="3">C68/H68</f>
         <v>1.8350551673394406</v>
       </c>
@@ -27248,11 +27388,11 @@
       <c r="I69" s="48">
         <v>0</v>
       </c>
-      <c r="L69" s="259">
+      <c r="L69" s="262">
         <f t="shared" si="2"/>
         <v>0.54494274488807037</v>
       </c>
-      <c r="M69" s="260">
+      <c r="M69" s="263">
         <f t="shared" si="3"/>
         <v>1.8350551675027749</v>
       </c>
@@ -27283,11 +27423,11 @@
       <c r="I70" s="48">
         <v>338.17801600000001</v>
       </c>
-      <c r="L70" s="259">
+      <c r="L70" s="262">
         <f t="shared" si="2"/>
         <v>0.5449427448558456</v>
       </c>
-      <c r="M70" s="260">
+      <c r="M70" s="263">
         <f t="shared" si="3"/>
         <v>1.8350551676112896</v>
       </c>
@@ -27318,11 +27458,11 @@
       <c r="I71" s="48">
         <v>47172.464818560002</v>
       </c>
-      <c r="L71" s="259">
+      <c r="L71" s="262">
         <f t="shared" si="2"/>
         <v>0.54494274488266514</v>
       </c>
-      <c r="M71" s="260">
+      <c r="M71" s="263">
         <f t="shared" si="3"/>
         <v>1.8350551675209767</v>
       </c>
@@ -27353,11 +27493,11 @@
       <c r="I72" s="48">
         <v>0</v>
       </c>
-      <c r="L72" s="259">
+      <c r="L72" s="262">
         <f t="shared" si="2"/>
         <v>0.54494274490382422</v>
       </c>
-      <c r="M72" s="260">
+      <c r="M72" s="263">
         <f t="shared" si="3"/>
         <v>1.8350551674497251</v>
       </c>
@@ -27388,11 +27528,11 @@
       <c r="I73" s="48">
         <v>53988.449414399998</v>
       </c>
-      <c r="L73" s="259">
+      <c r="L73" s="262">
         <f t="shared" si="2"/>
         <v>0.54494274490653494</v>
       </c>
-      <c r="M73" s="260">
+      <c r="M73" s="263">
         <f t="shared" si="3"/>
         <v>1.835055167440597</v>
       </c>
@@ -27423,11 +27563,11 @@
       <c r="I74" s="48">
         <v>5487.7068959999997</v>
       </c>
-      <c r="L74" s="259">
+      <c r="L74" s="262">
         <f t="shared" si="2"/>
         <v>0.54494274473900817</v>
       </c>
-      <c r="M74" s="260">
+      <c r="M74" s="263">
         <f t="shared" si="3"/>
         <v>1.8350551680047311</v>
       </c>
@@ -27458,11 +27598,11 @@
       <c r="I75" s="48">
         <v>885.76797866666595</v>
       </c>
-      <c r="L75" s="259">
+      <c r="L75" s="262">
         <f t="shared" si="2"/>
         <v>0.5449427448749129</v>
       </c>
-      <c r="M75" s="260">
+      <c r="M75" s="263">
         <f t="shared" si="3"/>
         <v>1.8350551675470816</v>
       </c>
@@ -27493,11 +27633,11 @@
       <c r="I76" s="48">
         <v>958.23342335999996</v>
       </c>
-      <c r="L76" s="259">
+      <c r="L76" s="262">
         <f t="shared" si="2"/>
         <v>0.54494274495334927</v>
       </c>
-      <c r="M76" s="260">
+      <c r="M76" s="263">
         <f t="shared" si="3"/>
         <v>1.8350551672829531</v>
       </c>
@@ -27528,11 +27668,11 @@
       <c r="I77" s="48">
         <v>2668.6656479999901</v>
       </c>
-      <c r="L77" s="259">
+      <c r="L77" s="262">
         <f t="shared" si="2"/>
         <v>0.54494274488245364</v>
       </c>
-      <c r="M77" s="260">
+      <c r="M77" s="263">
         <f t="shared" si="3"/>
         <v>1.8350551675216888</v>
       </c>
@@ -27563,11 +27703,11 @@
       <c r="I78" s="48">
         <v>948.14600533333305</v>
       </c>
-      <c r="L78" s="259">
+      <c r="L78" s="262">
         <f t="shared" si="2"/>
         <v>0.54494274485175354</v>
       </c>
-      <c r="M78" s="260">
+      <c r="M78" s="263">
         <f t="shared" si="3"/>
         <v>1.8350551676250693</v>
       </c>
@@ -27598,11 +27738,11 @@
       <c r="I79" s="48">
         <v>956.64545702399903</v>
       </c>
-      <c r="L79" s="259">
+      <c r="L79" s="262">
         <f t="shared" si="2"/>
         <v>0.5449427450060127</v>
       </c>
-      <c r="M79" s="260">
+      <c r="M79" s="263">
         <f t="shared" si="3"/>
         <v>1.8350551671056128</v>
       </c>
@@ -27633,11 +27773,11 @@
       <c r="I80" s="48">
         <v>162.80664959999999</v>
       </c>
-      <c r="L80" s="259">
+      <c r="L80" s="262">
         <f t="shared" si="2"/>
         <v>0.54494274498345496</v>
       </c>
-      <c r="M80" s="260">
+      <c r="M80" s="263">
         <f t="shared" si="3"/>
         <v>1.8350551671815745</v>
       </c>
@@ -27668,11 +27808,11 @@
       <c r="I81" s="48">
         <v>3111.2377471999898</v>
       </c>
-      <c r="L81" s="259">
+      <c r="L81" s="262">
         <f t="shared" si="2"/>
         <v>0.54494274476039661</v>
       </c>
-      <c r="M81" s="260">
+      <c r="M81" s="263">
         <f t="shared" si="3"/>
         <v>1.8350551679327072</v>
       </c>
@@ -27703,11 +27843,11 @@
       <c r="I82" s="48">
         <v>1683.5758108160001</v>
       </c>
-      <c r="L82" s="259">
+      <c r="L82" s="262">
         <f t="shared" si="2"/>
         <v>0.54494274497989359</v>
       </c>
-      <c r="M82" s="260">
+      <c r="M82" s="263">
         <f t="shared" si="3"/>
         <v>1.8350551671935669</v>
       </c>
@@ -27738,11 +27878,11 @@
       <c r="I83" s="48">
         <v>0</v>
       </c>
-      <c r="L83" s="259">
+      <c r="L83" s="262">
         <f t="shared" si="2"/>
         <v>0.54494274487874261</v>
       </c>
-      <c r="M83" s="260">
+      <c r="M83" s="263">
         <f t="shared" si="3"/>
         <v>1.8350551675341855</v>
       </c>
@@ -27773,11 +27913,11 @@
       <c r="I84" s="48">
         <v>0</v>
       </c>
-      <c r="L84" s="259">
+      <c r="L84" s="262">
         <f t="shared" si="2"/>
         <v>0.54494274488054906</v>
       </c>
-      <c r="M84" s="260">
+      <c r="M84" s="263">
         <f t="shared" si="3"/>
         <v>1.8350551675281028</v>
       </c>
@@ -27808,11 +27948,11 @@
       <c r="I85" s="48">
         <v>15916.355006399999</v>
       </c>
-      <c r="L85" s="259">
+      <c r="L85" s="262">
         <f t="shared" si="2"/>
         <v>0.54494274493103612</v>
       </c>
-      <c r="M85" s="260">
+      <c r="M85" s="263">
         <f t="shared" si="3"/>
         <v>1.8350551673580908</v>
       </c>
@@ -27843,11 +27983,11 @@
       <c r="I86" s="48">
         <v>0</v>
       </c>
-      <c r="L86" s="259">
+      <c r="L86" s="262">
         <f t="shared" si="2"/>
         <v>0.5449427449023202</v>
       </c>
-      <c r="M86" s="260">
+      <c r="M86" s="263">
         <f t="shared" si="3"/>
         <v>1.8350551674547897</v>
       </c>
@@ -27878,11 +28018,11 @@
       <c r="I87" s="147">
         <v>2094.7040378880001</v>
       </c>
-      <c r="L87" s="259">
+      <c r="L87" s="262">
         <f t="shared" si="2"/>
         <v>0.99999999994653199</v>
       </c>
-      <c r="M87" s="260">
+      <c r="M87" s="263">
         <f t="shared" si="3"/>
         <v>1.0000000000534681</v>
       </c>
@@ -27913,11 +28053,11 @@
       <c r="I88" s="147">
         <v>32196.600251391999</v>
       </c>
-      <c r="L88" s="259">
+      <c r="L88" s="262">
         <f t="shared" si="2"/>
         <v>1.0000000000432343</v>
       </c>
-      <c r="M88" s="260">
+      <c r="M88" s="263">
         <f t="shared" si="3"/>
         <v>0.99999999995676558</v>
       </c>
@@ -27948,11 +28088,11 @@
       <c r="I89" s="147">
         <v>1690.40887808</v>
       </c>
-      <c r="L89" s="259">
+      <c r="L89" s="262">
         <f t="shared" si="2"/>
         <v>1.0000000000473259</v>
       </c>
-      <c r="M89" s="260">
+      <c r="M89" s="263">
         <f t="shared" si="3"/>
         <v>0.99999999995267408</v>
       </c>
@@ -27983,11 +28123,11 @@
       <c r="I90" s="147">
         <v>0</v>
       </c>
-      <c r="L90" s="259">
+      <c r="L90" s="262">
         <f t="shared" si="2"/>
         <v>1.0000000002361509</v>
       </c>
-      <c r="M90" s="260">
+      <c r="M90" s="263">
         <f t="shared" si="3"/>
         <v>0.99999999976384901</v>
       </c>
@@ -28018,11 +28158,11 @@
       <c r="I91" s="147">
         <v>0</v>
       </c>
-      <c r="L91" s="259">
+      <c r="L91" s="262">
         <f t="shared" si="2"/>
         <v>0.99999999995060884</v>
       </c>
-      <c r="M91" s="260">
+      <c r="M91" s="263">
         <f t="shared" si="3"/>
         <v>1.0000000000493912</v>
       </c>
@@ -28053,746 +28193,746 @@
       <c r="I92" s="147">
         <v>199130.9785344</v>
       </c>
-      <c r="L92" s="259">
+      <c r="L92" s="262">
         <f t="shared" si="2"/>
         <v>1.0000000001727507</v>
       </c>
-      <c r="M92" s="260">
+      <c r="M92" s="263">
         <f t="shared" si="3"/>
         <v>0.99999999982724941</v>
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="257" t="s">
+      <c r="A93" s="260" t="s">
         <v>130</v>
       </c>
-      <c r="B93" s="257" t="s">
+      <c r="B93" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="C93" s="257">
+      <c r="C93" s="260">
         <v>5005.2979210000003</v>
       </c>
-      <c r="D93" s="257">
+      <c r="D93" s="260">
         <v>5005.2979210000003</v>
       </c>
-      <c r="E93" s="257"/>
-      <c r="F93" s="257" t="s">
+      <c r="E93" s="260"/>
+      <c r="F93" s="260" t="s">
         <v>130</v>
       </c>
-      <c r="G93" s="257" t="s">
+      <c r="G93" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="H93" s="257">
+      <c r="H93" s="260">
         <v>3318.1545727999901</v>
       </c>
-      <c r="I93" s="257">
+      <c r="I93" s="260">
         <v>3318.1545727999901</v>
       </c>
-      <c r="L93" s="259">
+      <c r="L93" s="262">
         <f t="shared" si="2"/>
         <v>0.66292848601049137</v>
       </c>
-      <c r="M93" s="260">
+      <c r="M93" s="263">
         <f t="shared" si="3"/>
         <v>1.5084583346508573</v>
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="257" t="s">
+      <c r="A94" s="260" t="s">
         <v>675</v>
       </c>
-      <c r="B94" s="257" t="s">
+      <c r="B94" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="C94" s="257">
+      <c r="C94" s="260">
         <v>99806.112359999999</v>
       </c>
-      <c r="D94" s="257">
+      <c r="D94" s="260">
         <v>99806.112359999999</v>
       </c>
-      <c r="E94" s="257"/>
-      <c r="F94" s="257" t="s">
+      <c r="E94" s="260"/>
+      <c r="F94" s="260" t="s">
         <v>675</v>
       </c>
-      <c r="G94" s="257" t="s">
+      <c r="G94" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="H94" s="257">
+      <c r="H94" s="260">
         <v>66164.3149628799</v>
       </c>
-      <c r="I94" s="257">
+      <c r="I94" s="260">
         <v>66164.3149628799</v>
       </c>
-      <c r="L94" s="259">
+      <c r="L94" s="262">
         <f t="shared" si="2"/>
         <v>0.66292848602524113</v>
       </c>
-      <c r="M94" s="260">
+      <c r="M94" s="263">
         <f t="shared" si="3"/>
         <v>1.5084583346172953</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="257" t="s">
+      <c r="A95" s="260" t="s">
         <v>677</v>
       </c>
-      <c r="B95" s="257" t="s">
+      <c r="B95" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="C95" s="257">
+      <c r="C95" s="260">
         <v>109104.8216</v>
       </c>
-      <c r="D95" s="257">
+      <c r="D95" s="260">
         <v>109104.8216</v>
       </c>
-      <c r="E95" s="257"/>
-      <c r="F95" s="257" t="s">
+      <c r="E95" s="260"/>
+      <c r="F95" s="260" t="s">
         <v>677</v>
       </c>
-      <c r="G95" s="257" t="s">
+      <c r="G95" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="H95" s="257">
+      <c r="H95" s="260">
         <v>72328.694231748595</v>
       </c>
-      <c r="I95" s="257">
+      <c r="I95" s="260">
         <v>72328.694231748595</v>
       </c>
-      <c r="L95" s="259">
+      <c r="L95" s="262">
         <f t="shared" si="2"/>
         <v>0.66292848630393253</v>
       </c>
-      <c r="M95" s="260">
+      <c r="M95" s="263">
         <f t="shared" si="3"/>
         <v>1.5084583339831477</v>
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="257" t="s">
+      <c r="A96" s="260" t="s">
         <v>184</v>
       </c>
-      <c r="B96" s="257" t="s">
+      <c r="B96" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="C96" s="257">
+      <c r="C96" s="260">
         <v>44622.642290000003</v>
       </c>
-      <c r="D96" s="257">
+      <c r="D96" s="260">
         <v>44622.642290000003</v>
       </c>
-      <c r="E96" s="257"/>
-      <c r="F96" s="257" t="s">
+      <c r="E96" s="260"/>
+      <c r="F96" s="260" t="s">
         <v>184</v>
       </c>
-      <c r="G96" s="257" t="s">
+      <c r="G96" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="H96" s="257">
+      <c r="H96" s="260">
         <v>29581.620697599999</v>
       </c>
-      <c r="I96" s="257">
+      <c r="I96" s="260">
         <v>29581.620697599901</v>
       </c>
-      <c r="L96" s="259">
+      <c r="L96" s="262">
         <f t="shared" si="2"/>
         <v>0.6629284860665744</v>
       </c>
-      <c r="M96" s="260">
+      <c r="M96" s="263">
         <f t="shared" si="3"/>
         <v>1.5084583345232434</v>
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="257" t="s">
+      <c r="A97" s="260" t="s">
         <v>201</v>
       </c>
-      <c r="B97" s="257" t="s">
+      <c r="B97" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="C97" s="257">
+      <c r="C97" s="260">
         <v>3593.781324</v>
       </c>
-      <c r="D97" s="257">
+      <c r="D97" s="260">
         <v>3593.781324</v>
       </c>
-      <c r="E97" s="257"/>
-      <c r="F97" s="257" t="s">
+      <c r="E97" s="260"/>
+      <c r="F97" s="260" t="s">
         <v>201</v>
       </c>
-      <c r="G97" s="257" t="s">
+      <c r="G97" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="H97" s="257">
+      <c r="H97" s="260">
         <v>2382.4200125440002</v>
       </c>
-      <c r="I97" s="257">
+      <c r="I97" s="260">
         <v>2382.4200125440002</v>
       </c>
-      <c r="L97" s="259">
+      <c r="L97" s="262">
         <f t="shared" si="2"/>
         <v>0.66292848611397592</v>
       </c>
-      <c r="M97" s="260">
+      <c r="M97" s="263">
         <f t="shared" si="3"/>
         <v>1.5084583344153837</v>
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="257" t="s">
+      <c r="A98" s="260" t="s">
         <v>211</v>
       </c>
-      <c r="B98" s="257" t="s">
+      <c r="B98" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="C98" s="257">
+      <c r="C98" s="260">
         <v>11180.05797</v>
       </c>
-      <c r="D98" s="257">
+      <c r="D98" s="260">
         <v>0</v>
       </c>
-      <c r="E98" s="257"/>
-      <c r="F98" s="257" t="s">
+      <c r="E98" s="260"/>
+      <c r="F98" s="260" t="s">
         <v>211</v>
       </c>
-      <c r="G98" s="257" t="s">
+      <c r="G98" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="H98" s="257">
+      <c r="H98" s="260">
         <v>7411.5789055999903</v>
       </c>
-      <c r="I98" s="257">
+      <c r="I98" s="260">
         <v>0</v>
       </c>
-      <c r="L98" s="259">
+      <c r="L98" s="262">
         <f t="shared" si="2"/>
         <v>0.66292848619281264</v>
       </c>
-      <c r="M98" s="260">
+      <c r="M98" s="263">
         <f t="shared" si="3"/>
         <v>1.508458334235995</v>
       </c>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="257" t="s">
+      <c r="A99" s="260" t="s">
         <v>224</v>
       </c>
-      <c r="B99" s="257" t="s">
+      <c r="B99" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="C99" s="257">
+      <c r="C99" s="260">
         <v>71223.332769999994</v>
       </c>
-      <c r="D99" s="257">
+      <c r="D99" s="260">
         <v>71223.332769999994</v>
       </c>
-      <c r="E99" s="257"/>
-      <c r="F99" s="257" t="s">
+      <c r="E99" s="260"/>
+      <c r="F99" s="260" t="s">
         <v>224</v>
       </c>
-      <c r="G99" s="257" t="s">
+      <c r="G99" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="H99" s="257">
+      <c r="H99" s="260">
         <v>47215.976165503998</v>
       </c>
-      <c r="I99" s="257">
+      <c r="I99" s="260">
         <v>47215.976165503998</v>
       </c>
-      <c r="L99" s="259">
+      <c r="L99" s="262">
         <f t="shared" si="2"/>
         <v>0.66292848606197008</v>
       </c>
-      <c r="M99" s="260">
+      <c r="M99" s="263">
         <f t="shared" si="3"/>
         <v>1.5084583345337204</v>
       </c>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="257" t="s">
+      <c r="A100" s="260" t="s">
         <v>255</v>
       </c>
-      <c r="B100" s="257" t="s">
+      <c r="B100" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="C100" s="257">
+      <c r="C100" s="260">
         <v>14522.348480000001</v>
       </c>
-      <c r="D100" s="257">
+      <c r="D100" s="260">
         <v>14522.348480000001</v>
       </c>
-      <c r="E100" s="257"/>
-      <c r="F100" s="257" t="s">
+      <c r="E100" s="260"/>
+      <c r="F100" s="260" t="s">
         <v>255</v>
       </c>
-      <c r="G100" s="257" t="s">
+      <c r="G100" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="H100" s="257">
+      <c r="H100" s="260">
         <v>9627.2784929280006</v>
       </c>
-      <c r="I100" s="257">
+      <c r="I100" s="260">
         <v>9627.2784929280006</v>
       </c>
-      <c r="L100" s="259">
+      <c r="L100" s="262">
         <f t="shared" si="2"/>
         <v>0.66292848613201716</v>
       </c>
-      <c r="M100" s="260">
+      <c r="M100" s="263">
         <f t="shared" si="3"/>
         <v>1.5084583343743319</v>
       </c>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="258" t="s">
+      <c r="A101" s="261" t="s">
         <v>154</v>
       </c>
-      <c r="B101" s="258" t="s">
+      <c r="B101" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="C101" s="258">
+      <c r="C101" s="261">
         <v>1832.1301840000001</v>
       </c>
-      <c r="D101" s="258">
+      <c r="D101" s="261">
         <v>1832.1301840000001</v>
       </c>
-      <c r="E101" s="258"/>
-      <c r="F101" s="258" t="s">
+      <c r="E101" s="261"/>
+      <c r="F101" s="261" t="s">
         <v>154</v>
       </c>
-      <c r="G101" s="258" t="s">
+      <c r="G101" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="H101" s="258">
+      <c r="H101" s="261">
         <v>873.19516341657595</v>
       </c>
-      <c r="I101" s="258">
+      <c r="I101" s="261">
         <v>873.19516341657595</v>
       </c>
-      <c r="L101" s="259">
+      <c r="L101" s="262">
         <f t="shared" si="2"/>
         <v>0.47660104671719983</v>
       </c>
-      <c r="M101" s="260">
+      <c r="M101" s="263">
         <f t="shared" si="3"/>
         <v>2.0981909437420283</v>
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="258" t="s">
+      <c r="A102" s="261" t="s">
         <v>165</v>
       </c>
-      <c r="B102" s="258" t="s">
+      <c r="B102" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="C102" s="258">
+      <c r="C102" s="261">
         <v>106815.74490000001</v>
       </c>
-      <c r="D102" s="258">
+      <c r="D102" s="261">
         <v>106815.74490000001</v>
       </c>
-      <c r="E102" s="258"/>
-      <c r="F102" s="258" t="s">
+      <c r="E102" s="261"/>
+      <c r="F102" s="261" t="s">
         <v>165</v>
       </c>
-      <c r="G102" s="258" t="s">
+      <c r="G102" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="H102" s="258">
+      <c r="H102" s="261">
         <v>50908.495809697299</v>
       </c>
-      <c r="I102" s="258">
+      <c r="I102" s="261">
         <v>50908.495809697299</v>
       </c>
-      <c r="L102" s="259">
+      <c r="L102" s="262">
         <f t="shared" si="2"/>
         <v>0.47660104657190194</v>
       </c>
-      <c r="M102" s="260">
+      <c r="M102" s="263">
         <f t="shared" si="3"/>
         <v>2.0981909443816886</v>
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="258" t="s">
+      <c r="A103" s="261" t="s">
         <v>172</v>
       </c>
-      <c r="B103" s="258" t="s">
+      <c r="B103" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="C103" s="258">
+      <c r="C103" s="261">
         <v>6384.6960959999997</v>
       </c>
-      <c r="D103" s="258">
+      <c r="D103" s="261">
         <v>6384.6960959999997</v>
       </c>
-      <c r="E103" s="258"/>
-      <c r="F103" s="258" t="s">
+      <c r="E103" s="261"/>
+      <c r="F103" s="261" t="s">
         <v>172</v>
       </c>
-      <c r="G103" s="258" t="s">
+      <c r="G103" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="H103" s="258">
+      <c r="H103" s="261">
         <v>3042.9528422092799</v>
       </c>
-      <c r="I103" s="258">
+      <c r="I103" s="261">
         <v>3042.9528422092799</v>
       </c>
-      <c r="L103" s="259">
+      <c r="L103" s="262">
         <f t="shared" si="2"/>
         <v>0.47660104669910353</v>
       </c>
-      <c r="M103" s="260">
+      <c r="M103" s="263">
         <f t="shared" si="3"/>
         <v>2.0981909438216952</v>
       </c>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="258" t="s">
+      <c r="A104" s="261" t="s">
         <v>173</v>
       </c>
-      <c r="B104" s="258" t="s">
+      <c r="B104" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="C104" s="258">
+      <c r="C104" s="261">
         <v>9521.5250479999995</v>
       </c>
-      <c r="D104" s="258">
+      <c r="D104" s="261">
         <v>9521.5250479999995</v>
       </c>
-      <c r="E104" s="258"/>
-      <c r="F104" s="258" t="s">
+      <c r="E104" s="261"/>
+      <c r="F104" s="261" t="s">
         <v>173</v>
       </c>
-      <c r="G104" s="258" t="s">
+      <c r="G104" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="H104" s="258">
+      <c r="H104" s="261">
         <v>4537.9688038164404</v>
       </c>
-      <c r="I104" s="258">
+      <c r="I104" s="261">
         <v>4537.9688038164404</v>
       </c>
-      <c r="L104" s="259">
+      <c r="L104" s="262">
         <f t="shared" si="2"/>
         <v>0.47660104667472808</v>
       </c>
-      <c r="M104" s="260">
+      <c r="M104" s="263">
         <f t="shared" si="3"/>
         <v>2.0981909439290058</v>
       </c>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="258" t="s">
+      <c r="A105" s="261" t="s">
         <v>180</v>
       </c>
-      <c r="B105" s="258" t="s">
+      <c r="B105" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="C105" s="258">
+      <c r="C105" s="261">
         <v>8091.9083129999999</v>
       </c>
-      <c r="D105" s="258">
+      <c r="D105" s="261">
         <v>8091.9083129999999</v>
       </c>
-      <c r="E105" s="258"/>
-      <c r="F105" s="258" t="s">
+      <c r="E105" s="261"/>
+      <c r="F105" s="261" t="s">
         <v>180</v>
       </c>
-      <c r="G105" s="258" t="s">
+      <c r="G105" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="H105" s="258">
+      <c r="H105" s="261">
         <v>3856.6119717565398</v>
       </c>
-      <c r="I105" s="258">
+      <c r="I105" s="261">
         <v>3856.6119717565398</v>
       </c>
-      <c r="L105" s="259">
+      <c r="L105" s="262">
         <f t="shared" si="2"/>
         <v>0.47660104669756653</v>
       </c>
-      <c r="M105" s="260">
+      <c r="M105" s="263">
         <f t="shared" si="3"/>
         <v>2.0981909438284618</v>
       </c>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="258" t="s">
+      <c r="A106" s="261" t="s">
         <v>207</v>
       </c>
-      <c r="B106" s="258" t="s">
+      <c r="B106" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="C106" s="258">
+      <c r="C106" s="261">
         <v>93896.671929999997</v>
       </c>
-      <c r="D106" s="258">
+      <c r="D106" s="261">
         <v>93896.671929999997</v>
       </c>
-      <c r="E106" s="258"/>
-      <c r="F106" s="258" t="s">
+      <c r="E106" s="261"/>
+      <c r="F106" s="261" t="s">
         <v>207</v>
       </c>
-      <c r="G106" s="258" t="s">
+      <c r="G106" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="H106" s="258">
+      <c r="H106" s="261">
         <v>44751.252125099498</v>
       </c>
-      <c r="I106" s="258">
+      <c r="I106" s="261">
         <v>44751.252125099498</v>
       </c>
-      <c r="L106" s="259">
+      <c r="L106" s="262">
         <f t="shared" si="2"/>
         <v>0.47660104671719966</v>
       </c>
-      <c r="M106" s="260">
+      <c r="M106" s="263">
         <f t="shared" si="3"/>
         <v>2.0981909437420292</v>
       </c>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="258" t="s">
+      <c r="A107" s="261" t="s">
         <v>208</v>
       </c>
-      <c r="B107" s="258" t="s">
+      <c r="B107" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="C107" s="258">
+      <c r="C107" s="261">
         <v>192602.6856</v>
       </c>
-      <c r="D107" s="258">
+      <c r="D107" s="261">
         <v>192602.6856</v>
       </c>
-      <c r="E107" s="258"/>
-      <c r="F107" s="258" t="s">
+      <c r="E107" s="261"/>
+      <c r="F107" s="261" t="s">
         <v>208</v>
       </c>
-      <c r="G107" s="258" t="s">
+      <c r="G107" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="H107" s="258">
+      <c r="H107" s="261">
         <v>91794.641554167494</v>
       </c>
-      <c r="I107" s="258">
+      <c r="I107" s="261">
         <v>91794.641554167494</v>
       </c>
-      <c r="L107" s="259">
+      <c r="L107" s="262">
         <f t="shared" si="2"/>
         <v>0.47660104669987785</v>
       </c>
-      <c r="M107" s="260">
+      <c r="M107" s="263">
         <f t="shared" si="3"/>
         <v>2.0981909438182864</v>
       </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="258" t="s">
+      <c r="A108" s="261" t="s">
         <v>230</v>
       </c>
-      <c r="B108" s="258" t="s">
+      <c r="B108" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="C108" s="258">
+      <c r="C108" s="261">
         <v>3469.94353</v>
       </c>
-      <c r="D108" s="258">
+      <c r="D108" s="261">
         <v>3469.94353</v>
       </c>
-      <c r="E108" s="258"/>
-      <c r="F108" s="258" t="s">
+      <c r="E108" s="261"/>
+      <c r="F108" s="261" t="s">
         <v>230</v>
       </c>
-      <c r="G108" s="258" t="s">
+      <c r="G108" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="H108" s="258">
+      <c r="H108" s="261">
         <v>1653.7787185919999</v>
       </c>
-      <c r="I108" s="258">
+      <c r="I108" s="261">
         <v>1653.7787185919999</v>
       </c>
-      <c r="L108" s="259">
+      <c r="L108" s="262">
         <f t="shared" si="2"/>
         <v>0.47660104675882142</v>
       </c>
-      <c r="M108" s="260">
+      <c r="M108" s="263">
         <f t="shared" si="3"/>
         <v>2.0981909435587931</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="258" t="s">
+      <c r="A109" s="261" t="s">
         <v>232</v>
       </c>
-      <c r="B109" s="258" t="s">
+      <c r="B109" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="C109" s="258">
+      <c r="C109" s="261">
         <v>43971.12442</v>
       </c>
-      <c r="D109" s="258">
+      <c r="D109" s="261">
         <v>43971.12442</v>
       </c>
-      <c r="E109" s="258"/>
-      <c r="F109" s="258" t="s">
+      <c r="E109" s="261"/>
+      <c r="F109" s="261" t="s">
         <v>232</v>
       </c>
-      <c r="G109" s="258" t="s">
+      <c r="G109" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="H109" s="258">
+      <c r="H109" s="261">
         <v>20956.683921997799</v>
       </c>
-      <c r="I109" s="258">
+      <c r="I109" s="261">
         <v>20956.683921997799</v>
       </c>
-      <c r="L109" s="259">
+      <c r="L109" s="262">
         <f t="shared" si="2"/>
         <v>0.47660104667384351</v>
       </c>
-      <c r="M109" s="260">
+      <c r="M109" s="263">
         <f t="shared" si="3"/>
         <v>2.0981909439329005</v>
       </c>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="258" t="s">
+      <c r="A110" s="261" t="s">
         <v>233</v>
       </c>
-      <c r="B110" s="258" t="s">
+      <c r="B110" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="C110" s="258">
+      <c r="C110" s="261">
         <v>62589.159010000003</v>
       </c>
-      <c r="D110" s="258">
+      <c r="D110" s="261">
         <v>62589.159010000003</v>
       </c>
-      <c r="E110" s="258"/>
-      <c r="F110" s="258" t="s">
+      <c r="E110" s="261"/>
+      <c r="F110" s="261" t="s">
         <v>233</v>
       </c>
-      <c r="G110" s="258" t="s">
+      <c r="G110" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="H110" s="258">
+      <c r="H110" s="261">
         <v>29830.058693856499</v>
       </c>
-      <c r="I110" s="258">
+      <c r="I110" s="261">
         <v>29830.058693856499</v>
       </c>
-      <c r="L110" s="259">
+      <c r="L110" s="262">
         <f t="shared" si="2"/>
         <v>0.47660104666193848</v>
       </c>
-      <c r="M110" s="260">
+      <c r="M110" s="263">
         <f t="shared" si="3"/>
         <v>2.098190943985311</v>
       </c>
     </row>
     <row r="111" spans="1:13">
-      <c r="A111" s="258" t="s">
+      <c r="A111" s="261" t="s">
         <v>243</v>
       </c>
-      <c r="B111" s="258" t="s">
+      <c r="B111" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="C111" s="258">
+      <c r="C111" s="261">
         <v>40112.547209999997</v>
       </c>
-      <c r="D111" s="258">
+      <c r="D111" s="261">
         <v>40112.547209999997</v>
       </c>
-      <c r="E111" s="258"/>
-      <c r="F111" s="258" t="s">
+      <c r="E111" s="261"/>
+      <c r="F111" s="261" t="s">
         <v>243</v>
       </c>
-      <c r="G111" s="258" t="s">
+      <c r="G111" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="H111" s="258">
+      <c r="H111" s="261">
         <v>19117.681986923501</v>
       </c>
-      <c r="I111" s="258">
+      <c r="I111" s="261">
         <v>19117.681986923501</v>
       </c>
-      <c r="L111" s="259">
+      <c r="L111" s="262">
         <f t="shared" si="2"/>
         <v>0.47660104672079989</v>
       </c>
-      <c r="M111" s="260">
+      <c r="M111" s="263">
         <f t="shared" si="3"/>
         <v>2.0981909437261792</v>
       </c>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="258" t="s">
+      <c r="A112" s="261" t="s">
         <v>246</v>
       </c>
-      <c r="B112" s="258" t="s">
+      <c r="B112" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="C112" s="258">
+      <c r="C112" s="261">
         <v>61376.361169999996</v>
       </c>
-      <c r="D112" s="258">
+      <c r="D112" s="261">
         <v>61376.361169999996</v>
       </c>
-      <c r="E112" s="258"/>
-      <c r="F112" s="258" t="s">
+      <c r="E112" s="261"/>
+      <c r="F112" s="261" t="s">
         <v>246</v>
       </c>
-      <c r="G112" s="258" t="s">
+      <c r="G112" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="H112" s="258">
+      <c r="H112" s="261">
         <v>29252.037974455299</v>
       </c>
-      <c r="I112" s="258">
+      <c r="I112" s="261">
         <v>29252.037974455299</v>
       </c>
-      <c r="L112" s="259">
+      <c r="L112" s="262">
         <f t="shared" si="2"/>
         <v>0.4766010466706086</v>
       </c>
-      <c r="M112" s="260">
+      <c r="M112" s="263">
         <f t="shared" si="3"/>
         <v>2.0981909439471416</v>
       </c>
     </row>
     <row r="113" spans="1:13">
-      <c r="A113" s="258" t="s">
+      <c r="A113" s="261" t="s">
         <v>256</v>
       </c>
-      <c r="B113" s="258" t="s">
+      <c r="B113" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="C113" s="258">
+      <c r="C113" s="261">
         <v>176118.03539999999</v>
       </c>
-      <c r="D113" s="258">
+      <c r="D113" s="261">
         <v>176118.03539999999</v>
       </c>
-      <c r="E113" s="258"/>
-      <c r="F113" s="258" t="s">
+      <c r="E113" s="261"/>
+      <c r="F113" s="261" t="s">
         <v>256</v>
       </c>
-      <c r="G113" s="258" t="s">
+      <c r="G113" s="261" t="s">
         <v>155</v>
       </c>
-      <c r="H113" s="258">
+      <c r="H113" s="261">
         <v>83938.040007203104</v>
       </c>
-      <c r="I113" s="258">
+      <c r="I113" s="261">
         <v>83938.040007203104</v>
       </c>
-      <c r="L113" s="259">
+      <c r="L113" s="262">
         <f t="shared" si="2"/>
         <v>0.47660104665920605</v>
       </c>
-      <c r="M113" s="260">
+      <c r="M113" s="263">
         <f t="shared" si="3"/>
         <v>2.0981909439973401</v>
       </c>
@@ -30490,10 +30630,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC85"/>
+  <dimension ref="A1:AO97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C70" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86"/>
+    <sheetView tabSelected="1" topLeftCell="Z32" workbookViewId="0">
+      <selection activeCell="AQ85" sqref="AQ85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -30505,11 +30645,12 @@
     <col min="13" max="13" width="3.1640625" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
     <col min="19" max="19" width="12.6640625" customWidth="1"/>
-    <col min="22" max="22" width="4.83203125" customWidth="1"/>
-    <col min="23" max="23" width="6" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" customWidth="1"/>
-    <col min="26" max="26" width="5.1640625" customWidth="1"/>
-    <col min="28" max="28" width="4.6640625" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" customWidth="1"/>
+    <col min="26" max="26" width="8.6640625" customWidth="1"/>
+    <col min="27" max="27" width="8.83203125" customWidth="1"/>
+    <col min="28" max="28" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -30694,10 +30835,10 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="243" t="s">
+      <c r="E6" s="245" t="s">
         <v>714</v>
       </c>
-      <c r="F6" s="243"/>
+      <c r="F6" s="245"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -30708,10 +30849,10 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="297" t="s">
+      <c r="Q6" s="300" t="s">
         <v>300</v>
       </c>
-      <c r="R6" s="297"/>
+      <c r="R6" s="300"/>
       <c r="S6" s="4"/>
       <c r="T6" s="209" t="s">
         <v>341</v>
@@ -30745,8 +30886,8 @@
       <c r="N7" s="55"/>
       <c r="O7" s="55"/>
       <c r="P7" s="55"/>
-      <c r="Q7" s="298"/>
-      <c r="R7" s="298"/>
+      <c r="Q7" s="301"/>
+      <c r="R7" s="301"/>
       <c r="S7" s="55"/>
       <c r="T7" s="209"/>
       <c r="U7" s="209"/>
@@ -30776,8 +30917,8 @@
       <c r="N8" s="17"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="298"/>
-      <c r="R8" s="298"/>
+      <c r="Q8" s="301"/>
+      <c r="R8" s="301"/>
       <c r="S8" s="4"/>
       <c r="T8" s="209"/>
       <c r="U8" s="209"/>
@@ -30807,8 +30948,8 @@
       <c r="N9" s="17"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="298"/>
-      <c r="R9" s="298"/>
+      <c r="Q9" s="301"/>
+      <c r="R9" s="301"/>
       <c r="S9" s="4"/>
       <c r="T9" s="209"/>
       <c r="U9" s="209"/>
@@ -30838,8 +30979,8 @@
       <c r="N10" s="17"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="298"/>
-      <c r="R10" s="298"/>
+      <c r="Q10" s="301"/>
+      <c r="R10" s="301"/>
       <c r="S10" s="4"/>
       <c r="T10" s="209"/>
       <c r="U10" s="209"/>
@@ -30869,8 +31010,8 @@
       <c r="N11" s="17"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="298"/>
-      <c r="R11" s="298"/>
+      <c r="Q11" s="301"/>
+      <c r="R11" s="301"/>
       <c r="S11" s="4"/>
       <c r="T11" s="209"/>
       <c r="U11" s="209"/>
@@ -30900,8 +31041,8 @@
       <c r="N12" s="17"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="298"/>
-      <c r="R12" s="298"/>
+      <c r="Q12" s="301"/>
+      <c r="R12" s="301"/>
       <c r="S12" s="4"/>
       <c r="T12" s="209"/>
       <c r="U12" s="209"/>
@@ -30931,8 +31072,8 @@
       <c r="N13" s="17"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="298"/>
-      <c r="R13" s="298"/>
+      <c r="Q13" s="301"/>
+      <c r="R13" s="301"/>
       <c r="S13" s="4"/>
       <c r="T13" s="209"/>
       <c r="U13" s="209"/>
@@ -30962,8 +31103,8 @@
       <c r="N14" s="17"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="298"/>
-      <c r="R14" s="298"/>
+      <c r="Q14" s="301"/>
+      <c r="R14" s="301"/>
       <c r="S14" s="4"/>
       <c r="T14" s="209"/>
       <c r="U14" s="209"/>
@@ -30993,8 +31134,8 @@
       <c r="N15" s="17"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="298"/>
-      <c r="R15" s="298"/>
+      <c r="Q15" s="301"/>
+      <c r="R15" s="301"/>
       <c r="S15" s="4"/>
       <c r="T15" s="209"/>
       <c r="U15" s="209"/>
@@ -31024,8 +31165,8 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="298"/>
-      <c r="R16" s="298"/>
+      <c r="Q16" s="301"/>
+      <c r="R16" s="301"/>
       <c r="S16" s="4"/>
       <c r="T16" s="209"/>
       <c r="U16" s="209"/>
@@ -31055,8 +31196,8 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="298"/>
-      <c r="R17" s="298"/>
+      <c r="Q17" s="301"/>
+      <c r="R17" s="301"/>
       <c r="S17" s="4"/>
       <c r="T17" s="209"/>
       <c r="U17" s="209"/>
@@ -31074,8 +31215,8 @@
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
       <c r="D18" s="62"/>
-      <c r="E18" s="244"/>
-      <c r="F18" s="244"/>
+      <c r="E18" s="246"/>
+      <c r="F18" s="246"/>
       <c r="G18" s="62"/>
       <c r="H18" s="62"/>
       <c r="I18" s="62"/>
@@ -31190,11 +31331,11 @@
       </c>
       <c r="R21" s="221"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="228" t="s">
+      <c r="T21" s="230" t="s">
         <v>337</v>
       </c>
-      <c r="U21" s="229"/>
-      <c r="V21" s="230"/>
+      <c r="U21" s="231"/>
+      <c r="V21" s="232"/>
       <c r="W21" s="59"/>
     </row>
     <row r="22" spans="1:29">
@@ -31219,9 +31360,9 @@
       <c r="Q22" s="222"/>
       <c r="R22" s="223"/>
       <c r="S22" s="55"/>
-      <c r="T22" s="231"/>
-      <c r="U22" s="232"/>
-      <c r="V22" s="233"/>
+      <c r="T22" s="233"/>
+      <c r="U22" s="234"/>
+      <c r="V22" s="235"/>
       <c r="W22" s="59"/>
     </row>
     <row r="23" spans="1:29">
@@ -31251,21 +31392,21 @@
     </row>
     <row r="24" spans="1:29" ht="15" customHeight="1">
       <c r="A24" s="58"/>
-      <c r="B24" s="234" t="s">
+      <c r="B24" s="236" t="s">
         <v>306</v>
       </c>
-      <c r="C24" s="235"/>
+      <c r="C24" s="237"/>
       <c r="D24" s="38"/>
-      <c r="E24" s="234"/>
-      <c r="F24" s="235"/>
+      <c r="E24" s="236"/>
+      <c r="F24" s="237"/>
       <c r="G24" s="55"/>
-      <c r="H24" s="234" t="s">
+      <c r="H24" s="236" t="s">
         <v>306</v>
       </c>
-      <c r="I24" s="235"/>
+      <c r="I24" s="237"/>
       <c r="J24" s="55"/>
-      <c r="K24" s="234"/>
-      <c r="L24" s="235"/>
+      <c r="K24" s="236"/>
+      <c r="L24" s="237"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -31305,30 +31446,30 @@
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="58"/>
-      <c r="B26" s="234" t="s">
+      <c r="B26" s="236" t="s">
         <v>307</v>
       </c>
-      <c r="C26" s="235"/>
+      <c r="C26" s="237"/>
       <c r="D26" s="38"/>
-      <c r="E26" s="234" t="s">
+      <c r="E26" s="236" t="s">
         <v>315</v>
       </c>
-      <c r="F26" s="235"/>
+      <c r="F26" s="237"/>
       <c r="G26" s="55"/>
-      <c r="H26" s="234" t="s">
+      <c r="H26" s="236" t="s">
         <v>307</v>
       </c>
-      <c r="I26" s="235"/>
+      <c r="I26" s="237"/>
       <c r="J26" s="55"/>
-      <c r="K26" s="234"/>
-      <c r="L26" s="235"/>
+      <c r="K26" s="236"/>
+      <c r="L26" s="237"/>
       <c r="M26" s="64"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="271" t="s">
+      <c r="O26" s="224" t="s">
         <v>704</v>
       </c>
-      <c r="P26" s="277"/>
-      <c r="Q26" s="272"/>
+      <c r="P26" s="245"/>
+      <c r="Q26" s="225"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
@@ -31351,9 +31492,9 @@
       <c r="L27" s="38"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
-      <c r="O27" s="273"/>
-      <c r="P27" s="278"/>
-      <c r="Q27" s="274"/>
+      <c r="O27" s="226"/>
+      <c r="P27" s="209"/>
+      <c r="Q27" s="227"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -31363,26 +31504,26 @@
     </row>
     <row r="28" spans="1:29" ht="15" customHeight="1">
       <c r="A28" s="58"/>
-      <c r="B28" s="234" t="s">
+      <c r="B28" s="236" t="s">
         <v>308</v>
       </c>
-      <c r="C28" s="235"/>
+      <c r="C28" s="237"/>
       <c r="D28" s="38"/>
-      <c r="E28" s="234"/>
-      <c r="F28" s="235"/>
+      <c r="E28" s="236"/>
+      <c r="F28" s="237"/>
       <c r="G28" s="55"/>
-      <c r="H28" s="234" t="s">
+      <c r="H28" s="236" t="s">
         <v>308</v>
       </c>
-      <c r="I28" s="235"/>
+      <c r="I28" s="237"/>
       <c r="J28" s="55"/>
-      <c r="K28" s="234"/>
-      <c r="L28" s="235"/>
+      <c r="K28" s="236"/>
+      <c r="L28" s="237"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="273"/>
-      <c r="P28" s="278"/>
-      <c r="Q28" s="274"/>
+      <c r="O28" s="226"/>
+      <c r="P28" s="209"/>
+      <c r="Q28" s="227"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -31405,9 +31546,9 @@
       <c r="L29" s="38"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="273"/>
-      <c r="P29" s="278"/>
-      <c r="Q29" s="274"/>
+      <c r="O29" s="226"/>
+      <c r="P29" s="209"/>
+      <c r="Q29" s="227"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -31417,30 +31558,30 @@
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="58"/>
-      <c r="B30" s="234" t="s">
+      <c r="B30" s="236" t="s">
         <v>309</v>
       </c>
-      <c r="C30" s="235"/>
+      <c r="C30" s="237"/>
       <c r="D30" s="38"/>
-      <c r="E30" s="234" t="s">
+      <c r="E30" s="236" t="s">
         <v>317</v>
       </c>
-      <c r="F30" s="235"/>
+      <c r="F30" s="237"/>
       <c r="G30" s="55"/>
-      <c r="H30" s="234" t="s">
+      <c r="H30" s="236" t="s">
         <v>322</v>
       </c>
-      <c r="I30" s="235"/>
+      <c r="I30" s="237"/>
       <c r="J30" s="55"/>
-      <c r="K30" s="234" t="s">
+      <c r="K30" s="236" t="s">
         <v>321</v>
       </c>
-      <c r="L30" s="235"/>
+      <c r="L30" s="237"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="273"/>
-      <c r="P30" s="278"/>
-      <c r="Q30" s="274"/>
+      <c r="O30" s="226"/>
+      <c r="P30" s="209"/>
+      <c r="Q30" s="227"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -31463,9 +31604,9 @@
       <c r="L31" s="38"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="273"/>
-      <c r="P31" s="278"/>
-      <c r="Q31" s="274"/>
+      <c r="O31" s="226"/>
+      <c r="P31" s="209"/>
+      <c r="Q31" s="227"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -31475,28 +31616,28 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="58"/>
-      <c r="B32" s="236" t="s">
+      <c r="B32" s="238" t="s">
         <v>311</v>
       </c>
-      <c r="C32" s="237"/>
+      <c r="C32" s="239"/>
       <c r="D32" s="38"/>
-      <c r="E32" s="236" t="s">
+      <c r="E32" s="238" t="s">
         <v>318</v>
       </c>
-      <c r="F32" s="237"/>
+      <c r="F32" s="239"/>
       <c r="G32" s="55"/>
-      <c r="H32" s="236" t="s">
+      <c r="H32" s="238" t="s">
         <v>311</v>
       </c>
-      <c r="I32" s="237"/>
+      <c r="I32" s="239"/>
       <c r="J32" s="55"/>
-      <c r="K32" s="236"/>
-      <c r="L32" s="237"/>
+      <c r="K32" s="238"/>
+      <c r="L32" s="239"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="273"/>
-      <c r="P32" s="278"/>
-      <c r="Q32" s="274"/>
+      <c r="O32" s="226"/>
+      <c r="P32" s="209"/>
+      <c r="Q32" s="227"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
@@ -31519,9 +31660,9 @@
       <c r="L33" s="65"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
-      <c r="O33" s="273"/>
-      <c r="P33" s="278"/>
-      <c r="Q33" s="274"/>
+      <c r="O33" s="226"/>
+      <c r="P33" s="209"/>
+      <c r="Q33" s="227"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
@@ -31531,28 +31672,28 @@
     </row>
     <row r="34" spans="1:29">
       <c r="A34" s="58"/>
-      <c r="B34" s="234" t="s">
+      <c r="B34" s="236" t="s">
         <v>310</v>
       </c>
-      <c r="C34" s="235"/>
+      <c r="C34" s="237"/>
       <c r="D34" s="55"/>
-      <c r="E34" s="234" t="s">
+      <c r="E34" s="236" t="s">
         <v>319</v>
       </c>
-      <c r="F34" s="235"/>
+      <c r="F34" s="237"/>
       <c r="G34" s="55"/>
-      <c r="H34" s="234" t="s">
+      <c r="H34" s="236" t="s">
         <v>312</v>
       </c>
-      <c r="I34" s="235"/>
+      <c r="I34" s="237"/>
       <c r="J34" s="55"/>
-      <c r="K34" s="234"/>
-      <c r="L34" s="235"/>
+      <c r="K34" s="236"/>
+      <c r="L34" s="237"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
-      <c r="O34" s="273"/>
-      <c r="P34" s="278"/>
-      <c r="Q34" s="274"/>
+      <c r="O34" s="226"/>
+      <c r="P34" s="209"/>
+      <c r="Q34" s="227"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
@@ -31575,9 +31716,9 @@
       <c r="L35" s="65"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="273"/>
-      <c r="P35" s="278"/>
-      <c r="Q35" s="274"/>
+      <c r="O35" s="226"/>
+      <c r="P35" s="209"/>
+      <c r="Q35" s="227"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
@@ -31590,10 +31731,10 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="271" t="s">
+      <c r="E36" s="224" t="s">
         <v>343</v>
       </c>
-      <c r="F36" s="272"/>
+      <c r="F36" s="225"/>
       <c r="G36" s="4"/>
       <c r="H36" s="224" t="s">
         <v>715</v>
@@ -31602,9 +31743,9 @@
       <c r="J36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
-      <c r="O36" s="273"/>
-      <c r="P36" s="278"/>
-      <c r="Q36" s="274"/>
+      <c r="O36" s="226"/>
+      <c r="P36" s="209"/>
+      <c r="Q36" s="227"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
@@ -31616,22 +31757,22 @@
       <c r="A37" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="B37" s="280"/>
-      <c r="C37" s="281"/>
+      <c r="B37" s="283"/>
+      <c r="C37" s="284"/>
       <c r="D37" s="55"/>
-      <c r="E37" s="273"/>
-      <c r="F37" s="274"/>
+      <c r="E37" s="226"/>
+      <c r="F37" s="227"/>
       <c r="G37" s="67"/>
       <c r="H37" s="226"/>
       <c r="I37" s="227"/>
       <c r="J37" s="67"/>
-      <c r="K37" s="280"/>
-      <c r="L37" s="281"/>
+      <c r="K37" s="283"/>
+      <c r="L37" s="284"/>
       <c r="M37" s="67"/>
       <c r="N37" s="67"/>
-      <c r="O37" s="275"/>
-      <c r="P37" s="279"/>
-      <c r="Q37" s="276"/>
+      <c r="O37" s="228"/>
+      <c r="P37" s="257"/>
+      <c r="Q37" s="229"/>
       <c r="R37" s="67"/>
       <c r="S37" s="67"/>
       <c r="T37" s="67"/>
@@ -31644,11 +31785,11 @@
       <c r="B38" s="62"/>
       <c r="C38" s="62"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="282"/>
-      <c r="F38" s="283"/>
+      <c r="E38" s="247"/>
+      <c r="F38" s="248"/>
       <c r="G38" s="62"/>
-      <c r="H38" s="245"/>
-      <c r="I38" s="246"/>
+      <c r="H38" s="247"/>
+      <c r="I38" s="248"/>
       <c r="J38" s="62"/>
       <c r="M38" s="62"/>
       <c r="N38" s="62"/>
@@ -31697,20 +31838,20 @@
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="58"/>
-      <c r="B40" s="318"/>
-      <c r="C40" s="319"/>
-      <c r="D40" s="319"/>
-      <c r="E40" s="319"/>
-      <c r="F40" s="319"/>
-      <c r="G40" s="319"/>
-      <c r="H40" s="319"/>
-      <c r="I40" s="319"/>
-      <c r="J40" s="319"/>
-      <c r="K40" s="319"/>
-      <c r="L40" s="319"/>
-      <c r="M40" s="319"/>
-      <c r="N40" s="319"/>
-      <c r="O40" s="320"/>
+      <c r="B40" s="321"/>
+      <c r="C40" s="322"/>
+      <c r="D40" s="322"/>
+      <c r="E40" s="322"/>
+      <c r="F40" s="322"/>
+      <c r="G40" s="322"/>
+      <c r="H40" s="322"/>
+      <c r="I40" s="322"/>
+      <c r="J40" s="322"/>
+      <c r="K40" s="322"/>
+      <c r="L40" s="322"/>
+      <c r="M40" s="322"/>
+      <c r="N40" s="322"/>
+      <c r="O40" s="323"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
@@ -31728,35 +31869,35 @@
     </row>
     <row r="41" spans="1:29" ht="15" customHeight="1">
       <c r="A41" s="58"/>
-      <c r="B41" s="301" t="s">
+      <c r="B41" s="304" t="s">
         <v>324</v>
       </c>
-      <c r="C41" s="302"/>
+      <c r="C41" s="305"/>
       <c r="D41" s="64"/>
-      <c r="E41" s="301" t="s">
+      <c r="E41" s="304" t="s">
         <v>326</v>
       </c>
-      <c r="F41" s="302"/>
+      <c r="F41" s="305"/>
       <c r="G41" s="64"/>
-      <c r="H41" s="301" t="s">
+      <c r="H41" s="304" t="s">
         <v>325</v>
       </c>
-      <c r="I41" s="302"/>
+      <c r="I41" s="305"/>
       <c r="J41" s="64"/>
-      <c r="K41" s="301" t="s">
+      <c r="K41" s="304" t="s">
         <v>331</v>
       </c>
-      <c r="L41" s="302"/>
+      <c r="L41" s="305"/>
       <c r="M41" s="64"/>
-      <c r="N41" s="301" t="s">
+      <c r="N41" s="304" t="s">
         <v>332</v>
       </c>
-      <c r="O41" s="302"/>
+      <c r="O41" s="305"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="238" t="s">
+      <c r="Q41" s="240" t="s">
         <v>713</v>
       </c>
-      <c r="R41" s="239"/>
+      <c r="R41" s="241"/>
       <c r="S41" s="4"/>
       <c r="T41" s="172" t="s">
         <v>336</v>
@@ -31773,23 +31914,23 @@
       <c r="A42" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="B42" s="303"/>
-      <c r="C42" s="304"/>
+      <c r="B42" s="306"/>
+      <c r="C42" s="307"/>
       <c r="D42" s="64"/>
-      <c r="E42" s="303"/>
-      <c r="F42" s="304"/>
+      <c r="E42" s="306"/>
+      <c r="F42" s="307"/>
       <c r="G42" s="64"/>
-      <c r="H42" s="303"/>
-      <c r="I42" s="304"/>
+      <c r="H42" s="306"/>
+      <c r="I42" s="307"/>
       <c r="J42" s="64"/>
-      <c r="K42" s="305"/>
-      <c r="L42" s="306"/>
+      <c r="K42" s="308"/>
+      <c r="L42" s="309"/>
       <c r="M42" s="64"/>
-      <c r="N42" s="305"/>
-      <c r="O42" s="306"/>
+      <c r="N42" s="308"/>
+      <c r="O42" s="309"/>
       <c r="P42" s="55"/>
-      <c r="Q42" s="240"/>
-      <c r="R42" s="241"/>
+      <c r="Q42" s="242"/>
+      <c r="R42" s="243"/>
       <c r="S42" s="72" t="s">
         <v>103</v>
       </c>
@@ -31803,20 +31944,20 @@
     </row>
     <row r="43" spans="1:29" ht="16" customHeight="1">
       <c r="A43" s="58"/>
-      <c r="B43" s="307"/>
+      <c r="B43" s="310"/>
       <c r="C43" s="64"/>
       <c r="D43" s="64"/>
-      <c r="E43" s="307"/>
-      <c r="F43" s="308"/>
+      <c r="E43" s="310"/>
+      <c r="F43" s="311"/>
       <c r="G43" s="64"/>
-      <c r="H43" s="307"/>
-      <c r="I43" s="308"/>
+      <c r="H43" s="310"/>
+      <c r="I43" s="311"/>
       <c r="J43" s="64"/>
-      <c r="K43" s="303"/>
-      <c r="L43" s="304"/>
+      <c r="K43" s="306"/>
+      <c r="L43" s="307"/>
       <c r="M43" s="64"/>
-      <c r="N43" s="303"/>
-      <c r="O43" s="304"/>
+      <c r="N43" s="306"/>
+      <c r="O43" s="307"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
@@ -31826,44 +31967,44 @@
     </row>
     <row r="44" spans="1:29" ht="15" customHeight="1">
       <c r="A44" s="58"/>
-      <c r="B44" s="307"/>
+      <c r="B44" s="310"/>
       <c r="C44" s="64"/>
       <c r="D44" s="64"/>
-      <c r="E44" s="309" t="s">
+      <c r="E44" s="312" t="s">
         <v>335</v>
       </c>
-      <c r="F44" s="310"/>
+      <c r="F44" s="313"/>
       <c r="G44" s="64"/>
-      <c r="H44" s="311" t="s">
+      <c r="H44" s="314" t="s">
         <v>329</v>
       </c>
-      <c r="I44" s="312"/>
+      <c r="I44" s="315"/>
       <c r="J44" s="64"/>
       <c r="K44" s="64"/>
       <c r="L44" s="64"/>
       <c r="M44" s="64"/>
       <c r="N44" s="64"/>
-      <c r="O44" s="308"/>
+      <c r="O44" s="311"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
     </row>
     <row r="45" spans="1:29">
-      <c r="B45" s="307"/>
+      <c r="B45" s="310"/>
       <c r="C45" s="64"/>
       <c r="D45" s="64"/>
-      <c r="E45" s="307"/>
-      <c r="F45" s="308"/>
+      <c r="E45" s="310"/>
+      <c r="F45" s="311"/>
       <c r="G45" s="64"/>
-      <c r="H45" s="307"/>
-      <c r="I45" s="308"/>
+      <c r="H45" s="310"/>
+      <c r="I45" s="311"/>
       <c r="J45" s="64"/>
       <c r="K45" s="64"/>
       <c r="L45" s="64"/>
       <c r="M45" s="64"/>
       <c r="N45" s="64"/>
-      <c r="O45" s="308"/>
+      <c r="O45" s="311"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="17"/>
@@ -31875,76 +32016,76 @@
     </row>
     <row r="46" spans="1:29" ht="15" customHeight="1">
       <c r="A46" s="58"/>
-      <c r="B46" s="307"/>
+      <c r="B46" s="310"/>
       <c r="C46" s="64"/>
       <c r="D46" s="64"/>
-      <c r="E46" s="311" t="s">
+      <c r="E46" s="314" t="s">
         <v>503</v>
       </c>
-      <c r="F46" s="313"/>
+      <c r="F46" s="316"/>
       <c r="G46" s="64"/>
-      <c r="H46" s="311" t="s">
+      <c r="H46" s="314" t="s">
         <v>333</v>
       </c>
-      <c r="I46" s="312"/>
+      <c r="I46" s="315"/>
       <c r="J46" s="64"/>
       <c r="K46" s="64"/>
       <c r="L46" s="64"/>
       <c r="M46" s="64"/>
       <c r="N46" s="64"/>
-      <c r="O46" s="308"/>
+      <c r="O46" s="311"/>
       <c r="P46" s="4"/>
       <c r="S46" s="17"/>
-      <c r="T46" s="296"/>
-      <c r="U46" s="296"/>
+      <c r="T46" s="299"/>
+      <c r="U46" s="299"/>
       <c r="V46" s="17"/>
-      <c r="W46" s="296"/>
-      <c r="X46" s="296"/>
+      <c r="W46" s="299"/>
+      <c r="X46" s="299"/>
     </row>
     <row r="47" spans="1:29">
       <c r="A47" s="58"/>
-      <c r="B47" s="307"/>
+      <c r="B47" s="310"/>
       <c r="C47" s="64"/>
       <c r="D47" s="64"/>
-      <c r="E47" s="307"/>
-      <c r="F47" s="308"/>
+      <c r="E47" s="310"/>
+      <c r="F47" s="311"/>
       <c r="G47" s="64"/>
-      <c r="H47" s="307"/>
-      <c r="I47" s="308"/>
+      <c r="H47" s="310"/>
+      <c r="I47" s="311"/>
       <c r="J47" s="64"/>
       <c r="K47" s="64"/>
       <c r="L47" s="64"/>
       <c r="M47" s="64"/>
       <c r="N47" s="64"/>
-      <c r="O47" s="308"/>
+      <c r="O47" s="311"/>
       <c r="P47" s="17"/>
-      <c r="S47" s="295"/>
-      <c r="T47" s="296"/>
-      <c r="U47" s="296"/>
+      <c r="S47" s="298"/>
+      <c r="T47" s="299"/>
+      <c r="U47" s="299"/>
       <c r="V47" s="17"/>
-      <c r="W47" s="296"/>
-      <c r="X47" s="296"/>
+      <c r="W47" s="299"/>
+      <c r="X47" s="299"/>
     </row>
     <row r="48" spans="1:29">
       <c r="A48" s="58"/>
-      <c r="B48" s="307"/>
+      <c r="B48" s="310"/>
       <c r="C48" s="64"/>
       <c r="D48" s="64"/>
-      <c r="E48" s="311" t="s">
+      <c r="E48" s="314" t="s">
         <v>327</v>
       </c>
-      <c r="F48" s="313"/>
+      <c r="F48" s="316"/>
       <c r="G48" s="64"/>
-      <c r="H48" s="311" t="s">
+      <c r="H48" s="314" t="s">
         <v>330</v>
       </c>
-      <c r="I48" s="313"/>
+      <c r="I48" s="316"/>
       <c r="J48" s="64"/>
       <c r="K48" s="64"/>
       <c r="L48" s="64"/>
       <c r="M48" s="64"/>
       <c r="N48" s="64"/>
-      <c r="O48" s="308"/>
+      <c r="O48" s="311"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
@@ -31952,101 +32093,101 @@
       <c r="T48" s="17"/>
       <c r="U48" s="17"/>
       <c r="V48" s="17"/>
-      <c r="W48" s="296"/>
-      <c r="X48" s="296"/>
+      <c r="W48" s="299"/>
+      <c r="X48" s="299"/>
     </row>
     <row r="49" spans="1:29">
       <c r="A49" s="58"/>
-      <c r="B49" s="307"/>
+      <c r="B49" s="310"/>
       <c r="C49" s="64"/>
       <c r="D49" s="64"/>
-      <c r="E49" s="314"/>
-      <c r="F49" s="315"/>
+      <c r="E49" s="317"/>
+      <c r="F49" s="318"/>
       <c r="G49" s="64"/>
-      <c r="H49" s="314"/>
-      <c r="I49" s="315"/>
+      <c r="H49" s="317"/>
+      <c r="I49" s="318"/>
       <c r="J49" s="64"/>
       <c r="K49" s="64"/>
       <c r="L49" s="64"/>
       <c r="M49" s="64"/>
       <c r="N49" s="64"/>
-      <c r="O49" s="308"/>
+      <c r="O49" s="311"/>
       <c r="P49" s="4"/>
-      <c r="Q49" s="271" t="s">
+      <c r="Q49" s="274" t="s">
         <v>705</v>
       </c>
-      <c r="R49" s="277"/>
-      <c r="S49" s="278"/>
-      <c r="T49" s="278"/>
-      <c r="U49" s="278"/>
-      <c r="V49" s="278"/>
-      <c r="W49" s="278"/>
-      <c r="X49" s="278"/>
-      <c r="Y49" s="277"/>
-      <c r="Z49" s="277"/>
-      <c r="AA49" s="272"/>
+      <c r="R49" s="280"/>
+      <c r="S49" s="281"/>
+      <c r="T49" s="281"/>
+      <c r="U49" s="281"/>
+      <c r="V49" s="281"/>
+      <c r="W49" s="281"/>
+      <c r="X49" s="281"/>
+      <c r="Y49" s="280"/>
+      <c r="Z49" s="280"/>
+      <c r="AA49" s="275"/>
     </row>
     <row r="50" spans="1:29">
       <c r="A50" s="58"/>
-      <c r="B50" s="307"/>
+      <c r="B50" s="310"/>
       <c r="C50" s="64"/>
       <c r="D50" s="64"/>
-      <c r="E50" s="311" t="s">
+      <c r="E50" s="314" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="313"/>
+      <c r="F50" s="316"/>
       <c r="G50" s="64"/>
-      <c r="H50" s="316" t="s">
+      <c r="H50" s="319" t="s">
         <v>334</v>
       </c>
-      <c r="I50" s="317"/>
+      <c r="I50" s="320"/>
       <c r="J50" s="64"/>
       <c r="K50" s="64"/>
       <c r="L50" s="64"/>
       <c r="M50" s="64"/>
       <c r="N50" s="64"/>
-      <c r="O50" s="308"/>
+      <c r="O50" s="311"/>
       <c r="P50" s="4"/>
-      <c r="Q50" s="273"/>
-      <c r="R50" s="278"/>
-      <c r="S50" s="278"/>
-      <c r="T50" s="278"/>
-      <c r="U50" s="278"/>
-      <c r="V50" s="278"/>
-      <c r="W50" s="278"/>
-      <c r="X50" s="278"/>
-      <c r="Y50" s="278"/>
-      <c r="Z50" s="278"/>
-      <c r="AA50" s="274"/>
+      <c r="Q50" s="276"/>
+      <c r="R50" s="281"/>
+      <c r="S50" s="281"/>
+      <c r="T50" s="281"/>
+      <c r="U50" s="281"/>
+      <c r="V50" s="281"/>
+      <c r="W50" s="281"/>
+      <c r="X50" s="281"/>
+      <c r="Y50" s="281"/>
+      <c r="Z50" s="281"/>
+      <c r="AA50" s="277"/>
     </row>
     <row r="51" spans="1:29" ht="15" customHeight="1">
       <c r="A51" s="58"/>
-      <c r="B51" s="314"/>
-      <c r="C51" s="321"/>
-      <c r="D51" s="321"/>
-      <c r="E51" s="321"/>
-      <c r="F51" s="321"/>
-      <c r="G51" s="321"/>
-      <c r="H51" s="322"/>
-      <c r="I51" s="322"/>
-      <c r="J51" s="322"/>
-      <c r="K51" s="322"/>
-      <c r="L51" s="321"/>
-      <c r="M51" s="321"/>
-      <c r="N51" s="321"/>
-      <c r="O51" s="315"/>
+      <c r="B51" s="317"/>
+      <c r="C51" s="324"/>
+      <c r="D51" s="324"/>
+      <c r="E51" s="324"/>
+      <c r="F51" s="324"/>
+      <c r="G51" s="324"/>
+      <c r="H51" s="325"/>
+      <c r="I51" s="325"/>
+      <c r="J51" s="325"/>
+      <c r="K51" s="325"/>
+      <c r="L51" s="324"/>
+      <c r="M51" s="324"/>
+      <c r="N51" s="324"/>
+      <c r="O51" s="318"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="273"/>
-      <c r="R51" s="278"/>
-      <c r="S51" s="278"/>
-      <c r="T51" s="278"/>
-      <c r="U51" s="278"/>
-      <c r="V51" s="278"/>
-      <c r="W51" s="278"/>
-      <c r="X51" s="278"/>
-      <c r="Y51" s="278"/>
-      <c r="Z51" s="278"/>
-      <c r="AA51" s="274"/>
+      <c r="Q51" s="276"/>
+      <c r="R51" s="281"/>
+      <c r="S51" s="281"/>
+      <c r="T51" s="281"/>
+      <c r="U51" s="281"/>
+      <c r="V51" s="281"/>
+      <c r="W51" s="281"/>
+      <c r="X51" s="281"/>
+      <c r="Y51" s="281"/>
+      <c r="Z51" s="281"/>
+      <c r="AA51" s="277"/>
     </row>
     <row r="52" spans="1:29">
       <c r="A52" s="66" t="s">
@@ -32067,17 +32208,17 @@
       <c r="N52" s="67"/>
       <c r="O52" s="67"/>
       <c r="P52" s="67"/>
-      <c r="Q52" s="273"/>
-      <c r="R52" s="278"/>
-      <c r="S52" s="278"/>
-      <c r="T52" s="278"/>
-      <c r="U52" s="278"/>
-      <c r="V52" s="278"/>
-      <c r="W52" s="278"/>
-      <c r="X52" s="278"/>
-      <c r="Y52" s="278"/>
-      <c r="Z52" s="278"/>
-      <c r="AA52" s="274"/>
+      <c r="Q52" s="276"/>
+      <c r="R52" s="281"/>
+      <c r="S52" s="281"/>
+      <c r="T52" s="281"/>
+      <c r="U52" s="281"/>
+      <c r="V52" s="281"/>
+      <c r="W52" s="281"/>
+      <c r="X52" s="281"/>
+      <c r="Y52" s="281"/>
+      <c r="Z52" s="281"/>
+      <c r="AA52" s="277"/>
     </row>
     <row r="53" spans="1:29">
       <c r="A53" s="58"/>
@@ -32087,26 +32228,26 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="299"/>
-      <c r="I53" s="299"/>
-      <c r="J53" s="299"/>
-      <c r="K53" s="299"/>
+      <c r="H53" s="302"/>
+      <c r="I53" s="302"/>
+      <c r="J53" s="302"/>
+      <c r="K53" s="302"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
-      <c r="Q53" s="273"/>
-      <c r="R53" s="278"/>
-      <c r="S53" s="278"/>
-      <c r="T53" s="278"/>
-      <c r="U53" s="278"/>
-      <c r="V53" s="278"/>
-      <c r="W53" s="278"/>
-      <c r="X53" s="278"/>
-      <c r="Y53" s="278"/>
-      <c r="Z53" s="278"/>
-      <c r="AA53" s="274"/>
+      <c r="Q53" s="276"/>
+      <c r="R53" s="281"/>
+      <c r="S53" s="281"/>
+      <c r="T53" s="281"/>
+      <c r="U53" s="281"/>
+      <c r="V53" s="281"/>
+      <c r="W53" s="281"/>
+      <c r="X53" s="281"/>
+      <c r="Y53" s="281"/>
+      <c r="Z53" s="281"/>
+      <c r="AA53" s="277"/>
     </row>
     <row r="54" spans="1:29">
       <c r="A54" s="58"/>
@@ -32116,8 +32257,8 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="299"/>
-      <c r="I54" s="299"/>
+      <c r="H54" s="302"/>
+      <c r="I54" s="302"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -32125,17 +32266,17 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
-      <c r="Q54" s="273"/>
-      <c r="R54" s="278"/>
-      <c r="S54" s="278"/>
-      <c r="T54" s="278"/>
-      <c r="U54" s="278"/>
-      <c r="V54" s="278"/>
-      <c r="W54" s="278"/>
-      <c r="X54" s="278"/>
-      <c r="Y54" s="278"/>
-      <c r="Z54" s="278"/>
-      <c r="AA54" s="274"/>
+      <c r="Q54" s="276"/>
+      <c r="R54" s="281"/>
+      <c r="S54" s="281"/>
+      <c r="T54" s="281"/>
+      <c r="U54" s="281"/>
+      <c r="V54" s="281"/>
+      <c r="W54" s="281"/>
+      <c r="X54" s="281"/>
+      <c r="Y54" s="281"/>
+      <c r="Z54" s="281"/>
+      <c r="AA54" s="277"/>
     </row>
     <row r="55" spans="1:29">
       <c r="A55" s="58"/>
@@ -32145,8 +32286,8 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="299"/>
-      <c r="I55" s="299"/>
+      <c r="H55" s="302"/>
+      <c r="I55" s="302"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -32154,17 +32295,17 @@
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
-      <c r="Q55" s="275"/>
-      <c r="R55" s="279"/>
-      <c r="S55" s="279"/>
-      <c r="T55" s="279"/>
-      <c r="U55" s="279"/>
-      <c r="V55" s="279"/>
-      <c r="W55" s="279"/>
-      <c r="X55" s="279"/>
-      <c r="Y55" s="279"/>
-      <c r="Z55" s="279"/>
-      <c r="AA55" s="276"/>
+      <c r="Q55" s="278"/>
+      <c r="R55" s="282"/>
+      <c r="S55" s="282"/>
+      <c r="T55" s="282"/>
+      <c r="U55" s="282"/>
+      <c r="V55" s="282"/>
+      <c r="W55" s="282"/>
+      <c r="X55" s="282"/>
+      <c r="Y55" s="282"/>
+      <c r="Z55" s="282"/>
+      <c r="AA55" s="279"/>
     </row>
     <row r="56" spans="1:29" ht="16" thickBot="1">
       <c r="A56" s="61"/>
@@ -32174,8 +32315,8 @@
       <c r="E56" s="62"/>
       <c r="F56" s="62"/>
       <c r="G56" s="62"/>
-      <c r="H56" s="300"/>
-      <c r="I56" s="300"/>
+      <c r="H56" s="303"/>
+      <c r="I56" s="303"/>
       <c r="J56" s="62"/>
       <c r="K56" s="62"/>
       <c r="L56" s="62"/>
@@ -32227,16 +32368,16 @@
       <c r="B59" s="220" t="s">
         <v>302</v>
       </c>
-      <c r="C59" s="242"/>
+      <c r="C59" s="244"/>
     </row>
     <row r="60" spans="1:29" ht="16" thickBot="1">
       <c r="A60" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="B60" s="242"/>
+      <c r="B60" s="244"/>
       <c r="C60" s="223"/>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:29" ht="15" customHeight="1">
       <c r="B61" s="38"/>
       <c r="C61" s="68"/>
       <c r="N61" s="350" t="s">
@@ -32246,8 +32387,13 @@
       <c r="S61" s="71"/>
       <c r="T61" s="71"/>
       <c r="U61" s="71"/>
-      <c r="V61" s="71"/>
-      <c r="W61" s="71"/>
+      <c r="V61" s="360" t="s">
+        <v>720</v>
+      </c>
+      <c r="W61" s="365"/>
+      <c r="X61" s="361"/>
+      <c r="AA61" s="71"/>
+      <c r="AB61" s="71"/>
     </row>
     <row r="62" spans="1:29" ht="15" customHeight="1" thickBot="1">
       <c r="B62" s="220" t="s">
@@ -32259,34 +32405,56 @@
       <c r="S62" s="71"/>
       <c r="T62" s="71"/>
       <c r="U62" s="71"/>
-      <c r="V62" s="71"/>
-      <c r="W62" s="71"/>
+      <c r="V62" s="362"/>
+      <c r="W62" s="364"/>
+      <c r="X62" s="363"/>
+      <c r="AA62" s="71"/>
+      <c r="AB62" s="71"/>
     </row>
     <row r="63" spans="1:29" ht="46" thickBot="1">
       <c r="B63" s="222"/>
       <c r="C63" s="223"/>
-      <c r="N63" s="284"/>
-      <c r="O63" s="285" t="s">
+      <c r="N63" s="285"/>
+      <c r="O63" s="286" t="s">
         <v>706</v>
       </c>
-      <c r="P63" s="285" t="s">
+      <c r="P63" s="286" t="s">
         <v>176</v>
       </c>
-      <c r="Q63" s="285" t="s">
+      <c r="Q63" s="286" t="s">
         <v>131</v>
       </c>
-      <c r="R63" s="285" t="s">
+      <c r="R63" s="286" t="s">
         <v>155</v>
       </c>
-      <c r="S63" s="285" t="s">
+      <c r="S63" s="286" t="s">
         <v>152</v>
       </c>
-      <c r="T63" s="285" t="s">
+      <c r="T63" s="286" t="s">
         <v>707</v>
       </c>
-      <c r="U63" s="267"/>
-      <c r="V63" s="267"/>
-      <c r="W63" s="267"/>
+      <c r="U63" s="270"/>
+      <c r="V63" s="285" t="s">
+        <v>719</v>
+      </c>
+      <c r="W63" s="286" t="s">
+        <v>706</v>
+      </c>
+      <c r="X63" s="286" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y63" s="286" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z63" s="286" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA63" s="286" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB63" s="286" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="64" spans="1:29" ht="35" customHeight="1" thickBot="1">
       <c r="B64" s="38"/>
@@ -32299,98 +32467,141 @@
       <c r="J64" s="69"/>
       <c r="K64" s="69"/>
       <c r="L64" s="70"/>
-      <c r="N64" s="286" t="s">
+      <c r="N64" s="287" t="s">
         <v>708</v>
       </c>
-      <c r="O64" s="287">
+      <c r="O64" s="288">
         <v>0.21</v>
       </c>
-      <c r="P64" s="287">
+      <c r="P64" s="288">
         <v>0.01</v>
       </c>
-      <c r="Q64" s="287">
+      <c r="Q64" s="288">
         <v>0.49</v>
       </c>
-      <c r="R64" s="287">
+      <c r="R64" s="288">
         <v>0.86</v>
       </c>
-      <c r="S64" s="287">
+      <c r="S64" s="288">
         <v>0.01</v>
       </c>
-      <c r="T64" s="287">
+      <c r="T64" s="288">
         <v>0.4</v>
       </c>
-      <c r="U64" s="269"/>
-      <c r="V64" s="269"/>
-      <c r="W64" s="269"/>
-    </row>
-    <row r="65" spans="2:23" ht="44" customHeight="1">
+      <c r="U64" s="272"/>
+      <c r="V64" s="287" t="s">
+        <v>708</v>
+      </c>
+      <c r="W64" s="288">
+        <v>0.21</v>
+      </c>
+      <c r="X64" s="288">
+        <v>0.01</v>
+      </c>
+      <c r="Y64" s="288">
+        <v>0.49</v>
+      </c>
+      <c r="Z64" s="288">
+        <v>0.86</v>
+      </c>
+      <c r="AA64" s="288">
+        <v>0.01</v>
+      </c>
+      <c r="AB64" s="288">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:41" ht="44" customHeight="1">
       <c r="B65" s="200" t="s">
         <v>337</v>
       </c>
-      <c r="C65" s="251"/>
+      <c r="C65" s="253"/>
       <c r="D65" s="47"/>
       <c r="E65" s="216" t="s">
         <v>340</v>
       </c>
-      <c r="F65" s="253"/>
-      <c r="G65" s="253"/>
-      <c r="H65" s="253"/>
-      <c r="I65" s="253"/>
-      <c r="J65" s="253"/>
-      <c r="K65" s="253"/>
+      <c r="F65" s="255"/>
+      <c r="G65" s="255"/>
+      <c r="H65" s="255"/>
+      <c r="I65" s="255"/>
+      <c r="J65" s="255"/>
+      <c r="K65" s="255"/>
       <c r="L65" s="217"/>
       <c r="M65" s="47"/>
-      <c r="N65" s="290" t="s">
+      <c r="N65" s="291" t="s">
         <v>709</v>
       </c>
       <c r="O65" s="348">
         <v>0.224</v>
       </c>
-      <c r="P65" s="325">
+      <c r="P65" s="328">
         <v>2.7E-2</v>
       </c>
-      <c r="Q65" s="288">
+      <c r="Q65" s="289">
         <v>0.46400000000000002</v>
       </c>
       <c r="R65" s="349">
         <v>0.82699999999999996</v>
       </c>
-      <c r="S65" s="325">
+      <c r="S65" s="328">
         <v>2.1700000000000001E-3</v>
       </c>
       <c r="T65" s="348">
         <v>0.34699999999999998</v>
       </c>
-      <c r="U65" s="269"/>
-      <c r="V65" s="269"/>
-      <c r="W65" s="269"/>
-    </row>
-    <row r="66" spans="2:23" ht="16" thickBot="1">
-      <c r="B66" s="249"/>
-      <c r="C66" s="252"/>
+      <c r="U65" s="272"/>
+      <c r="V65" s="291" t="s">
+        <v>709</v>
+      </c>
+      <c r="W65" s="348">
+        <v>0.224</v>
+      </c>
+      <c r="X65" s="328">
+        <v>2.7E-2</v>
+      </c>
+      <c r="Y65" s="289">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="Z65" s="349">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="AA65" s="328">
+        <v>2.1700000000000001E-3</v>
+      </c>
+      <c r="AB65" s="348">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="2:41" ht="16" thickBot="1">
+      <c r="B66" s="251"/>
+      <c r="C66" s="254"/>
       <c r="D66" s="47"/>
       <c r="E66" s="218"/>
-      <c r="F66" s="254"/>
-      <c r="G66" s="254"/>
-      <c r="H66" s="254"/>
-      <c r="I66" s="254"/>
-      <c r="J66" s="254"/>
-      <c r="K66" s="254"/>
+      <c r="F66" s="256"/>
+      <c r="G66" s="256"/>
+      <c r="H66" s="256"/>
+      <c r="I66" s="256"/>
+      <c r="J66" s="256"/>
+      <c r="K66" s="256"/>
       <c r="L66" s="219"/>
       <c r="M66" s="47"/>
-      <c r="N66" s="286"/>
-      <c r="O66" s="286"/>
-      <c r="P66" s="323"/>
-      <c r="Q66" s="289"/>
-      <c r="R66" s="286"/>
-      <c r="S66" s="326"/>
-      <c r="T66" s="286"/>
-      <c r="U66" s="270"/>
-      <c r="V66" s="270"/>
-      <c r="W66" s="270"/>
-    </row>
-    <row r="67" spans="2:23" ht="46" thickBot="1">
+      <c r="N66" s="287"/>
+      <c r="O66" s="287"/>
+      <c r="P66" s="326"/>
+      <c r="Q66" s="290"/>
+      <c r="R66" s="287"/>
+      <c r="S66" s="329"/>
+      <c r="T66" s="287"/>
+      <c r="U66" s="273"/>
+      <c r="V66" s="287"/>
+      <c r="W66" s="287"/>
+      <c r="X66" s="326"/>
+      <c r="Y66" s="290"/>
+      <c r="Z66" s="287"/>
+      <c r="AA66" s="329"/>
+      <c r="AB66" s="287"/>
+    </row>
+    <row r="67" spans="2:41" ht="46" thickBot="1">
       <c r="B67" s="38"/>
       <c r="C67" s="68"/>
       <c r="E67" s="69"/>
@@ -32401,32 +32612,47 @@
       <c r="J67" s="69"/>
       <c r="K67" s="69"/>
       <c r="L67" s="70"/>
-      <c r="N67" s="286" t="s">
+      <c r="N67" s="287" t="s">
         <v>710</v>
       </c>
-      <c r="O67" s="289">
+      <c r="O67" s="290">
         <v>0.41</v>
       </c>
-      <c r="P67" s="324"/>
-      <c r="Q67" s="289">
+      <c r="P67" s="327"/>
+      <c r="Q67" s="290">
         <v>0.69899999999999995</v>
       </c>
-      <c r="R67" s="287">
+      <c r="R67" s="288">
         <v>1</v>
       </c>
-      <c r="S67" s="327"/>
-      <c r="T67" s="289">
+      <c r="S67" s="330"/>
+      <c r="T67" s="290">
         <v>0.36940000000000001</v>
       </c>
-      <c r="U67" s="270"/>
-      <c r="V67" s="270"/>
-      <c r="W67" s="270"/>
-    </row>
-    <row r="68" spans="2:23" ht="14" customHeight="1" thickBot="1">
+      <c r="U67" s="273"/>
+      <c r="V67" s="287" t="s">
+        <v>710</v>
+      </c>
+      <c r="W67" s="290">
+        <v>0.41</v>
+      </c>
+      <c r="X67" s="327"/>
+      <c r="Y67" s="290">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="Z67" s="288">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="330"/>
+      <c r="AB67" s="290">
+        <v>0.36940000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:41" ht="14" customHeight="1" thickBot="1">
       <c r="B68" s="200" t="s">
         <v>338</v>
       </c>
-      <c r="C68" s="247"/>
+      <c r="C68" s="249"/>
       <c r="E68" s="69"/>
       <c r="F68" s="69"/>
       <c r="G68" s="69"/>
@@ -32441,14 +32667,19 @@
       <c r="Q68" s="17"/>
       <c r="R68" s="17"/>
       <c r="S68" s="71"/>
-      <c r="T68" s="270"/>
-      <c r="U68" s="270"/>
-      <c r="V68" s="270"/>
-      <c r="W68" s="270"/>
-    </row>
-    <row r="69" spans="2:23" ht="31" customHeight="1" thickBot="1">
+      <c r="T68" s="273"/>
+      <c r="U68" s="273"/>
+      <c r="V68" s="17"/>
+      <c r="W68" s="17"/>
+      <c r="X68" s="17"/>
+      <c r="Y68" s="17"/>
+      <c r="Z68" s="17"/>
+      <c r="AA68" s="71"/>
+      <c r="AB68" s="273"/>
+    </row>
+    <row r="69" spans="2:41" ht="55" customHeight="1" thickBot="1">
       <c r="B69" s="210"/>
-      <c r="C69" s="248"/>
+      <c r="C69" s="250"/>
       <c r="E69" s="70"/>
       <c r="F69" s="70"/>
       <c r="G69" s="70"/>
@@ -32457,319 +32688,932 @@
       <c r="J69" s="70"/>
       <c r="K69" s="70"/>
       <c r="L69" s="70"/>
-      <c r="N69" s="294" t="s">
+      <c r="N69" s="297" t="s">
         <v>716</v>
       </c>
-      <c r="O69" s="285" t="s">
+      <c r="O69" s="286" t="s">
         <v>706</v>
       </c>
-      <c r="P69" s="285" t="s">
+      <c r="P69" s="286" t="s">
         <v>176</v>
       </c>
-      <c r="Q69" s="285" t="s">
+      <c r="Q69" s="286" t="s">
         <v>131</v>
       </c>
-      <c r="R69" s="285" t="s">
+      <c r="R69" s="286" t="s">
         <v>155</v>
       </c>
-      <c r="S69" s="285" t="s">
+      <c r="S69" s="286" t="s">
         <v>152</v>
       </c>
-      <c r="T69" s="285" t="s">
+      <c r="T69" s="286" t="s">
         <v>707</v>
       </c>
-      <c r="U69" s="270"/>
-      <c r="V69" s="270"/>
-      <c r="W69" s="270"/>
-    </row>
-    <row r="70" spans="2:23" ht="16" thickBot="1">
-      <c r="B70" s="249"/>
-      <c r="C70" s="250"/>
-      <c r="N70" s="286" t="s">
+      <c r="U69" s="273"/>
+      <c r="V69" s="297" t="s">
+        <v>718</v>
+      </c>
+      <c r="W69" s="286" t="s">
+        <v>706</v>
+      </c>
+      <c r="X69" s="286" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y69" s="286" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z69" s="286" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA69" s="286" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB69" s="286" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="70" spans="2:41" ht="16" thickBot="1">
+      <c r="B70" s="251"/>
+      <c r="C70" s="252"/>
+      <c r="N70" s="287" t="s">
         <v>708</v>
       </c>
-      <c r="O70" s="287">
+      <c r="O70" s="288">
         <v>0.21</v>
       </c>
-      <c r="P70" s="287">
+      <c r="P70" s="288">
         <v>0.01</v>
       </c>
-      <c r="Q70" s="287">
+      <c r="Q70" s="288">
         <v>0.49</v>
       </c>
-      <c r="R70" s="287">
+      <c r="R70" s="288">
         <v>0.86</v>
       </c>
-      <c r="S70" s="287">
+      <c r="S70" s="288">
         <v>0.01</v>
       </c>
-      <c r="T70" s="287">
+      <c r="T70" s="288">
         <v>0.4</v>
       </c>
-      <c r="U70" s="269"/>
-      <c r="V70" s="269"/>
-      <c r="W70" s="269"/>
-    </row>
-    <row r="71" spans="2:23" ht="30">
-      <c r="N71" s="291" t="s">
+      <c r="U70" s="272"/>
+      <c r="V70" s="287" t="s">
+        <v>708</v>
+      </c>
+      <c r="W70" s="288">
+        <v>0.21</v>
+      </c>
+      <c r="X70" s="288">
+        <v>0.01</v>
+      </c>
+      <c r="Y70" s="288">
+        <v>0.49</v>
+      </c>
+      <c r="Z70" s="288">
+        <v>0.86</v>
+      </c>
+      <c r="AA70" s="288">
+        <v>0.01</v>
+      </c>
+      <c r="AB70" s="288">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:41" ht="30">
+      <c r="N71" s="292" t="s">
         <v>709</v>
       </c>
-      <c r="O71" s="338">
+      <c r="O71" s="341">
         <v>0.23769999999999999</v>
       </c>
-      <c r="P71" s="330">
+      <c r="P71" s="333">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="Q71" s="333"/>
-      <c r="R71" s="334"/>
-      <c r="S71" s="330">
+      <c r="Q71" s="336"/>
+      <c r="R71" s="337"/>
+      <c r="S71" s="333">
         <v>2.1700000000000001E-3</v>
       </c>
-      <c r="T71" s="338">
+      <c r="T71" s="341">
         <v>0.3478</v>
       </c>
-      <c r="U71" s="269"/>
-      <c r="V71" s="269"/>
-      <c r="W71" s="269"/>
-    </row>
-    <row r="72" spans="2:23" ht="15" customHeight="1" thickBot="1">
-      <c r="N72" s="292"/>
-      <c r="O72" s="292"/>
-      <c r="P72" s="328"/>
-      <c r="Q72" s="335"/>
-      <c r="R72" s="336"/>
-      <c r="S72" s="331"/>
-      <c r="T72" s="292"/>
-      <c r="U72" s="270"/>
-      <c r="V72" s="270"/>
-      <c r="W72" s="270"/>
-    </row>
-    <row r="73" spans="2:23" ht="46" thickBot="1">
-      <c r="N73" s="292" t="s">
+      <c r="U71" s="272"/>
+      <c r="V71" s="344" t="s">
+        <v>709</v>
+      </c>
+      <c r="W71" s="354"/>
+      <c r="X71" s="355"/>
+      <c r="Y71" s="293">
+        <v>0.438</v>
+      </c>
+      <c r="Z71" s="341">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="AA71" s="355"/>
+      <c r="AB71" s="341">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="72" spans="2:41" ht="15" customHeight="1" thickBot="1">
+      <c r="N72" s="294"/>
+      <c r="O72" s="294"/>
+      <c r="P72" s="331"/>
+      <c r="Q72" s="338"/>
+      <c r="R72" s="339"/>
+      <c r="S72" s="334"/>
+      <c r="T72" s="294"/>
+      <c r="U72" s="273"/>
+      <c r="V72" s="346"/>
+      <c r="W72" s="346"/>
+      <c r="X72" s="356"/>
+      <c r="Y72" s="295"/>
+      <c r="Z72" s="294"/>
+      <c r="AA72" s="358"/>
+      <c r="AB72" s="294"/>
+    </row>
+    <row r="73" spans="2:41" ht="46" thickBot="1">
+      <c r="N73" s="294" t="s">
         <v>710</v>
       </c>
-      <c r="O73" s="293">
+      <c r="O73" s="295">
         <v>0.43630000000000002</v>
       </c>
-      <c r="P73" s="329"/>
-      <c r="Q73" s="335"/>
-      <c r="R73" s="337"/>
-      <c r="S73" s="332"/>
-      <c r="T73" s="293">
+      <c r="P73" s="332"/>
+      <c r="Q73" s="338"/>
+      <c r="R73" s="340"/>
+      <c r="S73" s="335"/>
+      <c r="T73" s="295">
         <v>0.36980000000000002</v>
       </c>
-      <c r="U73" s="268"/>
-      <c r="V73" s="268"/>
-      <c r="W73" s="268"/>
-    </row>
-    <row r="74" spans="2:23" ht="16" thickBot="1">
+      <c r="U73" s="271"/>
+      <c r="V73" s="346" t="s">
+        <v>710</v>
+      </c>
+      <c r="W73" s="345"/>
+      <c r="X73" s="357"/>
+      <c r="Y73" s="295">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="Z73" s="296">
+        <v>1</v>
+      </c>
+      <c r="AA73" s="359"/>
+      <c r="AB73" s="295">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:41" ht="16" thickBot="1">
       <c r="N74" s="17"/>
       <c r="O74" s="17"/>
       <c r="P74" s="17"/>
       <c r="Q74" s="17"/>
       <c r="R74" s="17"/>
       <c r="S74" s="17"/>
-      <c r="T74" s="268"/>
-      <c r="U74" s="268"/>
-      <c r="V74" s="268"/>
-      <c r="W74" s="268"/>
-    </row>
-    <row r="75" spans="2:23" ht="46" thickBot="1">
-      <c r="N75" s="294" t="s">
+      <c r="T74" s="271"/>
+      <c r="U74" s="271"/>
+      <c r="V74" s="271"/>
+      <c r="W74" s="271"/>
+    </row>
+    <row r="75" spans="2:41" ht="46" thickBot="1">
+      <c r="N75" s="297" t="s">
         <v>712</v>
       </c>
-      <c r="O75" s="285" t="s">
+      <c r="O75" s="286" t="s">
         <v>706</v>
       </c>
-      <c r="P75" s="285" t="s">
+      <c r="P75" s="286" t="s">
         <v>176</v>
       </c>
-      <c r="Q75" s="285" t="s">
+      <c r="Q75" s="286" t="s">
         <v>131</v>
       </c>
-      <c r="R75" s="285" t="s">
+      <c r="R75" s="286" t="s">
         <v>155</v>
       </c>
-      <c r="S75" s="285" t="s">
+      <c r="S75" s="286" t="s">
         <v>152</v>
       </c>
-      <c r="T75" s="285" t="s">
+      <c r="T75" s="286" t="s">
         <v>707</v>
       </c>
-      <c r="U75" s="268"/>
-      <c r="V75" s="268"/>
-      <c r="W75" s="268"/>
-    </row>
-    <row r="76" spans="2:23" ht="16" thickBot="1">
-      <c r="N76" s="286" t="s">
+      <c r="U75" s="271"/>
+      <c r="V75" s="297" t="s">
+        <v>721</v>
+      </c>
+      <c r="W75" s="286" t="s">
+        <v>706</v>
+      </c>
+      <c r="X75" s="286" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y75" s="286" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z75" s="286" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA75" s="286" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB75" s="286" t="s">
+        <v>707</v>
+      </c>
+      <c r="AC75" s="366" t="s">
+        <v>726</v>
+      </c>
+      <c r="AF75" s="297" t="s">
+        <v>727</v>
+      </c>
+      <c r="AG75" s="286" t="s">
+        <v>706</v>
+      </c>
+      <c r="AH75" s="286" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI75" s="286" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ75" s="286" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK75" s="286" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL75" s="286" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="76" spans="2:41" ht="16" thickBot="1">
+      <c r="N76" s="287" t="s">
         <v>708</v>
       </c>
-      <c r="O76" s="287">
+      <c r="O76" s="288">
         <v>0.21</v>
       </c>
-      <c r="P76" s="287">
+      <c r="P76" s="288">
         <v>0.01</v>
       </c>
-      <c r="Q76" s="287">
+      <c r="Q76" s="288">
         <v>0.49</v>
       </c>
-      <c r="R76" s="287">
+      <c r="R76" s="288">
         <v>0.86</v>
       </c>
-      <c r="S76" s="287">
+      <c r="S76" s="288">
         <v>0.01</v>
       </c>
-      <c r="T76" s="287">
+      <c r="T76" s="288">
         <v>0.4</v>
       </c>
-      <c r="U76" s="17"/>
-      <c r="V76" s="17"/>
-      <c r="W76" s="17"/>
-    </row>
-    <row r="77" spans="2:23" ht="30">
-      <c r="N77" s="291" t="s">
+      <c r="U76" s="67"/>
+      <c r="V76" s="287" t="s">
+        <v>708</v>
+      </c>
+      <c r="W76" s="288">
+        <v>0.21</v>
+      </c>
+      <c r="X76" s="288">
+        <v>0.01</v>
+      </c>
+      <c r="Y76" s="288">
+        <v>0.49</v>
+      </c>
+      <c r="Z76" s="288">
+        <v>0.86</v>
+      </c>
+      <c r="AA76" s="288">
+        <v>0.01</v>
+      </c>
+      <c r="AB76" s="288">
+        <v>0.4</v>
+      </c>
+      <c r="AC76" s="367"/>
+      <c r="AD76" s="367"/>
+      <c r="AE76" s="367"/>
+      <c r="AF76" s="287" t="s">
+        <v>708</v>
+      </c>
+      <c r="AG76" s="288">
+        <v>0.21</v>
+      </c>
+      <c r="AH76" s="288">
+        <v>0.01</v>
+      </c>
+      <c r="AI76" s="288">
+        <v>0.49</v>
+      </c>
+      <c r="AJ76" s="288">
+        <v>0.86</v>
+      </c>
+      <c r="AK76" s="288">
+        <v>0.01</v>
+      </c>
+      <c r="AL76" s="288">
+        <v>0.4</v>
+      </c>
+      <c r="AO76" s="368" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="77" spans="2:41" ht="30">
+      <c r="N77" s="292" t="s">
         <v>709</v>
       </c>
-      <c r="O77" s="339">
+      <c r="O77" s="342">
         <v>0.22</v>
       </c>
-      <c r="P77" s="340">
+      <c r="P77" s="333">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="Q77" s="333"/>
-      <c r="R77" s="334"/>
-      <c r="S77" s="330">
+      <c r="Q77" s="336"/>
+      <c r="R77" s="337"/>
+      <c r="S77" s="333">
         <v>2.1700000000000001E-3</v>
       </c>
-      <c r="T77" s="338">
+      <c r="T77" s="341">
         <v>0.34599999999999997</v>
       </c>
       <c r="U77" s="17"/>
-      <c r="V77" s="17"/>
-      <c r="W77" s="17"/>
-    </row>
-    <row r="78" spans="2:23" ht="16" thickBot="1">
-      <c r="N78" s="292"/>
-      <c r="O78" s="292"/>
-      <c r="P78" s="341"/>
-      <c r="Q78" s="335"/>
-      <c r="R78" s="336"/>
-      <c r="S78" s="331"/>
-      <c r="T78" s="292"/>
+      <c r="V77" s="344" t="s">
+        <v>709</v>
+      </c>
+      <c r="W77" s="354"/>
+      <c r="X77" s="355"/>
+      <c r="Y77" s="293">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="Z77" s="341">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="AA77" s="355"/>
+      <c r="AB77" s="341">
+        <v>0.28289999999999998</v>
+      </c>
+      <c r="AF77" s="344" t="s">
+        <v>709</v>
+      </c>
+      <c r="AG77" s="341">
+        <v>0.22339999999999999</v>
+      </c>
+      <c r="AH77" s="333">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="AI77" s="293">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="AJ77" s="341">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="AK77" s="333">
+        <v>2.1700000000000001E-3</v>
+      </c>
+      <c r="AL77" s="341">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="AO77" s="341">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="2:41" ht="16" thickBot="1">
+      <c r="N78" s="294"/>
+      <c r="O78" s="294"/>
+      <c r="P78" s="334"/>
+      <c r="Q78" s="338"/>
+      <c r="R78" s="339"/>
+      <c r="S78" s="334"/>
+      <c r="T78" s="294"/>
       <c r="U78" s="17"/>
-      <c r="V78" s="17"/>
-      <c r="W78" s="17"/>
-    </row>
-    <row r="79" spans="2:23" ht="46" thickBot="1">
-      <c r="N79" s="292" t="s">
+      <c r="V78" s="346"/>
+      <c r="W78" s="346"/>
+      <c r="X78" s="356"/>
+      <c r="Y78" s="295"/>
+      <c r="Z78" s="294"/>
+      <c r="AA78" s="358"/>
+      <c r="AB78" s="294"/>
+      <c r="AF78" s="346"/>
+      <c r="AG78" s="294"/>
+      <c r="AH78" s="331"/>
+      <c r="AI78" s="295"/>
+      <c r="AJ78" s="294"/>
+      <c r="AK78" s="334"/>
+      <c r="AL78" s="294"/>
+      <c r="AO78" s="294"/>
+    </row>
+    <row r="79" spans="2:41" ht="46" thickBot="1">
+      <c r="N79" s="294" t="s">
         <v>710</v>
       </c>
-      <c r="O79" s="293">
+      <c r="O79" s="295">
         <v>0.41</v>
       </c>
-      <c r="P79" s="342"/>
-      <c r="Q79" s="335"/>
-      <c r="R79" s="337"/>
-      <c r="S79" s="332"/>
-      <c r="T79" s="293">
+      <c r="P79" s="335"/>
+      <c r="Q79" s="338"/>
+      <c r="R79" s="340"/>
+      <c r="S79" s="335"/>
+      <c r="T79" s="295">
         <v>0.36799999999999999</v>
       </c>
       <c r="U79" s="17"/>
-      <c r="V79" s="17"/>
-      <c r="W79" s="17"/>
-    </row>
-    <row r="80" spans="2:23" ht="16" thickBot="1"/>
-    <row r="81" spans="14:20" ht="46" thickBot="1">
-      <c r="N81" s="294" t="s">
+      <c r="V79" s="346" t="s">
+        <v>710</v>
+      </c>
+      <c r="W79" s="345"/>
+      <c r="X79" s="357"/>
+      <c r="Y79" s="295">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="Z79" s="296">
+        <v>1</v>
+      </c>
+      <c r="AA79" s="359"/>
+      <c r="AB79" s="295">
+        <v>0.37</v>
+      </c>
+      <c r="AF79" s="346" t="s">
+        <v>710</v>
+      </c>
+      <c r="AG79" s="295">
+        <v>0.41</v>
+      </c>
+      <c r="AH79" s="332"/>
+      <c r="AI79" s="295">
+        <v>0.70469999999999999</v>
+      </c>
+      <c r="AJ79" s="296">
+        <v>1</v>
+      </c>
+      <c r="AK79" s="335"/>
+      <c r="AL79" s="295">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="2:41" ht="16" thickBot="1"/>
+    <row r="81" spans="14:41" ht="46" thickBot="1">
+      <c r="N81" s="297" t="s">
         <v>711</v>
       </c>
-      <c r="O81" s="285" t="s">
+      <c r="O81" s="286" t="s">
         <v>706</v>
       </c>
-      <c r="P81" s="285" t="s">
+      <c r="P81" s="286" t="s">
         <v>176</v>
       </c>
-      <c r="Q81" s="285" t="s">
+      <c r="Q81" s="286" t="s">
         <v>131</v>
       </c>
-      <c r="R81" s="285" t="s">
+      <c r="R81" s="286" t="s">
         <v>155</v>
       </c>
-      <c r="S81" s="285" t="s">
+      <c r="S81" s="286" t="s">
         <v>152</v>
       </c>
-      <c r="T81" s="285" t="s">
+      <c r="T81" s="286" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="82" spans="14:20" ht="16" thickBot="1">
-      <c r="N82" s="286" t="s">
+      <c r="V81" s="297" t="s">
+        <v>724</v>
+      </c>
+      <c r="W81" s="286" t="s">
+        <v>706</v>
+      </c>
+      <c r="X81" s="286" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y81" s="286" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z81" s="286" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA81" s="286" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB81" s="286" t="s">
+        <v>707</v>
+      </c>
+      <c r="AC81" s="366" t="s">
+        <v>725</v>
+      </c>
+      <c r="AF81" s="297" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG81" s="286" t="s">
+        <v>706</v>
+      </c>
+      <c r="AH81" s="286" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI81" s="286" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ81" s="286" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK81" s="286" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL81" s="286" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="82" spans="14:41" ht="16" thickBot="1">
+      <c r="N82" s="287" t="s">
         <v>708</v>
       </c>
-      <c r="O82" s="287">
+      <c r="O82" s="288">
         <v>0.21</v>
       </c>
-      <c r="P82" s="287">
+      <c r="P82" s="288">
         <v>0.01</v>
       </c>
-      <c r="Q82" s="287">
+      <c r="Q82" s="288">
         <v>0.49</v>
       </c>
-      <c r="R82" s="287">
+      <c r="R82" s="288">
         <v>0.86</v>
       </c>
-      <c r="S82" s="287">
+      <c r="S82" s="288">
         <v>0.01</v>
       </c>
-      <c r="T82" s="287">
+      <c r="T82" s="288">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="83" spans="14:20" ht="30">
-      <c r="N83" s="291" t="s">
+      <c r="U82" s="367"/>
+      <c r="V82" s="287" t="s">
+        <v>708</v>
+      </c>
+      <c r="W82" s="288">
+        <v>0.21</v>
+      </c>
+      <c r="X82" s="288">
+        <v>0.01</v>
+      </c>
+      <c r="Y82" s="288">
+        <v>0.49</v>
+      </c>
+      <c r="Z82" s="288">
+        <v>0.86</v>
+      </c>
+      <c r="AA82" s="288">
+        <v>0.01</v>
+      </c>
+      <c r="AB82" s="288">
+        <v>0.4</v>
+      </c>
+      <c r="AC82" s="367"/>
+      <c r="AD82" s="367"/>
+      <c r="AE82" s="367"/>
+      <c r="AF82" s="287" t="s">
+        <v>708</v>
+      </c>
+      <c r="AG82" s="288">
+        <v>0.21</v>
+      </c>
+      <c r="AH82" s="288">
+        <v>0.01</v>
+      </c>
+      <c r="AI82" s="288">
+        <v>0.49</v>
+      </c>
+      <c r="AJ82" s="288">
+        <v>0.86</v>
+      </c>
+      <c r="AK82" s="288">
+        <v>0.01</v>
+      </c>
+      <c r="AL82" s="288">
+        <v>0.4</v>
+      </c>
+      <c r="AO82" s="368" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="83" spans="14:41" ht="30">
+      <c r="N83" s="292" t="s">
         <v>709</v>
       </c>
-      <c r="O83" s="339">
+      <c r="O83" s="342">
         <v>0.25</v>
       </c>
-      <c r="P83" s="330">
+      <c r="P83" s="333">
         <v>5.79E-2</v>
       </c>
       <c r="Q83" s="343"/>
       <c r="R83" s="344"/>
-      <c r="S83" s="330">
+      <c r="S83" s="333">
         <v>2.1700000000000001E-3</v>
       </c>
-      <c r="T83" s="338">
+      <c r="T83" s="341">
         <v>0.34899999999999998</v>
       </c>
-    </row>
-    <row r="84" spans="14:20" ht="16" thickBot="1">
-      <c r="N84" s="292"/>
-      <c r="O84" s="292"/>
-      <c r="P84" s="328"/>
+      <c r="V83" s="344" t="s">
+        <v>709</v>
+      </c>
+      <c r="W83" s="354"/>
+      <c r="X83" s="355"/>
+      <c r="Y83" s="293">
+        <v>0.4</v>
+      </c>
+      <c r="Z83" s="341">
+        <v>1</v>
+      </c>
+      <c r="AA83" s="355"/>
+      <c r="AB83" s="341">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="AF83" s="344" t="s">
+        <v>709</v>
+      </c>
+      <c r="AG83" s="341">
+        <v>0.251</v>
+      </c>
+      <c r="AH83" s="333">
+        <v>5.79E-2</v>
+      </c>
+      <c r="AI83" s="293">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="AJ83" s="341">
+        <v>1</v>
+      </c>
+      <c r="AK83" s="333">
+        <v>2.1700000000000001E-3</v>
+      </c>
+      <c r="AL83" s="341">
+        <v>0.39489999999999997</v>
+      </c>
+      <c r="AO83" s="341">
+        <v>0.39489999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="14:41" ht="16" thickBot="1">
+      <c r="N84" s="294"/>
+      <c r="O84" s="294"/>
+      <c r="P84" s="331"/>
       <c r="Q84" s="345"/>
       <c r="R84" s="346"/>
-      <c r="S84" s="331"/>
-      <c r="T84" s="292"/>
-    </row>
-    <row r="85" spans="14:20" ht="46" thickBot="1">
-      <c r="N85" s="292" t="s">
+      <c r="S84" s="334"/>
+      <c r="T84" s="294"/>
+      <c r="V84" s="346"/>
+      <c r="W84" s="346"/>
+      <c r="X84" s="356"/>
+      <c r="Y84" s="295"/>
+      <c r="Z84" s="294"/>
+      <c r="AA84" s="358"/>
+      <c r="AB84" s="294"/>
+      <c r="AF84" s="346"/>
+      <c r="AG84" s="294"/>
+      <c r="AH84" s="331"/>
+      <c r="AI84" s="295"/>
+      <c r="AJ84" s="294"/>
+      <c r="AK84" s="334"/>
+      <c r="AL84" s="294"/>
+      <c r="AO84" s="294"/>
+    </row>
+    <row r="85" spans="14:41" ht="46" thickBot="1">
+      <c r="N85" s="294" t="s">
         <v>710</v>
       </c>
-      <c r="O85" s="293">
+      <c r="O85" s="295">
         <v>0.46</v>
       </c>
-      <c r="P85" s="329"/>
+      <c r="P85" s="332"/>
       <c r="Q85" s="345"/>
       <c r="R85" s="347"/>
-      <c r="S85" s="332"/>
-      <c r="T85" s="293">
+      <c r="S85" s="335"/>
+      <c r="T85" s="295">
         <v>0.371</v>
       </c>
+      <c r="V85" s="346" t="s">
+        <v>710</v>
+      </c>
+      <c r="W85" s="345"/>
+      <c r="X85" s="357"/>
+      <c r="Y85" s="295">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="Z85" s="296">
+        <v>1</v>
+      </c>
+      <c r="AA85" s="359"/>
+      <c r="AB85" s="295">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="AF85" s="346" t="s">
+        <v>710</v>
+      </c>
+      <c r="AG85" s="295">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="AH85" s="332"/>
+      <c r="AI85" s="295">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="AJ85" s="296">
+        <v>1</v>
+      </c>
+      <c r="AK85" s="335"/>
+      <c r="AL85" s="295">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="14:41" ht="16" thickBot="1"/>
+    <row r="87" spans="14:41" ht="46" thickBot="1">
+      <c r="V87" s="297" t="s">
+        <v>723</v>
+      </c>
+      <c r="W87" s="286" t="s">
+        <v>706</v>
+      </c>
+      <c r="X87" s="286" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y87" s="286" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z87" s="286" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA87" s="286" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB87" s="286" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="88" spans="14:41" ht="16" thickBot="1">
+      <c r="V88" s="287" t="s">
+        <v>708</v>
+      </c>
+      <c r="W88" s="288">
+        <v>0.21</v>
+      </c>
+      <c r="X88" s="288">
+        <v>0.01</v>
+      </c>
+      <c r="Y88" s="288">
+        <v>0.49</v>
+      </c>
+      <c r="Z88" s="288">
+        <v>0.86</v>
+      </c>
+      <c r="AA88" s="288">
+        <v>0.01</v>
+      </c>
+      <c r="AB88" s="288">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="89" spans="14:41" ht="30">
+      <c r="V89" s="344" t="s">
+        <v>709</v>
+      </c>
+      <c r="W89" s="354"/>
+      <c r="X89" s="355"/>
+      <c r="Y89" s="293">
+        <v>0.45879999999999999</v>
+      </c>
+      <c r="Z89" s="341">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="AA89" s="355"/>
+      <c r="AB89" s="341">
+        <v>0.37569999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="14:41" ht="16" thickBot="1">
+      <c r="V90" s="346"/>
+      <c r="W90" s="346"/>
+      <c r="X90" s="358"/>
+      <c r="Y90" s="295"/>
+      <c r="Z90" s="294"/>
+      <c r="AA90" s="358"/>
+      <c r="AB90" s="294"/>
+    </row>
+    <row r="91" spans="14:41" ht="46" thickBot="1">
+      <c r="V91" s="346" t="s">
+        <v>710</v>
+      </c>
+      <c r="W91" s="345"/>
+      <c r="X91" s="359"/>
+      <c r="Y91" s="295">
+        <v>0.69210000000000005</v>
+      </c>
+      <c r="Z91" s="296">
+        <v>1</v>
+      </c>
+      <c r="AA91" s="359"/>
+      <c r="AB91" s="295">
+        <v>0.36890000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="14:41" ht="16" thickBot="1"/>
+    <row r="93" spans="14:41" ht="46" thickBot="1">
+      <c r="V93" s="297" t="s">
+        <v>722</v>
+      </c>
+      <c r="W93" s="286" t="s">
+        <v>706</v>
+      </c>
+      <c r="X93" s="286" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y93" s="286" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z93" s="286" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA93" s="286" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB93" s="286" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="94" spans="14:41" ht="16" thickBot="1">
+      <c r="V94" s="287" t="s">
+        <v>708</v>
+      </c>
+      <c r="W94" s="288">
+        <v>0.21</v>
+      </c>
+      <c r="X94" s="288">
+        <v>0.01</v>
+      </c>
+      <c r="Y94" s="288">
+        <v>0.49</v>
+      </c>
+      <c r="Z94" s="288">
+        <v>0.86</v>
+      </c>
+      <c r="AA94" s="288">
+        <v>0.01</v>
+      </c>
+      <c r="AB94" s="288">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="95" spans="14:41" ht="30">
+      <c r="V95" s="344" t="s">
+        <v>709</v>
+      </c>
+      <c r="W95" s="354"/>
+      <c r="X95" s="355"/>
+      <c r="Y95" s="293">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="Z95" s="341">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="AA95" s="355"/>
+      <c r="AB95" s="341">
+        <v>0.37589</v>
+      </c>
+    </row>
+    <row r="96" spans="14:41" ht="16" thickBot="1">
+      <c r="V96" s="346"/>
+      <c r="W96" s="346"/>
+      <c r="X96" s="358"/>
+      <c r="Y96" s="295"/>
+      <c r="Z96" s="294"/>
+      <c r="AA96" s="358"/>
+      <c r="AB96" s="294"/>
+    </row>
+    <row r="97" spans="22:28" ht="46" thickBot="1">
+      <c r="V97" s="346" t="s">
+        <v>710</v>
+      </c>
+      <c r="W97" s="345"/>
+      <c r="X97" s="359"/>
+      <c r="Y97" s="295">
+        <v>0.61660000000000004</v>
+      </c>
+      <c r="Z97" s="296">
+        <v>1</v>
+      </c>
+      <c r="AA97" s="359"/>
+      <c r="AB97" s="295">
+        <v>0.37</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="99">
+    <mergeCell ref="AH77:AH79"/>
+    <mergeCell ref="AK77:AK79"/>
+    <mergeCell ref="AH83:AH85"/>
+    <mergeCell ref="AK83:AK85"/>
+    <mergeCell ref="X83:X85"/>
+    <mergeCell ref="AA83:AA85"/>
+    <mergeCell ref="X89:X91"/>
+    <mergeCell ref="AA89:AA91"/>
+    <mergeCell ref="X95:X97"/>
+    <mergeCell ref="AA95:AA97"/>
+    <mergeCell ref="X71:X73"/>
+    <mergeCell ref="AA71:AA73"/>
+    <mergeCell ref="V61:X62"/>
+    <mergeCell ref="X77:X79"/>
+    <mergeCell ref="AA77:AA79"/>
     <mergeCell ref="Q6:R17"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="P65:P67"/>
@@ -32791,6 +33635,8 @@
     <mergeCell ref="Q49:AA55"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="O26:Q37"/>
+    <mergeCell ref="X65:X67"/>
+    <mergeCell ref="AA65:AA67"/>
     <mergeCell ref="W41:X43"/>
     <mergeCell ref="B59:C60"/>
     <mergeCell ref="E50:F50"/>
@@ -33095,10 +33941,10 @@
       <c r="E1" s="51"/>
       <c r="F1" s="87"/>
       <c r="I1" s="76"/>
-      <c r="J1" s="255" t="s">
+      <c r="J1" s="258" t="s">
         <v>411</v>
       </c>
-      <c r="K1" s="255"/>
+      <c r="K1" s="258"/>
     </row>
     <row r="2" spans="2:14" ht="28">
       <c r="B2" s="51" t="s">

--- a/Food_SR_Organization.xlsx
+++ b/Food_SR_Organization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17500" tabRatio="500" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="-60" yWindow="3100" windowWidth="28800" windowHeight="10840" tabRatio="500" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="1.Food Need" sheetId="3" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="Results Check" sheetId="14" r:id="rId14"/>
     <sheet name="Fats and Oils Check" sheetId="15" r:id="rId15"/>
     <sheet name="Email Caitlin" sheetId="16" r:id="rId16"/>
+    <sheet name="Caitlin's Results" sheetId="17" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -195,6 +196,65 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>James McGough</author>
+  </authors>
+  <commentList>
+    <comment ref="AI76" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>James McGough:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+putting eggs at 100% would change this
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI82" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>James McGough:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+putting chicken at 100% would change this.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>Caitlin Dorward</author>
   </authors>
   <commentList>
@@ -322,7 +382,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Caitlin Dorward</author>
@@ -382,7 +442,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="748">
   <si>
     <t>ALL LOCAL</t>
   </si>
@@ -2668,12 +2728,33 @@
   <si>
     <t>z</t>
   </si>
+  <si>
+    <t>Meat &amp; Alternatives</t>
+  </si>
+  <si>
+    <t>Milk &amp; Alternatives</t>
+  </si>
+  <si>
+    <t>My Results</t>
+  </si>
+  <si>
+    <t>Food Need</t>
+  </si>
+  <si>
+    <t>Food Yield</t>
+  </si>
+  <si>
+    <t>ISFS - Food Need</t>
+  </si>
+  <si>
+    <t>ISFS -Food Yield</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -2683,8 +2764,9 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2845,6 +2927,17 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
   </fonts>
@@ -3036,7 +3129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -3527,8 +3620,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1428">
+  <cellStyleXfs count="1460">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4957,8 +5092,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="368">
+  <cellXfs count="403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -5286,16 +5453,10 @@
     <xf numFmtId="10" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5333,18 +5494,6 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="22" fillId="21" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="21" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="22" fillId="21" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5352,9 +5501,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="17" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5411,83 +5557,56 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="22" fillId="17" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="17" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="17" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5501,14 +5620,29 @@
     <xf numFmtId="0" fontId="10" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5522,6 +5656,96 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="17" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="17" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="17" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5530,6 +5754,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5561,119 +5794,44 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5693,26 +5851,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5720,17 +5866,141 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="22" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="22" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="22" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="17" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="21" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="21" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="17" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="17" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="21" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="17" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="16" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1428">
+  <cellStyles count="1460">
     <cellStyle name="Comma" xfId="419" builtinId="3"/>
     <cellStyle name="Comma 3" xfId="689"/>
     <cellStyle name="Currency" xfId="649" builtinId="4"/>
@@ -6445,6 +6715,22 @@
     <cellStyle name="Followed Hyperlink" xfId="1423" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1425" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1459" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7156,6 +7442,22 @@
     <cellStyle name="Hyperlink" xfId="1422" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1424" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1432" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1436" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1438" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1440" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1442" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1444" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1446" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1448" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1450" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1452" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1454" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1456" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1458" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 9" xfId="510"/>
     <cellStyle name="Percent" xfId="650" builtinId="5"/>
@@ -17432,7 +17734,7 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="364" t="s">
+      <c r="A11" s="357" t="s">
         <v>520</v>
       </c>
       <c r="B11" s="118" t="s">
@@ -17463,7 +17765,7 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="364"/>
+      <c r="A12" s="357"/>
       <c r="B12" s="118" t="s">
         <v>47</v>
       </c>
@@ -17492,7 +17794,7 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="364"/>
+      <c r="A13" s="357"/>
       <c r="B13" s="118" t="s">
         <v>48</v>
       </c>
@@ -17521,7 +17823,7 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="364"/>
+      <c r="A14" s="357"/>
       <c r="B14" s="118" t="s">
         <v>49</v>
       </c>
@@ -17550,7 +17852,7 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="364"/>
+      <c r="A15" s="357"/>
       <c r="B15" s="118" t="s">
         <v>50</v>
       </c>
@@ -17579,7 +17881,7 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="364"/>
+      <c r="A16" s="357"/>
       <c r="B16" s="118" t="s">
         <v>51</v>
       </c>
@@ -17608,7 +17910,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="364"/>
+      <c r="A17" s="357"/>
       <c r="B17" s="118" t="s">
         <v>52</v>
       </c>
@@ -17637,7 +17939,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="364" t="s">
+      <c r="A18" s="357" t="s">
         <v>521</v>
       </c>
       <c r="B18" s="118" t="s">
@@ -17668,7 +17970,7 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="364"/>
+      <c r="A19" s="357"/>
       <c r="B19" s="118" t="s">
         <v>47</v>
       </c>
@@ -17697,7 +17999,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="364"/>
+      <c r="A20" s="357"/>
       <c r="B20" s="118" t="s">
         <v>48</v>
       </c>
@@ -17726,7 +18028,7 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="364"/>
+      <c r="A21" s="357"/>
       <c r="B21" s="118" t="s">
         <v>49</v>
       </c>
@@ -17755,7 +18057,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="364"/>
+      <c r="A22" s="357"/>
       <c r="B22" s="118" t="s">
         <v>50</v>
       </c>
@@ -17784,7 +18086,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="364"/>
+      <c r="A23" s="357"/>
       <c r="B23" s="118" t="s">
         <v>51</v>
       </c>
@@ -17813,7 +18115,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="364"/>
+      <c r="A24" s="357"/>
       <c r="B24" s="118" t="s">
         <v>52</v>
       </c>
@@ -18624,10 +18926,10 @@
       <c r="C53" s="47">
         <v>57824</v>
       </c>
-      <c r="F53" s="258" t="s">
+      <c r="F53" s="251" t="s">
         <v>737</v>
       </c>
-      <c r="G53" s="258">
+      <c r="G53" s="251">
         <v>16381069</v>
       </c>
     </row>
@@ -24500,6 +24802,134 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2">
+        <v>132525.52438470401</v>
+      </c>
+      <c r="C2">
+        <v>288.75</v>
+      </c>
+      <c r="D2">
+        <v>49290</v>
+      </c>
+      <c r="E2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3">
+        <v>1172971.11713408</v>
+      </c>
+      <c r="C3">
+        <v>262398.46881802101</v>
+      </c>
+      <c r="D3">
+        <v>610544</v>
+      </c>
+      <c r="E3">
+        <v>337821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4">
+        <v>253670.72494848</v>
+      </c>
+      <c r="C4">
+        <v>6953.7182781675601</v>
+      </c>
+      <c r="D4">
+        <v>129870</v>
+      </c>
+      <c r="E4">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5">
+        <v>354053.09684039099</v>
+      </c>
+      <c r="C5">
+        <v>90721.254589271994</v>
+      </c>
+      <c r="D5">
+        <v>366787</v>
+      </c>
+      <c r="E5">
+        <v>162518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6">
+        <v>806782.53276746196</v>
+      </c>
+      <c r="C6">
+        <v>856952.09</v>
+      </c>
+      <c r="D6">
+        <v>204002</v>
+      </c>
+      <c r="E6">
+        <v>366787</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
@@ -29754,7 +30184,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="259" t="s">
+      <c r="M14" s="252" t="s">
         <v>42</v>
       </c>
       <c r="N14" s="4"/>
@@ -29774,7 +30204,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="260"/>
+      <c r="M15" s="253"/>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:26">
@@ -29792,7 +30222,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="260"/>
+      <c r="M16" s="253"/>
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14">
@@ -29810,7 +30240,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="22"/>
-      <c r="M17" s="260"/>
+      <c r="M17" s="253"/>
       <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:14">
@@ -29828,7 +30258,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="22"/>
-      <c r="M18" s="260"/>
+      <c r="M18" s="253"/>
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14">
@@ -29846,7 +30276,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="22"/>
-      <c r="M19" s="260"/>
+      <c r="M19" s="253"/>
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14">
@@ -29862,7 +30292,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="261"/>
+      <c r="M20" s="254"/>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14">
@@ -30829,11 +31259,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T58" workbookViewId="0">
-      <selection activeCell="AD94" sqref="AD94"/>
+    <sheetView topLeftCell="G65" workbookViewId="0">
+      <selection activeCell="S70" sqref="S70:S72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -30852,14 +31282,19 @@
     <col min="26" max="26" width="8.6640625" customWidth="1"/>
     <col min="27" max="27" width="8.83203125" customWidth="1"/>
     <col min="28" max="28" width="11.1640625" customWidth="1"/>
+    <col min="42" max="42" width="11.83203125" customWidth="1"/>
+    <col min="43" max="43" width="10.1640625" customWidth="1"/>
+    <col min="44" max="45" width="12.83203125" customWidth="1"/>
+    <col min="46" max="46" width="10.83203125" customWidth="1"/>
+    <col min="47" max="47" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="338" t="s">
+      <c r="A1" s="255" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="339"/>
-      <c r="C1" s="339"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
       <c r="D1" s="56"/>
       <c r="E1" s="56"/>
       <c r="F1" s="56"/>
@@ -30920,84 +31355,84 @@
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1">
       <c r="A3" s="58"/>
-      <c r="B3" s="329" t="s">
+      <c r="B3" s="264" t="s">
         <v>291</v>
       </c>
-      <c r="C3" s="331"/>
+      <c r="C3" s="265"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="333" t="s">
+      <c r="E3" s="268" t="s">
         <v>292</v>
       </c>
-      <c r="F3" s="342"/>
+      <c r="F3" s="269"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="329" t="s">
+      <c r="H3" s="264" t="s">
         <v>296</v>
       </c>
-      <c r="I3" s="331"/>
+      <c r="I3" s="265"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="329" t="s">
+      <c r="K3" s="264" t="s">
         <v>297</v>
       </c>
-      <c r="L3" s="331"/>
+      <c r="L3" s="265"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="333" t="s">
+      <c r="N3" s="268" t="s">
         <v>298</v>
       </c>
-      <c r="O3" s="342"/>
+      <c r="O3" s="269"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="333" t="s">
+      <c r="Q3" s="268" t="s">
         <v>299</v>
       </c>
-      <c r="R3" s="342"/>
+      <c r="R3" s="269"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="324" t="s">
+      <c r="T3" s="258" t="s">
         <v>300</v>
       </c>
-      <c r="U3" s="356"/>
-      <c r="V3" s="356"/>
+      <c r="U3" s="259"/>
+      <c r="V3" s="259"/>
       <c r="W3" s="4"/>
-      <c r="X3" s="357" t="s">
+      <c r="X3" s="260" t="s">
         <v>341</v>
       </c>
-      <c r="Y3" s="358"/>
+      <c r="Y3" s="261"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="357" t="s">
+      <c r="AA3" s="260" t="s">
         <v>302</v>
       </c>
-      <c r="AB3" s="358"/>
+      <c r="AB3" s="261"/>
       <c r="AC3" s="59"/>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1">
       <c r="A4" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="B4" s="361"/>
-      <c r="C4" s="362"/>
+      <c r="B4" s="266"/>
+      <c r="C4" s="267"/>
       <c r="D4" s="55"/>
-      <c r="E4" s="343"/>
-      <c r="F4" s="335"/>
+      <c r="E4" s="270"/>
+      <c r="F4" s="271"/>
       <c r="G4" s="55"/>
-      <c r="H4" s="361"/>
-      <c r="I4" s="362"/>
+      <c r="H4" s="266"/>
+      <c r="I4" s="267"/>
       <c r="J4" s="55"/>
-      <c r="K4" s="361"/>
-      <c r="L4" s="362"/>
+      <c r="K4" s="266"/>
+      <c r="L4" s="267"/>
       <c r="M4" s="55"/>
-      <c r="N4" s="343"/>
-      <c r="O4" s="335"/>
+      <c r="N4" s="270"/>
+      <c r="O4" s="271"/>
       <c r="P4" s="55"/>
-      <c r="Q4" s="343"/>
-      <c r="R4" s="335"/>
+      <c r="Q4" s="270"/>
+      <c r="R4" s="271"/>
       <c r="S4" s="55"/>
-      <c r="T4" s="324"/>
-      <c r="U4" s="356"/>
-      <c r="V4" s="356"/>
+      <c r="T4" s="258"/>
+      <c r="U4" s="259"/>
+      <c r="V4" s="259"/>
       <c r="W4" s="55"/>
-      <c r="X4" s="359"/>
-      <c r="Y4" s="360"/>
+      <c r="X4" s="262"/>
+      <c r="Y4" s="263"/>
       <c r="Z4" s="55"/>
-      <c r="AA4" s="359"/>
-      <c r="AB4" s="360"/>
+      <c r="AA4" s="262"/>
+      <c r="AB4" s="263"/>
       <c r="AC4" s="59"/>
     </row>
     <row r="5" spans="1:29">
@@ -31036,10 +31471,10 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="292" t="s">
+      <c r="E6" s="311" t="s">
         <v>708</v>
       </c>
-      <c r="F6" s="292"/>
+      <c r="F6" s="311"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -31050,16 +31485,16 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="284" t="s">
+      <c r="Q6" s="345" t="s">
         <v>725</v>
       </c>
-      <c r="R6" s="284"/>
+      <c r="R6" s="345"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="293" t="s">
+      <c r="T6" s="257" t="s">
         <v>340</v>
       </c>
-      <c r="U6" s="293"/>
-      <c r="V6" s="293"/>
+      <c r="U6" s="257"/>
+      <c r="V6" s="257"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
@@ -31075,8 +31510,8 @@
       <c r="B7" s="55"/>
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
+      <c r="E7" s="257"/>
+      <c r="F7" s="257"/>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
       <c r="I7" s="55"/>
@@ -31087,12 +31522,12 @@
       <c r="N7" s="55"/>
       <c r="O7" s="55"/>
       <c r="P7" s="55"/>
-      <c r="Q7" s="285"/>
-      <c r="R7" s="285"/>
+      <c r="Q7" s="346"/>
+      <c r="R7" s="346"/>
       <c r="S7" s="55"/>
-      <c r="T7" s="293"/>
-      <c r="U7" s="293"/>
-      <c r="V7" s="293"/>
+      <c r="T7" s="257"/>
+      <c r="U7" s="257"/>
+      <c r="V7" s="257"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
@@ -31106,8 +31541,8 @@
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="293"/>
-      <c r="F8" s="293"/>
+      <c r="E8" s="257"/>
+      <c r="F8" s="257"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -31118,12 +31553,12 @@
       <c r="N8" s="17"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="285"/>
-      <c r="R8" s="285"/>
+      <c r="Q8" s="346"/>
+      <c r="R8" s="346"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="293"/>
-      <c r="U8" s="293"/>
-      <c r="V8" s="293"/>
+      <c r="T8" s="257"/>
+      <c r="U8" s="257"/>
+      <c r="V8" s="257"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
@@ -31137,8 +31572,8 @@
       <c r="B9" s="19"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
+      <c r="E9" s="257"/>
+      <c r="F9" s="257"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -31149,12 +31584,12 @@
       <c r="N9" s="17"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="285"/>
-      <c r="R9" s="285"/>
+      <c r="Q9" s="346"/>
+      <c r="R9" s="346"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="293"/>
-      <c r="U9" s="293"/>
-      <c r="V9" s="293"/>
+      <c r="T9" s="257"/>
+      <c r="U9" s="257"/>
+      <c r="V9" s="257"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
@@ -31168,8 +31603,8 @@
       <c r="B10" s="19"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
+      <c r="E10" s="257"/>
+      <c r="F10" s="257"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -31180,12 +31615,12 @@
       <c r="N10" s="17"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="285"/>
-      <c r="R10" s="285"/>
+      <c r="Q10" s="346"/>
+      <c r="R10" s="346"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="293"/>
-      <c r="U10" s="293"/>
-      <c r="V10" s="293"/>
+      <c r="T10" s="257"/>
+      <c r="U10" s="257"/>
+      <c r="V10" s="257"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
@@ -31199,8 +31634,8 @@
       <c r="B11" s="19"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="293"/>
-      <c r="F11" s="293"/>
+      <c r="E11" s="257"/>
+      <c r="F11" s="257"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -31211,12 +31646,12 @@
       <c r="N11" s="17"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="285"/>
-      <c r="R11" s="285"/>
+      <c r="Q11" s="346"/>
+      <c r="R11" s="346"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="293"/>
-      <c r="U11" s="293"/>
-      <c r="V11" s="293"/>
+      <c r="T11" s="257"/>
+      <c r="U11" s="257"/>
+      <c r="V11" s="257"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
@@ -31230,8 +31665,8 @@
       <c r="B12" s="19"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="293"/>
-      <c r="F12" s="293"/>
+      <c r="E12" s="257"/>
+      <c r="F12" s="257"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -31242,12 +31677,12 @@
       <c r="N12" s="17"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="285"/>
-      <c r="R12" s="285"/>
+      <c r="Q12" s="346"/>
+      <c r="R12" s="346"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="293"/>
-      <c r="U12" s="293"/>
-      <c r="V12" s="293"/>
+      <c r="T12" s="257"/>
+      <c r="U12" s="257"/>
+      <c r="V12" s="257"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
@@ -31261,8 +31696,8 @@
       <c r="B13" s="19"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="293"/>
-      <c r="F13" s="293"/>
+      <c r="E13" s="257"/>
+      <c r="F13" s="257"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -31273,12 +31708,12 @@
       <c r="N13" s="17"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="285"/>
-      <c r="R13" s="285"/>
+      <c r="Q13" s="346"/>
+      <c r="R13" s="346"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="293"/>
-      <c r="U13" s="293"/>
-      <c r="V13" s="293"/>
+      <c r="T13" s="257"/>
+      <c r="U13" s="257"/>
+      <c r="V13" s="257"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
@@ -31292,8 +31727,8 @@
       <c r="B14" s="19"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="293"/>
-      <c r="F14" s="293"/>
+      <c r="E14" s="257"/>
+      <c r="F14" s="257"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -31304,12 +31739,12 @@
       <c r="N14" s="17"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="285"/>
-      <c r="R14" s="285"/>
+      <c r="Q14" s="346"/>
+      <c r="R14" s="346"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="293"/>
-      <c r="U14" s="293"/>
-      <c r="V14" s="293"/>
+      <c r="T14" s="257"/>
+      <c r="U14" s="257"/>
+      <c r="V14" s="257"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
@@ -31323,8 +31758,8 @@
       <c r="B15" s="19"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="293"/>
-      <c r="F15" s="293"/>
+      <c r="E15" s="257"/>
+      <c r="F15" s="257"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -31335,12 +31770,12 @@
       <c r="N15" s="17"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="285"/>
-      <c r="R15" s="285"/>
+      <c r="Q15" s="346"/>
+      <c r="R15" s="346"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="293"/>
-      <c r="U15" s="293"/>
-      <c r="V15" s="293"/>
+      <c r="T15" s="257"/>
+      <c r="U15" s="257"/>
+      <c r="V15" s="257"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -31354,8 +31789,8 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="293"/>
-      <c r="F16" s="293"/>
+      <c r="E16" s="257"/>
+      <c r="F16" s="257"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -31366,12 +31801,12 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="285"/>
-      <c r="R16" s="285"/>
+      <c r="Q16" s="346"/>
+      <c r="R16" s="346"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="293"/>
-      <c r="U16" s="293"/>
-      <c r="V16" s="293"/>
+      <c r="T16" s="257"/>
+      <c r="U16" s="257"/>
+      <c r="V16" s="257"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
@@ -31385,8 +31820,8 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="293"/>
-      <c r="F17" s="293"/>
+      <c r="E17" s="257"/>
+      <c r="F17" s="257"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -31397,12 +31832,12 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="285"/>
-      <c r="R17" s="285"/>
+      <c r="Q17" s="346"/>
+      <c r="R17" s="346"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="293"/>
-      <c r="U17" s="293"/>
-      <c r="V17" s="293"/>
+      <c r="T17" s="257"/>
+      <c r="U17" s="257"/>
+      <c r="V17" s="257"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
@@ -31416,8 +31851,8 @@
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
       <c r="D18" s="62"/>
-      <c r="E18" s="294"/>
-      <c r="F18" s="294"/>
+      <c r="E18" s="312"/>
+      <c r="F18" s="312"/>
       <c r="G18" s="62"/>
       <c r="H18" s="62"/>
       <c r="I18" s="62"/>
@@ -31443,11 +31878,11 @@
       <c r="AC18" s="63"/>
     </row>
     <row r="19" spans="1:29">
-      <c r="A19" s="338" t="s">
+      <c r="A19" s="255" t="s">
         <v>303</v>
       </c>
-      <c r="B19" s="339"/>
-      <c r="C19" s="339"/>
+      <c r="B19" s="256"/>
+      <c r="C19" s="256"/>
       <c r="D19" s="56"/>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
@@ -31502,68 +31937,68 @@
     </row>
     <row r="21" spans="1:29" ht="15" customHeight="1">
       <c r="A21" s="58"/>
-      <c r="B21" s="333" t="s">
+      <c r="B21" s="268" t="s">
         <v>312</v>
       </c>
-      <c r="C21" s="342"/>
+      <c r="C21" s="269"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="333" t="s">
+      <c r="E21" s="268" t="s">
         <v>315</v>
       </c>
-      <c r="F21" s="342"/>
+      <c r="F21" s="269"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="333" t="s">
+      <c r="H21" s="268" t="s">
         <v>313</v>
       </c>
-      <c r="I21" s="342"/>
+      <c r="I21" s="269"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="333" t="s">
+      <c r="K21" s="268" t="s">
         <v>315</v>
       </c>
-      <c r="L21" s="342"/>
+      <c r="L21" s="269"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="333" t="s">
+      <c r="N21" s="268" t="s">
         <v>319</v>
       </c>
-      <c r="O21" s="342"/>
+      <c r="O21" s="269"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="333" t="s">
+      <c r="Q21" s="268" t="s">
         <v>304</v>
       </c>
-      <c r="R21" s="342"/>
+      <c r="R21" s="269"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="344" t="s">
+      <c r="T21" s="276" t="s">
         <v>336</v>
       </c>
-      <c r="U21" s="345"/>
-      <c r="V21" s="346"/>
+      <c r="U21" s="277"/>
+      <c r="V21" s="278"/>
       <c r="W21" s="59"/>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="B22" s="343"/>
-      <c r="C22" s="335"/>
+      <c r="B22" s="270"/>
+      <c r="C22" s="271"/>
       <c r="D22" s="55"/>
-      <c r="E22" s="343"/>
-      <c r="F22" s="335"/>
+      <c r="E22" s="270"/>
+      <c r="F22" s="271"/>
       <c r="G22" s="55"/>
-      <c r="H22" s="343"/>
-      <c r="I22" s="335"/>
+      <c r="H22" s="270"/>
+      <c r="I22" s="271"/>
       <c r="J22" s="55"/>
-      <c r="K22" s="343"/>
-      <c r="L22" s="335"/>
+      <c r="K22" s="270"/>
+      <c r="L22" s="271"/>
       <c r="M22" s="55"/>
-      <c r="N22" s="343"/>
-      <c r="O22" s="335"/>
+      <c r="N22" s="270"/>
+      <c r="O22" s="271"/>
       <c r="P22" s="55"/>
-      <c r="Q22" s="343"/>
-      <c r="R22" s="335"/>
+      <c r="Q22" s="270"/>
+      <c r="R22" s="271"/>
       <c r="S22" s="55"/>
-      <c r="T22" s="347"/>
-      <c r="U22" s="348"/>
-      <c r="V22" s="349"/>
+      <c r="T22" s="279"/>
+      <c r="U22" s="280"/>
+      <c r="V22" s="281"/>
       <c r="W22" s="59"/>
     </row>
     <row r="23" spans="1:29">
@@ -31593,21 +32028,21 @@
     </row>
     <row r="24" spans="1:29" ht="15" customHeight="1">
       <c r="A24" s="58"/>
-      <c r="B24" s="288" t="s">
+      <c r="B24" s="272" t="s">
         <v>305</v>
       </c>
-      <c r="C24" s="289"/>
+      <c r="C24" s="273"/>
       <c r="D24" s="38"/>
-      <c r="E24" s="288"/>
-      <c r="F24" s="289"/>
+      <c r="E24" s="272"/>
+      <c r="F24" s="273"/>
       <c r="G24" s="55"/>
-      <c r="H24" s="288" t="s">
+      <c r="H24" s="272" t="s">
         <v>305</v>
       </c>
-      <c r="I24" s="289"/>
+      <c r="I24" s="273"/>
       <c r="J24" s="55"/>
-      <c r="K24" s="288"/>
-      <c r="L24" s="289"/>
+      <c r="K24" s="272"/>
+      <c r="L24" s="273"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -31647,30 +32082,30 @@
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="58"/>
-      <c r="B26" s="288" t="s">
+      <c r="B26" s="272" t="s">
         <v>306</v>
       </c>
-      <c r="C26" s="289"/>
+      <c r="C26" s="273"/>
       <c r="D26" s="38"/>
-      <c r="E26" s="288" t="s">
+      <c r="E26" s="272" t="s">
         <v>314</v>
       </c>
-      <c r="F26" s="289"/>
+      <c r="F26" s="273"/>
       <c r="G26" s="55"/>
-      <c r="H26" s="288" t="s">
+      <c r="H26" s="272" t="s">
         <v>306</v>
       </c>
-      <c r="I26" s="289"/>
+      <c r="I26" s="273"/>
       <c r="J26" s="55"/>
-      <c r="K26" s="288"/>
-      <c r="L26" s="289"/>
+      <c r="K26" s="272"/>
+      <c r="L26" s="273"/>
       <c r="M26" s="64"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="295" t="s">
+      <c r="O26" s="284" t="s">
         <v>698</v>
       </c>
-      <c r="P26" s="292"/>
-      <c r="Q26" s="296"/>
+      <c r="P26" s="311"/>
+      <c r="Q26" s="285"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
@@ -31693,9 +32128,9 @@
       <c r="L27" s="38"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
-      <c r="O27" s="297"/>
-      <c r="P27" s="293"/>
-      <c r="Q27" s="298"/>
+      <c r="O27" s="286"/>
+      <c r="P27" s="257"/>
+      <c r="Q27" s="287"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -31705,26 +32140,26 @@
     </row>
     <row r="28" spans="1:29" ht="15" customHeight="1">
       <c r="A28" s="58"/>
-      <c r="B28" s="288" t="s">
+      <c r="B28" s="272" t="s">
         <v>307</v>
       </c>
-      <c r="C28" s="289"/>
+      <c r="C28" s="273"/>
       <c r="D28" s="38"/>
-      <c r="E28" s="288"/>
-      <c r="F28" s="289"/>
+      <c r="E28" s="272"/>
+      <c r="F28" s="273"/>
       <c r="G28" s="55"/>
-      <c r="H28" s="288" t="s">
+      <c r="H28" s="272" t="s">
         <v>307</v>
       </c>
-      <c r="I28" s="289"/>
+      <c r="I28" s="273"/>
       <c r="J28" s="55"/>
-      <c r="K28" s="288"/>
-      <c r="L28" s="289"/>
+      <c r="K28" s="272"/>
+      <c r="L28" s="273"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="297"/>
-      <c r="P28" s="293"/>
-      <c r="Q28" s="298"/>
+      <c r="O28" s="286"/>
+      <c r="P28" s="257"/>
+      <c r="Q28" s="287"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -31747,9 +32182,9 @@
       <c r="L29" s="38"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="297"/>
-      <c r="P29" s="293"/>
-      <c r="Q29" s="298"/>
+      <c r="O29" s="286"/>
+      <c r="P29" s="257"/>
+      <c r="Q29" s="287"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -31759,30 +32194,30 @@
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="58"/>
-      <c r="B30" s="288" t="s">
+      <c r="B30" s="272" t="s">
         <v>308</v>
       </c>
-      <c r="C30" s="289"/>
+      <c r="C30" s="273"/>
       <c r="D30" s="38"/>
-      <c r="E30" s="288" t="s">
+      <c r="E30" s="272" t="s">
         <v>316</v>
       </c>
-      <c r="F30" s="289"/>
+      <c r="F30" s="273"/>
       <c r="G30" s="55"/>
-      <c r="H30" s="288" t="s">
+      <c r="H30" s="272" t="s">
         <v>321</v>
       </c>
-      <c r="I30" s="289"/>
+      <c r="I30" s="273"/>
       <c r="J30" s="55"/>
-      <c r="K30" s="288" t="s">
+      <c r="K30" s="272" t="s">
         <v>320</v>
       </c>
-      <c r="L30" s="289"/>
+      <c r="L30" s="273"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="297"/>
-      <c r="P30" s="293"/>
-      <c r="Q30" s="298"/>
+      <c r="O30" s="286"/>
+      <c r="P30" s="257"/>
+      <c r="Q30" s="287"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -31805,9 +32240,9 @@
       <c r="L31" s="38"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="297"/>
-      <c r="P31" s="293"/>
-      <c r="Q31" s="298"/>
+      <c r="O31" s="286"/>
+      <c r="P31" s="257"/>
+      <c r="Q31" s="287"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -31817,28 +32252,28 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="58"/>
-      <c r="B32" s="290" t="s">
+      <c r="B32" s="274" t="s">
         <v>310</v>
       </c>
-      <c r="C32" s="291"/>
+      <c r="C32" s="275"/>
       <c r="D32" s="38"/>
-      <c r="E32" s="290" t="s">
+      <c r="E32" s="274" t="s">
         <v>317</v>
       </c>
-      <c r="F32" s="291"/>
+      <c r="F32" s="275"/>
       <c r="G32" s="55"/>
-      <c r="H32" s="290" t="s">
+      <c r="H32" s="274" t="s">
         <v>310</v>
       </c>
-      <c r="I32" s="291"/>
+      <c r="I32" s="275"/>
       <c r="J32" s="55"/>
-      <c r="K32" s="290"/>
-      <c r="L32" s="291"/>
+      <c r="K32" s="274"/>
+      <c r="L32" s="275"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="297"/>
-      <c r="P32" s="293"/>
-      <c r="Q32" s="298"/>
+      <c r="O32" s="286"/>
+      <c r="P32" s="257"/>
+      <c r="Q32" s="287"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
@@ -31861,9 +32296,9 @@
       <c r="L33" s="65"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
-      <c r="O33" s="297"/>
-      <c r="P33" s="293"/>
-      <c r="Q33" s="298"/>
+      <c r="O33" s="286"/>
+      <c r="P33" s="257"/>
+      <c r="Q33" s="287"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
@@ -31873,28 +32308,28 @@
     </row>
     <row r="34" spans="1:29">
       <c r="A34" s="58"/>
-      <c r="B34" s="288" t="s">
+      <c r="B34" s="272" t="s">
         <v>309</v>
       </c>
-      <c r="C34" s="289"/>
+      <c r="C34" s="273"/>
       <c r="D34" s="55"/>
-      <c r="E34" s="288" t="s">
+      <c r="E34" s="272" t="s">
         <v>318</v>
       </c>
-      <c r="F34" s="289"/>
+      <c r="F34" s="273"/>
       <c r="G34" s="55"/>
-      <c r="H34" s="288" t="s">
+      <c r="H34" s="272" t="s">
         <v>311</v>
       </c>
-      <c r="I34" s="289"/>
+      <c r="I34" s="273"/>
       <c r="J34" s="55"/>
-      <c r="K34" s="288"/>
-      <c r="L34" s="289"/>
+      <c r="K34" s="272"/>
+      <c r="L34" s="273"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
-      <c r="O34" s="297"/>
-      <c r="P34" s="293"/>
-      <c r="Q34" s="298"/>
+      <c r="O34" s="286"/>
+      <c r="P34" s="257"/>
+      <c r="Q34" s="287"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
@@ -31917,9 +32352,9 @@
       <c r="L35" s="65"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="297"/>
-      <c r="P35" s="293"/>
-      <c r="Q35" s="298"/>
+      <c r="O35" s="286"/>
+      <c r="P35" s="257"/>
+      <c r="Q35" s="287"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
@@ -31932,21 +32367,21 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="295" t="s">
+      <c r="E36" s="284" t="s">
         <v>342</v>
       </c>
-      <c r="F36" s="296"/>
+      <c r="F36" s="285"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="295" t="s">
+      <c r="H36" s="284" t="s">
         <v>709</v>
       </c>
-      <c r="I36" s="296"/>
+      <c r="I36" s="285"/>
       <c r="J36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
-      <c r="O36" s="297"/>
-      <c r="P36" s="293"/>
-      <c r="Q36" s="298"/>
+      <c r="O36" s="286"/>
+      <c r="P36" s="257"/>
+      <c r="Q36" s="287"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
@@ -31958,22 +32393,22 @@
       <c r="A37" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="B37" s="286"/>
-      <c r="C37" s="287"/>
+      <c r="B37" s="282"/>
+      <c r="C37" s="283"/>
       <c r="D37" s="55"/>
-      <c r="E37" s="297"/>
-      <c r="F37" s="298"/>
+      <c r="E37" s="286"/>
+      <c r="F37" s="287"/>
       <c r="G37" s="67"/>
-      <c r="H37" s="297"/>
-      <c r="I37" s="298"/>
+      <c r="H37" s="286"/>
+      <c r="I37" s="287"/>
       <c r="J37" s="67"/>
-      <c r="K37" s="286"/>
-      <c r="L37" s="287"/>
+      <c r="K37" s="282"/>
+      <c r="L37" s="283"/>
       <c r="M37" s="67"/>
       <c r="N37" s="67"/>
-      <c r="O37" s="299"/>
-      <c r="P37" s="300"/>
-      <c r="Q37" s="301"/>
+      <c r="O37" s="318"/>
+      <c r="P37" s="319"/>
+      <c r="Q37" s="320"/>
       <c r="R37" s="67"/>
       <c r="S37" s="67"/>
       <c r="T37" s="67"/>
@@ -31986,11 +32421,11 @@
       <c r="B38" s="62"/>
       <c r="C38" s="62"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="320"/>
-      <c r="F38" s="321"/>
+      <c r="E38" s="288"/>
+      <c r="F38" s="289"/>
       <c r="G38" s="62"/>
-      <c r="H38" s="320"/>
-      <c r="I38" s="321"/>
+      <c r="H38" s="288"/>
+      <c r="I38" s="289"/>
       <c r="J38" s="62"/>
       <c r="M38" s="62"/>
       <c r="N38" s="62"/>
@@ -32005,11 +32440,11 @@
       <c r="W38" s="63"/>
     </row>
     <row r="39" spans="1:29">
-      <c r="A39" s="338" t="s">
+      <c r="A39" s="255" t="s">
         <v>322</v>
       </c>
-      <c r="B39" s="339"/>
-      <c r="C39" s="339"/>
+      <c r="B39" s="256"/>
+      <c r="C39" s="256"/>
       <c r="D39" s="56"/>
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
@@ -32039,20 +32474,20 @@
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="58"/>
-      <c r="B40" s="229"/>
-      <c r="C40" s="230"/>
-      <c r="D40" s="230"/>
-      <c r="E40" s="230"/>
-      <c r="F40" s="230"/>
-      <c r="G40" s="230"/>
-      <c r="H40" s="230"/>
-      <c r="I40" s="230"/>
-      <c r="J40" s="230"/>
-      <c r="K40" s="230"/>
-      <c r="L40" s="230"/>
-      <c r="M40" s="230"/>
-      <c r="N40" s="230"/>
-      <c r="O40" s="231"/>
+      <c r="B40" s="227"/>
+      <c r="C40" s="228"/>
+      <c r="D40" s="228"/>
+      <c r="E40" s="228"/>
+      <c r="F40" s="228"/>
+      <c r="G40" s="228"/>
+      <c r="H40" s="228"/>
+      <c r="I40" s="228"/>
+      <c r="J40" s="228"/>
+      <c r="K40" s="228"/>
+      <c r="L40" s="228"/>
+      <c r="M40" s="228"/>
+      <c r="N40" s="228"/>
+      <c r="O40" s="229"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
@@ -32070,45 +32505,45 @@
     </row>
     <row r="41" spans="1:29" ht="15" customHeight="1">
       <c r="A41" s="58"/>
-      <c r="B41" s="312" t="s">
+      <c r="B41" s="303" t="s">
         <v>323</v>
       </c>
-      <c r="C41" s="313"/>
+      <c r="C41" s="304"/>
       <c r="D41" s="64"/>
-      <c r="E41" s="312" t="s">
+      <c r="E41" s="303" t="s">
         <v>325</v>
       </c>
-      <c r="F41" s="313"/>
+      <c r="F41" s="304"/>
       <c r="G41" s="64"/>
-      <c r="H41" s="312" t="s">
+      <c r="H41" s="303" t="s">
         <v>324</v>
       </c>
-      <c r="I41" s="313"/>
+      <c r="I41" s="304"/>
       <c r="J41" s="64"/>
-      <c r="K41" s="312" t="s">
+      <c r="K41" s="303" t="s">
         <v>330</v>
       </c>
-      <c r="L41" s="313"/>
+      <c r="L41" s="304"/>
       <c r="M41" s="64"/>
-      <c r="N41" s="312" t="s">
+      <c r="N41" s="303" t="s">
         <v>331</v>
       </c>
-      <c r="O41" s="313"/>
+      <c r="O41" s="304"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="308" t="s">
+      <c r="Q41" s="330" t="s">
         <v>707</v>
       </c>
-      <c r="R41" s="309"/>
+      <c r="R41" s="331"/>
       <c r="S41" s="4"/>
       <c r="T41" s="172" t="s">
         <v>335</v>
       </c>
       <c r="U41" s="173"/>
       <c r="V41" s="4"/>
-      <c r="W41" s="302" t="s">
+      <c r="W41" s="324" t="s">
         <v>343</v>
       </c>
-      <c r="X41" s="303"/>
+      <c r="X41" s="325"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="59"/>
     </row>
@@ -32116,23 +32551,23 @@
       <c r="A42" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="B42" s="316"/>
-      <c r="C42" s="317"/>
+      <c r="B42" s="307"/>
+      <c r="C42" s="308"/>
       <c r="D42" s="64"/>
-      <c r="E42" s="316"/>
-      <c r="F42" s="317"/>
+      <c r="E42" s="307"/>
+      <c r="F42" s="308"/>
       <c r="G42" s="64"/>
-      <c r="H42" s="316"/>
-      <c r="I42" s="317"/>
+      <c r="H42" s="307"/>
+      <c r="I42" s="308"/>
       <c r="J42" s="64"/>
-      <c r="K42" s="314"/>
-      <c r="L42" s="315"/>
+      <c r="K42" s="305"/>
+      <c r="L42" s="306"/>
       <c r="M42" s="64"/>
-      <c r="N42" s="314"/>
-      <c r="O42" s="315"/>
+      <c r="N42" s="305"/>
+      <c r="O42" s="306"/>
       <c r="P42" s="55"/>
-      <c r="Q42" s="310"/>
-      <c r="R42" s="311"/>
+      <c r="Q42" s="332"/>
+      <c r="R42" s="333"/>
       <c r="S42" s="72" t="s">
         <v>103</v>
       </c>
@@ -32141,54 +32576,54 @@
       <c r="V42" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="W42" s="304"/>
-      <c r="X42" s="305"/>
+      <c r="W42" s="326"/>
+      <c r="X42" s="327"/>
       <c r="AC42" s="59"/>
     </row>
     <row r="43" spans="1:29" ht="16" customHeight="1">
       <c r="A43" s="58"/>
-      <c r="B43" s="225"/>
+      <c r="B43" s="223"/>
       <c r="C43" s="64"/>
       <c r="D43" s="64"/>
-      <c r="E43" s="225"/>
-      <c r="F43" s="226"/>
+      <c r="E43" s="223"/>
+      <c r="F43" s="224"/>
       <c r="G43" s="64"/>
-      <c r="H43" s="225"/>
-      <c r="I43" s="226"/>
+      <c r="H43" s="223"/>
+      <c r="I43" s="224"/>
       <c r="J43" s="64"/>
-      <c r="K43" s="316"/>
-      <c r="L43" s="317"/>
+      <c r="K43" s="307"/>
+      <c r="L43" s="308"/>
       <c r="M43" s="64"/>
-      <c r="N43" s="316"/>
-      <c r="O43" s="317"/>
+      <c r="N43" s="307"/>
+      <c r="O43" s="308"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
-      <c r="W43" s="306"/>
-      <c r="X43" s="307"/>
+      <c r="W43" s="328"/>
+      <c r="X43" s="329"/>
       <c r="AC43" s="59"/>
     </row>
     <row r="44" spans="1:29" ht="15" customHeight="1">
       <c r="A44" s="58"/>
-      <c r="B44" s="225"/>
+      <c r="B44" s="223"/>
       <c r="C44" s="64"/>
       <c r="D44" s="64"/>
-      <c r="E44" s="340" t="s">
+      <c r="E44" s="309" t="s">
         <v>334</v>
       </c>
-      <c r="F44" s="341"/>
+      <c r="F44" s="310"/>
       <c r="G44" s="64"/>
-      <c r="H44" s="318" t="s">
+      <c r="H44" s="297" t="s">
         <v>328</v>
       </c>
-      <c r="I44" s="332"/>
+      <c r="I44" s="298"/>
       <c r="J44" s="64"/>
       <c r="K44" s="64"/>
       <c r="L44" s="64"/>
       <c r="M44" s="64"/>
       <c r="N44" s="64"/>
-      <c r="O44" s="226"/>
+      <c r="O44" s="224"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
@@ -32196,20 +32631,20 @@
       <c r="AC44" s="59"/>
     </row>
     <row r="45" spans="1:29">
-      <c r="B45" s="225"/>
+      <c r="B45" s="223"/>
       <c r="C45" s="64"/>
       <c r="D45" s="64"/>
-      <c r="E45" s="225"/>
-      <c r="F45" s="226"/>
+      <c r="E45" s="223"/>
+      <c r="F45" s="224"/>
       <c r="G45" s="64"/>
-      <c r="H45" s="225"/>
-      <c r="I45" s="226"/>
+      <c r="H45" s="223"/>
+      <c r="I45" s="224"/>
       <c r="J45" s="64"/>
       <c r="K45" s="64"/>
       <c r="L45" s="64"/>
       <c r="M45" s="64"/>
       <c r="N45" s="64"/>
-      <c r="O45" s="226"/>
+      <c r="O45" s="224"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="17"/>
@@ -32222,78 +32657,78 @@
     </row>
     <row r="46" spans="1:29" ht="15" customHeight="1">
       <c r="A46" s="58"/>
-      <c r="B46" s="225"/>
+      <c r="B46" s="223"/>
       <c r="C46" s="64"/>
       <c r="D46" s="64"/>
-      <c r="E46" s="318" t="s">
+      <c r="E46" s="297" t="s">
         <v>502</v>
       </c>
-      <c r="F46" s="319"/>
+      <c r="F46" s="300"/>
       <c r="G46" s="64"/>
-      <c r="H46" s="318" t="s">
+      <c r="H46" s="297" t="s">
         <v>332</v>
       </c>
-      <c r="I46" s="332"/>
+      <c r="I46" s="298"/>
       <c r="J46" s="64"/>
       <c r="K46" s="64"/>
       <c r="L46" s="64"/>
       <c r="M46" s="64"/>
       <c r="N46" s="64"/>
-      <c r="O46" s="226"/>
+      <c r="O46" s="224"/>
       <c r="P46" s="4"/>
       <c r="S46" s="17"/>
-      <c r="T46" s="222"/>
-      <c r="U46" s="222"/>
+      <c r="T46" s="220"/>
+      <c r="U46" s="220"/>
       <c r="V46" s="17"/>
-      <c r="W46" s="222"/>
-      <c r="X46" s="222"/>
+      <c r="W46" s="220"/>
+      <c r="X46" s="220"/>
       <c r="AC46" s="59"/>
     </row>
     <row r="47" spans="1:29">
       <c r="A47" s="58"/>
-      <c r="B47" s="225"/>
+      <c r="B47" s="223"/>
       <c r="C47" s="64"/>
       <c r="D47" s="64"/>
-      <c r="E47" s="225"/>
-      <c r="F47" s="226"/>
+      <c r="E47" s="223"/>
+      <c r="F47" s="224"/>
       <c r="G47" s="64"/>
-      <c r="H47" s="225"/>
-      <c r="I47" s="226"/>
+      <c r="H47" s="223"/>
+      <c r="I47" s="224"/>
       <c r="J47" s="64"/>
       <c r="K47" s="64"/>
       <c r="L47" s="64"/>
       <c r="M47" s="64"/>
       <c r="N47" s="64"/>
-      <c r="O47" s="226"/>
+      <c r="O47" s="224"/>
       <c r="P47" s="17"/>
-      <c r="S47" s="221"/>
-      <c r="T47" s="222"/>
-      <c r="U47" s="222"/>
+      <c r="S47" s="219"/>
+      <c r="T47" s="220"/>
+      <c r="U47" s="220"/>
       <c r="V47" s="17"/>
-      <c r="W47" s="222"/>
-      <c r="X47" s="222"/>
+      <c r="W47" s="220"/>
+      <c r="X47" s="220"/>
       <c r="AC47" s="59"/>
     </row>
     <row r="48" spans="1:29">
       <c r="A48" s="58"/>
-      <c r="B48" s="225"/>
+      <c r="B48" s="223"/>
       <c r="C48" s="64"/>
       <c r="D48" s="64"/>
-      <c r="E48" s="318" t="s">
+      <c r="E48" s="297" t="s">
         <v>326</v>
       </c>
-      <c r="F48" s="319"/>
+      <c r="F48" s="300"/>
       <c r="G48" s="64"/>
-      <c r="H48" s="318" t="s">
+      <c r="H48" s="297" t="s">
         <v>329</v>
       </c>
-      <c r="I48" s="319"/>
+      <c r="I48" s="300"/>
       <c r="J48" s="64"/>
       <c r="K48" s="64"/>
       <c r="L48" s="64"/>
       <c r="M48" s="64"/>
       <c r="N48" s="64"/>
-      <c r="O48" s="226"/>
+      <c r="O48" s="224"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
@@ -32301,107 +32736,107 @@
       <c r="T48" s="17"/>
       <c r="U48" s="17"/>
       <c r="V48" s="17"/>
-      <c r="W48" s="222"/>
-      <c r="X48" s="222"/>
+      <c r="W48" s="220"/>
+      <c r="X48" s="220"/>
       <c r="AC48" s="59"/>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:47">
       <c r="A49" s="58"/>
-      <c r="B49" s="225"/>
+      <c r="B49" s="223"/>
       <c r="C49" s="64"/>
       <c r="D49" s="64"/>
-      <c r="E49" s="227"/>
-      <c r="F49" s="228"/>
+      <c r="E49" s="225"/>
+      <c r="F49" s="226"/>
       <c r="G49" s="64"/>
-      <c r="H49" s="227"/>
-      <c r="I49" s="228"/>
+      <c r="H49" s="225"/>
+      <c r="I49" s="226"/>
       <c r="J49" s="64"/>
       <c r="K49" s="64"/>
       <c r="L49" s="64"/>
       <c r="M49" s="64"/>
       <c r="N49" s="64"/>
-      <c r="O49" s="226"/>
+      <c r="O49" s="224"/>
       <c r="P49" s="4"/>
-      <c r="Q49" s="295" t="s">
+      <c r="Q49" s="284" t="s">
         <v>699</v>
       </c>
-      <c r="R49" s="292"/>
-      <c r="S49" s="293"/>
-      <c r="T49" s="293"/>
-      <c r="U49" s="293"/>
-      <c r="V49" s="293"/>
-      <c r="W49" s="293"/>
-      <c r="X49" s="293"/>
-      <c r="Y49" s="292"/>
-      <c r="Z49" s="292"/>
-      <c r="AA49" s="296"/>
+      <c r="R49" s="311"/>
+      <c r="S49" s="257"/>
+      <c r="T49" s="257"/>
+      <c r="U49" s="257"/>
+      <c r="V49" s="257"/>
+      <c r="W49" s="257"/>
+      <c r="X49" s="257"/>
+      <c r="Y49" s="311"/>
+      <c r="Z49" s="311"/>
+      <c r="AA49" s="285"/>
       <c r="AC49" s="59"/>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:47">
       <c r="A50" s="58"/>
-      <c r="B50" s="225"/>
+      <c r="B50" s="223"/>
       <c r="C50" s="64"/>
       <c r="D50" s="64"/>
-      <c r="E50" s="318" t="s">
+      <c r="E50" s="297" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="319"/>
+      <c r="F50" s="300"/>
       <c r="G50" s="64"/>
-      <c r="H50" s="336" t="s">
+      <c r="H50" s="301" t="s">
         <v>333</v>
       </c>
-      <c r="I50" s="337"/>
+      <c r="I50" s="302"/>
       <c r="J50" s="64"/>
       <c r="K50" s="64"/>
       <c r="L50" s="64"/>
       <c r="M50" s="64"/>
       <c r="N50" s="64"/>
-      <c r="O50" s="226"/>
+      <c r="O50" s="224"/>
       <c r="P50" s="4"/>
-      <c r="Q50" s="297"/>
-      <c r="R50" s="293"/>
-      <c r="S50" s="293"/>
-      <c r="T50" s="293"/>
-      <c r="U50" s="293"/>
-      <c r="V50" s="293"/>
-      <c r="W50" s="293"/>
-      <c r="X50" s="293"/>
-      <c r="Y50" s="293"/>
-      <c r="Z50" s="293"/>
-      <c r="AA50" s="298"/>
+      <c r="Q50" s="286"/>
+      <c r="R50" s="257"/>
+      <c r="S50" s="257"/>
+      <c r="T50" s="257"/>
+      <c r="U50" s="257"/>
+      <c r="V50" s="257"/>
+      <c r="W50" s="257"/>
+      <c r="X50" s="257"/>
+      <c r="Y50" s="257"/>
+      <c r="Z50" s="257"/>
+      <c r="AA50" s="287"/>
       <c r="AC50" s="59"/>
     </row>
-    <row r="51" spans="1:38" ht="15" customHeight="1">
+    <row r="51" spans="1:47" ht="15" customHeight="1">
       <c r="A51" s="58"/>
-      <c r="B51" s="227"/>
-      <c r="C51" s="232"/>
-      <c r="D51" s="232"/>
-      <c r="E51" s="232"/>
-      <c r="F51" s="232"/>
-      <c r="G51" s="232"/>
-      <c r="H51" s="233"/>
-      <c r="I51" s="233"/>
-      <c r="J51" s="233"/>
-      <c r="K51" s="233"/>
-      <c r="L51" s="232"/>
-      <c r="M51" s="232"/>
-      <c r="N51" s="232"/>
-      <c r="O51" s="228"/>
+      <c r="B51" s="225"/>
+      <c r="C51" s="230"/>
+      <c r="D51" s="230"/>
+      <c r="E51" s="230"/>
+      <c r="F51" s="230"/>
+      <c r="G51" s="230"/>
+      <c r="H51" s="231"/>
+      <c r="I51" s="231"/>
+      <c r="J51" s="231"/>
+      <c r="K51" s="231"/>
+      <c r="L51" s="230"/>
+      <c r="M51" s="230"/>
+      <c r="N51" s="230"/>
+      <c r="O51" s="226"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="297"/>
-      <c r="R51" s="293"/>
-      <c r="S51" s="293"/>
-      <c r="T51" s="293"/>
-      <c r="U51" s="293"/>
-      <c r="V51" s="293"/>
-      <c r="W51" s="293"/>
-      <c r="X51" s="293"/>
-      <c r="Y51" s="293"/>
-      <c r="Z51" s="293"/>
-      <c r="AA51" s="298"/>
+      <c r="Q51" s="286"/>
+      <c r="R51" s="257"/>
+      <c r="S51" s="257"/>
+      <c r="T51" s="257"/>
+      <c r="U51" s="257"/>
+      <c r="V51" s="257"/>
+      <c r="W51" s="257"/>
+      <c r="X51" s="257"/>
+      <c r="Y51" s="257"/>
+      <c r="Z51" s="257"/>
+      <c r="AA51" s="287"/>
       <c r="AC51" s="59"/>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:47">
       <c r="A52" s="66" t="s">
         <v>294</v>
       </c>
@@ -32420,20 +32855,20 @@
       <c r="N52" s="67"/>
       <c r="O52" s="67"/>
       <c r="P52" s="67"/>
-      <c r="Q52" s="297"/>
-      <c r="R52" s="293"/>
-      <c r="S52" s="293"/>
-      <c r="T52" s="293"/>
-      <c r="U52" s="293"/>
-      <c r="V52" s="293"/>
-      <c r="W52" s="293"/>
-      <c r="X52" s="293"/>
-      <c r="Y52" s="293"/>
-      <c r="Z52" s="293"/>
-      <c r="AA52" s="298"/>
+      <c r="Q52" s="286"/>
+      <c r="R52" s="257"/>
+      <c r="S52" s="257"/>
+      <c r="T52" s="257"/>
+      <c r="U52" s="257"/>
+      <c r="V52" s="257"/>
+      <c r="W52" s="257"/>
+      <c r="X52" s="257"/>
+      <c r="Y52" s="257"/>
+      <c r="Z52" s="257"/>
+      <c r="AA52" s="287"/>
       <c r="AC52" s="59"/>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:47">
       <c r="A53" s="58"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -32441,29 +32876,29 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="223"/>
-      <c r="I53" s="223"/>
-      <c r="J53" s="223"/>
-      <c r="K53" s="223"/>
+      <c r="H53" s="221"/>
+      <c r="I53" s="221"/>
+      <c r="J53" s="221"/>
+      <c r="K53" s="221"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
-      <c r="Q53" s="297"/>
-      <c r="R53" s="293"/>
-      <c r="S53" s="293"/>
-      <c r="T53" s="293"/>
-      <c r="U53" s="293"/>
-      <c r="V53" s="293"/>
-      <c r="W53" s="293"/>
-      <c r="X53" s="293"/>
-      <c r="Y53" s="293"/>
-      <c r="Z53" s="293"/>
-      <c r="AA53" s="298"/>
+      <c r="Q53" s="286"/>
+      <c r="R53" s="257"/>
+      <c r="S53" s="257"/>
+      <c r="T53" s="257"/>
+      <c r="U53" s="257"/>
+      <c r="V53" s="257"/>
+      <c r="W53" s="257"/>
+      <c r="X53" s="257"/>
+      <c r="Y53" s="257"/>
+      <c r="Z53" s="257"/>
+      <c r="AA53" s="287"/>
       <c r="AC53" s="59"/>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:47">
       <c r="A54" s="58"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -32471,8 +32906,8 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="223"/>
-      <c r="I54" s="223"/>
+      <c r="H54" s="221"/>
+      <c r="I54" s="221"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -32480,20 +32915,20 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
-      <c r="Q54" s="297"/>
-      <c r="R54" s="293"/>
-      <c r="S54" s="293"/>
-      <c r="T54" s="293"/>
-      <c r="U54" s="293"/>
-      <c r="V54" s="293"/>
-      <c r="W54" s="293"/>
-      <c r="X54" s="293"/>
-      <c r="Y54" s="293"/>
-      <c r="Z54" s="293"/>
-      <c r="AA54" s="298"/>
+      <c r="Q54" s="286"/>
+      <c r="R54" s="257"/>
+      <c r="S54" s="257"/>
+      <c r="T54" s="257"/>
+      <c r="U54" s="257"/>
+      <c r="V54" s="257"/>
+      <c r="W54" s="257"/>
+      <c r="X54" s="257"/>
+      <c r="Y54" s="257"/>
+      <c r="Z54" s="257"/>
+      <c r="AA54" s="287"/>
       <c r="AC54" s="59"/>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:47">
       <c r="A55" s="58"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -32501,8 +32936,8 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="223"/>
-      <c r="I55" s="223"/>
+      <c r="H55" s="221"/>
+      <c r="I55" s="221"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -32510,20 +32945,20 @@
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
-      <c r="Q55" s="299"/>
-      <c r="R55" s="300"/>
-      <c r="S55" s="300"/>
-      <c r="T55" s="300"/>
-      <c r="U55" s="300"/>
-      <c r="V55" s="300"/>
-      <c r="W55" s="300"/>
-      <c r="X55" s="300"/>
-      <c r="Y55" s="300"/>
-      <c r="Z55" s="300"/>
-      <c r="AA55" s="301"/>
+      <c r="Q55" s="318"/>
+      <c r="R55" s="319"/>
+      <c r="S55" s="319"/>
+      <c r="T55" s="319"/>
+      <c r="U55" s="319"/>
+      <c r="V55" s="319"/>
+      <c r="W55" s="319"/>
+      <c r="X55" s="319"/>
+      <c r="Y55" s="319"/>
+      <c r="Z55" s="319"/>
+      <c r="AA55" s="320"/>
       <c r="AC55" s="59"/>
     </row>
-    <row r="56" spans="1:38" ht="16" thickBot="1">
+    <row r="56" spans="1:47" ht="16" thickBot="1">
       <c r="A56" s="61"/>
       <c r="B56" s="62"/>
       <c r="C56" s="62"/>
@@ -32531,8 +32966,8 @@
       <c r="E56" s="62"/>
       <c r="F56" s="62"/>
       <c r="G56" s="62"/>
-      <c r="H56" s="224"/>
-      <c r="I56" s="224"/>
+      <c r="H56" s="222"/>
+      <c r="I56" s="222"/>
       <c r="J56" s="62"/>
       <c r="K56" s="62"/>
       <c r="L56" s="62"/>
@@ -32554,12 +32989,12 @@
       <c r="AB56" s="62"/>
       <c r="AC56" s="63"/>
     </row>
-    <row r="57" spans="1:38">
-      <c r="A57" s="338" t="s">
+    <row r="57" spans="1:47">
+      <c r="A57" s="255" t="s">
         <v>344</v>
       </c>
-      <c r="B57" s="339"/>
-      <c r="C57" s="339"/>
+      <c r="B57" s="256"/>
+      <c r="C57" s="256"/>
       <c r="D57" s="56"/>
       <c r="E57" s="56"/>
       <c r="F57" s="56"/>
@@ -32574,94 +33009,114 @@
       <c r="O57" s="56"/>
       <c r="P57" s="56"/>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:47">
       <c r="A58" s="58"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="1:38" ht="15" customHeight="1">
+    <row r="59" spans="1:47" ht="15" customHeight="1">
       <c r="A59" s="58"/>
-      <c r="B59" s="333" t="s">
+      <c r="B59" s="268" t="s">
         <v>301</v>
       </c>
-      <c r="C59" s="334"/>
-    </row>
-    <row r="60" spans="1:38" ht="16" customHeight="1" thickBot="1">
+      <c r="C59" s="299"/>
+    </row>
+    <row r="60" spans="1:47" ht="16" customHeight="1" thickBot="1">
       <c r="A60" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="B60" s="334"/>
-      <c r="C60" s="335"/>
-      <c r="L60" s="257"/>
-    </row>
-    <row r="61" spans="1:38" ht="15" customHeight="1">
+      <c r="B60" s="299"/>
+      <c r="C60" s="271"/>
+      <c r="L60" s="250"/>
+    </row>
+    <row r="61" spans="1:47" ht="15" customHeight="1">
       <c r="B61" s="38"/>
       <c r="C61" s="68"/>
-      <c r="N61" s="268" t="s">
+      <c r="N61" s="365" t="s">
         <v>729</v>
       </c>
-      <c r="O61" s="269"/>
-      <c r="P61" s="270"/>
-      <c r="S61" s="71"/>
-      <c r="T61" s="71"/>
+      <c r="O61" s="366"/>
+      <c r="P61" s="367"/>
+      <c r="Q61" s="358"/>
+      <c r="R61" s="358"/>
+      <c r="S61" s="359"/>
+      <c r="T61" s="359"/>
       <c r="U61" s="71"/>
-      <c r="V61" s="268" t="s">
+      <c r="V61" s="334" t="s">
         <v>713</v>
       </c>
-      <c r="W61" s="269"/>
-      <c r="X61" s="270"/>
+      <c r="W61" s="335"/>
+      <c r="X61" s="336"/>
       <c r="AA61" s="71"/>
       <c r="AB61" s="71"/>
-      <c r="AE61" s="268" t="s">
+      <c r="AE61" s="334" t="s">
         <v>730</v>
       </c>
-      <c r="AF61" s="269"/>
-      <c r="AG61" s="270"/>
+      <c r="AF61" s="335"/>
+      <c r="AG61" s="336"/>
       <c r="AJ61" s="71"/>
       <c r="AK61" s="71"/>
-    </row>
-    <row r="62" spans="1:38" ht="15" customHeight="1" thickBot="1">
-      <c r="B62" s="333" t="s">
+      <c r="AO61" s="365" t="s">
+        <v>729</v>
+      </c>
+      <c r="AP61" s="366"/>
+      <c r="AQ61" s="367"/>
+      <c r="AR61" s="358"/>
+      <c r="AS61" s="358"/>
+      <c r="AT61" s="359"/>
+      <c r="AU61" s="359"/>
+    </row>
+    <row r="62" spans="1:47" ht="15" customHeight="1" thickBot="1">
+      <c r="B62" s="268" t="s">
         <v>338</v>
       </c>
-      <c r="C62" s="342"/>
-      <c r="N62" s="271"/>
-      <c r="O62" s="272"/>
-      <c r="P62" s="273"/>
-      <c r="S62" s="71"/>
-      <c r="T62" s="71"/>
+      <c r="C62" s="269"/>
+      <c r="N62" s="368"/>
+      <c r="O62" s="369"/>
+      <c r="P62" s="370"/>
+      <c r="Q62" s="358"/>
+      <c r="R62" s="358"/>
+      <c r="S62" s="359"/>
+      <c r="T62" s="359"/>
       <c r="U62" s="71"/>
-      <c r="V62" s="271"/>
-      <c r="W62" s="272"/>
-      <c r="X62" s="273"/>
+      <c r="V62" s="337"/>
+      <c r="W62" s="338"/>
+      <c r="X62" s="339"/>
       <c r="AA62" s="71"/>
       <c r="AB62" s="71"/>
-      <c r="AE62" s="271"/>
-      <c r="AF62" s="272"/>
-      <c r="AG62" s="273"/>
+      <c r="AE62" s="337"/>
+      <c r="AF62" s="338"/>
+      <c r="AG62" s="339"/>
       <c r="AJ62" s="71"/>
       <c r="AK62" s="71"/>
-    </row>
-    <row r="63" spans="1:38" ht="61" thickBot="1">
-      <c r="B63" s="343"/>
-      <c r="C63" s="335"/>
-      <c r="N63" s="208"/>
-      <c r="O63" s="253" t="s">
+      <c r="AO62" s="368"/>
+      <c r="AP62" s="369"/>
+      <c r="AQ62" s="370"/>
+      <c r="AR62" s="358"/>
+      <c r="AS62" s="358"/>
+      <c r="AT62" s="359"/>
+      <c r="AU62" s="359"/>
+    </row>
+    <row r="63" spans="1:47" ht="61" thickBot="1">
+      <c r="B63" s="270"/>
+      <c r="C63" s="271"/>
+      <c r="N63" s="360"/>
+      <c r="O63" s="361" t="s">
         <v>700</v>
       </c>
-      <c r="P63" s="253" t="s">
+      <c r="P63" s="361" t="s">
         <v>176</v>
       </c>
-      <c r="Q63" s="253" t="s">
+      <c r="Q63" s="362" t="s">
         <v>131</v>
       </c>
-      <c r="R63" s="253" t="s">
+      <c r="R63" s="362" t="s">
         <v>155</v>
       </c>
-      <c r="S63" s="253" t="s">
+      <c r="S63" s="362" t="s">
         <v>152</v>
       </c>
-      <c r="T63" s="253" t="s">
+      <c r="T63" s="362" t="s">
         <v>701</v>
       </c>
       <c r="U63" s="204"/>
@@ -32687,29 +33142,48 @@
         <v>701</v>
       </c>
       <c r="AE63" s="208"/>
-      <c r="AF63" s="253" t="s">
+      <c r="AF63" s="246" t="s">
         <v>731</v>
       </c>
-      <c r="AG63" s="253" t="s">
+      <c r="AG63" s="246" t="s">
         <v>52</v>
       </c>
-      <c r="AH63" s="253" t="s">
+      <c r="AH63" s="246" t="s">
         <v>739</v>
       </c>
-      <c r="AI63" s="253" t="s">
+      <c r="AI63" s="246" t="s">
         <v>155</v>
       </c>
-      <c r="AJ63" s="253" t="s">
+      <c r="AJ63" s="246" t="s">
         <v>732</v>
       </c>
-      <c r="AK63" s="253" t="s">
+      <c r="AK63" s="246" t="s">
         <v>733</v>
       </c>
-      <c r="AL63" s="253" t="s">
+      <c r="AL63" s="246" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="64" spans="1:38" ht="55" customHeight="1" thickBot="1">
+      <c r="AO63" s="360"/>
+      <c r="AP63" s="361" t="s">
+        <v>700</v>
+      </c>
+      <c r="AQ63" s="361" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR63" s="362" t="s">
+        <v>741</v>
+      </c>
+      <c r="AS63" s="362" t="s">
+        <v>742</v>
+      </c>
+      <c r="AT63" s="362" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU63" s="398" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="64" spans="1:47" ht="55" customHeight="1" thickBot="1">
       <c r="B64" s="38"/>
       <c r="C64" s="68"/>
       <c r="E64" s="69"/>
@@ -32720,25 +33194,25 @@
       <c r="J64" s="69"/>
       <c r="K64" s="69"/>
       <c r="L64" s="70"/>
-      <c r="N64" s="210" t="s">
+      <c r="N64" s="360" t="s">
         <v>728</v>
       </c>
-      <c r="O64" s="211">
+      <c r="O64" s="363">
         <v>0.21</v>
       </c>
-      <c r="P64" s="211">
+      <c r="P64" s="363">
         <v>0.01</v>
       </c>
-      <c r="Q64" s="211">
+      <c r="Q64" s="363">
         <v>0.49</v>
       </c>
-      <c r="R64" s="211">
+      <c r="R64" s="363">
         <v>0.87</v>
       </c>
-      <c r="S64" s="211">
+      <c r="S64" s="363">
         <v>0.01</v>
       </c>
-      <c r="T64" s="211">
+      <c r="T64" s="363">
         <v>0.4</v>
       </c>
       <c r="U64" s="206"/>
@@ -32787,91 +33261,133 @@
       <c r="AL64" s="211">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="65" spans="2:40" ht="44" customHeight="1" thickBot="1">
-      <c r="B65" s="322" t="s">
+      <c r="AO64" s="360" t="s">
+        <v>728</v>
+      </c>
+      <c r="AP64" s="363">
+        <v>0.21</v>
+      </c>
+      <c r="AQ64" s="363">
+        <v>0.01</v>
+      </c>
+      <c r="AR64" s="363">
+        <v>0.49</v>
+      </c>
+      <c r="AS64" s="363">
+        <v>0.87</v>
+      </c>
+      <c r="AT64" s="363">
+        <v>0.01</v>
+      </c>
+      <c r="AU64" s="399">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:47" ht="44" customHeight="1" thickBot="1">
+      <c r="B65" s="290" t="s">
         <v>336</v>
       </c>
-      <c r="C65" s="328"/>
+      <c r="C65" s="295"/>
       <c r="D65" s="47"/>
-      <c r="E65" s="329" t="s">
+      <c r="E65" s="264" t="s">
         <v>339</v>
       </c>
-      <c r="F65" s="330"/>
-      <c r="G65" s="330"/>
-      <c r="H65" s="330"/>
-      <c r="I65" s="330"/>
-      <c r="J65" s="330"/>
-      <c r="K65" s="330"/>
-      <c r="L65" s="331"/>
+      <c r="F65" s="296"/>
+      <c r="G65" s="296"/>
+      <c r="H65" s="296"/>
+      <c r="I65" s="296"/>
+      <c r="J65" s="296"/>
+      <c r="K65" s="296"/>
+      <c r="L65" s="265"/>
       <c r="M65" s="47"/>
-      <c r="N65" s="214" t="s">
+      <c r="N65" s="364" t="s">
         <v>726</v>
       </c>
-      <c r="O65" s="246">
+      <c r="O65" s="371">
         <v>0.22370000000000001</v>
       </c>
-      <c r="P65" s="264">
+      <c r="P65" s="372">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="Q65" s="212">
+      <c r="Q65" s="371">
         <v>0.43380000000000002</v>
       </c>
-      <c r="R65" s="246">
+      <c r="R65" s="371">
         <v>0.92589999999999995</v>
       </c>
-      <c r="S65" s="264">
+      <c r="S65" s="372">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="T65" s="371">
+        <v>0.376</v>
+      </c>
+      <c r="U65" s="206"/>
+      <c r="V65" s="213" t="s">
+        <v>703</v>
+      </c>
+      <c r="W65" s="240">
+        <v>0.224</v>
+      </c>
+      <c r="X65" s="385">
+        <v>2.7E-2</v>
+      </c>
+      <c r="Y65" s="386">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="Z65" s="240">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="AA65" s="385">
         <v>2.1700000000000001E-3</v>
       </c>
-      <c r="T65" s="246">
-        <v>0.376</v>
-      </c>
-      <c r="U65" s="206"/>
-      <c r="V65" s="214" t="s">
-        <v>703</v>
-      </c>
-      <c r="W65" s="246">
-        <v>0.224</v>
-      </c>
-      <c r="X65" s="264">
-        <v>2.7E-2</v>
-      </c>
-      <c r="Y65" s="212">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="Z65" s="247">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="AA65" s="264">
-        <v>2.1700000000000001E-3</v>
-      </c>
-      <c r="AB65" s="246">
+      <c r="AB65" s="240">
         <v>0.34699999999999998</v>
       </c>
-      <c r="AE65" s="214" t="s">
+      <c r="AE65" s="213" t="s">
         <v>726</v>
       </c>
-      <c r="AF65" s="246">
+      <c r="AF65" s="239">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AG65" s="252">
+      <c r="AG65" s="245">
         <v>1</v>
       </c>
       <c r="AH65" s="212">
         <v>0.41399999999999998</v>
       </c>
-      <c r="AI65" s="246">
+      <c r="AI65" s="239">
         <v>0.92589999999999995</v>
       </c>
-      <c r="AJ65" s="264">
+      <c r="AJ65" s="321">
         <v>2.1700000000000001E-3</v>
       </c>
-      <c r="AK65" s="246"/>
-      <c r="AL65" s="246">
+      <c r="AK65" s="239"/>
+      <c r="AL65" s="239">
         <v>0.39419999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="2:40" ht="76" thickBot="1">
+      <c r="AO65" s="397" t="s">
+        <v>743</v>
+      </c>
+      <c r="AP65" s="400">
+        <v>0.22370000000000001</v>
+      </c>
+      <c r="AQ65" s="401">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="AR65" s="400">
+        <v>0.43380000000000002</v>
+      </c>
+      <c r="AS65" s="400">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="AT65" s="401">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="AU65" s="402">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="66" spans="2:47" ht="76" thickBot="1">
       <c r="B66" s="38"/>
       <c r="C66" s="68"/>
       <c r="E66" s="69"/>
@@ -32885,64 +33401,68 @@
       <c r="N66" s="208" t="s">
         <v>727</v>
       </c>
-      <c r="O66" s="254">
+      <c r="O66" s="373">
         <v>0.41049999999999998</v>
       </c>
-      <c r="P66" s="265"/>
-      <c r="Q66" s="254">
+      <c r="P66" s="374">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="Q66" s="373">
         <v>0.65439999999999998</v>
       </c>
-      <c r="R66" s="255">
+      <c r="R66" s="373">
         <v>1</v>
       </c>
-      <c r="S66" s="265"/>
-      <c r="T66" s="254">
+      <c r="S66" s="374">
+        <v>2.1700000000000001E-3</v>
+      </c>
+      <c r="T66" s="373">
         <v>0.36919999999999997</v>
       </c>
       <c r="U66" s="207"/>
       <c r="V66" s="210" t="s">
         <v>704</v>
       </c>
-      <c r="W66" s="213">
+      <c r="W66" s="211">
         <v>0.41</v>
       </c>
-      <c r="X66" s="263"/>
-      <c r="Y66" s="213">
+      <c r="X66" s="387"/>
+      <c r="Y66" s="211">
         <v>0.69899999999999995</v>
       </c>
       <c r="Z66" s="211">
         <v>1</v>
       </c>
-      <c r="AA66" s="265"/>
-      <c r="AB66" s="213">
+      <c r="AA66" s="387"/>
+      <c r="AB66" s="211">
         <v>0.36940000000000001</v>
       </c>
       <c r="AE66" s="208" t="s">
         <v>738</v>
       </c>
-      <c r="AF66" s="254">
+      <c r="AF66" s="247">
         <v>0.23</v>
       </c>
-      <c r="AG66" s="256">
+      <c r="AG66" s="249">
         <v>1</v>
       </c>
-      <c r="AH66" s="254">
+      <c r="AH66" s="247">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="AI66" s="255">
+      <c r="AI66" s="248">
         <v>1</v>
       </c>
-      <c r="AJ66" s="265"/>
-      <c r="AK66" s="254"/>
-      <c r="AL66" s="254">
+      <c r="AJ66" s="323"/>
+      <c r="AK66" s="247"/>
+      <c r="AL66" s="247">
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:40" ht="14" customHeight="1" thickBot="1">
-      <c r="B67" s="322" t="s">
+    <row r="67" spans="2:47" ht="14" customHeight="1" thickBot="1">
+      <c r="B67" s="290" t="s">
         <v>337</v>
       </c>
-      <c r="C67" s="323"/>
+      <c r="C67" s="291"/>
       <c r="E67" s="69"/>
       <c r="F67" s="69"/>
       <c r="G67" s="69"/>
@@ -32966,19 +33486,19 @@
       <c r="Z67" s="17"/>
       <c r="AA67" s="71"/>
       <c r="AB67" s="207"/>
-      <c r="AE67" s="262" t="s">
+      <c r="AE67" s="353" t="s">
         <v>734</v>
       </c>
-      <c r="AH67" s="264">
+      <c r="AH67" s="321">
         <v>0.34</v>
       </c>
-      <c r="AL67" s="266">
+      <c r="AL67" s="354">
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:40" ht="55" customHeight="1" thickBot="1">
-      <c r="B68" s="324"/>
-      <c r="C68" s="325"/>
+    <row r="68" spans="2:47" ht="55" customHeight="1" thickBot="1">
+      <c r="B68" s="258"/>
+      <c r="C68" s="292"/>
       <c r="E68" s="70"/>
       <c r="F68" s="70"/>
       <c r="G68" s="70"/>
@@ -32987,7 +33507,7 @@
       <c r="J68" s="70"/>
       <c r="K68" s="70"/>
       <c r="L68" s="70"/>
-      <c r="N68" s="220" t="s">
+      <c r="N68" s="218" t="s">
         <v>710</v>
       </c>
       <c r="O68" s="209" t="s">
@@ -33009,7 +33529,7 @@
         <v>701</v>
       </c>
       <c r="U68" s="207"/>
-      <c r="V68" s="220" t="s">
+      <c r="V68" s="218" t="s">
         <v>711</v>
       </c>
       <c r="W68" s="209" t="s">
@@ -33030,13 +33550,13 @@
       <c r="AB68" s="209" t="s">
         <v>701</v>
       </c>
-      <c r="AE68" s="263"/>
-      <c r="AH68" s="265"/>
-      <c r="AL68" s="267"/>
-    </row>
-    <row r="69" spans="2:40" ht="16" thickBot="1">
-      <c r="B69" s="326"/>
-      <c r="C69" s="327"/>
+      <c r="AE68" s="322"/>
+      <c r="AH68" s="323"/>
+      <c r="AL68" s="355"/>
+    </row>
+    <row r="69" spans="2:47" ht="16" thickBot="1">
+      <c r="B69" s="293"/>
+      <c r="C69" s="294"/>
       <c r="N69" s="210" t="s">
         <v>702</v>
       </c>
@@ -33080,108 +33600,108 @@
       <c r="AB69" s="211">
         <v>0.4</v>
       </c>
-      <c r="AE69" s="262" t="s">
+      <c r="AE69" s="353" t="s">
         <v>735</v>
       </c>
-      <c r="AH69" s="264">
+      <c r="AH69" s="321">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="AL69" s="266">
+      <c r="AL69" s="354">
         <v>0.378</v>
       </c>
     </row>
-    <row r="70" spans="2:40" ht="31" thickBot="1">
-      <c r="N70" s="215" t="s">
+    <row r="70" spans="2:47" ht="31" thickBot="1">
+      <c r="N70" s="214" t="s">
         <v>703</v>
       </c>
-      <c r="O70" s="239">
+      <c r="O70" s="234">
         <v>0.23769999999999999</v>
       </c>
-      <c r="P70" s="274">
+      <c r="P70" s="375">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="Q70" s="234"/>
-      <c r="R70" s="235"/>
-      <c r="S70" s="274">
+      <c r="Q70" s="376"/>
+      <c r="R70" s="377"/>
+      <c r="S70" s="375">
         <v>2.1700000000000001E-3</v>
       </c>
-      <c r="T70" s="239">
+      <c r="T70" s="234">
         <v>0.3478</v>
       </c>
       <c r="U70" s="206"/>
-      <c r="V70" s="242" t="s">
+      <c r="V70" s="235" t="s">
         <v>703</v>
       </c>
-      <c r="W70" s="248"/>
-      <c r="X70" s="279"/>
-      <c r="Y70" s="216">
+      <c r="W70" s="241"/>
+      <c r="X70" s="340"/>
+      <c r="Y70" s="388">
         <v>0.438</v>
       </c>
-      <c r="Z70" s="239">
+      <c r="Z70" s="234">
         <v>0.92589999999999995</v>
       </c>
-      <c r="AA70" s="279"/>
-      <c r="AB70" s="239">
+      <c r="AA70" s="389"/>
+      <c r="AB70" s="234">
         <v>0.376</v>
       </c>
-      <c r="AE70" s="263"/>
-      <c r="AH70" s="265"/>
-      <c r="AL70" s="267"/>
-    </row>
-    <row r="71" spans="2:40" ht="15" customHeight="1" thickBot="1">
-      <c r="N71" s="217"/>
-      <c r="O71" s="217"/>
-      <c r="P71" s="275"/>
-      <c r="Q71" s="236"/>
-      <c r="R71" s="237"/>
-      <c r="S71" s="277"/>
-      <c r="T71" s="217"/>
+      <c r="AE70" s="322"/>
+      <c r="AH70" s="323"/>
+      <c r="AL70" s="355"/>
+    </row>
+    <row r="71" spans="2:47" ht="15" customHeight="1" thickBot="1">
+      <c r="N71" s="215"/>
+      <c r="O71" s="378"/>
+      <c r="P71" s="379"/>
+      <c r="Q71" s="232"/>
+      <c r="R71" s="380"/>
+      <c r="S71" s="379"/>
+      <c r="T71" s="378"/>
       <c r="U71" s="207"/>
-      <c r="V71" s="244"/>
-      <c r="W71" s="244"/>
-      <c r="X71" s="280"/>
-      <c r="Y71" s="218"/>
-      <c r="Z71" s="217"/>
-      <c r="AA71" s="282"/>
-      <c r="AB71" s="217"/>
-    </row>
-    <row r="72" spans="2:40" ht="46" thickBot="1">
-      <c r="N72" s="217" t="s">
+      <c r="V71" s="237"/>
+      <c r="W71" s="237"/>
+      <c r="X71" s="341"/>
+      <c r="Y71" s="217"/>
+      <c r="Z71" s="378"/>
+      <c r="AA71" s="390"/>
+      <c r="AB71" s="378"/>
+    </row>
+    <row r="72" spans="2:47" ht="46" thickBot="1">
+      <c r="N72" s="215" t="s">
         <v>704</v>
       </c>
-      <c r="O72" s="218">
+      <c r="O72" s="217">
         <v>0.43630000000000002</v>
       </c>
-      <c r="P72" s="276"/>
-      <c r="Q72" s="236"/>
-      <c r="R72" s="238"/>
-      <c r="S72" s="278"/>
-      <c r="T72" s="218">
+      <c r="P72" s="381"/>
+      <c r="Q72" s="232"/>
+      <c r="R72" s="232"/>
+      <c r="S72" s="381"/>
+      <c r="T72" s="217">
         <v>0.36980000000000002</v>
       </c>
       <c r="U72" s="205"/>
-      <c r="V72" s="244" t="s">
+      <c r="V72" s="237" t="s">
         <v>704</v>
       </c>
-      <c r="W72" s="243"/>
-      <c r="X72" s="281"/>
-      <c r="Y72" s="218">
+      <c r="W72" s="236"/>
+      <c r="X72" s="342"/>
+      <c r="Y72" s="217">
         <v>0.65400000000000003</v>
       </c>
-      <c r="Z72" s="219">
+      <c r="Z72" s="217">
         <v>1</v>
       </c>
-      <c r="AA72" s="283"/>
-      <c r="AB72" s="218">
+      <c r="AA72" s="391"/>
+      <c r="AB72" s="217">
         <v>0.36899999999999999</v>
       </c>
-      <c r="AF72" s="350" t="s">
+      <c r="AF72" s="347" t="s">
         <v>724</v>
       </c>
-      <c r="AG72" s="351"/>
-      <c r="AH72" s="352"/>
-    </row>
-    <row r="73" spans="2:40" ht="16" customHeight="1" thickBot="1">
+      <c r="AG72" s="348"/>
+      <c r="AH72" s="349"/>
+    </row>
+    <row r="73" spans="2:47" ht="16" customHeight="1" thickBot="1">
       <c r="N73" s="17"/>
       <c r="O73" s="17"/>
       <c r="P73" s="17"/>
@@ -33192,12 +33712,12 @@
       <c r="U73" s="205"/>
       <c r="V73" s="205"/>
       <c r="W73" s="205"/>
-      <c r="AF73" s="353"/>
-      <c r="AG73" s="354"/>
-      <c r="AH73" s="355"/>
-    </row>
-    <row r="74" spans="2:40" ht="46" thickBot="1">
-      <c r="N74" s="220" t="s">
+      <c r="AF73" s="350"/>
+      <c r="AG73" s="351"/>
+      <c r="AH73" s="352"/>
+    </row>
+    <row r="74" spans="2:47" ht="46" thickBot="1">
+      <c r="N74" s="218" t="s">
         <v>706</v>
       </c>
       <c r="O74" s="209" t="s">
@@ -33219,7 +33739,7 @@
         <v>701</v>
       </c>
       <c r="U74" s="205"/>
-      <c r="V74" s="220" t="s">
+      <c r="V74" s="218" t="s">
         <v>714</v>
       </c>
       <c r="W74" s="209" t="s">
@@ -33240,10 +33760,10 @@
       <c r="AB74" s="209" t="s">
         <v>701</v>
       </c>
-      <c r="AC74" s="249" t="s">
+      <c r="AC74" s="242" t="s">
         <v>719</v>
       </c>
-      <c r="AF74" s="220" t="s">
+      <c r="AF74" s="218" t="s">
         <v>720</v>
       </c>
       <c r="AG74" s="209" t="s">
@@ -33265,7 +33785,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="75" spans="2:40" ht="16" thickBot="1">
+    <row r="75" spans="2:47" ht="16" thickBot="1">
       <c r="N75" s="210" t="s">
         <v>702</v>
       </c>
@@ -33309,9 +33829,9 @@
       <c r="AB75" s="211">
         <v>0.4</v>
       </c>
-      <c r="AC75" s="250"/>
-      <c r="AD75" s="250"/>
-      <c r="AE75" s="250"/>
+      <c r="AC75" s="243"/>
+      <c r="AD75" s="243"/>
+      <c r="AE75" s="243"/>
       <c r="AF75" s="210" t="s">
         <v>702</v>
       </c>
@@ -33333,146 +33853,146 @@
       <c r="AL75" s="211">
         <v>0.4</v>
       </c>
-      <c r="AM75" s="250"/>
-      <c r="AN75" s="251" t="s">
+      <c r="AM75" s="243"/>
+      <c r="AN75" s="244" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="76" spans="2:40" ht="30">
-      <c r="N76" s="215" t="s">
+    <row r="76" spans="2:47" ht="30">
+      <c r="N76" s="214" t="s">
         <v>703</v>
       </c>
-      <c r="O76" s="240">
+      <c r="O76" s="234">
         <v>0.22</v>
       </c>
-      <c r="P76" s="274">
+      <c r="P76" s="375">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="Q76" s="234"/>
-      <c r="R76" s="235"/>
-      <c r="S76" s="274">
+      <c r="Q76" s="376"/>
+      <c r="R76" s="377"/>
+      <c r="S76" s="375">
         <v>2.1700000000000001E-3</v>
       </c>
-      <c r="T76" s="239">
+      <c r="T76" s="234">
         <v>0.34599999999999997</v>
       </c>
       <c r="U76" s="17"/>
-      <c r="V76" s="242" t="s">
+      <c r="V76" s="235" t="s">
         <v>703</v>
       </c>
-      <c r="W76" s="248"/>
-      <c r="X76" s="279"/>
-      <c r="Y76" s="216">
+      <c r="W76" s="241"/>
+      <c r="X76" s="340"/>
+      <c r="Y76" s="388">
         <v>0.46700000000000003</v>
       </c>
-      <c r="Z76" s="239">
+      <c r="Z76" s="234">
         <v>0.59699999999999998</v>
       </c>
-      <c r="AA76" s="279"/>
-      <c r="AB76" s="367">
+      <c r="AA76" s="389"/>
+      <c r="AB76" s="392">
         <v>0.28289999999999998</v>
       </c>
-      <c r="AF76" s="242" t="s">
+      <c r="AF76" s="235" t="s">
         <v>703</v>
       </c>
-      <c r="AG76" s="239">
+      <c r="AG76" s="233">
         <v>0.22339999999999999</v>
       </c>
-      <c r="AH76" s="274">
+      <c r="AH76" s="313">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="AI76" s="216">
+      <c r="AI76" s="395">
         <v>0.46700000000000003</v>
       </c>
-      <c r="AJ76" s="239">
+      <c r="AJ76" s="233">
         <v>0.59699999999999998</v>
       </c>
-      <c r="AK76" s="274">
+      <c r="AK76" s="313">
         <v>2.1700000000000001E-3</v>
       </c>
-      <c r="AL76" s="239">
+      <c r="AL76" s="233">
         <v>0.28100000000000003</v>
       </c>
-      <c r="AN76" s="239">
+      <c r="AN76" s="233">
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="77" spans="2:40" ht="16" thickBot="1">
-      <c r="N77" s="217"/>
-      <c r="O77" s="217"/>
-      <c r="P77" s="277"/>
-      <c r="Q77" s="236"/>
-      <c r="R77" s="237"/>
-      <c r="S77" s="277"/>
-      <c r="T77" s="217"/>
+    <row r="77" spans="2:47" ht="16" thickBot="1">
+      <c r="N77" s="215"/>
+      <c r="O77" s="378"/>
+      <c r="P77" s="379"/>
+      <c r="Q77" s="232"/>
+      <c r="R77" s="380"/>
+      <c r="S77" s="379"/>
+      <c r="T77" s="378"/>
       <c r="U77" s="17"/>
-      <c r="V77" s="244"/>
-      <c r="W77" s="244"/>
-      <c r="X77" s="280"/>
-      <c r="Y77" s="218"/>
-      <c r="Z77" s="217"/>
-      <c r="AA77" s="282"/>
-      <c r="AB77" s="217"/>
-      <c r="AF77" s="244"/>
-      <c r="AG77" s="217"/>
-      <c r="AH77" s="275"/>
-      <c r="AI77" s="218"/>
-      <c r="AJ77" s="217"/>
-      <c r="AK77" s="277"/>
-      <c r="AL77" s="217"/>
-      <c r="AN77" s="217"/>
-    </row>
-    <row r="78" spans="2:40" ht="46" thickBot="1">
-      <c r="N78" s="217" t="s">
+      <c r="V77" s="237"/>
+      <c r="W77" s="237"/>
+      <c r="X77" s="341"/>
+      <c r="Y77" s="217"/>
+      <c r="Z77" s="378"/>
+      <c r="AA77" s="390"/>
+      <c r="AB77" s="378"/>
+      <c r="AF77" s="237"/>
+      <c r="AG77" s="215"/>
+      <c r="AH77" s="316"/>
+      <c r="AI77" s="396"/>
+      <c r="AJ77" s="215"/>
+      <c r="AK77" s="314"/>
+      <c r="AL77" s="215"/>
+      <c r="AN77" s="215"/>
+    </row>
+    <row r="78" spans="2:47" ht="46" thickBot="1">
+      <c r="N78" s="215" t="s">
         <v>704</v>
       </c>
-      <c r="O78" s="218">
+      <c r="O78" s="217">
         <v>0.41</v>
       </c>
-      <c r="P78" s="278"/>
-      <c r="Q78" s="236"/>
-      <c r="R78" s="238"/>
-      <c r="S78" s="278"/>
-      <c r="T78" s="218">
+      <c r="P78" s="381"/>
+      <c r="Q78" s="232"/>
+      <c r="R78" s="232"/>
+      <c r="S78" s="381"/>
+      <c r="T78" s="217">
         <v>0.36799999999999999</v>
       </c>
       <c r="U78" s="17"/>
-      <c r="V78" s="244" t="s">
+      <c r="V78" s="237" t="s">
         <v>704</v>
       </c>
-      <c r="W78" s="243"/>
-      <c r="X78" s="281"/>
-      <c r="Y78" s="218">
+      <c r="W78" s="236"/>
+      <c r="X78" s="342"/>
+      <c r="Y78" s="217">
         <v>0.70399999999999996</v>
       </c>
-      <c r="Z78" s="219">
+      <c r="Z78" s="217">
         <v>1</v>
       </c>
-      <c r="AA78" s="283"/>
-      <c r="AB78" s="218">
+      <c r="AA78" s="391"/>
+      <c r="AB78" s="217">
         <v>0.37</v>
       </c>
-      <c r="AF78" s="244" t="s">
+      <c r="AF78" s="237" t="s">
         <v>704</v>
       </c>
-      <c r="AG78" s="218">
+      <c r="AG78" s="216">
         <v>0.41</v>
       </c>
-      <c r="AH78" s="276"/>
-      <c r="AI78" s="218">
+      <c r="AH78" s="317"/>
+      <c r="AI78" s="216">
         <v>0.70469999999999999</v>
       </c>
-      <c r="AJ78" s="219">
+      <c r="AJ78" s="217">
         <v>1</v>
       </c>
-      <c r="AK78" s="278"/>
-      <c r="AL78" s="218">
+      <c r="AK78" s="315"/>
+      <c r="AL78" s="216">
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:40" ht="16" thickBot="1"/>
-    <row r="80" spans="2:40" ht="46" thickBot="1">
-      <c r="N80" s="220" t="s">
+    <row r="79" spans="2:47" ht="16" thickBot="1"/>
+    <row r="80" spans="2:47" ht="46" thickBot="1">
+      <c r="N80" s="218" t="s">
         <v>705</v>
       </c>
       <c r="O80" s="209" t="s">
@@ -33493,7 +34013,7 @@
       <c r="T80" s="209" t="s">
         <v>701</v>
       </c>
-      <c r="V80" s="220" t="s">
+      <c r="V80" s="218" t="s">
         <v>717</v>
       </c>
       <c r="W80" s="209" t="s">
@@ -33514,10 +34034,10 @@
       <c r="AB80" s="209" t="s">
         <v>701</v>
       </c>
-      <c r="AC80" s="249" t="s">
+      <c r="AC80" s="242" t="s">
         <v>718</v>
       </c>
-      <c r="AF80" s="220" t="s">
+      <c r="AF80" s="218" t="s">
         <v>721</v>
       </c>
       <c r="AG80" s="209" t="s">
@@ -33561,7 +34081,7 @@
       <c r="T81" s="211">
         <v>0.4</v>
       </c>
-      <c r="U81" s="250"/>
+      <c r="U81" s="243"/>
       <c r="V81" s="210" t="s">
         <v>702</v>
       </c>
@@ -33583,9 +34103,9 @@
       <c r="AB81" s="211">
         <v>0.4</v>
       </c>
-      <c r="AC81" s="250"/>
-      <c r="AD81" s="250"/>
-      <c r="AE81" s="250"/>
+      <c r="AC81" s="243"/>
+      <c r="AD81" s="243"/>
+      <c r="AE81" s="243"/>
       <c r="AF81" s="210" t="s">
         <v>702</v>
       </c>
@@ -33607,143 +34127,143 @@
       <c r="AL81" s="211">
         <v>0.4</v>
       </c>
-      <c r="AM81" s="250"/>
-      <c r="AN81" s="251" t="s">
+      <c r="AM81" s="243"/>
+      <c r="AN81" s="244" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="82" spans="14:40" ht="30">
-      <c r="N82" s="215" t="s">
+      <c r="N82" s="214" t="s">
         <v>703</v>
       </c>
-      <c r="O82" s="240">
+      <c r="O82" s="234">
         <v>0.25</v>
       </c>
-      <c r="P82" s="274">
+      <c r="P82" s="375">
         <v>5.79E-2</v>
       </c>
-      <c r="Q82" s="241"/>
-      <c r="R82" s="242"/>
-      <c r="S82" s="274">
+      <c r="Q82" s="382"/>
+      <c r="R82" s="383"/>
+      <c r="S82" s="375">
         <v>2.1700000000000001E-3</v>
       </c>
-      <c r="T82" s="239">
+      <c r="T82" s="234">
         <v>0.34899999999999998</v>
       </c>
-      <c r="V82" s="242" t="s">
+      <c r="V82" s="235" t="s">
         <v>703</v>
       </c>
-      <c r="W82" s="248"/>
-      <c r="X82" s="279"/>
-      <c r="Y82" s="216">
+      <c r="W82" s="241"/>
+      <c r="X82" s="340"/>
+      <c r="Y82" s="388">
         <v>0.4</v>
       </c>
-      <c r="Z82" s="239">
+      <c r="Z82" s="234">
         <v>1</v>
       </c>
-      <c r="AA82" s="279"/>
-      <c r="AB82" s="367">
+      <c r="AA82" s="389"/>
+      <c r="AB82" s="392">
         <v>0.39300000000000002</v>
       </c>
-      <c r="AF82" s="242" t="s">
+      <c r="AF82" s="235" t="s">
         <v>703</v>
       </c>
-      <c r="AG82" s="239">
+      <c r="AG82" s="233">
         <v>0.251</v>
       </c>
-      <c r="AH82" s="274">
+      <c r="AH82" s="313">
         <v>5.79E-2</v>
       </c>
-      <c r="AI82" s="216">
+      <c r="AI82" s="395">
         <v>0.40400000000000003</v>
       </c>
-      <c r="AJ82" s="239">
+      <c r="AJ82" s="233">
         <v>1</v>
       </c>
-      <c r="AK82" s="274">
+      <c r="AK82" s="313">
         <v>2.1700000000000001E-3</v>
       </c>
-      <c r="AL82" s="239">
+      <c r="AL82" s="233">
         <v>0.39489999999999997</v>
       </c>
-      <c r="AN82" s="239">
+      <c r="AN82" s="233">
         <v>0.39489999999999997</v>
       </c>
     </row>
     <row r="83" spans="14:40" ht="16" thickBot="1">
-      <c r="N83" s="217"/>
-      <c r="O83" s="217"/>
-      <c r="P83" s="275"/>
-      <c r="Q83" s="243"/>
-      <c r="R83" s="244"/>
-      <c r="S83" s="277"/>
-      <c r="T83" s="217"/>
-      <c r="V83" s="244"/>
-      <c r="W83" s="244"/>
-      <c r="X83" s="280"/>
-      <c r="Y83" s="218"/>
-      <c r="Z83" s="217"/>
-      <c r="AA83" s="282"/>
-      <c r="AB83" s="217"/>
-      <c r="AF83" s="244"/>
-      <c r="AG83" s="217"/>
-      <c r="AH83" s="275"/>
-      <c r="AI83" s="218"/>
-      <c r="AJ83" s="217"/>
-      <c r="AK83" s="277"/>
-      <c r="AL83" s="217"/>
-      <c r="AN83" s="217"/>
+      <c r="N83" s="215"/>
+      <c r="O83" s="378"/>
+      <c r="P83" s="379"/>
+      <c r="Q83" s="238"/>
+      <c r="R83" s="384"/>
+      <c r="S83" s="379"/>
+      <c r="T83" s="378"/>
+      <c r="V83" s="237"/>
+      <c r="W83" s="237"/>
+      <c r="X83" s="341"/>
+      <c r="Y83" s="217"/>
+      <c r="Z83" s="378"/>
+      <c r="AA83" s="390"/>
+      <c r="AB83" s="378"/>
+      <c r="AF83" s="237"/>
+      <c r="AG83" s="215"/>
+      <c r="AH83" s="316"/>
+      <c r="AI83" s="396"/>
+      <c r="AJ83" s="215"/>
+      <c r="AK83" s="314"/>
+      <c r="AL83" s="215"/>
+      <c r="AN83" s="215"/>
     </row>
     <row r="84" spans="14:40" ht="46" thickBot="1">
-      <c r="N84" s="217" t="s">
+      <c r="N84" s="215" t="s">
         <v>704</v>
       </c>
-      <c r="O84" s="218">
+      <c r="O84" s="217">
         <v>0.46</v>
       </c>
-      <c r="P84" s="276"/>
-      <c r="Q84" s="243"/>
-      <c r="R84" s="245"/>
-      <c r="S84" s="278"/>
-      <c r="T84" s="218">
+      <c r="P84" s="381"/>
+      <c r="Q84" s="238"/>
+      <c r="R84" s="238"/>
+      <c r="S84" s="381"/>
+      <c r="T84" s="217">
         <v>0.371</v>
       </c>
-      <c r="V84" s="244" t="s">
+      <c r="V84" s="237" t="s">
         <v>704</v>
       </c>
-      <c r="W84" s="243"/>
-      <c r="X84" s="281"/>
-      <c r="Y84" s="218">
+      <c r="W84" s="236"/>
+      <c r="X84" s="342"/>
+      <c r="Y84" s="217">
         <v>0.60399999999999998</v>
       </c>
-      <c r="Z84" s="219">
+      <c r="Z84" s="217">
         <v>1</v>
       </c>
-      <c r="AA84" s="283"/>
-      <c r="AB84" s="218">
+      <c r="AA84" s="391"/>
+      <c r="AB84" s="217">
         <v>0.36199999999999999</v>
       </c>
-      <c r="AF84" s="244" t="s">
+      <c r="AF84" s="237" t="s">
         <v>704</v>
       </c>
-      <c r="AG84" s="218">
+      <c r="AG84" s="216">
         <v>0.46200000000000002</v>
       </c>
-      <c r="AH84" s="276"/>
-      <c r="AI84" s="218">
+      <c r="AH84" s="317"/>
+      <c r="AI84" s="216">
         <v>0.60399999999999998</v>
       </c>
-      <c r="AJ84" s="219">
+      <c r="AJ84" s="217">
         <v>1</v>
       </c>
-      <c r="AK84" s="278"/>
-      <c r="AL84" s="218">
+      <c r="AK84" s="315"/>
+      <c r="AL84" s="216">
         <v>0.36399999999999999</v>
       </c>
     </row>
     <row r="85" spans="14:40" ht="16" thickBot="1"/>
     <row r="86" spans="14:40" ht="46" thickBot="1">
-      <c r="V86" s="220" t="s">
+      <c r="V86" s="218" t="s">
         <v>716</v>
       </c>
       <c r="W86" s="209" t="s">
@@ -33789,51 +34309,51 @@
       </c>
     </row>
     <row r="88" spans="14:40" ht="30">
-      <c r="V88" s="242" t="s">
+      <c r="V88" s="235" t="s">
         <v>703</v>
       </c>
-      <c r="W88" s="248"/>
-      <c r="X88" s="279"/>
-      <c r="Y88" s="365">
+      <c r="W88" s="241"/>
+      <c r="X88" s="340"/>
+      <c r="Y88" s="393">
         <v>0.45879999999999999</v>
       </c>
-      <c r="Z88" s="239">
+      <c r="Z88" s="234">
         <v>0.92589999999999995</v>
       </c>
-      <c r="AA88" s="279"/>
-      <c r="AB88" s="239">
+      <c r="AA88" s="389"/>
+      <c r="AB88" s="234">
         <v>0.37569999999999998</v>
       </c>
     </row>
     <row r="89" spans="14:40" ht="16" thickBot="1">
-      <c r="V89" s="244"/>
-      <c r="W89" s="244"/>
-      <c r="X89" s="282"/>
-      <c r="Y89" s="366"/>
-      <c r="Z89" s="217"/>
-      <c r="AA89" s="282"/>
-      <c r="AB89" s="217"/>
+      <c r="V89" s="237"/>
+      <c r="W89" s="237"/>
+      <c r="X89" s="343"/>
+      <c r="Y89" s="394"/>
+      <c r="Z89" s="378"/>
+      <c r="AA89" s="390"/>
+      <c r="AB89" s="378"/>
     </row>
     <row r="90" spans="14:40" ht="46" thickBot="1">
-      <c r="V90" s="244" t="s">
+      <c r="V90" s="237" t="s">
         <v>704</v>
       </c>
-      <c r="W90" s="243"/>
-      <c r="X90" s="283"/>
-      <c r="Y90" s="218">
+      <c r="W90" s="236"/>
+      <c r="X90" s="344"/>
+      <c r="Y90" s="217">
         <v>0.69210000000000005</v>
       </c>
-      <c r="Z90" s="219">
+      <c r="Z90" s="217">
         <v>1</v>
       </c>
-      <c r="AA90" s="283"/>
-      <c r="AB90" s="218">
+      <c r="AA90" s="391"/>
+      <c r="AB90" s="217">
         <v>0.36890000000000001</v>
       </c>
     </row>
     <row r="91" spans="14:40" ht="16" thickBot="1"/>
     <row r="92" spans="14:40" ht="46" thickBot="1">
-      <c r="V92" s="220" t="s">
+      <c r="V92" s="218" t="s">
         <v>715</v>
       </c>
       <c r="W92" s="209" t="s">
@@ -33879,77 +34399,98 @@
       </c>
     </row>
     <row r="94" spans="14:40" ht="30">
-      <c r="V94" s="242" t="s">
+      <c r="V94" s="235" t="s">
         <v>703</v>
       </c>
-      <c r="W94" s="248"/>
-      <c r="X94" s="279"/>
-      <c r="Y94" s="365">
+      <c r="W94" s="241"/>
+      <c r="X94" s="340"/>
+      <c r="Y94" s="393">
         <v>0.40799999999999997</v>
       </c>
-      <c r="Z94" s="239">
+      <c r="Z94" s="234">
         <v>0.92589999999999995</v>
       </c>
-      <c r="AA94" s="279"/>
-      <c r="AB94" s="239">
+      <c r="AA94" s="389"/>
+      <c r="AB94" s="234">
         <v>0.37589</v>
       </c>
     </row>
     <row r="95" spans="14:40" ht="16" thickBot="1">
-      <c r="V95" s="244"/>
-      <c r="W95" s="244"/>
-      <c r="X95" s="282"/>
-      <c r="Y95" s="366"/>
-      <c r="Z95" s="217"/>
-      <c r="AA95" s="282"/>
-      <c r="AB95" s="217"/>
+      <c r="V95" s="237"/>
+      <c r="W95" s="237"/>
+      <c r="X95" s="343"/>
+      <c r="Y95" s="394"/>
+      <c r="Z95" s="378"/>
+      <c r="AA95" s="390"/>
+      <c r="AB95" s="378"/>
     </row>
     <row r="96" spans="14:40" ht="46" thickBot="1">
-      <c r="V96" s="244" t="s">
+      <c r="V96" s="237" t="s">
         <v>704</v>
       </c>
-      <c r="W96" s="243"/>
-      <c r="X96" s="283"/>
-      <c r="Y96" s="218">
+      <c r="W96" s="236"/>
+      <c r="X96" s="344"/>
+      <c r="Y96" s="217">
         <v>0.61660000000000004</v>
       </c>
-      <c r="Z96" s="219">
+      <c r="Z96" s="217">
         <v>1</v>
       </c>
-      <c r="AA96" s="283"/>
-      <c r="AB96" s="218">
+      <c r="AA96" s="391"/>
+      <c r="AB96" s="217">
         <v>0.37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="108">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="T6:V17"/>
-    <mergeCell ref="T3:V4"/>
-    <mergeCell ref="AA3:AB4"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="X3:Y4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="T21:V22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="N21:O22"/>
+  <mergeCells count="107">
+    <mergeCell ref="AL69:AL70"/>
+    <mergeCell ref="AE61:AG62"/>
+    <mergeCell ref="AJ65:AJ66"/>
+    <mergeCell ref="AH67:AH68"/>
+    <mergeCell ref="AL67:AL68"/>
+    <mergeCell ref="AE67:AE68"/>
+    <mergeCell ref="AH76:AH78"/>
+    <mergeCell ref="AK76:AK78"/>
+    <mergeCell ref="AO61:AQ62"/>
+    <mergeCell ref="AH82:AH84"/>
+    <mergeCell ref="AK82:AK84"/>
+    <mergeCell ref="X82:X84"/>
+    <mergeCell ref="AA82:AA84"/>
+    <mergeCell ref="X88:X90"/>
+    <mergeCell ref="AA88:AA90"/>
+    <mergeCell ref="X94:X96"/>
+    <mergeCell ref="AA94:AA96"/>
+    <mergeCell ref="X70:X72"/>
+    <mergeCell ref="AA70:AA72"/>
+    <mergeCell ref="AF72:AH73"/>
+    <mergeCell ref="AE69:AE70"/>
+    <mergeCell ref="AH69:AH70"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="V61:X62"/>
+    <mergeCell ref="X76:X78"/>
+    <mergeCell ref="AA76:AA78"/>
+    <mergeCell ref="Q6:R17"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="P70:P72"/>
+    <mergeCell ref="S70:S72"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="N61:P62"/>
+    <mergeCell ref="S76:S78"/>
+    <mergeCell ref="P82:P84"/>
+    <mergeCell ref="S82:S84"/>
+    <mergeCell ref="P76:P78"/>
+    <mergeCell ref="Q49:AA55"/>
+    <mergeCell ref="O26:Q37"/>
+    <mergeCell ref="X65:X66"/>
+    <mergeCell ref="AA65:AA66"/>
+    <mergeCell ref="W41:X43"/>
+    <mergeCell ref="Q41:R42"/>
+    <mergeCell ref="N41:O43"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="E36:F38"/>
     <mergeCell ref="H36:I38"/>
@@ -33971,19 +34512,22 @@
     <mergeCell ref="E41:F42"/>
     <mergeCell ref="H41:I42"/>
     <mergeCell ref="B62:C63"/>
-    <mergeCell ref="E6:F18"/>
-    <mergeCell ref="S76:S78"/>
-    <mergeCell ref="P82:P84"/>
-    <mergeCell ref="S82:S84"/>
-    <mergeCell ref="P76:P78"/>
-    <mergeCell ref="Q49:AA55"/>
-    <mergeCell ref="O26:Q37"/>
-    <mergeCell ref="X65:X66"/>
-    <mergeCell ref="AA65:AA66"/>
-    <mergeCell ref="W41:X43"/>
-    <mergeCell ref="Q41:R42"/>
-    <mergeCell ref="N41:O43"/>
     <mergeCell ref="E46:F46"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="T21:V22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="N21:O22"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="K24:L24"/>
@@ -33993,47 +34537,23 @@
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="V61:X62"/>
-    <mergeCell ref="X76:X78"/>
-    <mergeCell ref="AA76:AA78"/>
-    <mergeCell ref="Q6:R17"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="P70:P72"/>
-    <mergeCell ref="S70:S72"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="N61:P62"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="S65:S66"/>
-    <mergeCell ref="AH82:AH84"/>
-    <mergeCell ref="AK82:AK84"/>
-    <mergeCell ref="X82:X84"/>
-    <mergeCell ref="AA82:AA84"/>
-    <mergeCell ref="X88:X90"/>
-    <mergeCell ref="AA88:AA90"/>
-    <mergeCell ref="X94:X96"/>
-    <mergeCell ref="AA94:AA96"/>
-    <mergeCell ref="X70:X72"/>
-    <mergeCell ref="AA70:AA72"/>
-    <mergeCell ref="AF72:AH73"/>
-    <mergeCell ref="AE69:AE70"/>
-    <mergeCell ref="AH69:AH70"/>
-    <mergeCell ref="AL69:AL70"/>
-    <mergeCell ref="AE61:AG62"/>
-    <mergeCell ref="AJ65:AJ66"/>
-    <mergeCell ref="AH67:AH68"/>
-    <mergeCell ref="AL67:AL68"/>
-    <mergeCell ref="AE67:AE68"/>
-    <mergeCell ref="AH76:AH78"/>
-    <mergeCell ref="AK76:AK78"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="T6:V17"/>
+    <mergeCell ref="T3:V4"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="X3:Y4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="E6:F18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -34274,10 +34794,10 @@
       <c r="E1" s="51"/>
       <c r="F1" s="87"/>
       <c r="I1" s="76"/>
-      <c r="J1" s="363" t="s">
+      <c r="J1" s="356" t="s">
         <v>410</v>
       </c>
-      <c r="K1" s="363"/>
+      <c r="K1" s="356"/>
     </row>
     <row r="2" spans="2:14" ht="28">
       <c r="B2" s="51" t="s">

--- a/Food_SR_Organization.xlsx
+++ b/Food_SR_Organization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="3100" windowWidth="28800" windowHeight="10840" tabRatio="500" firstSheet="11" activeTab="16"/>
+    <workbookView xWindow="100" yWindow="1300" windowWidth="28800" windowHeight="16300" tabRatio="500" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="1.Food Need" sheetId="3" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <sheet name="Fats and Oils Check" sheetId="15" r:id="rId15"/>
     <sheet name="Email Caitlin" sheetId="16" r:id="rId16"/>
     <sheet name="Caitlin's Results" sheetId="17" r:id="rId17"/>
+    <sheet name="CompareResults" sheetId="18" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -442,7 +443,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="753">
   <si>
     <t>ALL LOCAL</t>
   </si>
@@ -2748,6 +2749,21 @@
   </si>
   <si>
     <t>ISFS -Food Yield</t>
+  </si>
+  <si>
+    <t>ISFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Results  </t>
+  </si>
+  <si>
+    <t>SWBC 2011                   Food Self-Reliance</t>
+  </si>
+  <si>
+    <t>SWBC 2011 Hypothetical Maximum on Food Self-Reliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
   </si>
 </sst>
 </file>
@@ -3129,7 +3145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -3662,8 +3678,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1460">
+  <cellStyleXfs count="1496">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5124,8 +5164,44 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="403">
+  <cellXfs count="424">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -5548,324 +5624,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="17" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="17" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="17" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5885,24 +5643,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="171" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5915,9 +5655,6 @@
     <xf numFmtId="171" fontId="22" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="17" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="22" fillId="21" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5927,14 +5664,8 @@
     <xf numFmtId="9" fontId="22" fillId="17" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="17" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="22" fillId="21" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="17" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5945,26 +5676,11 @@
     <xf numFmtId="9" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="22" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5999,8 +5715,431 @@
     <xf numFmtId="9" fontId="24" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="17" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="17" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="17" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="17" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="17" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="17" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="17" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="21" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="21" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="21" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="12" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1460">
+  <cellStyles count="1496">
     <cellStyle name="Comma" xfId="419" builtinId="3"/>
     <cellStyle name="Comma 3" xfId="689"/>
     <cellStyle name="Currency" xfId="649" builtinId="4"/>
@@ -6731,6 +6870,24 @@
     <cellStyle name="Followed Hyperlink" xfId="1455" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1457" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1481" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1485" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1487" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1489" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1493" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1495" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7458,6 +7615,24 @@
     <cellStyle name="Hyperlink" xfId="1454" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1456" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1458" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1460" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1462" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1464" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1474" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1476" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1478" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1480" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1482" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1484" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1486" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1488" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1490" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1492" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1494" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 9" xfId="510"/>
     <cellStyle name="Percent" xfId="650" builtinId="5"/>
@@ -7478,9 +7653,9 @@
       <sheetName val="Livestock Land Combined"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="162">
           <cell r="B162" t="str">
@@ -7578,7 +7753,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -17734,7 +17909,7 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="357" t="s">
+      <c r="A11" s="402" t="s">
         <v>520</v>
       </c>
       <c r="B11" s="118" t="s">
@@ -17765,7 +17940,7 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="357"/>
+      <c r="A12" s="402"/>
       <c r="B12" s="118" t="s">
         <v>47</v>
       </c>
@@ -17794,7 +17969,7 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="357"/>
+      <c r="A13" s="402"/>
       <c r="B13" s="118" t="s">
         <v>48</v>
       </c>
@@ -17823,7 +17998,7 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="357"/>
+      <c r="A14" s="402"/>
       <c r="B14" s="118" t="s">
         <v>49</v>
       </c>
@@ -17852,7 +18027,7 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="357"/>
+      <c r="A15" s="402"/>
       <c r="B15" s="118" t="s">
         <v>50</v>
       </c>
@@ -17881,7 +18056,7 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="357"/>
+      <c r="A16" s="402"/>
       <c r="B16" s="118" t="s">
         <v>51</v>
       </c>
@@ -17910,7 +18085,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="357"/>
+      <c r="A17" s="402"/>
       <c r="B17" s="118" t="s">
         <v>52</v>
       </c>
@@ -17939,7 +18114,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="357" t="s">
+      <c r="A18" s="402" t="s">
         <v>521</v>
       </c>
       <c r="B18" s="118" t="s">
@@ -17970,7 +18145,7 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="357"/>
+      <c r="A19" s="402"/>
       <c r="B19" s="118" t="s">
         <v>47</v>
       </c>
@@ -17999,7 +18174,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="357"/>
+      <c r="A20" s="402"/>
       <c r="B20" s="118" t="s">
         <v>48</v>
       </c>
@@ -18028,7 +18203,7 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="357"/>
+      <c r="A21" s="402"/>
       <c r="B21" s="118" t="s">
         <v>49</v>
       </c>
@@ -18057,7 +18232,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="357"/>
+      <c r="A22" s="402"/>
       <c r="B22" s="118" t="s">
         <v>50</v>
       </c>
@@ -18086,7 +18261,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="357"/>
+      <c r="A23" s="402"/>
       <c r="B23" s="118" t="s">
         <v>51</v>
       </c>
@@ -18115,7 +18290,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="357"/>
+      <c r="A24" s="402"/>
       <c r="B24" s="118" t="s">
         <v>52</v>
       </c>
@@ -24806,7 +24981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
@@ -24920,6 +25095,160 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="54" customHeight="1" thickBot="1">
+      <c r="A1" s="422"/>
+      <c r="B1" s="408" t="s">
+        <v>751</v>
+      </c>
+      <c r="C1" s="409"/>
+      <c r="D1" s="413" t="s">
+        <v>750</v>
+      </c>
+      <c r="E1" s="414"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickBot="1">
+      <c r="A2" s="423"/>
+      <c r="B2" s="254" t="s">
+        <v>748</v>
+      </c>
+      <c r="C2" s="254" t="s">
+        <v>749</v>
+      </c>
+      <c r="D2" s="415" t="s">
+        <v>748</v>
+      </c>
+      <c r="E2" s="415" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="31" thickBot="1">
+      <c r="A3" s="410" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="280">
+        <v>1</v>
+      </c>
+      <c r="C3" s="281">
+        <v>1</v>
+      </c>
+      <c r="D3" s="416">
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="417">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="46" thickBot="1">
+      <c r="A4" s="411" t="s">
+        <v>700</v>
+      </c>
+      <c r="B4" s="257">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C4" s="280">
+        <v>0.65</v>
+      </c>
+      <c r="D4" s="418">
+        <v>0.21</v>
+      </c>
+      <c r="E4" s="416">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" thickBot="1">
+      <c r="A5" s="411" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="257">
+        <v>0.9</v>
+      </c>
+      <c r="C5" s="412">
+        <v>0.93</v>
+      </c>
+      <c r="D5" s="418">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="417">
+        <v>2.7400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="46" thickBot="1">
+      <c r="A6" s="410" t="s">
+        <v>741</v>
+      </c>
+      <c r="B6" s="257">
+        <v>1</v>
+      </c>
+      <c r="C6" s="406">
+        <v>0.97</v>
+      </c>
+      <c r="D6" s="418">
+        <v>0.49</v>
+      </c>
+      <c r="E6" s="416">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="46" thickBot="1">
+      <c r="A7" s="410" t="s">
+        <v>742</v>
+      </c>
+      <c r="B7" s="257">
+        <v>1</v>
+      </c>
+      <c r="C7" s="406">
+        <v>1</v>
+      </c>
+      <c r="D7" s="418">
+        <v>0.87</v>
+      </c>
+      <c r="E7" s="416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40" customHeight="1" thickBot="1">
+      <c r="A8" s="419" t="s">
+        <v>752</v>
+      </c>
+      <c r="B8" s="407">
+        <v>0.77</v>
+      </c>
+      <c r="C8" s="406">
+        <v>0.84</v>
+      </c>
+      <c r="D8" s="420">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="421">
+        <v>0.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -30184,7 +30513,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="252" t="s">
+      <c r="M14" s="283" t="s">
         <v>42</v>
       </c>
       <c r="N14" s="4"/>
@@ -30204,7 +30533,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="253"/>
+      <c r="M15" s="284"/>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:26">
@@ -30222,7 +30551,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="253"/>
+      <c r="M16" s="284"/>
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14">
@@ -30240,7 +30569,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="22"/>
-      <c r="M17" s="253"/>
+      <c r="M17" s="284"/>
       <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:14">
@@ -30258,7 +30587,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="22"/>
-      <c r="M18" s="253"/>
+      <c r="M18" s="284"/>
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14">
@@ -30276,7 +30605,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="22"/>
-      <c r="M19" s="253"/>
+      <c r="M19" s="284"/>
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14">
@@ -30292,7 +30621,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="254"/>
+      <c r="M20" s="285"/>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14">
@@ -31260,10 +31589,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU96"/>
+  <dimension ref="A1:BB96"/>
   <sheetViews>
-    <sheetView topLeftCell="G65" workbookViewId="0">
-      <selection activeCell="S70" sqref="S70:S72"/>
+    <sheetView topLeftCell="AV25" workbookViewId="0">
+      <selection activeCell="AZ31" sqref="AZ31:BB37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -31287,14 +31616,15 @@
     <col min="44" max="45" width="12.83203125" customWidth="1"/>
     <col min="46" max="46" width="10.83203125" customWidth="1"/>
     <col min="47" max="47" width="16.5" customWidth="1"/>
+    <col min="54" max="54" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="381" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
+      <c r="B1" s="382"/>
+      <c r="C1" s="382"/>
       <c r="D1" s="56"/>
       <c r="E1" s="56"/>
       <c r="F1" s="56"/>
@@ -31355,84 +31685,84 @@
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1">
       <c r="A3" s="58"/>
-      <c r="B3" s="264" t="s">
+      <c r="B3" s="370" t="s">
         <v>291</v>
       </c>
-      <c r="C3" s="265"/>
+      <c r="C3" s="372"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="268" t="s">
+      <c r="E3" s="375" t="s">
         <v>292</v>
       </c>
-      <c r="F3" s="269"/>
+      <c r="F3" s="385"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="264" t="s">
+      <c r="H3" s="370" t="s">
         <v>296</v>
       </c>
-      <c r="I3" s="265"/>
+      <c r="I3" s="372"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="264" t="s">
+      <c r="K3" s="370" t="s">
         <v>297</v>
       </c>
-      <c r="L3" s="265"/>
+      <c r="L3" s="372"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="268" t="s">
+      <c r="N3" s="375" t="s">
         <v>298</v>
       </c>
-      <c r="O3" s="269"/>
+      <c r="O3" s="385"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="268" t="s">
+      <c r="Q3" s="375" t="s">
         <v>299</v>
       </c>
-      <c r="R3" s="269"/>
+      <c r="R3" s="385"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="258" t="s">
+      <c r="T3" s="365" t="s">
         <v>300</v>
       </c>
-      <c r="U3" s="259"/>
-      <c r="V3" s="259"/>
+      <c r="U3" s="393"/>
+      <c r="V3" s="393"/>
       <c r="W3" s="4"/>
-      <c r="X3" s="260" t="s">
+      <c r="X3" s="394" t="s">
         <v>341</v>
       </c>
-      <c r="Y3" s="261"/>
+      <c r="Y3" s="395"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="260" t="s">
+      <c r="AA3" s="394" t="s">
         <v>302</v>
       </c>
-      <c r="AB3" s="261"/>
+      <c r="AB3" s="395"/>
       <c r="AC3" s="59"/>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1">
       <c r="A4" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="B4" s="266"/>
-      <c r="C4" s="267"/>
+      <c r="B4" s="398"/>
+      <c r="C4" s="399"/>
       <c r="D4" s="55"/>
-      <c r="E4" s="270"/>
-      <c r="F4" s="271"/>
+      <c r="E4" s="386"/>
+      <c r="F4" s="377"/>
       <c r="G4" s="55"/>
-      <c r="H4" s="266"/>
-      <c r="I4" s="267"/>
+      <c r="H4" s="398"/>
+      <c r="I4" s="399"/>
       <c r="J4" s="55"/>
-      <c r="K4" s="266"/>
-      <c r="L4" s="267"/>
+      <c r="K4" s="398"/>
+      <c r="L4" s="399"/>
       <c r="M4" s="55"/>
-      <c r="N4" s="270"/>
-      <c r="O4" s="271"/>
+      <c r="N4" s="386"/>
+      <c r="O4" s="377"/>
       <c r="P4" s="55"/>
-      <c r="Q4" s="270"/>
-      <c r="R4" s="271"/>
+      <c r="Q4" s="386"/>
+      <c r="R4" s="377"/>
       <c r="S4" s="55"/>
-      <c r="T4" s="258"/>
-      <c r="U4" s="259"/>
-      <c r="V4" s="259"/>
+      <c r="T4" s="365"/>
+      <c r="U4" s="393"/>
+      <c r="V4" s="393"/>
       <c r="W4" s="55"/>
-      <c r="X4" s="262"/>
-      <c r="Y4" s="263"/>
+      <c r="X4" s="396"/>
+      <c r="Y4" s="397"/>
       <c r="Z4" s="55"/>
-      <c r="AA4" s="262"/>
-      <c r="AB4" s="263"/>
+      <c r="AA4" s="396"/>
+      <c r="AB4" s="397"/>
       <c r="AC4" s="59"/>
     </row>
     <row r="5" spans="1:29">
@@ -31471,10 +31801,10 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="311" t="s">
+      <c r="E6" s="335" t="s">
         <v>708</v>
       </c>
-      <c r="F6" s="311"/>
+      <c r="F6" s="335"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -31485,16 +31815,16 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="345" t="s">
+      <c r="Q6" s="325" t="s">
         <v>725</v>
       </c>
-      <c r="R6" s="345"/>
+      <c r="R6" s="325"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="257" t="s">
+      <c r="T6" s="336" t="s">
         <v>340</v>
       </c>
-      <c r="U6" s="257"/>
-      <c r="V6" s="257"/>
+      <c r="U6" s="336"/>
+      <c r="V6" s="336"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
@@ -31510,8 +31840,8 @@
       <c r="B7" s="55"/>
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
-      <c r="E7" s="257"/>
-      <c r="F7" s="257"/>
+      <c r="E7" s="336"/>
+      <c r="F7" s="336"/>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
       <c r="I7" s="55"/>
@@ -31522,12 +31852,12 @@
       <c r="N7" s="55"/>
       <c r="O7" s="55"/>
       <c r="P7" s="55"/>
-      <c r="Q7" s="346"/>
-      <c r="R7" s="346"/>
+      <c r="Q7" s="326"/>
+      <c r="R7" s="326"/>
       <c r="S7" s="55"/>
-      <c r="T7" s="257"/>
-      <c r="U7" s="257"/>
-      <c r="V7" s="257"/>
+      <c r="T7" s="336"/>
+      <c r="U7" s="336"/>
+      <c r="V7" s="336"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
@@ -31541,8 +31871,8 @@
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="257"/>
-      <c r="F8" s="257"/>
+      <c r="E8" s="336"/>
+      <c r="F8" s="336"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -31553,12 +31883,12 @@
       <c r="N8" s="17"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="346"/>
-      <c r="R8" s="346"/>
+      <c r="Q8" s="326"/>
+      <c r="R8" s="326"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="257"/>
-      <c r="U8" s="257"/>
-      <c r="V8" s="257"/>
+      <c r="T8" s="336"/>
+      <c r="U8" s="336"/>
+      <c r="V8" s="336"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
@@ -31572,8 +31902,8 @@
       <c r="B9" s="19"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="257"/>
-      <c r="F9" s="257"/>
+      <c r="E9" s="336"/>
+      <c r="F9" s="336"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -31584,12 +31914,12 @@
       <c r="N9" s="17"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="346"/>
-      <c r="R9" s="346"/>
+      <c r="Q9" s="326"/>
+      <c r="R9" s="326"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="257"/>
-      <c r="U9" s="257"/>
-      <c r="V9" s="257"/>
+      <c r="T9" s="336"/>
+      <c r="U9" s="336"/>
+      <c r="V9" s="336"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
@@ -31603,8 +31933,8 @@
       <c r="B10" s="19"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="257"/>
-      <c r="F10" s="257"/>
+      <c r="E10" s="336"/>
+      <c r="F10" s="336"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -31615,12 +31945,12 @@
       <c r="N10" s="17"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="346"/>
-      <c r="R10" s="346"/>
+      <c r="Q10" s="326"/>
+      <c r="R10" s="326"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="257"/>
-      <c r="U10" s="257"/>
-      <c r="V10" s="257"/>
+      <c r="T10" s="336"/>
+      <c r="U10" s="336"/>
+      <c r="V10" s="336"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
@@ -31634,8 +31964,8 @@
       <c r="B11" s="19"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="257"/>
-      <c r="F11" s="257"/>
+      <c r="E11" s="336"/>
+      <c r="F11" s="336"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -31646,12 +31976,12 @@
       <c r="N11" s="17"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="346"/>
-      <c r="R11" s="346"/>
+      <c r="Q11" s="326"/>
+      <c r="R11" s="326"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="257"/>
-      <c r="U11" s="257"/>
-      <c r="V11" s="257"/>
+      <c r="T11" s="336"/>
+      <c r="U11" s="336"/>
+      <c r="V11" s="336"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
@@ -31665,8 +31995,8 @@
       <c r="B12" s="19"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="257"/>
-      <c r="F12" s="257"/>
+      <c r="E12" s="336"/>
+      <c r="F12" s="336"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -31677,12 +32007,12 @@
       <c r="N12" s="17"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="346"/>
-      <c r="R12" s="346"/>
+      <c r="Q12" s="326"/>
+      <c r="R12" s="326"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="257"/>
-      <c r="U12" s="257"/>
-      <c r="V12" s="257"/>
+      <c r="T12" s="336"/>
+      <c r="U12" s="336"/>
+      <c r="V12" s="336"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
@@ -31696,8 +32026,8 @@
       <c r="B13" s="19"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="257"/>
-      <c r="F13" s="257"/>
+      <c r="E13" s="336"/>
+      <c r="F13" s="336"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -31708,12 +32038,12 @@
       <c r="N13" s="17"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="346"/>
-      <c r="R13" s="346"/>
+      <c r="Q13" s="326"/>
+      <c r="R13" s="326"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="257"/>
-      <c r="U13" s="257"/>
-      <c r="V13" s="257"/>
+      <c r="T13" s="336"/>
+      <c r="U13" s="336"/>
+      <c r="V13" s="336"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
@@ -31727,8 +32057,8 @@
       <c r="B14" s="19"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="257"/>
-      <c r="F14" s="257"/>
+      <c r="E14" s="336"/>
+      <c r="F14" s="336"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -31739,12 +32069,12 @@
       <c r="N14" s="17"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="346"/>
-      <c r="R14" s="346"/>
+      <c r="Q14" s="326"/>
+      <c r="R14" s="326"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="257"/>
-      <c r="U14" s="257"/>
-      <c r="V14" s="257"/>
+      <c r="T14" s="336"/>
+      <c r="U14" s="336"/>
+      <c r="V14" s="336"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
@@ -31758,8 +32088,8 @@
       <c r="B15" s="19"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="257"/>
-      <c r="F15" s="257"/>
+      <c r="E15" s="336"/>
+      <c r="F15" s="336"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -31770,12 +32100,12 @@
       <c r="N15" s="17"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="346"/>
-      <c r="R15" s="346"/>
+      <c r="Q15" s="326"/>
+      <c r="R15" s="326"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="257"/>
-      <c r="U15" s="257"/>
-      <c r="V15" s="257"/>
+      <c r="T15" s="336"/>
+      <c r="U15" s="336"/>
+      <c r="V15" s="336"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -31789,8 +32119,8 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="257"/>
-      <c r="F16" s="257"/>
+      <c r="E16" s="336"/>
+      <c r="F16" s="336"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -31801,12 +32131,12 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="346"/>
-      <c r="R16" s="346"/>
+      <c r="Q16" s="326"/>
+      <c r="R16" s="326"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="257"/>
-      <c r="U16" s="257"/>
-      <c r="V16" s="257"/>
+      <c r="T16" s="336"/>
+      <c r="U16" s="336"/>
+      <c r="V16" s="336"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
@@ -31815,13 +32145,13 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="59"/>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:54">
       <c r="A17" s="58"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="257"/>
-      <c r="F17" s="257"/>
+      <c r="E17" s="336"/>
+      <c r="F17" s="336"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -31832,12 +32162,12 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="346"/>
-      <c r="R17" s="346"/>
+      <c r="Q17" s="326"/>
+      <c r="R17" s="326"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="257"/>
-      <c r="U17" s="257"/>
-      <c r="V17" s="257"/>
+      <c r="T17" s="336"/>
+      <c r="U17" s="336"/>
+      <c r="V17" s="336"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
@@ -31846,13 +32176,13 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="59"/>
     </row>
-    <row r="18" spans="1:29" ht="16" thickBot="1">
+    <row r="18" spans="1:54" ht="16" thickBot="1">
       <c r="A18" s="61"/>
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
       <c r="D18" s="62"/>
-      <c r="E18" s="312"/>
-      <c r="F18" s="312"/>
+      <c r="E18" s="400"/>
+      <c r="F18" s="400"/>
       <c r="G18" s="62"/>
       <c r="H18" s="62"/>
       <c r="I18" s="62"/>
@@ -31877,12 +32207,12 @@
       <c r="AB18" s="62"/>
       <c r="AC18" s="63"/>
     </row>
-    <row r="19" spans="1:29">
-      <c r="A19" s="255" t="s">
+    <row r="19" spans="1:54">
+      <c r="A19" s="381" t="s">
         <v>303</v>
       </c>
-      <c r="B19" s="256"/>
-      <c r="C19" s="256"/>
+      <c r="B19" s="382"/>
+      <c r="C19" s="382"/>
       <c r="D19" s="56"/>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
@@ -31910,7 +32240,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:54">
       <c r="A20" s="58"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -31935,73 +32265,73 @@
       <c r="V20" s="4"/>
       <c r="W20" s="59"/>
     </row>
-    <row r="21" spans="1:29" ht="15" customHeight="1">
+    <row r="21" spans="1:54" ht="15" customHeight="1">
       <c r="A21" s="58"/>
-      <c r="B21" s="268" t="s">
+      <c r="B21" s="375" t="s">
         <v>312</v>
       </c>
-      <c r="C21" s="269"/>
+      <c r="C21" s="385"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="268" t="s">
+      <c r="E21" s="375" t="s">
         <v>315</v>
       </c>
-      <c r="F21" s="269"/>
+      <c r="F21" s="385"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="268" t="s">
+      <c r="H21" s="375" t="s">
         <v>313</v>
       </c>
-      <c r="I21" s="269"/>
+      <c r="I21" s="385"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="268" t="s">
+      <c r="K21" s="375" t="s">
         <v>315</v>
       </c>
-      <c r="L21" s="269"/>
+      <c r="L21" s="385"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="268" t="s">
+      <c r="N21" s="375" t="s">
         <v>319</v>
       </c>
-      <c r="O21" s="269"/>
+      <c r="O21" s="385"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="268" t="s">
+      <c r="Q21" s="375" t="s">
         <v>304</v>
       </c>
-      <c r="R21" s="269"/>
+      <c r="R21" s="385"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="276" t="s">
+      <c r="T21" s="387" t="s">
         <v>336</v>
       </c>
-      <c r="U21" s="277"/>
-      <c r="V21" s="278"/>
+      <c r="U21" s="388"/>
+      <c r="V21" s="389"/>
       <c r="W21" s="59"/>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:54">
       <c r="A22" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="B22" s="270"/>
-      <c r="C22" s="271"/>
+      <c r="B22" s="386"/>
+      <c r="C22" s="377"/>
       <c r="D22" s="55"/>
-      <c r="E22" s="270"/>
-      <c r="F22" s="271"/>
+      <c r="E22" s="386"/>
+      <c r="F22" s="377"/>
       <c r="G22" s="55"/>
-      <c r="H22" s="270"/>
-      <c r="I22" s="271"/>
+      <c r="H22" s="386"/>
+      <c r="I22" s="377"/>
       <c r="J22" s="55"/>
-      <c r="K22" s="270"/>
-      <c r="L22" s="271"/>
+      <c r="K22" s="386"/>
+      <c r="L22" s="377"/>
       <c r="M22" s="55"/>
-      <c r="N22" s="270"/>
-      <c r="O22" s="271"/>
+      <c r="N22" s="386"/>
+      <c r="O22" s="377"/>
       <c r="P22" s="55"/>
-      <c r="Q22" s="270"/>
-      <c r="R22" s="271"/>
+      <c r="Q22" s="386"/>
+      <c r="R22" s="377"/>
       <c r="S22" s="55"/>
-      <c r="T22" s="279"/>
-      <c r="U22" s="280"/>
-      <c r="V22" s="281"/>
+      <c r="T22" s="390"/>
+      <c r="U22" s="391"/>
+      <c r="V22" s="392"/>
       <c r="W22" s="59"/>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:54">
       <c r="A23" s="58"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -32026,23 +32356,23 @@
       <c r="V23" s="4"/>
       <c r="W23" s="59"/>
     </row>
-    <row r="24" spans="1:29" ht="15" customHeight="1">
+    <row r="24" spans="1:54" ht="15" customHeight="1">
       <c r="A24" s="58"/>
-      <c r="B24" s="272" t="s">
+      <c r="B24" s="323" t="s">
         <v>305</v>
       </c>
-      <c r="C24" s="273"/>
+      <c r="C24" s="324"/>
       <c r="D24" s="38"/>
-      <c r="E24" s="272"/>
-      <c r="F24" s="273"/>
+      <c r="E24" s="323"/>
+      <c r="F24" s="324"/>
       <c r="G24" s="55"/>
-      <c r="H24" s="272" t="s">
+      <c r="H24" s="323" t="s">
         <v>305</v>
       </c>
-      <c r="I24" s="273"/>
+      <c r="I24" s="324"/>
       <c r="J24" s="55"/>
-      <c r="K24" s="272"/>
-      <c r="L24" s="273"/>
+      <c r="K24" s="323"/>
+      <c r="L24" s="324"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -32055,7 +32385,7 @@
       <c r="V24" s="4"/>
       <c r="W24" s="59"/>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:54">
       <c r="A25" s="58"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
@@ -32080,32 +32410,32 @@
       <c r="V25" s="4"/>
       <c r="W25" s="59"/>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:54">
       <c r="A26" s="58"/>
-      <c r="B26" s="272" t="s">
+      <c r="B26" s="323" t="s">
         <v>306</v>
       </c>
-      <c r="C26" s="273"/>
+      <c r="C26" s="324"/>
       <c r="D26" s="38"/>
-      <c r="E26" s="272" t="s">
+      <c r="E26" s="323" t="s">
         <v>314</v>
       </c>
-      <c r="F26" s="273"/>
+      <c r="F26" s="324"/>
       <c r="G26" s="55"/>
-      <c r="H26" s="272" t="s">
+      <c r="H26" s="323" t="s">
         <v>306</v>
       </c>
-      <c r="I26" s="273"/>
+      <c r="I26" s="324"/>
       <c r="J26" s="55"/>
-      <c r="K26" s="272"/>
-      <c r="L26" s="273"/>
+      <c r="K26" s="323"/>
+      <c r="L26" s="324"/>
       <c r="M26" s="64"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="284" t="s">
+      <c r="O26" s="334" t="s">
         <v>698</v>
       </c>
-      <c r="P26" s="311"/>
-      <c r="Q26" s="285"/>
+      <c r="P26" s="335"/>
+      <c r="Q26" s="337"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
@@ -32113,7 +32443,7 @@
       <c r="V26" s="4"/>
       <c r="W26" s="59"/>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:54">
       <c r="A27" s="58"/>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
@@ -32128,9 +32458,9 @@
       <c r="L27" s="38"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
-      <c r="O27" s="286"/>
-      <c r="P27" s="257"/>
-      <c r="Q27" s="287"/>
+      <c r="O27" s="338"/>
+      <c r="P27" s="336"/>
+      <c r="Q27" s="339"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -32138,28 +32468,28 @@
       <c r="V27" s="4"/>
       <c r="W27" s="59"/>
     </row>
-    <row r="28" spans="1:29" ht="15" customHeight="1">
+    <row r="28" spans="1:54" ht="15" customHeight="1">
       <c r="A28" s="58"/>
-      <c r="B28" s="272" t="s">
+      <c r="B28" s="323" t="s">
         <v>307</v>
       </c>
-      <c r="C28" s="273"/>
+      <c r="C28" s="324"/>
       <c r="D28" s="38"/>
-      <c r="E28" s="272"/>
-      <c r="F28" s="273"/>
+      <c r="E28" s="323"/>
+      <c r="F28" s="324"/>
       <c r="G28" s="55"/>
-      <c r="H28" s="272" t="s">
+      <c r="H28" s="323" t="s">
         <v>307</v>
       </c>
-      <c r="I28" s="273"/>
+      <c r="I28" s="324"/>
       <c r="J28" s="55"/>
-      <c r="K28" s="272"/>
-      <c r="L28" s="273"/>
+      <c r="K28" s="323"/>
+      <c r="L28" s="324"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="286"/>
-      <c r="P28" s="257"/>
-      <c r="Q28" s="287"/>
+      <c r="O28" s="338"/>
+      <c r="P28" s="336"/>
+      <c r="Q28" s="339"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -32167,7 +32497,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="59"/>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:54">
       <c r="A29" s="58"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
@@ -32182,9 +32512,9 @@
       <c r="L29" s="38"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="286"/>
-      <c r="P29" s="257"/>
-      <c r="Q29" s="287"/>
+      <c r="O29" s="338"/>
+      <c r="P29" s="336"/>
+      <c r="Q29" s="339"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -32192,32 +32522,32 @@
       <c r="V29" s="4"/>
       <c r="W29" s="59"/>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:54" ht="16" thickBot="1">
       <c r="A30" s="58"/>
-      <c r="B30" s="272" t="s">
+      <c r="B30" s="323" t="s">
         <v>308</v>
       </c>
-      <c r="C30" s="273"/>
+      <c r="C30" s="324"/>
       <c r="D30" s="38"/>
-      <c r="E30" s="272" t="s">
+      <c r="E30" s="323" t="s">
         <v>316</v>
       </c>
-      <c r="F30" s="273"/>
+      <c r="F30" s="324"/>
       <c r="G30" s="55"/>
-      <c r="H30" s="272" t="s">
+      <c r="H30" s="323" t="s">
         <v>321</v>
       </c>
-      <c r="I30" s="273"/>
+      <c r="I30" s="324"/>
       <c r="J30" s="55"/>
-      <c r="K30" s="272" t="s">
+      <c r="K30" s="323" t="s">
         <v>320</v>
       </c>
-      <c r="L30" s="273"/>
+      <c r="L30" s="324"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="286"/>
-      <c r="P30" s="257"/>
-      <c r="Q30" s="287"/>
+      <c r="O30" s="338"/>
+      <c r="P30" s="336"/>
+      <c r="Q30" s="339"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -32225,7 +32555,7 @@
       <c r="V30" s="4"/>
       <c r="W30" s="59"/>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:54" ht="46" thickBot="1">
       <c r="A31" s="58"/>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
@@ -32240,48 +32570,68 @@
       <c r="L31" s="38"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="286"/>
-      <c r="P31" s="257"/>
-      <c r="Q31" s="287"/>
+      <c r="O31" s="338"/>
+      <c r="P31" s="336"/>
+      <c r="Q31" s="339"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="59"/>
-    </row>
-    <row r="32" spans="1:29">
+      <c r="AX31" s="405"/>
+      <c r="AY31" s="405"/>
+      <c r="AZ31" s="404"/>
+      <c r="BA31" s="254" t="s">
+        <v>728</v>
+      </c>
+      <c r="BB31" s="277" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="32" spans="1:54" ht="46" thickBot="1">
       <c r="A32" s="58"/>
-      <c r="B32" s="274" t="s">
+      <c r="B32" s="332" t="s">
         <v>310</v>
       </c>
-      <c r="C32" s="275"/>
+      <c r="C32" s="333"/>
       <c r="D32" s="38"/>
-      <c r="E32" s="274" t="s">
+      <c r="E32" s="332" t="s">
         <v>317</v>
       </c>
-      <c r="F32" s="275"/>
+      <c r="F32" s="333"/>
       <c r="G32" s="55"/>
-      <c r="H32" s="274" t="s">
+      <c r="H32" s="332" t="s">
         <v>310</v>
       </c>
-      <c r="I32" s="275"/>
+      <c r="I32" s="333"/>
       <c r="J32" s="55"/>
-      <c r="K32" s="274"/>
-      <c r="L32" s="275"/>
+      <c r="K32" s="332"/>
+      <c r="L32" s="333"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="286"/>
-      <c r="P32" s="257"/>
-      <c r="Q32" s="287"/>
+      <c r="O32" s="338"/>
+      <c r="P32" s="336"/>
+      <c r="Q32" s="339"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="59"/>
-    </row>
-    <row r="33" spans="1:29">
+      <c r="AX32" s="405"/>
+      <c r="AY32" s="405"/>
+      <c r="AZ32" s="255" t="s">
+        <v>700</v>
+      </c>
+      <c r="BA32" s="257">
+        <v>0.21</v>
+      </c>
+      <c r="BB32" s="280">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:54" ht="16" thickBot="1">
       <c r="A33" s="58"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
@@ -32296,48 +32646,70 @@
       <c r="L33" s="65"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
-      <c r="O33" s="286"/>
-      <c r="P33" s="257"/>
-      <c r="Q33" s="287"/>
+      <c r="O33" s="338"/>
+      <c r="P33" s="336"/>
+      <c r="Q33" s="339"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="59"/>
-    </row>
-    <row r="34" spans="1:29">
+      <c r="AX33" s="405"/>
+      <c r="AY33" s="405"/>
+      <c r="AZ33" s="255" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA33" s="257">
+        <v>0.01</v>
+      </c>
+      <c r="BB33" s="281">
+        <v>2.7400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:54" ht="46" thickBot="1">
       <c r="A34" s="58"/>
-      <c r="B34" s="272" t="s">
+      <c r="B34" s="323" t="s">
         <v>309</v>
       </c>
-      <c r="C34" s="273"/>
+      <c r="C34" s="324"/>
       <c r="D34" s="55"/>
-      <c r="E34" s="272" t="s">
+      <c r="E34" s="323" t="s">
         <v>318</v>
       </c>
-      <c r="F34" s="273"/>
+      <c r="F34" s="324"/>
       <c r="G34" s="55"/>
-      <c r="H34" s="272" t="s">
+      <c r="H34" s="323" t="s">
         <v>311</v>
       </c>
-      <c r="I34" s="273"/>
+      <c r="I34" s="324"/>
       <c r="J34" s="55"/>
-      <c r="K34" s="272"/>
-      <c r="L34" s="273"/>
+      <c r="K34" s="323"/>
+      <c r="L34" s="324"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
-      <c r="O34" s="286"/>
-      <c r="P34" s="257"/>
-      <c r="Q34" s="287"/>
+      <c r="O34" s="338"/>
+      <c r="P34" s="336"/>
+      <c r="Q34" s="339"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="59"/>
-    </row>
-    <row r="35" spans="1:29">
+      <c r="AX34" s="252"/>
+      <c r="AY34" s="252"/>
+      <c r="AZ34" s="256" t="s">
+        <v>741</v>
+      </c>
+      <c r="BA34" s="257">
+        <v>0.49</v>
+      </c>
+      <c r="BB34" s="403">
+        <v>0.43380000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:54" ht="46" thickBot="1">
       <c r="A35" s="58"/>
       <c r="B35" s="65"/>
       <c r="C35" s="65"/>
@@ -32352,80 +32724,113 @@
       <c r="L35" s="65"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="286"/>
-      <c r="P35" s="257"/>
-      <c r="Q35" s="287"/>
+      <c r="O35" s="338"/>
+      <c r="P35" s="336"/>
+      <c r="Q35" s="339"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="59"/>
-    </row>
-    <row r="36" spans="1:29">
+      <c r="AX35" s="252"/>
+      <c r="AY35" s="252"/>
+      <c r="AZ35" s="256" t="s">
+        <v>742</v>
+      </c>
+      <c r="BA35" s="257">
+        <v>0.87</v>
+      </c>
+      <c r="BB35" s="403">
+        <v>0.92589999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:54" ht="31" thickBot="1">
       <c r="A36" s="58"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="284" t="s">
+      <c r="E36" s="334" t="s">
         <v>342</v>
       </c>
-      <c r="F36" s="285"/>
+      <c r="F36" s="337"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="284" t="s">
+      <c r="H36" s="334" t="s">
         <v>709</v>
       </c>
-      <c r="I36" s="285"/>
+      <c r="I36" s="337"/>
       <c r="J36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
-      <c r="O36" s="286"/>
-      <c r="P36" s="257"/>
-      <c r="Q36" s="287"/>
+      <c r="O36" s="338"/>
+      <c r="P36" s="336"/>
+      <c r="Q36" s="339"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="59"/>
-    </row>
-    <row r="37" spans="1:29" ht="15" customHeight="1">
+      <c r="AX36" s="253"/>
+      <c r="AY36" s="253"/>
+      <c r="AZ36" s="256" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA36" s="257">
+        <v>0.01</v>
+      </c>
+      <c r="BB36" s="281">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:54" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="B37" s="282"/>
-      <c r="C37" s="283"/>
+      <c r="B37" s="327"/>
+      <c r="C37" s="328"/>
       <c r="D37" s="55"/>
-      <c r="E37" s="286"/>
-      <c r="F37" s="287"/>
+      <c r="E37" s="338"/>
+      <c r="F37" s="339"/>
       <c r="G37" s="67"/>
-      <c r="H37" s="286"/>
-      <c r="I37" s="287"/>
+      <c r="H37" s="338"/>
+      <c r="I37" s="339"/>
       <c r="J37" s="67"/>
-      <c r="K37" s="282"/>
-      <c r="L37" s="283"/>
+      <c r="K37" s="327"/>
+      <c r="L37" s="328"/>
       <c r="M37" s="67"/>
       <c r="N37" s="67"/>
-      <c r="O37" s="318"/>
-      <c r="P37" s="319"/>
-      <c r="Q37" s="320"/>
+      <c r="O37" s="340"/>
+      <c r="P37" s="341"/>
+      <c r="Q37" s="342"/>
       <c r="R37" s="67"/>
       <c r="S37" s="67"/>
       <c r="T37" s="67"/>
       <c r="U37" s="67"/>
       <c r="V37" s="67"/>
       <c r="W37" s="59"/>
-    </row>
-    <row r="38" spans="1:29" ht="15" customHeight="1" thickBot="1">
+      <c r="AX37" s="253"/>
+      <c r="AY37" s="253"/>
+      <c r="AZ37" s="278" t="s">
+        <v>701</v>
+      </c>
+      <c r="BA37" s="279">
+        <v>0.4</v>
+      </c>
+      <c r="BB37" s="282">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="38" spans="1:54" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="61"/>
       <c r="B38" s="62"/>
       <c r="C38" s="62"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="288"/>
-      <c r="F38" s="289"/>
+      <c r="E38" s="361"/>
+      <c r="F38" s="362"/>
       <c r="G38" s="62"/>
-      <c r="H38" s="288"/>
-      <c r="I38" s="289"/>
+      <c r="H38" s="361"/>
+      <c r="I38" s="362"/>
       <c r="J38" s="62"/>
       <c r="M38" s="62"/>
       <c r="N38" s="62"/>
@@ -32439,12 +32844,12 @@
       <c r="V38" s="62"/>
       <c r="W38" s="63"/>
     </row>
-    <row r="39" spans="1:29">
-      <c r="A39" s="255" t="s">
+    <row r="39" spans="1:54">
+      <c r="A39" s="381" t="s">
         <v>322</v>
       </c>
-      <c r="B39" s="256"/>
-      <c r="C39" s="256"/>
+      <c r="B39" s="382"/>
+      <c r="C39" s="382"/>
       <c r="D39" s="56"/>
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
@@ -32472,7 +32877,7 @@
       <c r="AB39" s="56"/>
       <c r="AC39" s="57"/>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:54">
       <c r="A40" s="58"/>
       <c r="B40" s="227"/>
       <c r="C40" s="228"/>
@@ -32503,71 +32908,71 @@
       <c r="AB40" s="4"/>
       <c r="AC40" s="59"/>
     </row>
-    <row r="41" spans="1:29" ht="15" customHeight="1">
+    <row r="41" spans="1:54" ht="15" customHeight="1">
       <c r="A41" s="58"/>
-      <c r="B41" s="303" t="s">
+      <c r="B41" s="355" t="s">
         <v>323</v>
       </c>
-      <c r="C41" s="304"/>
+      <c r="C41" s="356"/>
       <c r="D41" s="64"/>
-      <c r="E41" s="303" t="s">
+      <c r="E41" s="355" t="s">
         <v>325</v>
       </c>
-      <c r="F41" s="304"/>
+      <c r="F41" s="356"/>
       <c r="G41" s="64"/>
-      <c r="H41" s="303" t="s">
+      <c r="H41" s="355" t="s">
         <v>324</v>
       </c>
-      <c r="I41" s="304"/>
+      <c r="I41" s="356"/>
       <c r="J41" s="64"/>
-      <c r="K41" s="303" t="s">
+      <c r="K41" s="355" t="s">
         <v>330</v>
       </c>
-      <c r="L41" s="304"/>
+      <c r="L41" s="356"/>
       <c r="M41" s="64"/>
-      <c r="N41" s="303" t="s">
+      <c r="N41" s="355" t="s">
         <v>331</v>
       </c>
-      <c r="O41" s="304"/>
+      <c r="O41" s="356"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="330" t="s">
+      <c r="Q41" s="351" t="s">
         <v>707</v>
       </c>
-      <c r="R41" s="331"/>
+      <c r="R41" s="352"/>
       <c r="S41" s="4"/>
       <c r="T41" s="172" t="s">
         <v>335</v>
       </c>
       <c r="U41" s="173"/>
       <c r="V41" s="4"/>
-      <c r="W41" s="324" t="s">
+      <c r="W41" s="345" t="s">
         <v>343</v>
       </c>
-      <c r="X41" s="325"/>
+      <c r="X41" s="346"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="59"/>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:54">
       <c r="A42" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="B42" s="307"/>
-      <c r="C42" s="308"/>
+      <c r="B42" s="359"/>
+      <c r="C42" s="360"/>
       <c r="D42" s="64"/>
-      <c r="E42" s="307"/>
-      <c r="F42" s="308"/>
+      <c r="E42" s="359"/>
+      <c r="F42" s="360"/>
       <c r="G42" s="64"/>
-      <c r="H42" s="307"/>
-      <c r="I42" s="308"/>
+      <c r="H42" s="359"/>
+      <c r="I42" s="360"/>
       <c r="J42" s="64"/>
-      <c r="K42" s="305"/>
-      <c r="L42" s="306"/>
+      <c r="K42" s="357"/>
+      <c r="L42" s="358"/>
       <c r="M42" s="64"/>
-      <c r="N42" s="305"/>
-      <c r="O42" s="306"/>
+      <c r="N42" s="357"/>
+      <c r="O42" s="358"/>
       <c r="P42" s="55"/>
-      <c r="Q42" s="332"/>
-      <c r="R42" s="333"/>
+      <c r="Q42" s="353"/>
+      <c r="R42" s="354"/>
       <c r="S42" s="72" t="s">
         <v>103</v>
       </c>
@@ -32576,11 +32981,11 @@
       <c r="V42" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="W42" s="326"/>
-      <c r="X42" s="327"/>
+      <c r="W42" s="347"/>
+      <c r="X42" s="348"/>
       <c r="AC42" s="59"/>
     </row>
-    <row r="43" spans="1:29" ht="16" customHeight="1">
+    <row r="43" spans="1:54" ht="16" customHeight="1">
       <c r="A43" s="58"/>
       <c r="B43" s="223"/>
       <c r="C43" s="64"/>
@@ -32591,33 +32996,33 @@
       <c r="H43" s="223"/>
       <c r="I43" s="224"/>
       <c r="J43" s="64"/>
-      <c r="K43" s="307"/>
-      <c r="L43" s="308"/>
+      <c r="K43" s="359"/>
+      <c r="L43" s="360"/>
       <c r="M43" s="64"/>
-      <c r="N43" s="307"/>
-      <c r="O43" s="308"/>
+      <c r="N43" s="359"/>
+      <c r="O43" s="360"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
-      <c r="W43" s="328"/>
-      <c r="X43" s="329"/>
+      <c r="W43" s="349"/>
+      <c r="X43" s="350"/>
       <c r="AC43" s="59"/>
     </row>
-    <row r="44" spans="1:29" ht="15" customHeight="1">
+    <row r="44" spans="1:54" ht="15" customHeight="1">
       <c r="A44" s="58"/>
       <c r="B44" s="223"/>
       <c r="C44" s="64"/>
       <c r="D44" s="64"/>
-      <c r="E44" s="309" t="s">
+      <c r="E44" s="383" t="s">
         <v>334</v>
       </c>
-      <c r="F44" s="310"/>
+      <c r="F44" s="384"/>
       <c r="G44" s="64"/>
-      <c r="H44" s="297" t="s">
+      <c r="H44" s="373" t="s">
         <v>328</v>
       </c>
-      <c r="I44" s="298"/>
+      <c r="I44" s="374"/>
       <c r="J44" s="64"/>
       <c r="K44" s="64"/>
       <c r="L44" s="64"/>
@@ -32630,7 +33035,7 @@
       <c r="S44" s="4"/>
       <c r="AC44" s="59"/>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:54">
       <c r="B45" s="223"/>
       <c r="C45" s="64"/>
       <c r="D45" s="64"/>
@@ -32655,20 +33060,20 @@
       <c r="X45" s="17"/>
       <c r="AC45" s="59"/>
     </row>
-    <row r="46" spans="1:29" ht="15" customHeight="1">
+    <row r="46" spans="1:54" ht="15" customHeight="1">
       <c r="A46" s="58"/>
       <c r="B46" s="223"/>
       <c r="C46" s="64"/>
       <c r="D46" s="64"/>
-      <c r="E46" s="297" t="s">
+      <c r="E46" s="373" t="s">
         <v>502</v>
       </c>
-      <c r="F46" s="300"/>
+      <c r="F46" s="378"/>
       <c r="G46" s="64"/>
-      <c r="H46" s="297" t="s">
+      <c r="H46" s="373" t="s">
         <v>332</v>
       </c>
-      <c r="I46" s="298"/>
+      <c r="I46" s="374"/>
       <c r="J46" s="64"/>
       <c r="K46" s="64"/>
       <c r="L46" s="64"/>
@@ -32684,7 +33089,7 @@
       <c r="X46" s="220"/>
       <c r="AC46" s="59"/>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:54">
       <c r="A47" s="58"/>
       <c r="B47" s="223"/>
       <c r="C47" s="64"/>
@@ -32709,20 +33114,20 @@
       <c r="X47" s="220"/>
       <c r="AC47" s="59"/>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:54">
       <c r="A48" s="58"/>
       <c r="B48" s="223"/>
       <c r="C48" s="64"/>
       <c r="D48" s="64"/>
-      <c r="E48" s="297" t="s">
+      <c r="E48" s="373" t="s">
         <v>326</v>
       </c>
-      <c r="F48" s="300"/>
+      <c r="F48" s="378"/>
       <c r="G48" s="64"/>
-      <c r="H48" s="297" t="s">
+      <c r="H48" s="373" t="s">
         <v>329</v>
       </c>
-      <c r="I48" s="300"/>
+      <c r="I48" s="378"/>
       <c r="J48" s="64"/>
       <c r="K48" s="64"/>
       <c r="L48" s="64"/>
@@ -32757,19 +33162,19 @@
       <c r="N49" s="64"/>
       <c r="O49" s="224"/>
       <c r="P49" s="4"/>
-      <c r="Q49" s="284" t="s">
+      <c r="Q49" s="334" t="s">
         <v>699</v>
       </c>
-      <c r="R49" s="311"/>
-      <c r="S49" s="257"/>
-      <c r="T49" s="257"/>
-      <c r="U49" s="257"/>
-      <c r="V49" s="257"/>
-      <c r="W49" s="257"/>
-      <c r="X49" s="257"/>
-      <c r="Y49" s="311"/>
-      <c r="Z49" s="311"/>
-      <c r="AA49" s="285"/>
+      <c r="R49" s="335"/>
+      <c r="S49" s="336"/>
+      <c r="T49" s="336"/>
+      <c r="U49" s="336"/>
+      <c r="V49" s="336"/>
+      <c r="W49" s="336"/>
+      <c r="X49" s="336"/>
+      <c r="Y49" s="335"/>
+      <c r="Z49" s="335"/>
+      <c r="AA49" s="337"/>
       <c r="AC49" s="59"/>
     </row>
     <row r="50" spans="1:47">
@@ -32777,15 +33182,15 @@
       <c r="B50" s="223"/>
       <c r="C50" s="64"/>
       <c r="D50" s="64"/>
-      <c r="E50" s="297" t="s">
+      <c r="E50" s="373" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="300"/>
+      <c r="F50" s="378"/>
       <c r="G50" s="64"/>
-      <c r="H50" s="301" t="s">
+      <c r="H50" s="379" t="s">
         <v>333</v>
       </c>
-      <c r="I50" s="302"/>
+      <c r="I50" s="380"/>
       <c r="J50" s="64"/>
       <c r="K50" s="64"/>
       <c r="L50" s="64"/>
@@ -32793,17 +33198,17 @@
       <c r="N50" s="64"/>
       <c r="O50" s="224"/>
       <c r="P50" s="4"/>
-      <c r="Q50" s="286"/>
-      <c r="R50" s="257"/>
-      <c r="S50" s="257"/>
-      <c r="T50" s="257"/>
-      <c r="U50" s="257"/>
-      <c r="V50" s="257"/>
-      <c r="W50" s="257"/>
-      <c r="X50" s="257"/>
-      <c r="Y50" s="257"/>
-      <c r="Z50" s="257"/>
-      <c r="AA50" s="287"/>
+      <c r="Q50" s="338"/>
+      <c r="R50" s="336"/>
+      <c r="S50" s="336"/>
+      <c r="T50" s="336"/>
+      <c r="U50" s="336"/>
+      <c r="V50" s="336"/>
+      <c r="W50" s="336"/>
+      <c r="X50" s="336"/>
+      <c r="Y50" s="336"/>
+      <c r="Z50" s="336"/>
+      <c r="AA50" s="339"/>
       <c r="AC50" s="59"/>
     </row>
     <row r="51" spans="1:47" ht="15" customHeight="1">
@@ -32823,17 +33228,17 @@
       <c r="N51" s="230"/>
       <c r="O51" s="226"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="286"/>
-      <c r="R51" s="257"/>
-      <c r="S51" s="257"/>
-      <c r="T51" s="257"/>
-      <c r="U51" s="257"/>
-      <c r="V51" s="257"/>
-      <c r="W51" s="257"/>
-      <c r="X51" s="257"/>
-      <c r="Y51" s="257"/>
-      <c r="Z51" s="257"/>
-      <c r="AA51" s="287"/>
+      <c r="Q51" s="338"/>
+      <c r="R51" s="336"/>
+      <c r="S51" s="336"/>
+      <c r="T51" s="336"/>
+      <c r="U51" s="336"/>
+      <c r="V51" s="336"/>
+      <c r="W51" s="336"/>
+      <c r="X51" s="336"/>
+      <c r="Y51" s="336"/>
+      <c r="Z51" s="336"/>
+      <c r="AA51" s="339"/>
       <c r="AC51" s="59"/>
     </row>
     <row r="52" spans="1:47">
@@ -32855,17 +33260,17 @@
       <c r="N52" s="67"/>
       <c r="O52" s="67"/>
       <c r="P52" s="67"/>
-      <c r="Q52" s="286"/>
-      <c r="R52" s="257"/>
-      <c r="S52" s="257"/>
-      <c r="T52" s="257"/>
-      <c r="U52" s="257"/>
-      <c r="V52" s="257"/>
-      <c r="W52" s="257"/>
-      <c r="X52" s="257"/>
-      <c r="Y52" s="257"/>
-      <c r="Z52" s="257"/>
-      <c r="AA52" s="287"/>
+      <c r="Q52" s="338"/>
+      <c r="R52" s="336"/>
+      <c r="S52" s="336"/>
+      <c r="T52" s="336"/>
+      <c r="U52" s="336"/>
+      <c r="V52" s="336"/>
+      <c r="W52" s="336"/>
+      <c r="X52" s="336"/>
+      <c r="Y52" s="336"/>
+      <c r="Z52" s="336"/>
+      <c r="AA52" s="339"/>
       <c r="AC52" s="59"/>
     </row>
     <row r="53" spans="1:47">
@@ -32885,17 +33290,17 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
-      <c r="Q53" s="286"/>
-      <c r="R53" s="257"/>
-      <c r="S53" s="257"/>
-      <c r="T53" s="257"/>
-      <c r="U53" s="257"/>
-      <c r="V53" s="257"/>
-      <c r="W53" s="257"/>
-      <c r="X53" s="257"/>
-      <c r="Y53" s="257"/>
-      <c r="Z53" s="257"/>
-      <c r="AA53" s="287"/>
+      <c r="Q53" s="338"/>
+      <c r="R53" s="336"/>
+      <c r="S53" s="336"/>
+      <c r="T53" s="336"/>
+      <c r="U53" s="336"/>
+      <c r="V53" s="336"/>
+      <c r="W53" s="336"/>
+      <c r="X53" s="336"/>
+      <c r="Y53" s="336"/>
+      <c r="Z53" s="336"/>
+      <c r="AA53" s="339"/>
       <c r="AC53" s="59"/>
     </row>
     <row r="54" spans="1:47">
@@ -32915,17 +33320,17 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
-      <c r="Q54" s="286"/>
-      <c r="R54" s="257"/>
-      <c r="S54" s="257"/>
-      <c r="T54" s="257"/>
-      <c r="U54" s="257"/>
-      <c r="V54" s="257"/>
-      <c r="W54" s="257"/>
-      <c r="X54" s="257"/>
-      <c r="Y54" s="257"/>
-      <c r="Z54" s="257"/>
-      <c r="AA54" s="287"/>
+      <c r="Q54" s="338"/>
+      <c r="R54" s="336"/>
+      <c r="S54" s="336"/>
+      <c r="T54" s="336"/>
+      <c r="U54" s="336"/>
+      <c r="V54" s="336"/>
+      <c r="W54" s="336"/>
+      <c r="X54" s="336"/>
+      <c r="Y54" s="336"/>
+      <c r="Z54" s="336"/>
+      <c r="AA54" s="339"/>
       <c r="AC54" s="59"/>
     </row>
     <row r="55" spans="1:47">
@@ -32945,17 +33350,17 @@
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
-      <c r="Q55" s="318"/>
-      <c r="R55" s="319"/>
-      <c r="S55" s="319"/>
-      <c r="T55" s="319"/>
-      <c r="U55" s="319"/>
-      <c r="V55" s="319"/>
-      <c r="W55" s="319"/>
-      <c r="X55" s="319"/>
-      <c r="Y55" s="319"/>
-      <c r="Z55" s="319"/>
-      <c r="AA55" s="320"/>
+      <c r="Q55" s="340"/>
+      <c r="R55" s="341"/>
+      <c r="S55" s="341"/>
+      <c r="T55" s="341"/>
+      <c r="U55" s="341"/>
+      <c r="V55" s="341"/>
+      <c r="W55" s="341"/>
+      <c r="X55" s="341"/>
+      <c r="Y55" s="341"/>
+      <c r="Z55" s="341"/>
+      <c r="AA55" s="342"/>
       <c r="AC55" s="59"/>
     </row>
     <row r="56" spans="1:47" ht="16" thickBot="1">
@@ -32990,11 +33395,11 @@
       <c r="AC56" s="63"/>
     </row>
     <row r="57" spans="1:47">
-      <c r="A57" s="255" t="s">
+      <c r="A57" s="381" t="s">
         <v>344</v>
       </c>
-      <c r="B57" s="256"/>
-      <c r="C57" s="256"/>
+      <c r="B57" s="382"/>
+      <c r="C57" s="382"/>
       <c r="D57" s="56"/>
       <c r="E57" s="56"/>
       <c r="F57" s="56"/>
@@ -33016,107 +33421,107 @@
     </row>
     <row r="59" spans="1:47" ht="15" customHeight="1">
       <c r="A59" s="58"/>
-      <c r="B59" s="268" t="s">
+      <c r="B59" s="375" t="s">
         <v>301</v>
       </c>
-      <c r="C59" s="299"/>
+      <c r="C59" s="376"/>
     </row>
     <row r="60" spans="1:47" ht="16" customHeight="1" thickBot="1">
       <c r="A60" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="B60" s="299"/>
-      <c r="C60" s="271"/>
+      <c r="B60" s="376"/>
+      <c r="C60" s="377"/>
       <c r="L60" s="250"/>
     </row>
     <row r="61" spans="1:47" ht="15" customHeight="1">
       <c r="B61" s="38"/>
       <c r="C61" s="68"/>
-      <c r="N61" s="365" t="s">
+      <c r="N61" s="303" t="s">
         <v>729</v>
       </c>
-      <c r="O61" s="366"/>
-      <c r="P61" s="367"/>
-      <c r="Q61" s="358"/>
-      <c r="R61" s="358"/>
-      <c r="S61" s="359"/>
-      <c r="T61" s="359"/>
+      <c r="O61" s="304"/>
+      <c r="P61" s="305"/>
+      <c r="Q61" s="252"/>
+      <c r="R61" s="252"/>
+      <c r="S61" s="253"/>
+      <c r="T61" s="253"/>
       <c r="U61" s="71"/>
-      <c r="V61" s="334" t="s">
+      <c r="V61" s="288" t="s">
         <v>713</v>
       </c>
-      <c r="W61" s="335"/>
-      <c r="X61" s="336"/>
+      <c r="W61" s="289"/>
+      <c r="X61" s="290"/>
       <c r="AA61" s="71"/>
       <c r="AB61" s="71"/>
-      <c r="AE61" s="334" t="s">
+      <c r="AE61" s="288" t="s">
         <v>730</v>
       </c>
-      <c r="AF61" s="335"/>
-      <c r="AG61" s="336"/>
+      <c r="AF61" s="289"/>
+      <c r="AG61" s="290"/>
       <c r="AJ61" s="71"/>
       <c r="AK61" s="71"/>
-      <c r="AO61" s="365" t="s">
+      <c r="AO61" s="303" t="s">
         <v>729</v>
       </c>
-      <c r="AP61" s="366"/>
-      <c r="AQ61" s="367"/>
-      <c r="AR61" s="358"/>
-      <c r="AS61" s="358"/>
-      <c r="AT61" s="359"/>
-      <c r="AU61" s="359"/>
+      <c r="AP61" s="304"/>
+      <c r="AQ61" s="305"/>
+      <c r="AR61" s="252"/>
+      <c r="AS61" s="252"/>
+      <c r="AT61" s="253"/>
+      <c r="AU61" s="253"/>
     </row>
     <row r="62" spans="1:47" ht="15" customHeight="1" thickBot="1">
-      <c r="B62" s="268" t="s">
+      <c r="B62" s="375" t="s">
         <v>338</v>
       </c>
-      <c r="C62" s="269"/>
-      <c r="N62" s="368"/>
-      <c r="O62" s="369"/>
-      <c r="P62" s="370"/>
-      <c r="Q62" s="358"/>
-      <c r="R62" s="358"/>
-      <c r="S62" s="359"/>
-      <c r="T62" s="359"/>
+      <c r="C62" s="385"/>
+      <c r="N62" s="306"/>
+      <c r="O62" s="307"/>
+      <c r="P62" s="308"/>
+      <c r="Q62" s="252"/>
+      <c r="R62" s="252"/>
+      <c r="S62" s="253"/>
+      <c r="T62" s="253"/>
       <c r="U62" s="71"/>
-      <c r="V62" s="337"/>
-      <c r="W62" s="338"/>
-      <c r="X62" s="339"/>
+      <c r="V62" s="291"/>
+      <c r="W62" s="292"/>
+      <c r="X62" s="293"/>
       <c r="AA62" s="71"/>
       <c r="AB62" s="71"/>
-      <c r="AE62" s="337"/>
-      <c r="AF62" s="338"/>
-      <c r="AG62" s="339"/>
+      <c r="AE62" s="291"/>
+      <c r="AF62" s="292"/>
+      <c r="AG62" s="293"/>
       <c r="AJ62" s="71"/>
       <c r="AK62" s="71"/>
-      <c r="AO62" s="368"/>
-      <c r="AP62" s="369"/>
-      <c r="AQ62" s="370"/>
-      <c r="AR62" s="358"/>
-      <c r="AS62" s="358"/>
-      <c r="AT62" s="359"/>
-      <c r="AU62" s="359"/>
+      <c r="AO62" s="306"/>
+      <c r="AP62" s="307"/>
+      <c r="AQ62" s="308"/>
+      <c r="AR62" s="252"/>
+      <c r="AS62" s="252"/>
+      <c r="AT62" s="253"/>
+      <c r="AU62" s="253"/>
     </row>
     <row r="63" spans="1:47" ht="61" thickBot="1">
-      <c r="B63" s="270"/>
-      <c r="C63" s="271"/>
-      <c r="N63" s="360"/>
-      <c r="O63" s="361" t="s">
+      <c r="B63" s="386"/>
+      <c r="C63" s="377"/>
+      <c r="N63" s="254"/>
+      <c r="O63" s="255" t="s">
         <v>700</v>
       </c>
-      <c r="P63" s="361" t="s">
+      <c r="P63" s="255" t="s">
         <v>176</v>
       </c>
-      <c r="Q63" s="362" t="s">
+      <c r="Q63" s="256" t="s">
         <v>131</v>
       </c>
-      <c r="R63" s="362" t="s">
+      <c r="R63" s="256" t="s">
         <v>155</v>
       </c>
-      <c r="S63" s="362" t="s">
+      <c r="S63" s="256" t="s">
         <v>152</v>
       </c>
-      <c r="T63" s="362" t="s">
+      <c r="T63" s="256" t="s">
         <v>701</v>
       </c>
       <c r="U63" s="204"/>
@@ -33163,23 +33568,23 @@
       <c r="AL63" s="246" t="s">
         <v>701</v>
       </c>
-      <c r="AO63" s="360"/>
-      <c r="AP63" s="361" t="s">
+      <c r="AO63" s="254"/>
+      <c r="AP63" s="255" t="s">
         <v>700</v>
       </c>
-      <c r="AQ63" s="361" t="s">
+      <c r="AQ63" s="255" t="s">
         <v>176</v>
       </c>
-      <c r="AR63" s="362" t="s">
+      <c r="AR63" s="256" t="s">
         <v>741</v>
       </c>
-      <c r="AS63" s="362" t="s">
+      <c r="AS63" s="256" t="s">
         <v>742</v>
       </c>
-      <c r="AT63" s="362" t="s">
+      <c r="AT63" s="256" t="s">
         <v>152</v>
       </c>
-      <c r="AU63" s="398" t="s">
+      <c r="AU63" s="278" t="s">
         <v>701</v>
       </c>
     </row>
@@ -33194,25 +33599,25 @@
       <c r="J64" s="69"/>
       <c r="K64" s="69"/>
       <c r="L64" s="70"/>
-      <c r="N64" s="360" t="s">
+      <c r="N64" s="254" t="s">
         <v>728</v>
       </c>
-      <c r="O64" s="363">
+      <c r="O64" s="257">
         <v>0.21</v>
       </c>
-      <c r="P64" s="363">
+      <c r="P64" s="257">
         <v>0.01</v>
       </c>
-      <c r="Q64" s="363">
+      <c r="Q64" s="257">
         <v>0.49</v>
       </c>
-      <c r="R64" s="363">
+      <c r="R64" s="257">
         <v>0.87</v>
       </c>
-      <c r="S64" s="363">
+      <c r="S64" s="257">
         <v>0.01</v>
       </c>
-      <c r="T64" s="363">
+      <c r="T64" s="257">
         <v>0.4</v>
       </c>
       <c r="U64" s="206"/>
@@ -33261,64 +33666,64 @@
       <c r="AL64" s="211">
         <v>0.4</v>
       </c>
-      <c r="AO64" s="360" t="s">
+      <c r="AO64" s="254" t="s">
         <v>728</v>
       </c>
-      <c r="AP64" s="363">
+      <c r="AP64" s="257">
         <v>0.21</v>
       </c>
-      <c r="AQ64" s="363">
+      <c r="AQ64" s="257">
         <v>0.01</v>
       </c>
-      <c r="AR64" s="363">
+      <c r="AR64" s="257">
         <v>0.49</v>
       </c>
-      <c r="AS64" s="363">
+      <c r="AS64" s="257">
         <v>0.87</v>
       </c>
-      <c r="AT64" s="363">
+      <c r="AT64" s="257">
         <v>0.01</v>
       </c>
-      <c r="AU64" s="399">
+      <c r="AU64" s="279">
         <v>0.4</v>
       </c>
     </row>
     <row r="65" spans="2:47" ht="44" customHeight="1" thickBot="1">
-      <c r="B65" s="290" t="s">
+      <c r="B65" s="363" t="s">
         <v>336</v>
       </c>
-      <c r="C65" s="295"/>
+      <c r="C65" s="369"/>
       <c r="D65" s="47"/>
-      <c r="E65" s="264" t="s">
+      <c r="E65" s="370" t="s">
         <v>339</v>
       </c>
-      <c r="F65" s="296"/>
-      <c r="G65" s="296"/>
-      <c r="H65" s="296"/>
-      <c r="I65" s="296"/>
-      <c r="J65" s="296"/>
-      <c r="K65" s="296"/>
-      <c r="L65" s="265"/>
+      <c r="F65" s="371"/>
+      <c r="G65" s="371"/>
+      <c r="H65" s="371"/>
+      <c r="I65" s="371"/>
+      <c r="J65" s="371"/>
+      <c r="K65" s="371"/>
+      <c r="L65" s="372"/>
       <c r="M65" s="47"/>
-      <c r="N65" s="364" t="s">
+      <c r="N65" s="258" t="s">
         <v>726</v>
       </c>
-      <c r="O65" s="371">
+      <c r="O65" s="259">
         <v>0.22370000000000001</v>
       </c>
-      <c r="P65" s="372">
+      <c r="P65" s="260">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="Q65" s="371">
+      <c r="Q65" s="259">
         <v>0.43380000000000002</v>
       </c>
-      <c r="R65" s="371">
+      <c r="R65" s="259">
         <v>0.92589999999999995</v>
       </c>
-      <c r="S65" s="372">
+      <c r="S65" s="260">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="T65" s="371">
+      <c r="T65" s="259">
         <v>0.376</v>
       </c>
       <c r="U65" s="206"/>
@@ -33328,16 +33733,16 @@
       <c r="W65" s="240">
         <v>0.224</v>
       </c>
-      <c r="X65" s="385">
+      <c r="X65" s="343">
         <v>2.7E-2</v>
       </c>
-      <c r="Y65" s="386">
+      <c r="Y65" s="270">
         <v>0.46400000000000002</v>
       </c>
       <c r="Z65" s="240">
         <v>0.82699999999999996</v>
       </c>
-      <c r="AA65" s="385">
+      <c r="AA65" s="343">
         <v>2.1700000000000001E-3</v>
       </c>
       <c r="AB65" s="240">
@@ -33358,32 +33763,32 @@
       <c r="AI65" s="239">
         <v>0.92589999999999995</v>
       </c>
-      <c r="AJ65" s="321">
+      <c r="AJ65" s="294">
         <v>2.1700000000000001E-3</v>
       </c>
       <c r="AK65" s="239"/>
       <c r="AL65" s="239">
         <v>0.39419999999999999</v>
       </c>
-      <c r="AO65" s="397" t="s">
+      <c r="AO65" s="277" t="s">
         <v>743</v>
       </c>
-      <c r="AP65" s="400">
-        <v>0.22370000000000001</v>
-      </c>
-      <c r="AQ65" s="401">
+      <c r="AP65" s="280">
+        <v>0.246</v>
+      </c>
+      <c r="AQ65" s="281">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="AR65" s="400">
+      <c r="AR65" s="403">
         <v>0.43380000000000002</v>
       </c>
-      <c r="AS65" s="400">
+      <c r="AS65" s="403">
         <v>0.92589999999999995</v>
       </c>
-      <c r="AT65" s="401">
+      <c r="AT65" s="281">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="AU65" s="402">
+      <c r="AU65" s="282">
         <v>0.376</v>
       </c>
     </row>
@@ -33401,22 +33806,22 @@
       <c r="N66" s="208" t="s">
         <v>727</v>
       </c>
-      <c r="O66" s="373">
+      <c r="O66" s="261">
         <v>0.41049999999999998</v>
       </c>
-      <c r="P66" s="374">
+      <c r="P66" s="262">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="Q66" s="373">
+      <c r="Q66" s="261">
         <v>0.65439999999999998</v>
       </c>
-      <c r="R66" s="373">
+      <c r="R66" s="261">
         <v>1</v>
       </c>
-      <c r="S66" s="374">
+      <c r="S66" s="262">
         <v>2.1700000000000001E-3</v>
       </c>
-      <c r="T66" s="373">
+      <c r="T66" s="261">
         <v>0.36919999999999997</v>
       </c>
       <c r="U66" s="207"/>
@@ -33426,14 +33831,14 @@
       <c r="W66" s="211">
         <v>0.41</v>
       </c>
-      <c r="X66" s="387"/>
+      <c r="X66" s="344"/>
       <c r="Y66" s="211">
         <v>0.69899999999999995</v>
       </c>
       <c r="Z66" s="211">
         <v>1</v>
       </c>
-      <c r="AA66" s="387"/>
+      <c r="AA66" s="344"/>
       <c r="AB66" s="211">
         <v>0.36940000000000001</v>
       </c>
@@ -33452,17 +33857,17 @@
       <c r="AI66" s="248">
         <v>1</v>
       </c>
-      <c r="AJ66" s="323"/>
+      <c r="AJ66" s="295"/>
       <c r="AK66" s="247"/>
       <c r="AL66" s="247">
         <v>0.36399999999999999</v>
       </c>
     </row>
     <row r="67" spans="2:47" ht="14" customHeight="1" thickBot="1">
-      <c r="B67" s="290" t="s">
+      <c r="B67" s="363" t="s">
         <v>337</v>
       </c>
-      <c r="C67" s="291"/>
+      <c r="C67" s="364"/>
       <c r="E67" s="69"/>
       <c r="F67" s="69"/>
       <c r="G67" s="69"/>
@@ -33486,19 +33891,19 @@
       <c r="Z67" s="17"/>
       <c r="AA67" s="71"/>
       <c r="AB67" s="207"/>
-      <c r="AE67" s="353" t="s">
+      <c r="AE67" s="296" t="s">
         <v>734</v>
       </c>
-      <c r="AH67" s="321">
+      <c r="AH67" s="294">
         <v>0.34</v>
       </c>
-      <c r="AL67" s="354">
+      <c r="AL67" s="286">
         <v>0.39300000000000002</v>
       </c>
     </row>
     <row r="68" spans="2:47" ht="55" customHeight="1" thickBot="1">
-      <c r="B68" s="258"/>
-      <c r="C68" s="292"/>
+      <c r="B68" s="365"/>
+      <c r="C68" s="366"/>
       <c r="E68" s="70"/>
       <c r="F68" s="70"/>
       <c r="G68" s="70"/>
@@ -33550,13 +33955,13 @@
       <c r="AB68" s="209" t="s">
         <v>701</v>
       </c>
-      <c r="AE68" s="322"/>
-      <c r="AH68" s="323"/>
-      <c r="AL68" s="355"/>
+      <c r="AE68" s="297"/>
+      <c r="AH68" s="295"/>
+      <c r="AL68" s="287"/>
     </row>
     <row r="69" spans="2:47" ht="16" thickBot="1">
-      <c r="B69" s="293"/>
-      <c r="C69" s="294"/>
+      <c r="B69" s="367"/>
+      <c r="C69" s="368"/>
       <c r="N69" s="210" t="s">
         <v>702</v>
       </c>
@@ -33600,13 +34005,13 @@
       <c r="AB69" s="211">
         <v>0.4</v>
       </c>
-      <c r="AE69" s="353" t="s">
+      <c r="AE69" s="296" t="s">
         <v>735</v>
       </c>
-      <c r="AH69" s="321">
+      <c r="AH69" s="294">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="AL69" s="354">
+      <c r="AL69" s="286">
         <v>0.378</v>
       </c>
     </row>
@@ -33617,12 +34022,12 @@
       <c r="O70" s="234">
         <v>0.23769999999999999</v>
       </c>
-      <c r="P70" s="375">
+      <c r="P70" s="329">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="Q70" s="376"/>
-      <c r="R70" s="377"/>
-      <c r="S70" s="375">
+      <c r="Q70" s="263"/>
+      <c r="R70" s="264"/>
+      <c r="S70" s="329">
         <v>2.1700000000000001E-3</v>
       </c>
       <c r="T70" s="234">
@@ -33633,37 +34038,37 @@
         <v>703</v>
       </c>
       <c r="W70" s="241"/>
-      <c r="X70" s="340"/>
-      <c r="Y70" s="388">
+      <c r="X70" s="309"/>
+      <c r="Y70" s="271">
         <v>0.438</v>
       </c>
       <c r="Z70" s="234">
         <v>0.92589999999999995</v>
       </c>
-      <c r="AA70" s="389"/>
+      <c r="AA70" s="312"/>
       <c r="AB70" s="234">
         <v>0.376</v>
       </c>
-      <c r="AE70" s="322"/>
-      <c r="AH70" s="323"/>
-      <c r="AL70" s="355"/>
+      <c r="AE70" s="297"/>
+      <c r="AH70" s="295"/>
+      <c r="AL70" s="287"/>
     </row>
     <row r="71" spans="2:47" ht="15" customHeight="1" thickBot="1">
       <c r="N71" s="215"/>
-      <c r="O71" s="378"/>
-      <c r="P71" s="379"/>
+      <c r="O71" s="265"/>
+      <c r="P71" s="330"/>
       <c r="Q71" s="232"/>
-      <c r="R71" s="380"/>
-      <c r="S71" s="379"/>
-      <c r="T71" s="378"/>
+      <c r="R71" s="266"/>
+      <c r="S71" s="330"/>
+      <c r="T71" s="265"/>
       <c r="U71" s="207"/>
       <c r="V71" s="237"/>
       <c r="W71" s="237"/>
-      <c r="X71" s="341"/>
+      <c r="X71" s="310"/>
       <c r="Y71" s="217"/>
-      <c r="Z71" s="378"/>
-      <c r="AA71" s="390"/>
-      <c r="AB71" s="378"/>
+      <c r="Z71" s="265"/>
+      <c r="AA71" s="313"/>
+      <c r="AB71" s="265"/>
     </row>
     <row r="72" spans="2:47" ht="46" thickBot="1">
       <c r="N72" s="215" t="s">
@@ -33672,10 +34077,10 @@
       <c r="O72" s="217">
         <v>0.43630000000000002</v>
       </c>
-      <c r="P72" s="381"/>
+      <c r="P72" s="331"/>
       <c r="Q72" s="232"/>
       <c r="R72" s="232"/>
-      <c r="S72" s="381"/>
+      <c r="S72" s="331"/>
       <c r="T72" s="217">
         <v>0.36980000000000002</v>
       </c>
@@ -33684,22 +34089,22 @@
         <v>704</v>
       </c>
       <c r="W72" s="236"/>
-      <c r="X72" s="342"/>
+      <c r="X72" s="311"/>
       <c r="Y72" s="217">
         <v>0.65400000000000003</v>
       </c>
       <c r="Z72" s="217">
         <v>1</v>
       </c>
-      <c r="AA72" s="391"/>
+      <c r="AA72" s="314"/>
       <c r="AB72" s="217">
         <v>0.36899999999999999</v>
       </c>
-      <c r="AF72" s="347" t="s">
+      <c r="AF72" s="317" t="s">
         <v>724</v>
       </c>
-      <c r="AG72" s="348"/>
-      <c r="AH72" s="349"/>
+      <c r="AG72" s="318"/>
+      <c r="AH72" s="319"/>
     </row>
     <row r="73" spans="2:47" ht="16" customHeight="1" thickBot="1">
       <c r="N73" s="17"/>
@@ -33712,9 +34117,9 @@
       <c r="U73" s="205"/>
       <c r="V73" s="205"/>
       <c r="W73" s="205"/>
-      <c r="AF73" s="350"/>
-      <c r="AG73" s="351"/>
-      <c r="AH73" s="352"/>
+      <c r="AF73" s="320"/>
+      <c r="AG73" s="321"/>
+      <c r="AH73" s="322"/>
     </row>
     <row r="74" spans="2:47" ht="46" thickBot="1">
       <c r="N74" s="218" t="s">
@@ -33865,12 +34270,12 @@
       <c r="O76" s="234">
         <v>0.22</v>
       </c>
-      <c r="P76" s="375">
+      <c r="P76" s="329">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="Q76" s="376"/>
-      <c r="R76" s="377"/>
-      <c r="S76" s="375">
+      <c r="Q76" s="263"/>
+      <c r="R76" s="264"/>
+      <c r="S76" s="329">
         <v>2.1700000000000001E-3</v>
       </c>
       <c r="T76" s="234">
@@ -33881,15 +34286,15 @@
         <v>703</v>
       </c>
       <c r="W76" s="241"/>
-      <c r="X76" s="340"/>
-      <c r="Y76" s="388">
+      <c r="X76" s="309"/>
+      <c r="Y76" s="271">
         <v>0.46700000000000003</v>
       </c>
       <c r="Z76" s="234">
         <v>0.59699999999999998</v>
       </c>
-      <c r="AA76" s="389"/>
-      <c r="AB76" s="392">
+      <c r="AA76" s="312"/>
+      <c r="AB76" s="272">
         <v>0.28289999999999998</v>
       </c>
       <c r="AF76" s="235" t="s">
@@ -33898,16 +34303,16 @@
       <c r="AG76" s="233">
         <v>0.22339999999999999</v>
       </c>
-      <c r="AH76" s="313">
+      <c r="AH76" s="298">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="AI76" s="395">
+      <c r="AI76" s="275">
         <v>0.46700000000000003</v>
       </c>
       <c r="AJ76" s="233">
         <v>0.59699999999999998</v>
       </c>
-      <c r="AK76" s="313">
+      <c r="AK76" s="298">
         <v>2.1700000000000001E-3</v>
       </c>
       <c r="AL76" s="233">
@@ -33919,26 +34324,26 @@
     </row>
     <row r="77" spans="2:47" ht="16" thickBot="1">
       <c r="N77" s="215"/>
-      <c r="O77" s="378"/>
-      <c r="P77" s="379"/>
+      <c r="O77" s="265"/>
+      <c r="P77" s="330"/>
       <c r="Q77" s="232"/>
-      <c r="R77" s="380"/>
-      <c r="S77" s="379"/>
-      <c r="T77" s="378"/>
+      <c r="R77" s="266"/>
+      <c r="S77" s="330"/>
+      <c r="T77" s="265"/>
       <c r="U77" s="17"/>
       <c r="V77" s="237"/>
       <c r="W77" s="237"/>
-      <c r="X77" s="341"/>
+      <c r="X77" s="310"/>
       <c r="Y77" s="217"/>
-      <c r="Z77" s="378"/>
-      <c r="AA77" s="390"/>
-      <c r="AB77" s="378"/>
+      <c r="Z77" s="265"/>
+      <c r="AA77" s="313"/>
+      <c r="AB77" s="265"/>
       <c r="AF77" s="237"/>
       <c r="AG77" s="215"/>
-      <c r="AH77" s="316"/>
-      <c r="AI77" s="396"/>
+      <c r="AH77" s="299"/>
+      <c r="AI77" s="276"/>
       <c r="AJ77" s="215"/>
-      <c r="AK77" s="314"/>
+      <c r="AK77" s="301"/>
       <c r="AL77" s="215"/>
       <c r="AN77" s="215"/>
     </row>
@@ -33949,10 +34354,10 @@
       <c r="O78" s="217">
         <v>0.41</v>
       </c>
-      <c r="P78" s="381"/>
+      <c r="P78" s="331"/>
       <c r="Q78" s="232"/>
       <c r="R78" s="232"/>
-      <c r="S78" s="381"/>
+      <c r="S78" s="331"/>
       <c r="T78" s="217">
         <v>0.36799999999999999</v>
       </c>
@@ -33961,14 +34366,14 @@
         <v>704</v>
       </c>
       <c r="W78" s="236"/>
-      <c r="X78" s="342"/>
+      <c r="X78" s="311"/>
       <c r="Y78" s="217">
         <v>0.70399999999999996</v>
       </c>
       <c r="Z78" s="217">
         <v>1</v>
       </c>
-      <c r="AA78" s="391"/>
+      <c r="AA78" s="314"/>
       <c r="AB78" s="217">
         <v>0.37</v>
       </c>
@@ -33978,14 +34383,14 @@
       <c r="AG78" s="216">
         <v>0.41</v>
       </c>
-      <c r="AH78" s="317"/>
+      <c r="AH78" s="300"/>
       <c r="AI78" s="216">
         <v>0.70469999999999999</v>
       </c>
       <c r="AJ78" s="217">
         <v>1</v>
       </c>
-      <c r="AK78" s="315"/>
+      <c r="AK78" s="302"/>
       <c r="AL78" s="216">
         <v>0.36799999999999999</v>
       </c>
@@ -34139,12 +34544,12 @@
       <c r="O82" s="234">
         <v>0.25</v>
       </c>
-      <c r="P82" s="375">
+      <c r="P82" s="329">
         <v>5.79E-2</v>
       </c>
-      <c r="Q82" s="382"/>
-      <c r="R82" s="383"/>
-      <c r="S82" s="375">
+      <c r="Q82" s="267"/>
+      <c r="R82" s="268"/>
+      <c r="S82" s="329">
         <v>2.1700000000000001E-3</v>
       </c>
       <c r="T82" s="234">
@@ -34154,15 +34559,15 @@
         <v>703</v>
       </c>
       <c r="W82" s="241"/>
-      <c r="X82" s="340"/>
-      <c r="Y82" s="388">
+      <c r="X82" s="309"/>
+      <c r="Y82" s="271">
         <v>0.4</v>
       </c>
       <c r="Z82" s="234">
         <v>1</v>
       </c>
-      <c r="AA82" s="389"/>
-      <c r="AB82" s="392">
+      <c r="AA82" s="312"/>
+      <c r="AB82" s="272">
         <v>0.39300000000000002</v>
       </c>
       <c r="AF82" s="235" t="s">
@@ -34171,16 +34576,16 @@
       <c r="AG82" s="233">
         <v>0.251</v>
       </c>
-      <c r="AH82" s="313">
+      <c r="AH82" s="298">
         <v>5.79E-2</v>
       </c>
-      <c r="AI82" s="395">
+      <c r="AI82" s="275">
         <v>0.40400000000000003</v>
       </c>
       <c r="AJ82" s="233">
         <v>1</v>
       </c>
-      <c r="AK82" s="313">
+      <c r="AK82" s="298">
         <v>2.1700000000000001E-3</v>
       </c>
       <c r="AL82" s="233">
@@ -34192,25 +34597,25 @@
     </row>
     <row r="83" spans="14:40" ht="16" thickBot="1">
       <c r="N83" s="215"/>
-      <c r="O83" s="378"/>
-      <c r="P83" s="379"/>
+      <c r="O83" s="265"/>
+      <c r="P83" s="330"/>
       <c r="Q83" s="238"/>
-      <c r="R83" s="384"/>
-      <c r="S83" s="379"/>
-      <c r="T83" s="378"/>
+      <c r="R83" s="269"/>
+      <c r="S83" s="330"/>
+      <c r="T83" s="265"/>
       <c r="V83" s="237"/>
       <c r="W83" s="237"/>
-      <c r="X83" s="341"/>
+      <c r="X83" s="310"/>
       <c r="Y83" s="217"/>
-      <c r="Z83" s="378"/>
-      <c r="AA83" s="390"/>
-      <c r="AB83" s="378"/>
+      <c r="Z83" s="265"/>
+      <c r="AA83" s="313"/>
+      <c r="AB83" s="265"/>
       <c r="AF83" s="237"/>
       <c r="AG83" s="215"/>
-      <c r="AH83" s="316"/>
-      <c r="AI83" s="396"/>
+      <c r="AH83" s="299"/>
+      <c r="AI83" s="276"/>
       <c r="AJ83" s="215"/>
-      <c r="AK83" s="314"/>
+      <c r="AK83" s="301"/>
       <c r="AL83" s="215"/>
       <c r="AN83" s="215"/>
     </row>
@@ -34221,10 +34626,10 @@
       <c r="O84" s="217">
         <v>0.46</v>
       </c>
-      <c r="P84" s="381"/>
+      <c r="P84" s="331"/>
       <c r="Q84" s="238"/>
       <c r="R84" s="238"/>
-      <c r="S84" s="381"/>
+      <c r="S84" s="331"/>
       <c r="T84" s="217">
         <v>0.371</v>
       </c>
@@ -34232,14 +34637,14 @@
         <v>704</v>
       </c>
       <c r="W84" s="236"/>
-      <c r="X84" s="342"/>
+      <c r="X84" s="311"/>
       <c r="Y84" s="217">
         <v>0.60399999999999998</v>
       </c>
       <c r="Z84" s="217">
         <v>1</v>
       </c>
-      <c r="AA84" s="391"/>
+      <c r="AA84" s="314"/>
       <c r="AB84" s="217">
         <v>0.36199999999999999</v>
       </c>
@@ -34249,14 +34654,14 @@
       <c r="AG84" s="216">
         <v>0.46200000000000002</v>
       </c>
-      <c r="AH84" s="317"/>
+      <c r="AH84" s="300"/>
       <c r="AI84" s="216">
         <v>0.60399999999999998</v>
       </c>
       <c r="AJ84" s="217">
         <v>1</v>
       </c>
-      <c r="AK84" s="315"/>
+      <c r="AK84" s="302"/>
       <c r="AL84" s="216">
         <v>0.36399999999999999</v>
       </c>
@@ -34313,14 +34718,14 @@
         <v>703</v>
       </c>
       <c r="W88" s="241"/>
-      <c r="X88" s="340"/>
-      <c r="Y88" s="393">
+      <c r="X88" s="309"/>
+      <c r="Y88" s="273">
         <v>0.45879999999999999</v>
       </c>
       <c r="Z88" s="234">
         <v>0.92589999999999995</v>
       </c>
-      <c r="AA88" s="389"/>
+      <c r="AA88" s="312"/>
       <c r="AB88" s="234">
         <v>0.37569999999999998</v>
       </c>
@@ -34328,25 +34733,25 @@
     <row r="89" spans="14:40" ht="16" thickBot="1">
       <c r="V89" s="237"/>
       <c r="W89" s="237"/>
-      <c r="X89" s="343"/>
-      <c r="Y89" s="394"/>
-      <c r="Z89" s="378"/>
-      <c r="AA89" s="390"/>
-      <c r="AB89" s="378"/>
+      <c r="X89" s="315"/>
+      <c r="Y89" s="274"/>
+      <c r="Z89" s="265"/>
+      <c r="AA89" s="313"/>
+      <c r="AB89" s="265"/>
     </row>
     <row r="90" spans="14:40" ht="46" thickBot="1">
       <c r="V90" s="237" t="s">
         <v>704</v>
       </c>
       <c r="W90" s="236"/>
-      <c r="X90" s="344"/>
+      <c r="X90" s="316"/>
       <c r="Y90" s="217">
         <v>0.69210000000000005</v>
       </c>
       <c r="Z90" s="217">
         <v>1</v>
       </c>
-      <c r="AA90" s="391"/>
+      <c r="AA90" s="314"/>
       <c r="AB90" s="217">
         <v>0.36890000000000001</v>
       </c>
@@ -34403,14 +34808,14 @@
         <v>703</v>
       </c>
       <c r="W94" s="241"/>
-      <c r="X94" s="340"/>
-      <c r="Y94" s="393">
+      <c r="X94" s="309"/>
+      <c r="Y94" s="273">
         <v>0.40799999999999997</v>
       </c>
       <c r="Z94" s="234">
         <v>0.92589999999999995</v>
       </c>
-      <c r="AA94" s="389"/>
+      <c r="AA94" s="312"/>
       <c r="AB94" s="234">
         <v>0.37589</v>
       </c>
@@ -34418,79 +34823,66 @@
     <row r="95" spans="14:40" ht="16" thickBot="1">
       <c r="V95" s="237"/>
       <c r="W95" s="237"/>
-      <c r="X95" s="343"/>
-      <c r="Y95" s="394"/>
-      <c r="Z95" s="378"/>
-      <c r="AA95" s="390"/>
-      <c r="AB95" s="378"/>
+      <c r="X95" s="315"/>
+      <c r="Y95" s="274"/>
+      <c r="Z95" s="265"/>
+      <c r="AA95" s="313"/>
+      <c r="AB95" s="265"/>
     </row>
     <row r="96" spans="14:40" ht="46" thickBot="1">
       <c r="V96" s="237" t="s">
         <v>704</v>
       </c>
       <c r="W96" s="236"/>
-      <c r="X96" s="344"/>
+      <c r="X96" s="316"/>
       <c r="Y96" s="217">
         <v>0.61660000000000004</v>
       </c>
       <c r="Z96" s="217">
         <v>1</v>
       </c>
-      <c r="AA96" s="391"/>
+      <c r="AA96" s="314"/>
       <c r="AB96" s="217">
         <v>0.37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="AL69:AL70"/>
-    <mergeCell ref="AE61:AG62"/>
-    <mergeCell ref="AJ65:AJ66"/>
-    <mergeCell ref="AH67:AH68"/>
-    <mergeCell ref="AL67:AL68"/>
-    <mergeCell ref="AE67:AE68"/>
-    <mergeCell ref="AH76:AH78"/>
-    <mergeCell ref="AK76:AK78"/>
-    <mergeCell ref="AO61:AQ62"/>
-    <mergeCell ref="AH82:AH84"/>
-    <mergeCell ref="AK82:AK84"/>
-    <mergeCell ref="X82:X84"/>
-    <mergeCell ref="AA82:AA84"/>
-    <mergeCell ref="X88:X90"/>
-    <mergeCell ref="AA88:AA90"/>
-    <mergeCell ref="X94:X96"/>
-    <mergeCell ref="AA94:AA96"/>
-    <mergeCell ref="X70:X72"/>
-    <mergeCell ref="AA70:AA72"/>
-    <mergeCell ref="AF72:AH73"/>
-    <mergeCell ref="AE69:AE70"/>
-    <mergeCell ref="AH69:AH70"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="V61:X62"/>
-    <mergeCell ref="X76:X78"/>
-    <mergeCell ref="AA76:AA78"/>
-    <mergeCell ref="Q6:R17"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="P70:P72"/>
-    <mergeCell ref="S70:S72"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="N61:P62"/>
-    <mergeCell ref="S76:S78"/>
-    <mergeCell ref="P82:P84"/>
-    <mergeCell ref="S82:S84"/>
-    <mergeCell ref="P76:P78"/>
-    <mergeCell ref="Q49:AA55"/>
-    <mergeCell ref="O26:Q37"/>
-    <mergeCell ref="X65:X66"/>
-    <mergeCell ref="AA65:AA66"/>
-    <mergeCell ref="W41:X43"/>
-    <mergeCell ref="Q41:R42"/>
-    <mergeCell ref="N41:O43"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="T6:V17"/>
+    <mergeCell ref="T3:V4"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="X3:Y4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="E6:F18"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="T21:V22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="N21:O22"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="E36:F38"/>
     <mergeCell ref="H36:I38"/>
@@ -34513,43 +34905,56 @@
     <mergeCell ref="H41:I42"/>
     <mergeCell ref="B62:C63"/>
     <mergeCell ref="E46:F46"/>
+    <mergeCell ref="P82:P84"/>
+    <mergeCell ref="S82:S84"/>
+    <mergeCell ref="P76:P78"/>
+    <mergeCell ref="Q49:AA55"/>
+    <mergeCell ref="O26:Q37"/>
+    <mergeCell ref="X65:X66"/>
+    <mergeCell ref="AA65:AA66"/>
+    <mergeCell ref="W41:X43"/>
+    <mergeCell ref="Q41:R42"/>
+    <mergeCell ref="N41:O43"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="V61:X62"/>
+    <mergeCell ref="X76:X78"/>
+    <mergeCell ref="AA76:AA78"/>
+    <mergeCell ref="Q6:R17"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="P70:P72"/>
+    <mergeCell ref="S70:S72"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="N61:P62"/>
+    <mergeCell ref="S76:S78"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="T21:V22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="N21:O22"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="T6:V17"/>
-    <mergeCell ref="T3:V4"/>
-    <mergeCell ref="AA3:AB4"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="X3:Y4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="E6:F18"/>
+    <mergeCell ref="AH82:AH84"/>
+    <mergeCell ref="AK82:AK84"/>
+    <mergeCell ref="X82:X84"/>
+    <mergeCell ref="AA82:AA84"/>
+    <mergeCell ref="X88:X90"/>
+    <mergeCell ref="AA88:AA90"/>
+    <mergeCell ref="X94:X96"/>
+    <mergeCell ref="AA94:AA96"/>
+    <mergeCell ref="X70:X72"/>
+    <mergeCell ref="AA70:AA72"/>
+    <mergeCell ref="AF72:AH73"/>
+    <mergeCell ref="AE69:AE70"/>
+    <mergeCell ref="AH69:AH70"/>
+    <mergeCell ref="AL69:AL70"/>
+    <mergeCell ref="AE61:AG62"/>
+    <mergeCell ref="AJ65:AJ66"/>
+    <mergeCell ref="AH67:AH68"/>
+    <mergeCell ref="AL67:AL68"/>
+    <mergeCell ref="AE67:AE68"/>
+    <mergeCell ref="AH76:AH78"/>
+    <mergeCell ref="AK76:AK78"/>
+    <mergeCell ref="AO61:AQ62"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -34794,10 +35199,10 @@
       <c r="E1" s="51"/>
       <c r="F1" s="87"/>
       <c r="I1" s="76"/>
-      <c r="J1" s="356" t="s">
+      <c r="J1" s="401" t="s">
         <v>410</v>
       </c>
-      <c r="K1" s="356"/>
+      <c r="K1" s="401"/>
     </row>
     <row r="2" spans="2:14" ht="28">
       <c r="B2" s="51" t="s">
